--- a/ChemicalSummon/Assets/StreamingAssets/TranslatableSentence.xlsx
+++ b/ChemicalSummon/Assets/StreamingAssets/TranslatableSentence.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="41">
   <si>
     <t>ScriptableObjectName</t>
   </si>
@@ -120,6 +120,24 @@
   </si>
   <si>
     <t>投降</t>
+  </si>
+  <si>
+    <t>CheckFusion</t>
+  </si>
+  <si>
+    <t>查看融合</t>
+  </si>
+  <si>
+    <t>融合確認</t>
+  </si>
+  <si>
+    <t>Recycle</t>
+  </si>
+  <si>
+    <t>回收</t>
+  </si>
+  <si>
+    <t>回収</t>
   </si>
 </sst>
 </file>
@@ -127,12 +145,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -142,6 +160,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -149,20 +174,44 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -173,60 +222,6 @@
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -270,6 +265,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -301,13 +312,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -325,163 +480,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -506,21 +517,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -573,6 +569,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -597,148 +608,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1094,10 +1105,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
@@ -1126,7 +1137,6 @@
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2"/>
       <c r="C2" t="s">
         <v>5</v>
       </c>
@@ -1138,7 +1148,6 @@
       <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B3"/>
       <c r="C3" t="s">
         <v>8</v>
       </c>
@@ -1150,7 +1159,6 @@
       <c r="A4" t="s">
         <v>10</v>
       </c>
-      <c r="B4"/>
       <c r="C4" t="s">
         <v>11</v>
       </c>
@@ -1162,7 +1170,6 @@
       <c r="A5" t="s">
         <v>13</v>
       </c>
-      <c r="B5"/>
       <c r="C5" t="s">
         <v>14</v>
       </c>
@@ -1240,6 +1247,28 @@
       </c>
       <c r="D11" t="s">
         <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/ChemicalSummon/Assets/StreamingAssets/TranslatableSentence.xlsx
+++ b/ChemicalSummon/Assets/StreamingAssets/TranslatableSentence.xlsx
@@ -7,15 +7,16 @@
     <workbookView windowWidth="22368" windowHeight="9420"/>
   </bookViews>
   <sheets>
-    <sheet name="Match" sheetId="1" r:id="rId1"/>
-    <sheet name="MatchGuide" sheetId="2" r:id="rId2"/>
+    <sheet name="Title" sheetId="4" r:id="rId1"/>
+    <sheet name="Match" sheetId="1" r:id="rId2"/>
+    <sheet name="MatchGuide" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="60">
   <si>
     <t>ScriptableObjectName</t>
   </si>
@@ -29,13 +30,70 @@
     <t>Japanese</t>
   </si>
   <si>
-    <t>AttackTurn</t>
-  </si>
-  <si>
-    <t>我方攻击</t>
-  </si>
-  <si>
-    <t>攻撃ターン</t>
+    <t>GameName</t>
+  </si>
+  <si>
+    <t>ChemicalSummon</t>
+  </si>
+  <si>
+    <t>化学召唤</t>
+  </si>
+  <si>
+    <t>ケミカルサモン</t>
+  </si>
+  <si>
+    <t>ProducedBy</t>
+  </si>
+  <si>
+    <t>ChemicalSummon Production Team</t>
+  </si>
+  <si>
+    <t>化学召唤制作团队</t>
+  </si>
+  <si>
+    <t>ケミカルサモン制作チーム</t>
+  </si>
+  <si>
+    <t>NewGame</t>
+  </si>
+  <si>
+    <t>New Game</t>
+  </si>
+  <si>
+    <t>新游戏</t>
+  </si>
+  <si>
+    <t>ニューゲーム</t>
+  </si>
+  <si>
+    <t>LoadGame</t>
+  </si>
+  <si>
+    <t>Load Game</t>
+  </si>
+  <si>
+    <t>加载</t>
+  </si>
+  <si>
+    <t>ロード</t>
+  </si>
+  <si>
+    <t>Setting</t>
+  </si>
+  <si>
+    <t>设置</t>
+  </si>
+  <si>
+    <t>設定</t>
+  </si>
+  <si>
+    <t>Exit</t>
+  </si>
+  <si>
+    <t>退出</t>
+  </si>
+  <si>
+    <t>終了</t>
   </si>
   <si>
     <t>FusionTurn</t>
@@ -145,8 +203,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -159,6 +217,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -180,6 +246,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -187,34 +261,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -257,14 +324,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -273,31 +354,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -312,187 +370,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -503,6 +561,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -521,17 +594,28 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -550,21 +634,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -592,17 +661,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -611,10 +669,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -623,133 +681,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1105,9 +1163,131 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="6" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="29" customWidth="1"/>
+    <col min="2" max="2" width="40.1111111111111" customWidth="1"/>
+    <col min="3" max="3" width="32.4444444444444" customWidth="1"/>
+    <col min="4" max="4" width="34.5555555555556" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
@@ -1135,140 +1315,129 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>35</v>
+      </c>
+      <c r="B5" t="s">
+        <v>36</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="D6" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="D9" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="D10" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="D11" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="C12" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="D12" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1278,21 +1447,21 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="27.5555555555556" customWidth="1"/>
-    <col min="2" max="2" width="43.6666666666667" customWidth="1"/>
-    <col min="3" max="3" width="49" customWidth="1"/>
-    <col min="4" max="4" width="59.3333333333333" customWidth="1"/>
+    <col min="1" max="1" width="29" customWidth="1"/>
+    <col min="2" max="2" width="40.1111111111111" customWidth="1"/>
+    <col min="3" max="3" width="32.4444444444444" customWidth="1"/>
+    <col min="4" max="4" width="34.5555555555556" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1310,7 +1479,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/ChemicalSummon/Assets/StreamingAssets/TranslatableSentence.xlsx
+++ b/ChemicalSummon/Assets/StreamingAssets/TranslatableSentence.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420"/>
+    <workbookView windowWidth="22368" windowHeight="9420" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Title" sheetId="4" r:id="rId1"/>
     <sheet name="Match" sheetId="1" r:id="rId2"/>
     <sheet name="MatchGuide" sheetId="5" r:id="rId3"/>
+    <sheet name="Other" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="117">
   <si>
     <t>ScriptableObjectName</t>
   </si>
@@ -196,6 +197,177 @@
   </si>
   <si>
     <t>回収</t>
+  </si>
+  <si>
+    <t>Guide1-1</t>
+  </si>
+  <si>
+    <t>游戏会以【融合阶段】开始。你会初始拿到五张卡牌。</t>
+  </si>
+  <si>
+    <t>ゲームは「融合ターン」から始まる。最初は五枚のカードが配られる。</t>
+  </si>
+  <si>
+    <t>Guide1-2</t>
+  </si>
+  <si>
+    <t>融合阶段能自由替换格挡区的卡牌，叠加相同卡牌将增加攻击力（攻击力=防御力）。</t>
+  </si>
+  <si>
+    <t>融合ターンではシールドエリアを自由に入れ替えでき、同じカードを重ねれば攻撃力が上がる（攻撃力＝防御力）。</t>
+  </si>
+  <si>
+    <t>Guide1-3</t>
+  </si>
+  <si>
+    <t>其它卡牌能通过【融合】，发挥独特的效果。将在下回合介绍。</t>
+  </si>
+  <si>
+    <t>その他の物質は「融合」によって、独特の効果を発揮出来る。次のターンで説明する。</t>
+  </si>
+  <si>
+    <t>Guide1-4</t>
+  </si>
+  <si>
+    <t>第一回合还无法发动攻击。先按这里结束回合，等待对面的行动吧。</t>
+  </si>
+  <si>
+    <t>１ターン目ではまだ攻撃出来ない。先にターンを終了して、相手の行動を待とう。</t>
+  </si>
+  <si>
+    <t>Guide2-1</t>
+  </si>
+  <si>
+    <t>每次轮到自己回合补充一张卡牌。相同卡牌将在手牌内自动叠加。</t>
+  </si>
+  <si>
+    <t>自分のターンが来るたびに一枚のカードが配られる。同じ種類は手札で自動的に重ねられる。</t>
+  </si>
+  <si>
+    <t>Guide2-2</t>
+  </si>
+  <si>
+    <t>融合阶段时我们还能用融合攻击敌人。尝试用这些融合出【水(H2O)】。</t>
+  </si>
+  <si>
+    <t>融合ターンでは融合で相手を攻撃出来る。これらの素材で「水（H2O）」を融合してみよう。</t>
+  </si>
+  <si>
+    <t>Guide2-3</t>
+  </si>
+  <si>
+    <t>做的漂亮！接着让它与【钠(Na)】融合，发动爆炸反应吧。</t>
+  </si>
+  <si>
+    <t>素晴らしい！次に「ナトリウム（Na）」と融合させて、爆発反応を起こしてみよう。</t>
+  </si>
+  <si>
+    <t>Guide2-4</t>
+  </si>
+  <si>
+    <t>这就是爆炸反应。因为是全体伤害，便于穿透防御薄弱的区域。</t>
+  </si>
+  <si>
+    <t>これが爆発だ。全体攻撃なので、防御が薄いエリアを突くのに向いている。</t>
+  </si>
+  <si>
+    <t>Guide2-5</t>
+  </si>
+  <si>
+    <t>转移攻击姿态吧，可以使用【格挡区】的卡牌进行攻击了。</t>
+  </si>
+  <si>
+    <t>攻撃ターンに移行しよう,「シールドエリア」のカードで攻撃が可能だ。</t>
+  </si>
+  <si>
+    <t>Guide3-1</t>
+  </si>
+  <si>
+    <t>除全体攻击，敌方可以选择用哪张卡牌格挡。</t>
+  </si>
+  <si>
+    <t>全体攻撃を除き、敵はどのカードで防御するか選択出来る。</t>
+  </si>
+  <si>
+    <t>Guide3-2</t>
+  </si>
+  <si>
+    <t>因此，固体攻击要确保自己的攻击力总是高于对方。</t>
+  </si>
+  <si>
+    <t>そのため、固体攻撃は攻撃力が必ず相手を上回るように指示しよう。</t>
+  </si>
+  <si>
+    <t>Guide3-3</t>
+  </si>
+  <si>
+    <t>想要结束攻击可以在按这里，结束自己的回合。</t>
+  </si>
+  <si>
+    <t>攻撃を終了する時はここ押し、自分のターンを終える。</t>
+  </si>
+  <si>
+    <t>Guide4-1</t>
+  </si>
+  <si>
+    <t>对面攻击要来了！不过这个伤害看起来很高...这时候有另一种解决办法！</t>
+  </si>
+  <si>
+    <t>相手の攻撃だ！だがこの攻撃はかなり重たい…この場合は別の作戦がある！</t>
+  </si>
+  <si>
+    <t>Guide4-2</t>
+  </si>
+  <si>
+    <t>给你一些素材，你应该能看到【融合】按钮是发亮的。</t>
+  </si>
+  <si>
+    <t>素材を渡そう、「融合」ボタンが光った状態になっているはずだ。</t>
+  </si>
+  <si>
+    <t>Guide4-3</t>
+  </si>
+  <si>
+    <t>用【氧气(O2)】氧化对面的物质，发动【反击融合】吧！</t>
+  </si>
+  <si>
+    <t>「酸素（O2）」で相手の物質を酸化し、「カウンター融合」を発動しよう！</t>
+  </si>
+  <si>
+    <t>Guide4-4</t>
+  </si>
+  <si>
+    <t>像这样，攻击过来的固体作为融合素材，可无效攻击。</t>
+  </si>
+  <si>
+    <t>このように、攻撃してきた固体を融合素材にすることで、攻撃を無効化する技がある。</t>
+  </si>
+  <si>
+    <t>Guide4-5</t>
+  </si>
+  <si>
+    <t>反过来，自己的攻击也要注意不能被对方反击融合。</t>
+  </si>
+  <si>
+    <t>逆に、自分の攻撃もカウンターされないことに注意しながら行わなければならない。</t>
+  </si>
+  <si>
+    <t>Guide4-6</t>
+  </si>
+  <si>
+    <t>敌人打算用剩下所有兵力冲撞。用卡牌或者反击融合应战吧。</t>
+  </si>
+  <si>
+    <t>敵は総攻撃をするつもりのようだ。カードかカウンターで応戦しよう。</t>
+  </si>
+  <si>
+    <t>Guide5-1</t>
+  </si>
+  <si>
+    <t>引导结束！尝试用剩下的卡牌击破敌人吧！</t>
+  </si>
+  <si>
+    <t>ガイドはここまで！残りのカードで敵を撃破してみよう！</t>
   </si>
 </sst>
 </file>
@@ -203,9 +375,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -217,36 +389,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -261,17 +403,38 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -286,7 +449,62 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -300,27 +518,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -330,36 +532,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -370,187 +542,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -564,17 +736,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -596,10 +764,26 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -620,20 +804,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -652,15 +833,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -669,10 +841,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -681,133 +853,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1165,7 +1337,7 @@
   <sheetPr/>
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -1450,10 +1622,257 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:D20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="29" customWidth="1"/>
+    <col min="2" max="2" width="40.1111111111111" customWidth="1"/>
+    <col min="3" max="3" width="75.4444444444444" customWidth="1"/>
+    <col min="4" max="4" width="103.444444444444" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>81</v>
+      </c>
+      <c r="C9" t="s">
+        <v>82</v>
+      </c>
+      <c r="D9" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C10" t="s">
+        <v>85</v>
+      </c>
+      <c r="D10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>87</v>
+      </c>
+      <c r="C11" t="s">
+        <v>88</v>
+      </c>
+      <c r="D11" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>90</v>
+      </c>
+      <c r="C12" t="s">
+        <v>91</v>
+      </c>
+      <c r="D12" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>93</v>
+      </c>
+      <c r="C13" t="s">
+        <v>94</v>
+      </c>
+      <c r="D13" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>96</v>
+      </c>
+      <c r="C14" t="s">
+        <v>97</v>
+      </c>
+      <c r="D14" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>99</v>
+      </c>
+      <c r="C15" t="s">
+        <v>100</v>
+      </c>
+      <c r="D15" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>102</v>
+      </c>
+      <c r="C16" t="s">
+        <v>103</v>
+      </c>
+      <c r="D16" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>105</v>
+      </c>
+      <c r="C17" t="s">
+        <v>106</v>
+      </c>
+      <c r="D17" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>108</v>
+      </c>
+      <c r="C18" t="s">
+        <v>109</v>
+      </c>
+      <c r="D18" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>111</v>
+      </c>
+      <c r="C19" t="s">
+        <v>112</v>
+      </c>
+      <c r="D19" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>114</v>
+      </c>
+      <c r="C20" t="s">
+        <v>115</v>
+      </c>
+      <c r="D20" t="s">
+        <v>116</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>

--- a/ChemicalSummon/Assets/StreamingAssets/TranslatableSentence.xlsx
+++ b/ChemicalSummon/Assets/StreamingAssets/TranslatableSentence.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" activeTab="2"/>
+    <workbookView windowWidth="22368" windowHeight="9420" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Title" sheetId="4" r:id="rId1"/>
     <sheet name="Match" sheetId="1" r:id="rId2"/>
     <sheet name="MatchGuide" sheetId="5" r:id="rId3"/>
-    <sheet name="Other" sheetId="6" r:id="rId4"/>
+    <sheet name="Map" sheetId="7" r:id="rId4"/>
+    <sheet name="Other" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="139">
   <si>
     <t>ScriptableObjectName</t>
   </si>
@@ -368,6 +369,72 @@
   </si>
   <si>
     <t>ガイドはここまで！残りのカードで敵を撃破してみよう！</t>
+  </si>
+  <si>
+    <t>Item</t>
+  </si>
+  <si>
+    <t>道具</t>
+  </si>
+  <si>
+    <t>アイテム</t>
+  </si>
+  <si>
+    <t>Deck</t>
+  </si>
+  <si>
+    <t>卡组</t>
+  </si>
+  <si>
+    <t>デッキ</t>
+  </si>
+  <si>
+    <t>Reaction</t>
+  </si>
+  <si>
+    <t>反应式</t>
+  </si>
+  <si>
+    <t>反応式</t>
+  </si>
+  <si>
+    <t>Card</t>
+  </si>
+  <si>
+    <t>卡牌</t>
+  </si>
+  <si>
+    <t>カード</t>
+  </si>
+  <si>
+    <t>Character</t>
+  </si>
+  <si>
+    <t>角色</t>
+  </si>
+  <si>
+    <t>キャラクター</t>
+  </si>
+  <si>
+    <t>UnlockProgress</t>
+  </si>
+  <si>
+    <t>解锁进度</t>
+  </si>
+  <si>
+    <t>解放率</t>
+  </si>
+  <si>
+    <t>Requirement</t>
+  </si>
+  <si>
+    <t>素材</t>
+  </si>
+  <si>
+    <t>Product</t>
+  </si>
+  <si>
+    <t>生成</t>
   </si>
 </sst>
 </file>
@@ -375,9 +442,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -390,6 +457,27 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -398,6 +486,100 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -417,121 +599,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -542,187 +609,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -733,17 +800,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -765,8 +821,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -776,15 +847,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -804,17 +866,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -833,6 +889,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -841,10 +908,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -853,133 +920,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1624,7 +1691,7 @@
   <sheetPr/>
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -1867,6 +1934,132 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="29" customWidth="1"/>
+    <col min="2" max="2" width="40.1111111111111" customWidth="1"/>
+    <col min="3" max="3" width="32.4444444444444" customWidth="1"/>
+    <col min="4" max="4" width="34.5555555555556" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C4" t="s">
+        <v>124</v>
+      </c>
+      <c r="D4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>129</v>
+      </c>
+      <c r="C6" t="s">
+        <v>130</v>
+      </c>
+      <c r="D6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>132</v>
+      </c>
+      <c r="C7" t="s">
+        <v>133</v>
+      </c>
+      <c r="D7" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>135</v>
+      </c>
+      <c r="C8" t="s">
+        <v>136</v>
+      </c>
+      <c r="D8" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>137</v>
+      </c>
+      <c r="C9" t="s">
+        <v>138</v>
+      </c>
+      <c r="D9" t="s">
+        <v>138</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:D1"/>

--- a/ChemicalSummon/Assets/StreamingAssets/TranslatableSentence.xlsx
+++ b/ChemicalSummon/Assets/StreamingAssets/TranslatableSentence.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" activeTab="3"/>
+    <workbookView windowWidth="22368" windowHeight="9420" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Title" sheetId="4" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="161">
   <si>
     <t>ScriptableObjectName</t>
   </si>
@@ -198,6 +198,72 @@
   </si>
   <si>
     <t>回収</t>
+  </si>
+  <si>
+    <t>TurnEnd</t>
+  </si>
+  <si>
+    <t>StartAttack</t>
+  </si>
+  <si>
+    <t>PlayerBlock</t>
+  </si>
+  <si>
+    <t>玩家格挡</t>
+  </si>
+  <si>
+    <t>プレイヤーブロック</t>
+  </si>
+  <si>
+    <t>FirstMover</t>
+  </si>
+  <si>
+    <t>先手</t>
+  </si>
+  <si>
+    <t>SecondMover</t>
+  </si>
+  <si>
+    <t>后手</t>
+  </si>
+  <si>
+    <t>後手</t>
+  </si>
+  <si>
+    <t>Guess</t>
+  </si>
+  <si>
+    <t>Guess it!</t>
+  </si>
+  <si>
+    <t>猜一猜！</t>
+  </si>
+  <si>
+    <t>選べ！</t>
+  </si>
+  <si>
+    <t>PureElement</t>
+  </si>
+  <si>
+    <t>单质</t>
+  </si>
+  <si>
+    <t>単体</t>
+  </si>
+  <si>
+    <t>Compound</t>
+  </si>
+  <si>
+    <t>化合物</t>
+  </si>
+  <si>
+    <t>DecidingFirstMover</t>
+  </si>
+  <si>
+    <t>先手决定</t>
+  </si>
+  <si>
+    <t>先行決め</t>
   </si>
   <si>
     <t>Guide1-1</t>
@@ -442,9 +508,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -457,7 +523,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -471,14 +552,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -488,14 +570,6 @@
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -538,11 +612,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -571,21 +645,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -599,6 +658,13 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -609,181 +675,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -821,8 +887,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -838,6 +919,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -868,30 +958,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -908,10 +974,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -920,36 +986,33 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -959,94 +1022,97 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1524,10 +1590,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
@@ -1677,6 +1743,96 @@
       </c>
       <c r="D12" t="s">
         <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15" t="s">
+        <v>63</v>
+      </c>
+      <c r="D15" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" t="s">
+        <v>66</v>
+      </c>
+      <c r="D16" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>67</v>
+      </c>
+      <c r="C17" t="s">
+        <v>68</v>
+      </c>
+      <c r="D17" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>70</v>
+      </c>
+      <c r="B18" t="s">
+        <v>71</v>
+      </c>
+      <c r="C18" t="s">
+        <v>72</v>
+      </c>
+      <c r="D18" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>74</v>
+      </c>
+      <c r="C19" t="s">
+        <v>75</v>
+      </c>
+      <c r="D19" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>77</v>
+      </c>
+      <c r="C20" t="s">
+        <v>78</v>
+      </c>
+      <c r="D20" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>79</v>
+      </c>
+      <c r="C21" t="s">
+        <v>80</v>
+      </c>
+      <c r="D21" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -1719,211 +1875,211 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="C2" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="D2" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="C3" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="D3" t="s">
-        <v>65</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>66</v>
+        <v>88</v>
       </c>
       <c r="C4" t="s">
-        <v>67</v>
+        <v>89</v>
       </c>
       <c r="D4" t="s">
-        <v>68</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>69</v>
+        <v>91</v>
       </c>
       <c r="C5" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="D5" t="s">
-        <v>71</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="C6" t="s">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="D6" t="s">
-        <v>74</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="C7" t="s">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="D7" t="s">
-        <v>77</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="C8" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="D8" t="s">
-        <v>80</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="C9" t="s">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="D9" t="s">
-        <v>83</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>84</v>
+        <v>106</v>
       </c>
       <c r="C10" t="s">
-        <v>85</v>
+        <v>107</v>
       </c>
       <c r="D10" t="s">
-        <v>86</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>87</v>
+        <v>109</v>
       </c>
       <c r="C11" t="s">
-        <v>88</v>
+        <v>110</v>
       </c>
       <c r="D11" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="C12" t="s">
-        <v>91</v>
+        <v>113</v>
       </c>
       <c r="D12" t="s">
-        <v>92</v>
+        <v>114</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>93</v>
+        <v>115</v>
       </c>
       <c r="C13" t="s">
-        <v>94</v>
+        <v>116</v>
       </c>
       <c r="D13" t="s">
-        <v>95</v>
+        <v>117</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>96</v>
+        <v>118</v>
       </c>
       <c r="C14" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="D14" t="s">
-        <v>98</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>99</v>
+        <v>121</v>
       </c>
       <c r="C15" t="s">
-        <v>100</v>
+        <v>122</v>
       </c>
       <c r="D15" t="s">
-        <v>101</v>
+        <v>123</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>102</v>
+        <v>124</v>
       </c>
       <c r="C16" t="s">
-        <v>103</v>
+        <v>125</v>
       </c>
       <c r="D16" t="s">
-        <v>104</v>
+        <v>126</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>105</v>
+        <v>127</v>
       </c>
       <c r="C17" t="s">
-        <v>106</v>
+        <v>128</v>
       </c>
       <c r="D17" t="s">
-        <v>107</v>
+        <v>129</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>108</v>
+        <v>130</v>
       </c>
       <c r="C18" t="s">
-        <v>109</v>
+        <v>131</v>
       </c>
       <c r="D18" t="s">
-        <v>110</v>
+        <v>132</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>111</v>
+        <v>133</v>
       </c>
       <c r="C19" t="s">
-        <v>112</v>
+        <v>134</v>
       </c>
       <c r="D19" t="s">
-        <v>113</v>
+        <v>135</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>114</v>
+        <v>136</v>
       </c>
       <c r="C20" t="s">
-        <v>115</v>
+        <v>137</v>
       </c>
       <c r="D20" t="s">
-        <v>116</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -1938,8 +2094,8 @@
   <sheetPr/>
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
@@ -1966,90 +2122,90 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>117</v>
+        <v>139</v>
       </c>
       <c r="C2" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
       <c r="D2" t="s">
-        <v>119</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>120</v>
+        <v>142</v>
       </c>
       <c r="C3" t="s">
-        <v>121</v>
+        <v>143</v>
       </c>
       <c r="D3" t="s">
-        <v>122</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>123</v>
+        <v>145</v>
       </c>
       <c r="C4" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="D4" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>126</v>
+        <v>148</v>
       </c>
       <c r="C5" t="s">
-        <v>127</v>
+        <v>149</v>
       </c>
       <c r="D5" t="s">
-        <v>128</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>129</v>
+        <v>151</v>
       </c>
       <c r="C6" t="s">
-        <v>130</v>
+        <v>152</v>
       </c>
       <c r="D6" t="s">
-        <v>131</v>
+        <v>153</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>132</v>
+        <v>154</v>
       </c>
       <c r="C7" t="s">
-        <v>133</v>
+        <v>155</v>
       </c>
       <c r="D7" t="s">
-        <v>134</v>
+        <v>156</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>135</v>
+        <v>157</v>
       </c>
       <c r="C8" t="s">
-        <v>136</v>
+        <v>158</v>
       </c>
       <c r="D8" t="s">
-        <v>136</v>
+        <v>158</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>137</v>
+        <v>159</v>
       </c>
       <c r="C9" t="s">
-        <v>138</v>
+        <v>160</v>
       </c>
       <c r="D9" t="s">
-        <v>138</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>

--- a/ChemicalSummon/Assets/StreamingAssets/TranslatableSentence.xlsx
+++ b/ChemicalSummon/Assets/StreamingAssets/TranslatableSentence.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" activeTab="1"/>
+    <workbookView windowWidth="22368" windowHeight="9420" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Title" sheetId="4" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="173">
   <si>
     <t>ScriptableObjectName</t>
   </si>
@@ -501,6 +501,42 @@
   </si>
   <si>
     <t>生成</t>
+  </si>
+  <si>
+    <t>LeftClick</t>
+  </si>
+  <si>
+    <t>左键</t>
+  </si>
+  <si>
+    <t>左クリック</t>
+  </si>
+  <si>
+    <t>RightClick</t>
+  </si>
+  <si>
+    <t>右键</t>
+  </si>
+  <si>
+    <t>右クリック</t>
+  </si>
+  <si>
+    <t>AddCard</t>
+  </si>
+  <si>
+    <t>增加牌数</t>
+  </si>
+  <si>
+    <t>カード追加</t>
+  </si>
+  <si>
+    <t>RemoveCard</t>
+  </si>
+  <si>
+    <t>减少牌数</t>
+  </si>
+  <si>
+    <t>カード減少</t>
   </si>
 </sst>
 </file>
@@ -523,6 +559,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -530,15 +573,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -558,16 +593,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -576,6 +603,13 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -590,10 +624,26 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -612,16 +662,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -644,13 +694,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -658,13 +701,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -675,187 +711,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -893,21 +929,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -928,6 +949,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -974,10 +1010,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -986,133 +1022,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1592,8 +1628,8 @@
   <sheetPr/>
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
@@ -2092,10 +2128,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
@@ -2206,6 +2242,50 @@
       </c>
       <c r="D9" t="s">
         <v>160</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>161</v>
+      </c>
+      <c r="C10" t="s">
+        <v>162</v>
+      </c>
+      <c r="D10" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>164</v>
+      </c>
+      <c r="C11" t="s">
+        <v>165</v>
+      </c>
+      <c r="D11" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>167</v>
+      </c>
+      <c r="C12" t="s">
+        <v>168</v>
+      </c>
+      <c r="D12" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>170</v>
+      </c>
+      <c r="C13" t="s">
+        <v>171</v>
+      </c>
+      <c r="D13" t="s">
+        <v>172</v>
       </c>
     </row>
   </sheetData>

--- a/ChemicalSummon/Assets/StreamingAssets/TranslatableSentence.xlsx
+++ b/ChemicalSummon/Assets/StreamingAssets/TranslatableSentence.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="176">
   <si>
     <t>ScriptableObjectName</t>
   </si>
@@ -537,6 +537,15 @@
   </si>
   <si>
     <t>カード減少</t>
+  </si>
+  <si>
+    <t>CardCount</t>
+  </si>
+  <si>
+    <t>卡牌总数</t>
+  </si>
+  <si>
+    <t>カード数</t>
   </si>
 </sst>
 </file>
@@ -545,8 +554,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -573,7 +582,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -587,14 +603,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -603,13 +619,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -624,26 +633,10 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -679,8 +672,24 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -696,7 +705,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -711,31 +720,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -747,19 +846,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -771,127 +882,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -902,6 +911,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -916,15 +934,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -949,21 +958,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1002,6 +996,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1013,7 +1022,7 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1022,133 +1031,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2128,10 +2137,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
@@ -2286,6 +2295,17 @@
       </c>
       <c r="D13" t="s">
         <v>172</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>173</v>
+      </c>
+      <c r="C14" t="s">
+        <v>174</v>
+      </c>
+      <c r="D14" t="s">
+        <v>175</v>
       </c>
     </row>
   </sheetData>

--- a/ChemicalSummon/Assets/StreamingAssets/TranslatableSentence.xlsx
+++ b/ChemicalSummon/Assets/StreamingAssets/TranslatableSentence.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="182">
   <si>
     <t>ScriptableObjectName</t>
   </si>
@@ -473,6 +473,15 @@
     <t>カード</t>
   </si>
   <si>
+    <t>Debug</t>
+  </si>
+  <si>
+    <t>调试</t>
+  </si>
+  <si>
+    <t>デバッグ</t>
+  </si>
+  <si>
     <t>Character</t>
   </si>
   <si>
@@ -546,6 +555,15 @@
   </si>
   <si>
     <t>カード数</t>
+  </si>
+  <si>
+    <t>ClickAnyReaction</t>
+  </si>
+  <si>
+    <t>点击任意反应式</t>
+  </si>
+  <si>
+    <t>反応式をクリック</t>
   </si>
 </sst>
 </file>
@@ -553,10 +571,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -567,27 +585,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -603,7 +601,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -611,6 +616,21 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -679,6 +699,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -695,17 +722,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -720,187 +738,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -911,15 +929,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -934,6 +943,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -958,6 +982,15 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -996,21 +1029,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1019,10 +1037,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1031,16 +1049,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1052,10 +1070,10 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1076,88 +1094,88 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2137,10 +2155,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
@@ -2239,26 +2257,26 @@
         <v>158</v>
       </c>
       <c r="D8" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C9" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D9" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C10" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D10" t="s">
         <v>163</v>
@@ -2306,6 +2324,28 @@
       </c>
       <c r="D14" t="s">
         <v>175</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>176</v>
+      </c>
+      <c r="C15" t="s">
+        <v>177</v>
+      </c>
+      <c r="D15" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>179</v>
+      </c>
+      <c r="C16" t="s">
+        <v>180</v>
+      </c>
+      <c r="D16" t="s">
+        <v>181</v>
       </c>
     </row>
   </sheetData>

--- a/ChemicalSummon/Assets/StreamingAssets/TranslatableSentence.xlsx
+++ b/ChemicalSummon/Assets/StreamingAssets/TranslatableSentence.xlsx
@@ -4,21 +4,22 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" activeTab="3"/>
+    <workbookView windowWidth="22368" windowHeight="9420" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Title" sheetId="4" r:id="rId1"/>
     <sheet name="Match" sheetId="1" r:id="rId2"/>
     <sheet name="MatchGuide" sheetId="5" r:id="rId3"/>
     <sheet name="Map" sheetId="7" r:id="rId4"/>
-    <sheet name="Other" sheetId="6" r:id="rId5"/>
+    <sheet name="ChangeLog" sheetId="8" r:id="rId5"/>
+    <sheet name="Other" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="189">
   <si>
     <t>ScriptableObjectName</t>
   </si>
@@ -203,9 +204,21 @@
     <t>TurnEnd</t>
   </si>
   <si>
+    <t>回合结束</t>
+  </si>
+  <si>
+    <t>ターンエンド</t>
+  </si>
+  <si>
     <t>StartAttack</t>
   </si>
   <si>
+    <t>开始攻击</t>
+  </si>
+  <si>
+    <t>攻撃開始</t>
+  </si>
+  <si>
     <t>PlayerBlock</t>
   </si>
   <si>
@@ -564,6 +577,22 @@
   </si>
   <si>
     <t>反応式をクリック</t>
+  </si>
+  <si>
+    <t>ChangeLog</t>
+  </si>
+  <si>
+    <t>当前游戏为内测版!
+- 敌人未习得反击融合
+- 燃烧/电击伤害未实装
+* 作品中图片均未授权使用
+请不要二次转载!</t>
+  </si>
+  <si>
+    <t>この作品はアルファテスト中です！
+・敵はカウンターしてきません
+・燃焼/電撃が未実装です
+* 作品中のグラフィックは全て無断で使用しています。2次配布はご遠慮ください！</t>
   </si>
 </sst>
 </file>
@@ -571,10 +600,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -585,16 +614,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -608,13 +629,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -622,15 +636,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -699,6 +705,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -708,7 +723,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -723,6 +745,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -738,19 +767,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -762,163 +899,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -943,21 +972,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -989,15 +1003,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
@@ -1019,6 +1024,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1037,10 +1066,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1049,139 +1078,142 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1534,7 +1566,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="6" outlineLevelCol="3"/>
@@ -1655,8 +1687,8 @@
   <sheetPr/>
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
@@ -1808,94 +1840,106 @@
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="14" spans="1:1">
+      <c r="C13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>61</v>
+        <v>63</v>
+      </c>
+      <c r="C14" t="s">
+        <v>64</v>
+      </c>
+      <c r="D14" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C15" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D15" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C16" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D16" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C17" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D17" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B18" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C18" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D18" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C19" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D19" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C20" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D20" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C21" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D21" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -1938,211 +1982,211 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="D2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C3" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D3" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C4" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D4" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C5" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="D5" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C6" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D6" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C7" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D7" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C8" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="D8" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C9" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="D9" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C10" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D10" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="C11" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="D11" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C12" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="D12" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C13" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="D13" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C14" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="D14" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C15" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D15" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C16" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="D16" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="C17" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="D17" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="C18" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="D18" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="C19" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="D19" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="C20" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="D20" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -2157,8 +2201,8 @@
   <sheetPr/>
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
@@ -2185,167 +2229,167 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="C2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="D2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="C3" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="D3" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="C4" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="D4" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="C5" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="D5" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="C6" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="D6" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="C7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="D7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C8" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="D8" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="C9" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="D9" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="C10" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="D10" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="C11" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="D11" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="C12" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="D12" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="C13" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="D13" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="C14" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="D14" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="C15" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="D15" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="C16" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="D16" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
   </sheetData>
@@ -2356,6 +2400,55 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="29" customWidth="1"/>
+    <col min="2" max="2" width="40.1111111111111" customWidth="1"/>
+    <col min="3" max="3" width="32.4444444444444" customWidth="1"/>
+    <col min="4" max="4" width="34.5555555555556" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" ht="109" customHeight="1" spans="1:4">
+      <c r="A2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:D1"/>

--- a/ChemicalSummon/Assets/StreamingAssets/TranslatableSentence.xlsx
+++ b/ChemicalSummon/Assets/StreamingAssets/TranslatableSentence.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" activeTab="1"/>
+    <workbookView windowWidth="22368" windowHeight="9420" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Title" sheetId="4" r:id="rId1"/>
@@ -583,14 +583,14 @@
   </si>
   <si>
     <t>当前游戏为内测版!
-- 敌人未习得反击融合
+- 敌人的融合缺少动画演出
 - 燃烧/电击伤害未实装
 * 作品中图片均未授权使用
 请不要二次转载!</t>
   </si>
   <si>
     <t>この作品はアルファテスト中です！
-・敵はカウンターしてきません
+・敵の融合アニメーションが未実装です
 ・燃焼/電撃が未実装です
 * 作品中のグラフィックは全て無断で使用しています。2次配布はご遠慮ください！</t>
   </si>
@@ -600,9 +600,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -614,8 +614,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -629,7 +637,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -637,6 +645,20 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -650,9 +672,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -663,13 +700,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -721,42 +751,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -767,187 +767,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -958,6 +958,36 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -976,17 +1006,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1024,21 +1050,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1047,17 +1058,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1066,10 +1066,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1078,133 +1078,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1687,7 +1687,7 @@
   <sheetPr/>
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
@@ -2404,7 +2404,7 @@
   <sheetPr/>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>

--- a/ChemicalSummon/Assets/StreamingAssets/TranslatableSentence.xlsx
+++ b/ChemicalSummon/Assets/StreamingAssets/TranslatableSentence.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" activeTab="4"/>
+    <workbookView windowWidth="22368" windowHeight="9420" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Title" sheetId="4" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="192">
   <si>
     <t>ScriptableObjectName</t>
   </si>
@@ -126,7 +126,7 @@
     <t>敵の融合ターン</t>
   </si>
   <si>
-    <t>WarnNotPlaceBeforeYourFusion</t>
+    <t>WarnNotPlaceBeforeFusionTurn</t>
   </si>
   <si>
     <t>CannotPlaceBeforeYourFusionTurn</t>
@@ -277,6 +277,15 @@
   </si>
   <si>
     <t>先行決め</t>
+  </si>
+  <si>
+    <t>SelectOpponentSlot</t>
+  </si>
+  <si>
+    <t>选择对方卡槽</t>
+  </si>
+  <si>
+    <t>相手のスロットを選択</t>
   </si>
   <si>
     <t>Guide1-1</t>
@@ -602,8 +611,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -616,14 +625,29 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -637,28 +661,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -672,14 +682,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -688,15 +690,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -727,17 +737,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -752,7 +753,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -767,13 +776,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -785,25 +944,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -815,139 +956,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -958,71 +967,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1050,6 +994,60 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1058,6 +1056,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1066,10 +1075,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1078,133 +1087,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1685,10 +1694,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
@@ -1940,6 +1949,17 @@
       </c>
       <c r="D21" t="s">
         <v>85</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>86</v>
+      </c>
+      <c r="C22" t="s">
+        <v>87</v>
+      </c>
+      <c r="D22" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -1982,211 +2002,211 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C3" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D3" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C4" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D4" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C5" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D5" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C6" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D6" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D7" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C8" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D8" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C9" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D9" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C10" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D10" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C11" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D11" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C12" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D12" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C13" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="D13" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C14" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D14" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C15" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D15" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C16" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D16" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C17" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D17" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C18" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="D18" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C19" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="D19" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C20" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="D20" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -2229,167 +2249,167 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="D2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C3" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="D3" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C4" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="D4" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C5" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="D5" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C6" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="D6" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="D7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C8" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D8" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C9" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="D9" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C10" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="D10" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C11" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="D11" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="C12" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="D12" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="C13" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="D13" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C14" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="D14" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C15" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="D15" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="C16" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="D16" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -2404,8 +2424,8 @@
   <sheetPr/>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="3"/>
@@ -2432,13 +2452,13 @@
     </row>
     <row r="2" ht="109" customHeight="1" spans="1:4">
       <c r="A2" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>

--- a/ChemicalSummon/Assets/StreamingAssets/TranslatableSentence.xlsx
+++ b/ChemicalSummon/Assets/StreamingAssets/TranslatableSentence.xlsx
@@ -611,8 +611,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -620,6 +620,65 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -633,50 +692,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -690,26 +713,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -730,30 +737,16 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -766,6 +759,13 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -776,91 +776,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -872,13 +944,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -890,73 +956,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -967,30 +967,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1009,17 +985,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1042,8 +1012,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1051,8 +1021,38 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1075,10 +1075,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1087,133 +1087,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1697,7 +1697,7 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>

--- a/ChemicalSummon/Assets/StreamingAssets/TranslatableSentence.xlsx
+++ b/ChemicalSummon/Assets/StreamingAssets/TranslatableSentence.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" activeTab="1"/>
+    <workbookView windowWidth="22368" windowHeight="9420" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Title" sheetId="4" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="212">
   <si>
     <t>ScriptableObjectName</t>
   </si>
@@ -534,6 +534,12 @@
     <t>生成</t>
   </si>
   <si>
+    <t>Special</t>
+  </si>
+  <si>
+    <t>特殊</t>
+  </si>
+  <si>
     <t>LeftClick</t>
   </si>
   <si>
@@ -586,6 +592,60 @@
   </si>
   <si>
     <t>反応式をクリック</t>
+  </si>
+  <si>
+    <t>Explosion</t>
+  </si>
+  <si>
+    <t>爆炸</t>
+  </si>
+  <si>
+    <t>爆発</t>
+  </si>
+  <si>
+    <t>ExplosionDescription</t>
+  </si>
+  <si>
+    <t>以数值全体攻击</t>
+  </si>
+  <si>
+    <t>数値で全体攻撃</t>
+  </si>
+  <si>
+    <t>Heat</t>
+  </si>
+  <si>
+    <t>高温</t>
+  </si>
+  <si>
+    <t>ヒート</t>
+  </si>
+  <si>
+    <t>HeatDescription</t>
+  </si>
+  <si>
+    <t>选择一个卡槽升温至数值x100度 没有被更高融点的固体盖住就会持续给予数值伤害</t>
+  </si>
+  <si>
+    <t>スロット一つを数値x100度に加熱 より高融点の固体で押さえつけないと、数値分の持続ダメージ</t>
+  </si>
+  <si>
+    <t>Electric</t>
+  </si>
+  <si>
+    <t>电击</t>
+  </si>
+  <si>
+    <t>電撃</t>
+  </si>
+  <si>
+    <t>ElectricDescription</t>
+  </si>
+  <si>
+    <t>穿透导电物体的全体攻击，对导电物体的攻击会直接打到玩家上</t>
+  </si>
+  <si>
+    <t>導電物質を貫通する全体攻撃、導電物質への攻撃はそのままプレイヤーに当たる</t>
   </si>
   <si>
     <t>ChangeLog</t>
@@ -593,14 +653,14 @@
   <si>
     <t>当前游戏为内测版!
 - 敌人的融合缺少动画演出
-- 燃烧/电击伤害未实装
+- 电击伤害未实装
 * 作品中图片均未授权使用
 请不要二次转载!</t>
   </si>
   <si>
     <t>この作品はアルファテスト中です！
 ・敵の融合アニメーションが未実装です
-・燃焼/電撃が未実装です
+・電撃が未実装です
 * 作品中のグラフィックは全て無断で使用しています。2次配布はご遠慮ください！</t>
   </si>
 </sst>
@@ -624,6 +684,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -637,9 +712,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -652,8 +733,56 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -667,23 +796,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -692,7 +806,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -705,53 +819,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -759,13 +826,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -776,187 +836,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -967,6 +1027,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -981,15 +1056,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1009,24 +1075,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1042,17 +1090,29 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1075,10 +1135,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1087,133 +1147,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1696,8 +1756,8 @@
   <sheetPr/>
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
@@ -2219,18 +2279,18 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="29" customWidth="1"/>
     <col min="2" max="2" width="40.1111111111111" customWidth="1"/>
-    <col min="3" max="3" width="32.4444444444444" customWidth="1"/>
-    <col min="4" max="4" width="34.5555555555556" customWidth="1"/>
+    <col min="3" max="3" width="94" customWidth="1"/>
+    <col min="4" max="4" width="100.222222222222" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -2354,62 +2414,139 @@
         <v>172</v>
       </c>
       <c r="D11" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
+        <v>173</v>
+      </c>
+      <c r="C12" t="s">
         <v>174</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>175</v>
-      </c>
-      <c r="D12" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
+        <v>176</v>
+      </c>
+      <c r="C13" t="s">
         <v>177</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>178</v>
-      </c>
-      <c r="D13" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
+        <v>179</v>
+      </c>
+      <c r="C14" t="s">
         <v>180</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>181</v>
-      </c>
-      <c r="D14" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
+        <v>182</v>
+      </c>
+      <c r="C15" t="s">
         <v>183</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>184</v>
-      </c>
-      <c r="D15" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
+        <v>185</v>
+      </c>
+      <c r="C16" t="s">
         <v>186</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>187</v>
       </c>
-      <c r="D16" t="s">
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
         <v>188</v>
+      </c>
+      <c r="C17" t="s">
+        <v>189</v>
+      </c>
+      <c r="D17" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>191</v>
+      </c>
+      <c r="C18" t="s">
+        <v>192</v>
+      </c>
+      <c r="D18" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>194</v>
+      </c>
+      <c r="C19" t="s">
+        <v>195</v>
+      </c>
+      <c r="D19" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>197</v>
+      </c>
+      <c r="C20" t="s">
+        <v>198</v>
+      </c>
+      <c r="D20" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>200</v>
+      </c>
+      <c r="C21" t="s">
+        <v>201</v>
+      </c>
+      <c r="D21" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>203</v>
+      </c>
+      <c r="C22" t="s">
+        <v>204</v>
+      </c>
+      <c r="D22" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>206</v>
+      </c>
+      <c r="C23" t="s">
+        <v>207</v>
+      </c>
+      <c r="D23" t="s">
+        <v>208</v>
       </c>
     </row>
   </sheetData>
@@ -2425,7 +2562,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="3"/>
@@ -2452,13 +2589,13 @@
     </row>
     <row r="2" ht="109" customHeight="1" spans="1:4">
       <c r="A2" t="s">
-        <v>189</v>
+        <v>209</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>191</v>
+        <v>211</v>
       </c>
     </row>
   </sheetData>

--- a/ChemicalSummon/Assets/StreamingAssets/TranslatableSentence.xlsx
+++ b/ChemicalSummon/Assets/StreamingAssets/TranslatableSentence.xlsx
@@ -4,22 +4,23 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" activeTab="3"/>
+    <workbookView windowWidth="22368" windowHeight="9420" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Title" sheetId="4" r:id="rId1"/>
     <sheet name="Match" sheetId="1" r:id="rId2"/>
     <sheet name="MatchGuide" sheetId="5" r:id="rId3"/>
     <sheet name="Map" sheetId="7" r:id="rId4"/>
-    <sheet name="ChangeLog" sheetId="8" r:id="rId5"/>
-    <sheet name="Other" sheetId="6" r:id="rId6"/>
+    <sheet name="Card" sheetId="9" r:id="rId5"/>
+    <sheet name="ChangeLog" sheetId="8" r:id="rId6"/>
+    <sheet name="Other" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="218">
   <si>
     <t>ScriptableObjectName</t>
   </si>
@@ -646,6 +647,24 @@
   </si>
   <si>
     <t>導電物質を貫通する全体攻撃、導電物質への攻撃はそのままプレイヤーに当たる</t>
+  </si>
+  <si>
+    <t>ATK</t>
+  </si>
+  <si>
+    <t>攻击力</t>
+  </si>
+  <si>
+    <t>攻撃力</t>
+  </si>
+  <si>
+    <t>MeltingPoint</t>
+  </si>
+  <si>
+    <t>熔点</t>
+  </si>
+  <si>
+    <t>融点</t>
   </si>
   <si>
     <t>ChangeLog</t>
@@ -669,8 +688,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -684,15 +703,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -705,10 +723,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -720,22 +747,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -758,10 +770,10 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -806,6 +818,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -819,9 +839,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -836,13 +855,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -854,169 +969,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1030,16 +1049,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1060,21 +1079,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1086,6 +1090,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1108,6 +1123,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1116,17 +1146,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1135,10 +1154,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1147,7 +1166,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1156,124 +1175,124 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2281,8 +2300,8 @@
   <sheetPr/>
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
@@ -2557,6 +2576,66 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="29" customWidth="1"/>
+    <col min="2" max="2" width="40.1111111111111" customWidth="1"/>
+    <col min="3" max="3" width="94" customWidth="1"/>
+    <col min="4" max="4" width="100.222222222222" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C2" t="s">
+        <v>210</v>
+      </c>
+      <c r="D2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>212</v>
+      </c>
+      <c r="C3" t="s">
+        <v>213</v>
+      </c>
+      <c r="D3" t="s">
+        <v>214</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:D2"/>
@@ -2589,13 +2668,13 @@
     </row>
     <row r="2" ht="109" customHeight="1" spans="1:4">
       <c r="A2" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
     </row>
   </sheetData>
@@ -2605,7 +2684,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:D1"/>

--- a/ChemicalSummon/Assets/StreamingAssets/TranslatableSentence.xlsx
+++ b/ChemicalSummon/Assets/StreamingAssets/TranslatableSentence.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" activeTab="4"/>
+    <workbookView windowWidth="22368" windowHeight="9420" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Title" sheetId="4" r:id="rId1"/>
@@ -625,10 +625,10 @@
     <t>HeatDescription</t>
   </si>
   <si>
-    <t>选择一个卡槽升温至数值x100度 没有被更高融点的固体盖住就会持续给予数值伤害</t>
-  </si>
-  <si>
-    <t>スロット一つを数値x100度に加熱 より高融点の固体で押さえつけないと、数値分の持続ダメージ</t>
+    <t>选择一个卡槽升温至数值x1000度 没有被更高融点的固体盖住就会持续给予数值伤害</t>
+  </si>
+  <si>
+    <t>スロット一つを数値x1000度に加熱 より高融点の固体で押さえつけないと、数値分の持続ダメージ</t>
   </si>
   <si>
     <t>Electric</t>
@@ -688,10 +688,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -717,7 +717,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -725,37 +725,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -771,17 +748,24 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -792,11 +776,26 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -818,6 +817,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -826,14 +833,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -855,13 +855,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -873,7 +939,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -885,157 +1023,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1046,21 +1046,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1096,11 +1081,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1109,6 +1092,17 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1138,11 +1132,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1154,10 +1154,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1166,133 +1166,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2300,8 +2300,8 @@
   <sheetPr/>
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
@@ -2580,8 +2580,8 @@
   <sheetPr/>
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="3"/>

--- a/ChemicalSummon/Assets/StreamingAssets/TranslatableSentence.xlsx
+++ b/ChemicalSummon/Assets/StreamingAssets/TranslatableSentence.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" activeTab="3"/>
+    <workbookView windowWidth="22368" windowHeight="9420" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Title" sheetId="4" r:id="rId1"/>
@@ -688,10 +688,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -703,13 +703,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -717,7 +710,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -732,38 +732,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -784,8 +753,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -796,6 +774,14 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -815,9 +801,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -845,6 +830,21 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -855,187 +855,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1064,6 +1064,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1082,37 +1091,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1146,6 +1126,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1154,10 +1154,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1166,133 +1166,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1775,8 +1775,8 @@
   <sheetPr/>
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
@@ -2300,8 +2300,8 @@
   <sheetPr/>
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>

--- a/ChemicalSummon/Assets/StreamingAssets/TranslatableSentence.xlsx
+++ b/ChemicalSummon/Assets/StreamingAssets/TranslatableSentence.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="221">
   <si>
     <t>ScriptableObjectName</t>
   </si>
@@ -287,6 +287,15 @@
   </si>
   <si>
     <t>相手のスロットを選択</t>
+  </si>
+  <si>
+    <t>Turn</t>
+  </si>
+  <si>
+    <t>回合</t>
+  </si>
+  <si>
+    <t>ターン</t>
   </si>
   <si>
     <t>Guide1-1</t>
@@ -688,8 +697,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -703,7 +712,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -717,29 +726,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -753,6 +747,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -761,9 +763,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -802,7 +803,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -816,16 +817,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -855,13 +864,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -873,169 +1044,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1064,15 +1073,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1093,6 +1093,15 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1154,7 +1163,7 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
@@ -1166,73 +1175,73 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1241,58 +1250,58 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1773,10 +1782,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
@@ -2039,6 +2048,17 @@
       </c>
       <c r="D22" t="s">
         <v>88</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>89</v>
+      </c>
+      <c r="C23" t="s">
+        <v>90</v>
+      </c>
+      <c r="D23" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -2081,211 +2101,211 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C3" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D3" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C4" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D4" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C5" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D5" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C6" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D6" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C7" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D7" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C8" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D8" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C9" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D9" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C10" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D10" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C11" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D11" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C12" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="D12" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C13" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D13" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C14" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D14" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C15" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D15" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C16" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D16" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C17" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="D17" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C18" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="D18" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C19" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="D19" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C20" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="D20" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -2300,7 +2320,7 @@
   <sheetPr/>
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
@@ -2328,244 +2348,244 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C2" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="D2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C3" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="D3" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C4" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="D4" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C5" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="D5" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C6" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="D6" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C8" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="D8" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="C9" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="D9" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C10" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D10" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="C11" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="D11" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="C12" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="D12" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="C13" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="D13" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="C14" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="D14" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="C15" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="D15" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="C16" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="D16" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="C17" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="D17" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="C18" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="D18" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="C19" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="D19" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C20" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D20" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C21" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D21" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="C22" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="D22" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="C23" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="D23" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
     </row>
   </sheetData>
@@ -2608,24 +2628,24 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="C2" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="D2" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="C3" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="D3" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
     </row>
   </sheetData>
@@ -2668,13 +2688,13 @@
     </row>
     <row r="2" ht="109" customHeight="1" spans="1:4">
       <c r="A2" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
     </row>
   </sheetData>

--- a/ChemicalSummon/Assets/StreamingAssets/TranslatableSentence.xlsx
+++ b/ChemicalSummon/Assets/StreamingAssets/TranslatableSentence.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" activeTab="1"/>
+    <workbookView windowWidth="22368" windowHeight="9420" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Title" sheetId="4" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="223">
   <si>
     <t>ScriptableObjectName</t>
   </si>
@@ -656,6 +656,12 @@
   </si>
   <si>
     <t>導電物質を貫通する全体攻撃、導電物質への攻撃はそのままプレイヤーに当たる</t>
+  </si>
+  <si>
+    <t>Use</t>
+  </si>
+  <si>
+    <t>使用</t>
   </si>
   <si>
     <t>ATK</t>
@@ -697,10 +703,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -712,9 +718,38 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -725,15 +760,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -757,32 +793,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -795,17 +816,10 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -819,6 +833,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -839,21 +860,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -864,6 +870,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -876,25 +894,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -906,7 +1002,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -918,19 +1038,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -942,109 +1050,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1055,6 +1061,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1090,18 +1105,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1121,6 +1129,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1135,26 +1161,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1163,10 +1169,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1175,133 +1181,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1784,7 +1790,7 @@
   <sheetPr/>
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
@@ -2318,10 +2324,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
@@ -2586,6 +2592,17 @@
       </c>
       <c r="D23" t="s">
         <v>211</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>212</v>
+      </c>
+      <c r="C24" t="s">
+        <v>213</v>
+      </c>
+      <c r="D24" t="s">
+        <v>213</v>
       </c>
     </row>
   </sheetData>
@@ -2628,24 +2645,24 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C2" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D2" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C3" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D3" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
   </sheetData>
@@ -2688,13 +2705,13 @@
     </row>
     <row r="2" ht="109" customHeight="1" spans="1:4">
       <c r="A2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
   </sheetData>

--- a/ChemicalSummon/Assets/StreamingAssets/TranslatableSentence.xlsx
+++ b/ChemicalSummon/Assets/StreamingAssets/TranslatableSentence.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" activeTab="3"/>
+    <workbookView windowWidth="22368" windowHeight="9420" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Title" sheetId="4" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="228">
   <si>
     <t>ScriptableObjectName</t>
   </si>
@@ -296,6 +296,21 @@
   </si>
   <si>
     <t>ターン</t>
+  </si>
+  <si>
+    <t>FusionPreview</t>
+  </si>
+  <si>
+    <t>融合预览</t>
+  </si>
+  <si>
+    <t>融合リスト</t>
+  </si>
+  <si>
+    <t>Fusion</t>
+  </si>
+  <si>
+    <t>融合</t>
   </si>
   <si>
     <t>Guide1-1</t>
@@ -703,10 +718,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -718,35 +733,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -760,16 +754,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -793,41 +794,32 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -838,8 +830,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -860,6 +853,28 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -870,43 +885,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -918,43 +1041,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -966,91 +1065,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1105,11 +1120,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1129,24 +1142,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1161,6 +1156,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1169,10 +1184,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1181,133 +1196,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1788,10 +1803,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
@@ -2065,6 +2080,28 @@
       </c>
       <c r="D23" t="s">
         <v>91</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>92</v>
+      </c>
+      <c r="C24" t="s">
+        <v>93</v>
+      </c>
+      <c r="D24" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>95</v>
+      </c>
+      <c r="C25" t="s">
+        <v>96</v>
+      </c>
+      <c r="D25" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -2107,211 +2144,211 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="C2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="D2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="C3" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="D3" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="C4" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="D4" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="C5" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="D5" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="C6" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="D6" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C7" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="D7" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="C8" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D8" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="C9" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="D9" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="C10" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="D10" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="C11" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="D11" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="C12" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="D12" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="C13" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="D13" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="C14" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="D14" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="C15" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="D15" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="C16" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="D16" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="C17" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="D17" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="C18" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="D18" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="C19" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="D19" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="C20" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="D20" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -2326,8 +2363,8 @@
   <sheetPr/>
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
@@ -2354,255 +2391,255 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="C2" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="D2" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C3" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="D3" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="C4" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="D4" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="C5" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="D5" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="C6" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="D6" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="C7" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="D7" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="C8" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="D8" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="C9" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="D9" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C10" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="D10" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="C11" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="D11" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="C12" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="D12" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="C13" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="D13" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="C14" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="D14" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="C15" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="D15" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="C16" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="D16" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="C17" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="D17" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="C18" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="D18" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="C19" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="D19" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="C20" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="D20" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="C21" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="D21" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="C22" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="D22" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="C23" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="D23" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="C24" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="D24" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
     </row>
   </sheetData>
@@ -2645,24 +2682,24 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C2" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="D2" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="C3" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="D3" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
     </row>
   </sheetData>
@@ -2705,13 +2742,13 @@
     </row>
     <row r="2" ht="109" customHeight="1" spans="1:4">
       <c r="A2" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
     </row>
   </sheetData>

--- a/ChemicalSummon/Assets/StreamingAssets/TranslatableSentence.xlsx
+++ b/ChemicalSummon/Assets/StreamingAssets/TranslatableSentence.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" activeTab="1"/>
+    <workbookView windowWidth="22368" windowHeight="9420" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Title" sheetId="4" r:id="rId1"/>
@@ -649,10 +649,10 @@
     <t>HeatDescription</t>
   </si>
   <si>
-    <t>选择一个卡槽升温至数值x1000度 没有被更高融点的固体盖住就会持续给予数值伤害</t>
-  </si>
-  <si>
-    <t>スロット一つを数値x1000度に加熱 より高融点の固体で押さえつけないと、数値分の持続ダメージ</t>
+    <t>获得热量宝石</t>
+  </si>
+  <si>
+    <t>ヒートジェムを獲得</t>
   </si>
   <si>
     <t>Electric</t>
@@ -667,10 +667,10 @@
     <t>ElectricDescription</t>
   </si>
   <si>
-    <t>穿透导电物体的全体攻击，对导电物体的攻击会直接打到玩家上</t>
-  </si>
-  <si>
-    <t>導電物質を貫通する全体攻撃、導電物質への攻撃はそのままプレイヤーに当たる</t>
+    <t>获得电气宝石</t>
+  </si>
+  <si>
+    <t>電気ジェムを獲得</t>
   </si>
   <si>
     <t>Use</t>
@@ -718,10 +718,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -732,23 +732,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -762,10 +755,10 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -773,6 +766,21 @@
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -816,25 +824,18 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -855,6 +856,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -862,15 +870,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -885,37 +885,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -927,49 +1047,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -981,91 +1065,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1079,11 +1079,43 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1103,17 +1135,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1123,21 +1149,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1165,17 +1176,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1184,10 +1184,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1196,133 +1196,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1805,7 +1805,7 @@
   <sheetPr/>
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
@@ -2363,8 +2363,8 @@
   <sheetPr/>
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>

--- a/ChemicalSummon/Assets/StreamingAssets/TranslatableSentence.xlsx
+++ b/ChemicalSummon/Assets/StreamingAssets/TranslatableSentence.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" activeTab="3"/>
+    <workbookView windowWidth="22368" windowHeight="9420" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Title" sheetId="4" r:id="rId1"/>
@@ -701,15 +701,15 @@
   </si>
   <si>
     <t>当前游戏为内测版!
+- 计划做出2D地图探索
 - 敌人的融合缺少动画演出
-- 电击伤害未实装
 * 作品中图片均未授权使用
 请不要二次转载!</t>
   </si>
   <si>
     <t>この作品はアルファテスト中です！
+・２Dマップ探索の導入を検討中です
 ・敵の融合アニメーションが未実装です
-・電撃が未実装です
 * 作品中のグラフィックは全て無断で使用しています。2次配布はご遠慮ください！</t>
   </si>
 </sst>
@@ -718,10 +718,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -732,16 +732,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -754,9 +760,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -769,15 +775,8 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -800,11 +799,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -815,11 +821,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -841,6 +847,21 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -854,27 +875,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -885,187 +885,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1076,6 +1076,54 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1105,50 +1153,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1167,15 +1176,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1184,10 +1184,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1196,16 +1196,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1217,16 +1217,10 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1235,94 +1229,100 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2363,8 +2363,8 @@
   <sheetPr/>
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
@@ -2714,8 +2714,8 @@
   <sheetPr/>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="3"/>

--- a/ChemicalSummon/Assets/StreamingAssets/TranslatableSentence.xlsx
+++ b/ChemicalSummon/Assets/StreamingAssets/TranslatableSentence.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" activeTab="5"/>
+    <workbookView windowWidth="22368" windowHeight="9420" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Title" sheetId="4" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="243">
   <si>
     <t>ScriptableObjectName</t>
   </si>
@@ -677,6 +677,33 @@
   </si>
   <si>
     <t>使用</t>
+  </si>
+  <si>
+    <t>Talk</t>
+  </si>
+  <si>
+    <t>对话</t>
+  </si>
+  <si>
+    <t>話す</t>
+  </si>
+  <si>
+    <t>Tutorial</t>
+  </si>
+  <si>
+    <t>练习关卡</t>
+  </si>
+  <si>
+    <t>練習ステージ</t>
+  </si>
+  <si>
+    <t>ReturnTitle</t>
+  </si>
+  <si>
+    <t>返回主页面</t>
+  </si>
+  <si>
+    <t>タイトルに戻る</t>
   </si>
   <si>
     <t>ATK</t>
@@ -711,6 +738,24 @@
 ・２Dマップ探索の導入を検討中です
 ・敵の融合アニメーションが未実装です
 * 作品中のグラフィックは全て無断で使用しています。2次配布はご遠慮ください！</t>
+  </si>
+  <si>
+    <t>ChangeCardBackground</t>
+  </si>
+  <si>
+    <t>更改卡牌背景</t>
+  </si>
+  <si>
+    <t>カード背景変更</t>
+  </si>
+  <si>
+    <t>ChangeFusionMagicCircle</t>
+  </si>
+  <si>
+    <t>更改融合魔法阵</t>
+  </si>
+  <si>
+    <t>融合魔法陣変更</t>
   </si>
 </sst>
 </file>
@@ -732,15 +777,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -760,16 +814,38 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -783,24 +859,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -815,39 +899,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -860,21 +920,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -885,13 +930,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -903,7 +1062,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -915,157 +1092,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1076,6 +1121,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1090,15 +1144,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1121,8 +1166,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1144,20 +1189,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1176,6 +1210,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1184,10 +1229,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1196,133 +1241,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2361,10 +2406,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
@@ -2640,6 +2685,39 @@
       </c>
       <c r="D24" t="s">
         <v>218</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>219</v>
+      </c>
+      <c r="C25" t="s">
+        <v>220</v>
+      </c>
+      <c r="D25" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>222</v>
+      </c>
+      <c r="C26" t="s">
+        <v>223</v>
+      </c>
+      <c r="D26" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>225</v>
+      </c>
+      <c r="C27" t="s">
+        <v>226</v>
+      </c>
+      <c r="D27" t="s">
+        <v>227</v>
       </c>
     </row>
   </sheetData>
@@ -2682,24 +2760,24 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="C2" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="D2" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="C3" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="D3" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
     </row>
   </sheetData>
@@ -2714,8 +2792,8 @@
   <sheetPr/>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="3"/>
@@ -2742,13 +2820,13 @@
     </row>
     <row r="2" ht="109" customHeight="1" spans="1:4">
       <c r="A2" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
     </row>
   </sheetData>
@@ -2761,13 +2839,13 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1" outlineLevelRow="2" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="29" customWidth="1"/>
     <col min="2" max="2" width="40.1111111111111" customWidth="1"/>
@@ -2775,7 +2853,7 @@
     <col min="4" max="4" width="34.5555555555556" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" customHeight="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2787,6 +2865,28 @@
       </c>
       <c r="D1" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="2" customHeight="1" spans="1:4">
+      <c r="A2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C2" t="s">
+        <v>238</v>
+      </c>
+      <c r="D2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="1:4">
+      <c r="A3" t="s">
+        <v>240</v>
+      </c>
+      <c r="C3" t="s">
+        <v>241</v>
+      </c>
+      <c r="D3" t="s">
+        <v>242</v>
       </c>
     </row>
   </sheetData>

--- a/ChemicalSummon/Assets/StreamingAssets/TranslatableSentence.xlsx
+++ b/ChemicalSummon/Assets/StreamingAssets/TranslatableSentence.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" activeTab="3"/>
+    <workbookView windowWidth="22368" windowHeight="9420" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Title" sheetId="4" r:id="rId1"/>
@@ -728,16 +728,18 @@
   </si>
   <si>
     <t>当前游戏为内测版!
-- 计划做出2D地图探索
-- 敌人的融合缺少动画演出
-* 作品中图片均未授权使用
+下版本计划：
+- 魔法阵、卡牌背景设置
+- 游戏平衡调整
+* 作品中图片、音乐、音效均未授权使用
 请不要二次转载!</t>
   </si>
   <si>
     <t>この作品はアルファテスト中です！
-・２Dマップ探索の導入を検討中です
-・敵の融合アニメーションが未実装です
-* 作品中のグラフィックは全て無断で使用しています。2次配布はご遠慮ください！</t>
+次回バージョン計画：
+・魔法陣、カード背景設定
+・ゲームバランス調整
+* 作品中のグラフィック、曲、効果音は全て無断で使用しています。2次配布はご遠慮ください！</t>
   </si>
   <si>
     <t>ChangeCardBackground</t>
@@ -763,10 +765,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -777,24 +779,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -808,14 +794,52 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -831,21 +855,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -867,14 +876,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -882,9 +883,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -898,13 +915,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -912,14 +922,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -930,175 +932,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1121,15 +1123,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1144,6 +1137,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1166,8 +1179,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1187,15 +1209,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1210,17 +1223,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1229,10 +1231,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1241,133 +1243,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2408,8 +2410,8 @@
   <sheetPr/>
   <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
@@ -2792,8 +2794,8 @@
   <sheetPr/>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="3"/>

--- a/ChemicalSummon/Assets/StreamingAssets/TranslatableSentence.xlsx
+++ b/ChemicalSummon/Assets/StreamingAssets/TranslatableSentence.xlsx
@@ -728,18 +728,12 @@
   </si>
   <si>
     <t>当前游戏为内测版!
-下版本计划：
-- 魔法阵、卡牌背景设置
-- 游戏平衡调整
-* 作品中图片、音乐、音效均未授权使用
+作品中图片、音乐、音效均未授权使用
 请不要二次转载!</t>
   </si>
   <si>
     <t>この作品はアルファテスト中です！
-次回バージョン計画：
-・魔法陣、カード背景設定
-・ゲームバランス調整
-* 作品中のグラフィック、曲、効果音は全て無断で使用しています。2次配布はご遠慮ください！</t>
+*作品中のグラフィック、曲、効果音は全て無断で使用しています。2次配布はご遠慮ください！</t>
   </si>
   <si>
     <t>ChangeCardBackground</t>
@@ -765,8 +759,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -780,7 +774,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -794,45 +803,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -845,8 +823,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -880,6 +859,14 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -917,7 +904,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -932,13 +926,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -950,19 +1070,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -974,145 +1106,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1123,6 +1117,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1137,26 +1146,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1209,17 +1198,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1231,10 +1225,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1243,133 +1237,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>

--- a/ChemicalSummon/Assets/StreamingAssets/TranslatableSentence.xlsx
+++ b/ChemicalSummon/Assets/StreamingAssets/TranslatableSentence.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" activeTab="5"/>
+    <workbookView windowWidth="22368" windowHeight="9420" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Title" sheetId="4" r:id="rId1"/>
@@ -14,13 +14,14 @@
     <sheet name="Card" sheetId="9" r:id="rId5"/>
     <sheet name="ChangeLog" sheetId="8" r:id="rId6"/>
     <sheet name="Other" sheetId="6" r:id="rId7"/>
+    <sheet name="Ability" sheetId="11" r:id="rId8"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="296">
   <si>
     <t>ScriptableObjectName</t>
   </si>
@@ -752,6 +753,165 @@
   </si>
   <si>
     <t>融合魔法陣変更</t>
+  </si>
+  <si>
+    <t>Ability</t>
+  </si>
+  <si>
+    <t>能力</t>
+  </si>
+  <si>
+    <t>スキル</t>
+  </si>
+  <si>
+    <t>CardTransport</t>
+  </si>
+  <si>
+    <t>$action $cond by $amount from $src $srcPos to $dst $dstPos</t>
+  </si>
+  <si>
+    <t>从$src$srcPos$action$cond$amount张到$dst$dstPos</t>
+  </si>
+  <si>
+    <t>$src$srcPos$cond$amount枚を$dst$dstPosへ$action</t>
+  </si>
+  <si>
+    <t>Move</t>
+  </si>
+  <si>
+    <t>移动</t>
+  </si>
+  <si>
+    <t>移動</t>
+  </si>
+  <si>
+    <t>Copy</t>
+  </si>
+  <si>
+    <t>复制</t>
+  </si>
+  <si>
+    <t>コピー</t>
+  </si>
+  <si>
+    <t>Top</t>
+  </si>
+  <si>
+    <t>top</t>
+  </si>
+  <si>
+    <t>顶端</t>
+  </si>
+  <si>
+    <t>の上</t>
+  </si>
+  <si>
+    <t>Bottom</t>
+  </si>
+  <si>
+    <t>bottom</t>
+  </si>
+  <si>
+    <t>底端</t>
+  </si>
+  <si>
+    <t>の下</t>
+  </si>
+  <si>
+    <t>SpecificCards</t>
+  </si>
+  <si>
+    <t>cards of $cards</t>
+  </si>
+  <si>
+    <t>$cards中任意的卡牌</t>
+  </si>
+  <si>
+    <t>$cardsのどれかであるカード</t>
+  </si>
+  <si>
+    <t>SpecificCard</t>
+  </si>
+  <si>
+    <t>$name</t>
+  </si>
+  <si>
+    <t>MyHandCard</t>
+  </si>
+  <si>
+    <t>手牌</t>
+  </si>
+  <si>
+    <t>手札</t>
+  </si>
+  <si>
+    <t>EnemyHandCard</t>
+  </si>
+  <si>
+    <t>对方手牌</t>
+  </si>
+  <si>
+    <t>相手手札</t>
+  </si>
+  <si>
+    <t>MyDeck</t>
+  </si>
+  <si>
+    <t>EnemyDeck</t>
+  </si>
+  <si>
+    <t>对方卡组</t>
+  </si>
+  <si>
+    <t>相手デッキ</t>
+  </si>
+  <si>
+    <t>Field</t>
+  </si>
+  <si>
+    <t>场地</t>
+  </si>
+  <si>
+    <t>フィールド</t>
+  </si>
+  <si>
+    <t>MyField</t>
+  </si>
+  <si>
+    <t>自己场地</t>
+  </si>
+  <si>
+    <t>自分フィールド</t>
+  </si>
+  <si>
+    <t>EnemyField</t>
+  </si>
+  <si>
+    <t>对方场地</t>
+  </si>
+  <si>
+    <t>相手フィールド</t>
+  </si>
+  <si>
+    <t>OffSite</t>
+  </si>
+  <si>
+    <t>场外</t>
+  </si>
+  <si>
+    <t>場外</t>
+  </si>
+  <si>
+    <t>AfterThat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">, and </t>
+  </si>
+  <si>
+    <t>，之后</t>
+  </si>
+  <si>
+    <t>し、</t>
   </si>
 </sst>
 </file>
@@ -774,6 +934,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -782,6 +949,14 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -796,20 +971,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -817,7 +978,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -826,14 +995,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -886,9 +1047,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -902,16 +1062,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -926,19 +1086,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -950,19 +1110,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -974,7 +1128,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -986,19 +1170,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1010,49 +1212,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1070,7 +1230,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1082,25 +1242,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1120,6 +1280,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1135,17 +1310,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1183,21 +1367,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1208,15 +1377,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1225,10 +1385,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1237,31 +1397,31 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1276,94 +1436,94 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2788,8 +2948,8 @@
   <sheetPr/>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="3"/>
@@ -2890,4 +3050,247 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="29" customWidth="1"/>
+    <col min="2" max="2" width="46.7777777777778" customWidth="1"/>
+    <col min="3" max="3" width="38.5555555555556" customWidth="1"/>
+    <col min="4" max="4" width="46" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" customHeight="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" customHeight="1" spans="1:4">
+      <c r="A2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C2" t="s">
+        <v>244</v>
+      </c>
+      <c r="D2" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="1:4">
+      <c r="A3" t="s">
+        <v>246</v>
+      </c>
+      <c r="B3" t="s">
+        <v>247</v>
+      </c>
+      <c r="C3" t="s">
+        <v>248</v>
+      </c>
+      <c r="D3" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" spans="1:4">
+      <c r="A4" t="s">
+        <v>250</v>
+      </c>
+      <c r="C4" t="s">
+        <v>251</v>
+      </c>
+      <c r="D4" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" spans="1:4">
+      <c r="A5" t="s">
+        <v>253</v>
+      </c>
+      <c r="C5" t="s">
+        <v>254</v>
+      </c>
+      <c r="D5" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="1:4">
+      <c r="A6" t="s">
+        <v>256</v>
+      </c>
+      <c r="B6" t="s">
+        <v>257</v>
+      </c>
+      <c r="C6" t="s">
+        <v>258</v>
+      </c>
+      <c r="D6" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="1:4">
+      <c r="A7" t="s">
+        <v>260</v>
+      </c>
+      <c r="B7" t="s">
+        <v>261</v>
+      </c>
+      <c r="C7" t="s">
+        <v>262</v>
+      </c>
+      <c r="D7" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="1:4">
+      <c r="A8" t="s">
+        <v>264</v>
+      </c>
+      <c r="B8" t="s">
+        <v>265</v>
+      </c>
+      <c r="C8" t="s">
+        <v>266</v>
+      </c>
+      <c r="D8" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="1:4">
+      <c r="A9" t="s">
+        <v>268</v>
+      </c>
+      <c r="B9" t="s">
+        <v>269</v>
+      </c>
+      <c r="C9" t="s">
+        <v>269</v>
+      </c>
+      <c r="D9" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="1:4">
+      <c r="A10" t="s">
+        <v>270</v>
+      </c>
+      <c r="C10" t="s">
+        <v>271</v>
+      </c>
+      <c r="D10" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" spans="1:4">
+      <c r="A11" t="s">
+        <v>273</v>
+      </c>
+      <c r="C11" t="s">
+        <v>274</v>
+      </c>
+      <c r="D11" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" spans="1:4">
+      <c r="A12" t="s">
+        <v>276</v>
+      </c>
+      <c r="C12" t="s">
+        <v>158</v>
+      </c>
+      <c r="D12" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="13" customHeight="1" spans="1:4">
+      <c r="A13" t="s">
+        <v>277</v>
+      </c>
+      <c r="C13" t="s">
+        <v>278</v>
+      </c>
+      <c r="D13" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="14" customHeight="1" spans="1:4">
+      <c r="A14" t="s">
+        <v>280</v>
+      </c>
+      <c r="C14" t="s">
+        <v>281</v>
+      </c>
+      <c r="D14" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="15" customHeight="1" spans="1:4">
+      <c r="A15" t="s">
+        <v>283</v>
+      </c>
+      <c r="C15" t="s">
+        <v>284</v>
+      </c>
+      <c r="D15" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="16" customHeight="1" spans="1:4">
+      <c r="A16" t="s">
+        <v>286</v>
+      </c>
+      <c r="C16" t="s">
+        <v>287</v>
+      </c>
+      <c r="D16" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="17" customHeight="1" spans="1:4">
+      <c r="A17" t="s">
+        <v>289</v>
+      </c>
+      <c r="C17" t="s">
+        <v>290</v>
+      </c>
+      <c r="D17" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="18" customHeight="1" spans="1:4">
+      <c r="A18" t="s">
+        <v>292</v>
+      </c>
+      <c r="B18" t="s">
+        <v>293</v>
+      </c>
+      <c r="C18" t="s">
+        <v>294</v>
+      </c>
+      <c r="D18" t="s">
+        <v>295</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/ChemicalSummon/Assets/StreamingAssets/TranslatableSentence.xlsx
+++ b/ChemicalSummon/Assets/StreamingAssets/TranslatableSentence.xlsx
@@ -4,24 +4,25 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" activeTab="7"/>
+    <workbookView windowWidth="22368" windowHeight="9420" activeTab="5"/>
   </bookViews>
   <sheets>
-    <sheet name="Title" sheetId="4" r:id="rId1"/>
-    <sheet name="Match" sheetId="1" r:id="rId2"/>
-    <sheet name="MatchGuide" sheetId="5" r:id="rId3"/>
-    <sheet name="Map" sheetId="7" r:id="rId4"/>
-    <sheet name="Card" sheetId="9" r:id="rId5"/>
-    <sheet name="ChangeLog" sheetId="8" r:id="rId6"/>
-    <sheet name="Other" sheetId="6" r:id="rId7"/>
+    <sheet name="General" sheetId="12" r:id="rId1"/>
+    <sheet name="Title" sheetId="4" r:id="rId2"/>
+    <sheet name="Match" sheetId="1" r:id="rId3"/>
+    <sheet name="MatchGuide" sheetId="5" r:id="rId4"/>
+    <sheet name="Map" sheetId="7" r:id="rId5"/>
+    <sheet name="Card" sheetId="9" r:id="rId6"/>
+    <sheet name="ChangeLog" sheetId="8" r:id="rId7"/>
     <sheet name="Ability" sheetId="11" r:id="rId8"/>
+    <sheet name="Other" sheetId="6" r:id="rId9"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="313">
   <si>
     <t>ScriptableObjectName</t>
   </si>
@@ -35,6 +36,33 @@
     <t>Japanese</t>
   </si>
   <si>
+    <t>Decide</t>
+  </si>
+  <si>
+    <t>决定</t>
+  </si>
+  <si>
+    <t>決定</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>确认</t>
+  </si>
+  <si>
+    <t>了解</t>
+  </si>
+  <si>
+    <t>Undo</t>
+  </si>
+  <si>
+    <t>撤回</t>
+  </si>
+  <si>
+    <t>取り消し</t>
+  </si>
+  <si>
     <t>GameName</t>
   </si>
   <si>
@@ -314,6 +342,18 @@
     <t>融合</t>
   </si>
   <si>
+    <t>SelectCardGuide</t>
+  </si>
+  <si>
+    <t>Select $amount cards</t>
+  </si>
+  <si>
+    <t>选择$amount张卡牌</t>
+  </si>
+  <si>
+    <t>カードを$amount枚選択</t>
+  </si>
+  <si>
     <t>Guide1-1</t>
   </si>
   <si>
@@ -723,6 +763,18 @@
   </si>
   <si>
     <t>融点</t>
+  </si>
+  <si>
+    <t>AbilityCost</t>
+  </si>
+  <si>
+    <t>Consume $amount:</t>
+  </si>
+  <si>
+    <t>消耗$amount张:</t>
+  </si>
+  <si>
+    <t>$amount枚消費:</t>
   </si>
   <si>
     <t>ChangeLog</t>
@@ -737,6 +789,165 @@
 *作品中のグラフィック、曲、効果音は全て無断で使用しています。2次配布はご遠慮ください！</t>
   </si>
   <si>
+    <t>Ability</t>
+  </si>
+  <si>
+    <t>能力</t>
+  </si>
+  <si>
+    <t>スキル</t>
+  </si>
+  <si>
+    <t>CardTransport</t>
+  </si>
+  <si>
+    <t>$action $cond by $amount from $src $srcPos to $dst $dstPos</t>
+  </si>
+  <si>
+    <t>从$src$srcPos$action$cond$amount张到$dst$dstPos</t>
+  </si>
+  <si>
+    <t>$src$srcPos$cond$amount枚を$dst$dstPosへ$action</t>
+  </si>
+  <si>
+    <t>Move</t>
+  </si>
+  <si>
+    <t>移动</t>
+  </si>
+  <si>
+    <t>移動</t>
+  </si>
+  <si>
+    <t>Copy</t>
+  </si>
+  <si>
+    <t>复制</t>
+  </si>
+  <si>
+    <t>コピー</t>
+  </si>
+  <si>
+    <t>Top</t>
+  </si>
+  <si>
+    <t>top</t>
+  </si>
+  <si>
+    <t>顶端</t>
+  </si>
+  <si>
+    <t>の上</t>
+  </si>
+  <si>
+    <t>Bottom</t>
+  </si>
+  <si>
+    <t>bottom</t>
+  </si>
+  <si>
+    <t>底端</t>
+  </si>
+  <si>
+    <t>の下</t>
+  </si>
+  <si>
+    <t>SpecificCards</t>
+  </si>
+  <si>
+    <t>cards of $cards</t>
+  </si>
+  <si>
+    <t>$cards中任意的卡牌</t>
+  </si>
+  <si>
+    <t>$cardsのどれかであるカード</t>
+  </si>
+  <si>
+    <t>SpecificCard</t>
+  </si>
+  <si>
+    <t>$name</t>
+  </si>
+  <si>
+    <t>MyHandCard</t>
+  </si>
+  <si>
+    <t>手牌</t>
+  </si>
+  <si>
+    <t>手札</t>
+  </si>
+  <si>
+    <t>EnemyHandCard</t>
+  </si>
+  <si>
+    <t>对方手牌</t>
+  </si>
+  <si>
+    <t>相手手札</t>
+  </si>
+  <si>
+    <t>MyDeck</t>
+  </si>
+  <si>
+    <t>EnemyDeck</t>
+  </si>
+  <si>
+    <t>对方卡组</t>
+  </si>
+  <si>
+    <t>相手デッキ</t>
+  </si>
+  <si>
+    <t>Field</t>
+  </si>
+  <si>
+    <t>场地</t>
+  </si>
+  <si>
+    <t>フィールド</t>
+  </si>
+  <si>
+    <t>MyField</t>
+  </si>
+  <si>
+    <t>自己场地</t>
+  </si>
+  <si>
+    <t>自分フィールド</t>
+  </si>
+  <si>
+    <t>EnemyField</t>
+  </si>
+  <si>
+    <t>对方场地</t>
+  </si>
+  <si>
+    <t>相手フィールド</t>
+  </si>
+  <si>
+    <t>OffSite</t>
+  </si>
+  <si>
+    <t>场外</t>
+  </si>
+  <si>
+    <t>場外</t>
+  </si>
+  <si>
+    <t>AfterThat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">, and </t>
+  </si>
+  <si>
+    <t>，之后</t>
+  </si>
+  <si>
+    <t>し、</t>
+  </si>
+  <si>
     <t>ChangeCardBackground</t>
   </si>
   <si>
@@ -753,165 +964,6 @@
   </si>
   <si>
     <t>融合魔法陣変更</t>
-  </si>
-  <si>
-    <t>Ability</t>
-  </si>
-  <si>
-    <t>能力</t>
-  </si>
-  <si>
-    <t>スキル</t>
-  </si>
-  <si>
-    <t>CardTransport</t>
-  </si>
-  <si>
-    <t>$action $cond by $amount from $src $srcPos to $dst $dstPos</t>
-  </si>
-  <si>
-    <t>从$src$srcPos$action$cond$amount张到$dst$dstPos</t>
-  </si>
-  <si>
-    <t>$src$srcPos$cond$amount枚を$dst$dstPosへ$action</t>
-  </si>
-  <si>
-    <t>Move</t>
-  </si>
-  <si>
-    <t>移动</t>
-  </si>
-  <si>
-    <t>移動</t>
-  </si>
-  <si>
-    <t>Copy</t>
-  </si>
-  <si>
-    <t>复制</t>
-  </si>
-  <si>
-    <t>コピー</t>
-  </si>
-  <si>
-    <t>Top</t>
-  </si>
-  <si>
-    <t>top</t>
-  </si>
-  <si>
-    <t>顶端</t>
-  </si>
-  <si>
-    <t>の上</t>
-  </si>
-  <si>
-    <t>Bottom</t>
-  </si>
-  <si>
-    <t>bottom</t>
-  </si>
-  <si>
-    <t>底端</t>
-  </si>
-  <si>
-    <t>の下</t>
-  </si>
-  <si>
-    <t>SpecificCards</t>
-  </si>
-  <si>
-    <t>cards of $cards</t>
-  </si>
-  <si>
-    <t>$cards中任意的卡牌</t>
-  </si>
-  <si>
-    <t>$cardsのどれかであるカード</t>
-  </si>
-  <si>
-    <t>SpecificCard</t>
-  </si>
-  <si>
-    <t>$name</t>
-  </si>
-  <si>
-    <t>MyHandCard</t>
-  </si>
-  <si>
-    <t>手牌</t>
-  </si>
-  <si>
-    <t>手札</t>
-  </si>
-  <si>
-    <t>EnemyHandCard</t>
-  </si>
-  <si>
-    <t>对方手牌</t>
-  </si>
-  <si>
-    <t>相手手札</t>
-  </si>
-  <si>
-    <t>MyDeck</t>
-  </si>
-  <si>
-    <t>EnemyDeck</t>
-  </si>
-  <si>
-    <t>对方卡组</t>
-  </si>
-  <si>
-    <t>相手デッキ</t>
-  </si>
-  <si>
-    <t>Field</t>
-  </si>
-  <si>
-    <t>场地</t>
-  </si>
-  <si>
-    <t>フィールド</t>
-  </si>
-  <si>
-    <t>MyField</t>
-  </si>
-  <si>
-    <t>自己场地</t>
-  </si>
-  <si>
-    <t>自分フィールド</t>
-  </si>
-  <si>
-    <t>EnemyField</t>
-  </si>
-  <si>
-    <t>对方场地</t>
-  </si>
-  <si>
-    <t>相手フィールド</t>
-  </si>
-  <si>
-    <t>OffSite</t>
-  </si>
-  <si>
-    <t>场外</t>
-  </si>
-  <si>
-    <t>場外</t>
-  </si>
-  <si>
-    <t>AfterThat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">, and </t>
-  </si>
-  <si>
-    <t>，之后</t>
-  </si>
-  <si>
-    <t>し、</t>
   </si>
 </sst>
 </file>
@@ -940,6 +992,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -948,7 +1001,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -962,31 +1036,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1005,6 +1056,14 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1039,6 +1098,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -1047,8 +1113,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1057,21 +1124,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1092,55 +1144,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1152,37 +1162,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1206,7 +1186,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1218,7 +1282,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1230,19 +1300,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1254,19 +1312,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1295,41 +1347,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1349,11 +1373,35 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1367,13 +1415,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1385,7 +1437,7 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
@@ -1397,16 +1449,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1415,115 +1467,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1882,6 +1934,77 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1" outlineLevelRow="3" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="29" customWidth="1"/>
+    <col min="2" max="2" width="40.1111111111111" customWidth="1"/>
+    <col min="3" max="3" width="32.4444444444444" customWidth="1"/>
+    <col min="4" max="4" width="34.5555555555556" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" customHeight="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" customHeight="1" spans="1:4">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="1:4">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" spans="1:4">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1912,86 +2035,86 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -2001,13 +2124,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
@@ -2034,275 +2157,289 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="D3" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="D4" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="C5" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="C6" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="D6" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="C7" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="D7" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="C8" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="D8" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="C9" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="D9" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="C10" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="D10" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="C11" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="D11" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="C12" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="D12" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="C13" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="D13" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="C14" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="D14" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="C15" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="D15" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="C16" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="D16" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="C17" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="D17" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="B18" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="C18" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="D18" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="C19" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="D19" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="C20" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="D20" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="C21" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="D21" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="C22" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="D22" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="C23" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="D23" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="C24" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="D24" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="C25" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="D25" t="s">
-        <v>96</v>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>106</v>
+      </c>
+      <c r="B26" t="s">
+        <v>107</v>
+      </c>
+      <c r="C26" t="s">
+        <v>108</v>
+      </c>
+      <c r="D26" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -2312,7 +2449,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:D20"/>
@@ -2345,211 +2482,211 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="C2" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="D2" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="C3" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="D3" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="C4" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="D4" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="C5" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="D5" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="C6" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="D6" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="C7" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="D7" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="C8" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="D8" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="C9" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="D9" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="C10" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="D10" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="C11" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="D11" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="C12" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="D12" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="C13" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="D13" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="C14" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="D14" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="C15" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="D15" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="C16" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="D16" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="C17" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="D17" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="C18" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="D18" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="C19" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="D19" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="C20" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="D20" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -2559,7 +2696,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:D27"/>
@@ -2592,288 +2729,288 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="C2" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="D2" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="C3" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="D3" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="C4" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="D4" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="C5" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="D5" t="s">
-        <v>165</v>
+        <v>178</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>166</v>
+        <v>179</v>
       </c>
       <c r="C6" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="D6" t="s">
-        <v>168</v>
+        <v>181</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="C7" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="D7" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="C8" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
       <c r="D8" t="s">
-        <v>174</v>
+        <v>187</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="C9" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="D9" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="C10" t="s">
-        <v>178</v>
+        <v>191</v>
       </c>
       <c r="D10" t="s">
-        <v>178</v>
+        <v>191</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="C11" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
       <c r="D11" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>181</v>
+        <v>194</v>
       </c>
       <c r="C12" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="D12" t="s">
-        <v>183</v>
+        <v>196</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>184</v>
+        <v>197</v>
       </c>
       <c r="C13" t="s">
-        <v>185</v>
+        <v>198</v>
       </c>
       <c r="D13" t="s">
-        <v>186</v>
+        <v>199</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>187</v>
+        <v>200</v>
       </c>
       <c r="C14" t="s">
-        <v>188</v>
+        <v>201</v>
       </c>
       <c r="D14" t="s">
-        <v>189</v>
+        <v>202</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>190</v>
+        <v>203</v>
       </c>
       <c r="C15" t="s">
-        <v>191</v>
+        <v>204</v>
       </c>
       <c r="D15" t="s">
-        <v>192</v>
+        <v>205</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>193</v>
+        <v>206</v>
       </c>
       <c r="C16" t="s">
-        <v>194</v>
+        <v>207</v>
       </c>
       <c r="D16" t="s">
-        <v>195</v>
+        <v>208</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>196</v>
+        <v>209</v>
       </c>
       <c r="C17" t="s">
-        <v>197</v>
+        <v>210</v>
       </c>
       <c r="D17" t="s">
-        <v>198</v>
+        <v>211</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>199</v>
+        <v>212</v>
       </c>
       <c r="C18" t="s">
-        <v>200</v>
+        <v>213</v>
       </c>
       <c r="D18" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>202</v>
+        <v>215</v>
       </c>
       <c r="C19" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="D19" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="C20" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="D20" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="C21" t="s">
-        <v>209</v>
+        <v>222</v>
       </c>
       <c r="D21" t="s">
-        <v>210</v>
+        <v>223</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>211</v>
+        <v>224</v>
       </c>
       <c r="C22" t="s">
-        <v>212</v>
+        <v>225</v>
       </c>
       <c r="D22" t="s">
-        <v>213</v>
+        <v>226</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>214</v>
+        <v>227</v>
       </c>
       <c r="C23" t="s">
-        <v>215</v>
+        <v>228</v>
       </c>
       <c r="D23" t="s">
-        <v>216</v>
+        <v>229</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>217</v>
+        <v>230</v>
       </c>
       <c r="C24" t="s">
-        <v>218</v>
+        <v>231</v>
       </c>
       <c r="D24" t="s">
-        <v>218</v>
+        <v>231</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>219</v>
+        <v>232</v>
       </c>
       <c r="C25" t="s">
-        <v>220</v>
+        <v>233</v>
       </c>
       <c r="D25" t="s">
-        <v>221</v>
+        <v>234</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>222</v>
+        <v>235</v>
       </c>
       <c r="C26" t="s">
-        <v>223</v>
+        <v>236</v>
       </c>
       <c r="D26" t="s">
-        <v>224</v>
+        <v>237</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>225</v>
+        <v>238</v>
       </c>
       <c r="C27" t="s">
-        <v>226</v>
+        <v>239</v>
       </c>
       <c r="D27" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
     </row>
   </sheetData>
@@ -2883,16 +3020,16 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="29" customWidth="1"/>
     <col min="2" max="2" width="40.1111111111111" customWidth="1"/>
@@ -2916,24 +3053,38 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>228</v>
+        <v>241</v>
       </c>
       <c r="C2" t="s">
-        <v>229</v>
+        <v>242</v>
       </c>
       <c r="D2" t="s">
-        <v>230</v>
+        <v>243</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>231</v>
+        <v>244</v>
       </c>
       <c r="C3" t="s">
-        <v>232</v>
+        <v>245</v>
       </c>
       <c r="D3" t="s">
-        <v>233</v>
+        <v>246</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>247</v>
+      </c>
+      <c r="B4" t="s">
+        <v>248</v>
+      </c>
+      <c r="C4" t="s">
+        <v>249</v>
+      </c>
+      <c r="D4" t="s">
+        <v>250</v>
       </c>
     </row>
   </sheetData>
@@ -2943,7 +3094,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:D2"/>
@@ -2976,13 +3127,13 @@
     </row>
     <row r="2" ht="109" customHeight="1" spans="1:4">
       <c r="A2" t="s">
-        <v>234</v>
+        <v>251</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>235</v>
+        <v>252</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>236</v>
+        <v>253</v>
       </c>
     </row>
   </sheetData>
@@ -2992,7 +3143,250 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="29" customWidth="1"/>
+    <col min="2" max="2" width="46.7777777777778" customWidth="1"/>
+    <col min="3" max="3" width="38.5555555555556" customWidth="1"/>
+    <col min="4" max="4" width="46" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" customHeight="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" customHeight="1" spans="1:4">
+      <c r="A2" t="s">
+        <v>254</v>
+      </c>
+      <c r="C2" t="s">
+        <v>255</v>
+      </c>
+      <c r="D2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="1:4">
+      <c r="A3" t="s">
+        <v>257</v>
+      </c>
+      <c r="B3" t="s">
+        <v>258</v>
+      </c>
+      <c r="C3" t="s">
+        <v>259</v>
+      </c>
+      <c r="D3" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" spans="1:4">
+      <c r="A4" t="s">
+        <v>261</v>
+      </c>
+      <c r="C4" t="s">
+        <v>262</v>
+      </c>
+      <c r="D4" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" spans="1:4">
+      <c r="A5" t="s">
+        <v>264</v>
+      </c>
+      <c r="C5" t="s">
+        <v>265</v>
+      </c>
+      <c r="D5" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="1:4">
+      <c r="A6" t="s">
+        <v>267</v>
+      </c>
+      <c r="B6" t="s">
+        <v>268</v>
+      </c>
+      <c r="C6" t="s">
+        <v>269</v>
+      </c>
+      <c r="D6" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="1:4">
+      <c r="A7" t="s">
+        <v>271</v>
+      </c>
+      <c r="B7" t="s">
+        <v>272</v>
+      </c>
+      <c r="C7" t="s">
+        <v>273</v>
+      </c>
+      <c r="D7" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="1:4">
+      <c r="A8" t="s">
+        <v>275</v>
+      </c>
+      <c r="B8" t="s">
+        <v>276</v>
+      </c>
+      <c r="C8" t="s">
+        <v>277</v>
+      </c>
+      <c r="D8" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="1:4">
+      <c r="A9" t="s">
+        <v>279</v>
+      </c>
+      <c r="B9" t="s">
+        <v>280</v>
+      </c>
+      <c r="C9" t="s">
+        <v>280</v>
+      </c>
+      <c r="D9" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="1:4">
+      <c r="A10" t="s">
+        <v>281</v>
+      </c>
+      <c r="C10" t="s">
+        <v>282</v>
+      </c>
+      <c r="D10" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" spans="1:4">
+      <c r="A11" t="s">
+        <v>284</v>
+      </c>
+      <c r="C11" t="s">
+        <v>285</v>
+      </c>
+      <c r="D11" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" spans="1:4">
+      <c r="A12" t="s">
+        <v>287</v>
+      </c>
+      <c r="C12" t="s">
+        <v>171</v>
+      </c>
+      <c r="D12" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="13" customHeight="1" spans="1:4">
+      <c r="A13" t="s">
+        <v>288</v>
+      </c>
+      <c r="C13" t="s">
+        <v>289</v>
+      </c>
+      <c r="D13" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="14" customHeight="1" spans="1:4">
+      <c r="A14" t="s">
+        <v>291</v>
+      </c>
+      <c r="C14" t="s">
+        <v>292</v>
+      </c>
+      <c r="D14" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="15" customHeight="1" spans="1:4">
+      <c r="A15" t="s">
+        <v>294</v>
+      </c>
+      <c r="C15" t="s">
+        <v>295</v>
+      </c>
+      <c r="D15" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="16" customHeight="1" spans="1:4">
+      <c r="A16" t="s">
+        <v>297</v>
+      </c>
+      <c r="C16" t="s">
+        <v>298</v>
+      </c>
+      <c r="D16" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="17" customHeight="1" spans="1:4">
+      <c r="A17" t="s">
+        <v>300</v>
+      </c>
+      <c r="C17" t="s">
+        <v>301</v>
+      </c>
+      <c r="D17" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="18" customHeight="1" spans="1:4">
+      <c r="A18" t="s">
+        <v>303</v>
+      </c>
+      <c r="B18" t="s">
+        <v>304</v>
+      </c>
+      <c r="C18" t="s">
+        <v>305</v>
+      </c>
+      <c r="D18" t="s">
+        <v>306</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:D3"/>
@@ -3025,267 +3419,24 @@
     </row>
     <row r="2" customHeight="1" spans="1:4">
       <c r="A2" t="s">
-        <v>237</v>
+        <v>307</v>
       </c>
       <c r="C2" t="s">
-        <v>238</v>
+        <v>308</v>
       </c>
       <c r="D2" t="s">
-        <v>239</v>
+        <v>309</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:4">
       <c r="A3" t="s">
-        <v>240</v>
+        <v>310</v>
       </c>
       <c r="C3" t="s">
-        <v>241</v>
+        <v>311</v>
       </c>
       <c r="D3" t="s">
-        <v>242</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:D18"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1" outlineLevelCol="3"/>
-  <cols>
-    <col min="1" max="1" width="29" customWidth="1"/>
-    <col min="2" max="2" width="46.7777777777778" customWidth="1"/>
-    <col min="3" max="3" width="38.5555555555556" customWidth="1"/>
-    <col min="4" max="4" width="46" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" customHeight="1" spans="1:4">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" customHeight="1" spans="1:4">
-      <c r="A2" t="s">
-        <v>243</v>
-      </c>
-      <c r="C2" t="s">
-        <v>244</v>
-      </c>
-      <c r="D2" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="3" customHeight="1" spans="1:4">
-      <c r="A3" t="s">
-        <v>246</v>
-      </c>
-      <c r="B3" t="s">
-        <v>247</v>
-      </c>
-      <c r="C3" t="s">
-        <v>248</v>
-      </c>
-      <c r="D3" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="4" customHeight="1" spans="1:4">
-      <c r="A4" t="s">
-        <v>250</v>
-      </c>
-      <c r="C4" t="s">
-        <v>251</v>
-      </c>
-      <c r="D4" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="5" customHeight="1" spans="1:4">
-      <c r="A5" t="s">
-        <v>253</v>
-      </c>
-      <c r="C5" t="s">
-        <v>254</v>
-      </c>
-      <c r="D5" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="6" customHeight="1" spans="1:4">
-      <c r="A6" t="s">
-        <v>256</v>
-      </c>
-      <c r="B6" t="s">
-        <v>257</v>
-      </c>
-      <c r="C6" t="s">
-        <v>258</v>
-      </c>
-      <c r="D6" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="7" customHeight="1" spans="1:4">
-      <c r="A7" t="s">
-        <v>260</v>
-      </c>
-      <c r="B7" t="s">
-        <v>261</v>
-      </c>
-      <c r="C7" t="s">
-        <v>262</v>
-      </c>
-      <c r="D7" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="8" customHeight="1" spans="1:4">
-      <c r="A8" t="s">
-        <v>264</v>
-      </c>
-      <c r="B8" t="s">
-        <v>265</v>
-      </c>
-      <c r="C8" t="s">
-        <v>266</v>
-      </c>
-      <c r="D8" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="9" customHeight="1" spans="1:4">
-      <c r="A9" t="s">
-        <v>268</v>
-      </c>
-      <c r="B9" t="s">
-        <v>269</v>
-      </c>
-      <c r="C9" t="s">
-        <v>269</v>
-      </c>
-      <c r="D9" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="10" customHeight="1" spans="1:4">
-      <c r="A10" t="s">
-        <v>270</v>
-      </c>
-      <c r="C10" t="s">
-        <v>271</v>
-      </c>
-      <c r="D10" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="11" customHeight="1" spans="1:4">
-      <c r="A11" t="s">
-        <v>273</v>
-      </c>
-      <c r="C11" t="s">
-        <v>274</v>
-      </c>
-      <c r="D11" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="12" customHeight="1" spans="1:4">
-      <c r="A12" t="s">
-        <v>276</v>
-      </c>
-      <c r="C12" t="s">
-        <v>158</v>
-      </c>
-      <c r="D12" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="13" customHeight="1" spans="1:4">
-      <c r="A13" t="s">
-        <v>277</v>
-      </c>
-      <c r="C13" t="s">
-        <v>278</v>
-      </c>
-      <c r="D13" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="14" customHeight="1" spans="1:4">
-      <c r="A14" t="s">
-        <v>280</v>
-      </c>
-      <c r="C14" t="s">
-        <v>281</v>
-      </c>
-      <c r="D14" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="15" customHeight="1" spans="1:4">
-      <c r="A15" t="s">
-        <v>283</v>
-      </c>
-      <c r="C15" t="s">
-        <v>284</v>
-      </c>
-      <c r="D15" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="16" customHeight="1" spans="1:4">
-      <c r="A16" t="s">
-        <v>286</v>
-      </c>
-      <c r="C16" t="s">
-        <v>287</v>
-      </c>
-      <c r="D16" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="17" customHeight="1" spans="1:4">
-      <c r="A17" t="s">
-        <v>289</v>
-      </c>
-      <c r="C17" t="s">
-        <v>290</v>
-      </c>
-      <c r="D17" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="18" customHeight="1" spans="1:4">
-      <c r="A18" t="s">
-        <v>292</v>
-      </c>
-      <c r="B18" t="s">
-        <v>293</v>
-      </c>
-      <c r="C18" t="s">
-        <v>294</v>
-      </c>
-      <c r="D18" t="s">
-        <v>295</v>
+        <v>312</v>
       </c>
     </row>
   </sheetData>

--- a/ChemicalSummon/Assets/StreamingAssets/TranslatableSentence.xlsx
+++ b/ChemicalSummon/Assets/StreamingAssets/TranslatableSentence.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" activeTab="5"/>
+    <workbookView windowWidth="22368" windowHeight="9420" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="12" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="321">
   <si>
     <t>ScriptableObjectName</t>
   </si>
@@ -946,6 +946,30 @@
   </si>
   <si>
     <t>し、</t>
+  </si>
+  <si>
+    <t>ShuffleDeck</t>
+  </si>
+  <si>
+    <t>shuffle deck</t>
+  </si>
+  <si>
+    <t>卡组洗牌</t>
+  </si>
+  <si>
+    <t>デッキシャッフル</t>
+  </si>
+  <si>
+    <t>DrawXCard</t>
+  </si>
+  <si>
+    <t>draw $amount card</t>
+  </si>
+  <si>
+    <t>抽$amount张牌</t>
+  </si>
+  <si>
+    <t>$amount枚ドロー</t>
   </si>
   <si>
     <t>ChangeCardBackground</t>
@@ -971,9 +995,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -986,7 +1010,36 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -994,14 +1047,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1015,14 +1061,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1036,16 +1083,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1059,26 +1099,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1098,13 +1122,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -1121,9 +1138,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1135,90 +1159,6 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1234,43 +1174,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1288,7 +1198,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1300,25 +1288,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1343,17 +1367,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1397,24 +1410,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1429,6 +1424,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1437,10 +1461,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1449,133 +1473,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3025,8 +3049,8 @@
   <sheetPr/>
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="3"/>
@@ -3146,10 +3170,10 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1" outlineLevelCol="3"/>
@@ -3377,6 +3401,34 @@
       </c>
       <c r="D18" t="s">
         <v>306</v>
+      </c>
+    </row>
+    <row r="19" customHeight="1" spans="1:4">
+      <c r="A19" t="s">
+        <v>307</v>
+      </c>
+      <c r="B19" t="s">
+        <v>308</v>
+      </c>
+      <c r="C19" t="s">
+        <v>309</v>
+      </c>
+      <c r="D19" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="20" customHeight="1" spans="1:4">
+      <c r="A20" t="s">
+        <v>311</v>
+      </c>
+      <c r="B20" t="s">
+        <v>312</v>
+      </c>
+      <c r="C20" t="s">
+        <v>313</v>
+      </c>
+      <c r="D20" t="s">
+        <v>314</v>
       </c>
     </row>
   </sheetData>
@@ -3419,24 +3471,24 @@
     </row>
     <row r="2" customHeight="1" spans="1:4">
       <c r="A2" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="C2" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="D2" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:4">
       <c r="A3" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="C3" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="D3" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
     </row>
   </sheetData>

--- a/ChemicalSummon/Assets/StreamingAssets/TranslatableSentence.xlsx
+++ b/ChemicalSummon/Assets/StreamingAssets/TranslatableSentence.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="329">
   <si>
     <t>ScriptableObjectName</t>
   </si>
@@ -970,6 +970,30 @@
   </si>
   <si>
     <t>$amount枚ドロー</t>
+  </si>
+  <si>
+    <t>PlayerHP</t>
+  </si>
+  <si>
+    <t>Player Health</t>
+  </si>
+  <si>
+    <t>玩家血量</t>
+  </si>
+  <si>
+    <t>プレイヤーHP</t>
+  </si>
+  <si>
+    <t>EnemyHP</t>
+  </si>
+  <si>
+    <t>Enemy Health</t>
+  </si>
+  <si>
+    <t>对手血量</t>
+  </si>
+  <si>
+    <t>相手HP</t>
   </si>
   <si>
     <t>ChangeCardBackground</t>
@@ -996,8 +1020,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -1009,8 +1033,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1024,44 +1070,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1083,26 +1092,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1130,6 +1131,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -1139,7 +1147,23 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1162,7 +1186,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1174,7 +1204,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1186,37 +1294,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1228,61 +1306,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1300,37 +1324,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1342,7 +1360,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1353,6 +1377,24 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1386,21 +1428,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1425,20 +1452,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1461,10 +1485,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1473,133 +1497,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3170,10 +3194,10 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1" outlineLevelCol="3"/>
@@ -3429,6 +3453,34 @@
       </c>
       <c r="D20" t="s">
         <v>314</v>
+      </c>
+    </row>
+    <row r="21" customHeight="1" spans="1:4">
+      <c r="A21" t="s">
+        <v>315</v>
+      </c>
+      <c r="B21" t="s">
+        <v>316</v>
+      </c>
+      <c r="C21" t="s">
+        <v>317</v>
+      </c>
+      <c r="D21" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="22" customHeight="1" spans="1:4">
+      <c r="A22" t="s">
+        <v>319</v>
+      </c>
+      <c r="B22" t="s">
+        <v>320</v>
+      </c>
+      <c r="C22" t="s">
+        <v>321</v>
+      </c>
+      <c r="D22" t="s">
+        <v>322</v>
       </c>
     </row>
   </sheetData>
@@ -3471,24 +3523,24 @@
     </row>
     <row r="2" customHeight="1" spans="1:4">
       <c r="A2" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="C2" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="D2" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:4">
       <c r="A3" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="C3" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="D3" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
     </row>
   </sheetData>

--- a/ChemicalSummon/Assets/StreamingAssets/TranslatableSentence.xlsx
+++ b/ChemicalSummon/Assets/StreamingAssets/TranslatableSentence.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" activeTab="7"/>
+    <workbookView windowWidth="22368" windowHeight="9420" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="12" r:id="rId1"/>
@@ -429,10 +429,10 @@
     <t>Guide2-5</t>
   </si>
   <si>
-    <t>转移攻击姿态吧，可以使用【格挡区】的卡牌进行攻击了。</t>
-  </si>
-  <si>
-    <t>攻撃ターンに移行しよう,「シールドエリア」のカードで攻撃が可能だ。</t>
+    <t>在格挡区放置固体物质后，转移攻击姿态吧。</t>
+  </si>
+  <si>
+    <t>シールドエリアに固体カードを設置して、攻撃ターンに移行しよう</t>
   </si>
   <si>
     <t>Guide3-1</t>
@@ -1019,9 +1019,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -1033,11 +1033,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="0"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1048,10 +1047,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1062,15 +1062,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1087,6 +1088,21 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1124,38 +1140,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1169,9 +1155,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1186,79 +1186,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1282,7 +1222,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1294,31 +1306,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1342,31 +1336,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1377,39 +1377,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1433,6 +1400,30 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1469,6 +1460,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1485,10 +1485,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1497,16 +1497,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1518,112 +1518,112 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2502,8 +2502,8 @@
   <sheetPr/>
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
@@ -3196,7 +3196,7 @@
   <sheetPr/>
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+    <sheetView topLeftCell="A12" workbookViewId="0">
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>

--- a/ChemicalSummon/Assets/StreamingAssets/TranslatableSentence.xlsx
+++ b/ChemicalSummon/Assets/StreamingAssets/TranslatableSentence.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" activeTab="3"/>
+    <workbookView windowWidth="22368" windowHeight="9420" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="12" r:id="rId1"/>
     <sheet name="Title" sheetId="4" r:id="rId2"/>
     <sheet name="Match" sheetId="1" r:id="rId3"/>
     <sheet name="MatchGuide" sheetId="5" r:id="rId4"/>
-    <sheet name="Map" sheetId="7" r:id="rId5"/>
+    <sheet name="World" sheetId="7" r:id="rId5"/>
     <sheet name="Card" sheetId="9" r:id="rId6"/>
     <sheet name="ChangeLog" sheetId="8" r:id="rId7"/>
     <sheet name="Ability" sheetId="11" r:id="rId8"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="332">
   <si>
     <t>ScriptableObjectName</t>
   </si>
@@ -649,6 +649,15 @@
   </si>
   <si>
     <t>カード数</t>
+  </si>
+  <si>
+    <t>ClickAnyItem</t>
+  </si>
+  <si>
+    <t>点击任意道具</t>
+  </si>
+  <si>
+    <t>アイテムをクリック</t>
   </si>
   <si>
     <t>ClickAnyReaction</t>
@@ -1019,10 +1028,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -1034,6 +1043,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -1041,22 +1064,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1064,14 +1072,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1101,20 +1109,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -1140,6 +1134,21 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
@@ -1148,13 +1157,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -1176,6 +1178,13 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -1186,7 +1195,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1198,7 +1243,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1210,7 +1291,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1222,13 +1309,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1240,37 +1339,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1282,91 +1375,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1377,6 +1386,36 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1404,17 +1443,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1422,8 +1455,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1443,30 +1476,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1485,10 +1494,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1497,16 +1506,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1518,112 +1527,112 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2502,7 +2511,7 @@
   <sheetPr/>
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -2747,10 +2756,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
@@ -3025,15 +3034,15 @@
         <v>231</v>
       </c>
       <c r="D24" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C25" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D25" t="s">
         <v>234</v>
@@ -3059,6 +3068,17 @@
       </c>
       <c r="D27" t="s">
         <v>240</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>241</v>
+      </c>
+      <c r="C28" t="s">
+        <v>242</v>
+      </c>
+      <c r="D28" t="s">
+        <v>243</v>
       </c>
     </row>
   </sheetData>
@@ -3101,38 +3121,38 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="C2" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="D2" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="C3" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="D3" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="B4" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="C4" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="D4" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
     </row>
   </sheetData>
@@ -3175,13 +3195,13 @@
     </row>
     <row r="2" ht="109" customHeight="1" spans="1:4">
       <c r="A2" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
     </row>
   </sheetData>
@@ -3224,132 +3244,132 @@
     </row>
     <row r="2" customHeight="1" spans="1:4">
       <c r="A2" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="C2" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="D2" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:4">
       <c r="A3" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="B3" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="C3" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="D3" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:4">
       <c r="A4" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="C4" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="D4" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:4">
       <c r="A5" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="C5" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="D5" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:4">
       <c r="A6" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="B6" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="C6" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="D6" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:4">
       <c r="A7" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="B7" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C7" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="D7" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:4">
       <c r="A8" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="B8" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="C8" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="D8" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:4">
       <c r="A9" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="B9" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="C9" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="D9" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:4">
       <c r="A10" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="C10" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="D10" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:4">
       <c r="A11" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="C11" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="D11" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:4">
       <c r="A12" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="C12" t="s">
         <v>171</v>
@@ -3360,127 +3380,127 @@
     </row>
     <row r="13" customHeight="1" spans="1:4">
       <c r="A13" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="C13" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="D13" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:4">
       <c r="A14" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="C14" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="D14" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:4">
       <c r="A15" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C15" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="D15" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:4">
       <c r="A16" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="C16" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="D16" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:4">
       <c r="A17" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="C17" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="D17" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:4">
       <c r="A18" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="B18" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="C18" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="D18" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:4">
       <c r="A19" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="B19" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="C19" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="D19" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:4">
       <c r="A20" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="B20" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="C20" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="D20" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:4">
       <c r="A21" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="B21" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="C21" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="D21" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:4">
       <c r="A22" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="B22" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="C22" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="D22" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
     </row>
   </sheetData>
@@ -3496,7 +3516,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1" outlineLevelRow="2" outlineLevelCol="3"/>
@@ -3523,24 +3543,24 @@
     </row>
     <row r="2" customHeight="1" spans="1:4">
       <c r="A2" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="C2" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="D2" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:4">
       <c r="A3" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="C3" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="D3" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
     </row>
   </sheetData>

--- a/ChemicalSummon/Assets/StreamingAssets/TranslatableSentence.xlsx
+++ b/ChemicalSummon/Assets/StreamingAssets/TranslatableSentence.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" firstSheet="1" activeTab="4"/>
+    <workbookView windowWidth="22368" windowHeight="9420" firstSheet="1" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="12" r:id="rId1"/>
@@ -16,13 +16,14 @@
     <sheet name="ChangeLog" sheetId="8" r:id="rId7"/>
     <sheet name="Ability" sheetId="11" r:id="rId8"/>
     <sheet name="Other" sheetId="6" r:id="rId9"/>
+    <sheet name="MatchLog" sheetId="14" r:id="rId10"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="382">
   <si>
     <t>ScriptableObjectName</t>
   </si>
@@ -1021,6 +1022,156 @@
   </si>
   <si>
     <t>融合魔法陣変更</t>
+  </si>
+  <si>
+    <t>PlayerActionLog_Draw</t>
+  </si>
+  <si>
+    <t>draw $card</t>
+  </si>
+  <si>
+    <t>抽牌 $card</t>
+  </si>
+  <si>
+    <t>ドロー $card</t>
+  </si>
+  <si>
+    <t>PlayerActionLog_Fusion</t>
+  </si>
+  <si>
+    <t>fusion $fusion</t>
+  </si>
+  <si>
+    <t>进行融合$fusion</t>
+  </si>
+  <si>
+    <t>PlayerActionLog_Battle</t>
+  </si>
+  <si>
+    <t>let $card1($atk1ATK) battle with $card2($atk2ATK)</t>
+  </si>
+  <si>
+    <t>用$card1($atk1ATK)与$card2($atk2ATK)战斗</t>
+  </si>
+  <si>
+    <t>$card1($atk1ATK)で$card2($atk2ATK)と戦闘</t>
+  </si>
+  <si>
+    <t>PlayerActionLog_CardAbility</t>
+  </si>
+  <si>
+    <t>activated $card 's skill $index "$action"</t>
+  </si>
+  <si>
+    <t>发动了$card的能力$index$action</t>
+  </si>
+  <si>
+    <t>$cardの能力$index$actionを発動</t>
+  </si>
+  <si>
+    <t>CardDecreaseLog</t>
+  </si>
+  <si>
+    <t>$card $action by $amount because $reason</t>
+  </si>
+  <si>
+    <t>$card因$reason$action$amount张</t>
+  </si>
+  <si>
+    <t>$cardが$reasonため$amount枚が$action</t>
+  </si>
+  <si>
+    <t>ExitByDamage</t>
+  </si>
+  <si>
+    <t>knock out</t>
+  </si>
+  <si>
+    <t>击败</t>
+  </si>
+  <si>
+    <t>撃破された</t>
+  </si>
+  <si>
+    <t>ExitByFusion</t>
+  </si>
+  <si>
+    <t>been fusion material</t>
+  </si>
+  <si>
+    <t>作为融合素材</t>
+  </si>
+  <si>
+    <t>融合発動に使われた</t>
+  </si>
+  <si>
+    <t>ExitByAbilityCost</t>
+  </si>
+  <si>
+    <t>ability cost</t>
+  </si>
+  <si>
+    <t>作为能力代价</t>
+  </si>
+  <si>
+    <t>能力発動に使われた</t>
+  </si>
+  <si>
+    <t>ReturnToDeckBottom</t>
+  </si>
+  <si>
+    <t>回到卡组底端</t>
+  </si>
+  <si>
+    <t>デッキ底に帰還</t>
+  </si>
+  <si>
+    <t>Vanish</t>
+  </si>
+  <si>
+    <t>消失</t>
+  </si>
+  <si>
+    <t>消滅</t>
+  </si>
+  <si>
+    <t>ReturnDeck</t>
+  </si>
+  <si>
+    <t>return deck</t>
+  </si>
+  <si>
+    <t>返回卡组</t>
+  </si>
+  <si>
+    <t>デッキに返還</t>
+  </si>
+  <si>
+    <t>AttackCard</t>
+  </si>
+  <si>
+    <t>攻击卡牌</t>
+  </si>
+  <si>
+    <t>カードへ攻撃</t>
+  </si>
+  <si>
+    <t>AttackGamer</t>
+  </si>
+  <si>
+    <t>攻击玩家</t>
+  </si>
+  <si>
+    <t>プレイヤーへ攻撃</t>
+  </si>
+  <si>
+    <t>DeclareAttack</t>
+  </si>
+  <si>
+    <t>攻击宣言</t>
+  </si>
+  <si>
+    <t>攻撃宣言</t>
   </si>
 </sst>
 </file>
@@ -1028,9 +1179,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -1050,6 +1201,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -1063,8 +1228,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1072,22 +1238,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1106,6 +1257,13 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1142,15 +1300,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1164,23 +1314,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1201,13 +1352,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1219,61 +1418,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1291,13 +1442,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1309,7 +1466,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1321,61 +1526,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1386,21 +1537,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1415,6 +1551,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1461,16 +1612,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1494,10 +1645,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1506,19 +1657,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1530,109 +1681,109 @@
     <xf numFmtId="0" fontId="0" fillId="16" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2059,6 +2210,225 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="29" customWidth="1"/>
+    <col min="2" max="2" width="45.4444444444444" customWidth="1"/>
+    <col min="3" max="3" width="49.6666666666667" customWidth="1"/>
+    <col min="4" max="4" width="51.5555555555556" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" customHeight="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" customHeight="1" spans="1:4">
+      <c r="A2" t="s">
+        <v>332</v>
+      </c>
+      <c r="B2" t="s">
+        <v>333</v>
+      </c>
+      <c r="C2" t="s">
+        <v>334</v>
+      </c>
+      <c r="D2" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="1:4">
+      <c r="A3" t="s">
+        <v>336</v>
+      </c>
+      <c r="B3" t="s">
+        <v>337</v>
+      </c>
+      <c r="C3" t="s">
+        <v>338</v>
+      </c>
+      <c r="D3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" spans="1:4">
+      <c r="A4" t="s">
+        <v>339</v>
+      </c>
+      <c r="B4" t="s">
+        <v>340</v>
+      </c>
+      <c r="C4" t="s">
+        <v>341</v>
+      </c>
+      <c r="D4" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" spans="1:4">
+      <c r="A5" t="s">
+        <v>343</v>
+      </c>
+      <c r="B5" t="s">
+        <v>344</v>
+      </c>
+      <c r="C5" t="s">
+        <v>345</v>
+      </c>
+      <c r="D5" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="1:4">
+      <c r="A6" t="s">
+        <v>347</v>
+      </c>
+      <c r="B6" t="s">
+        <v>348</v>
+      </c>
+      <c r="C6" t="s">
+        <v>349</v>
+      </c>
+      <c r="D6" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="1:4">
+      <c r="A7" t="s">
+        <v>351</v>
+      </c>
+      <c r="B7" t="s">
+        <v>352</v>
+      </c>
+      <c r="C7" t="s">
+        <v>353</v>
+      </c>
+      <c r="D7" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="1:4">
+      <c r="A8" t="s">
+        <v>355</v>
+      </c>
+      <c r="B8" t="s">
+        <v>356</v>
+      </c>
+      <c r="C8" t="s">
+        <v>357</v>
+      </c>
+      <c r="D8" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="1:4">
+      <c r="A9" t="s">
+        <v>359</v>
+      </c>
+      <c r="B9" t="s">
+        <v>360</v>
+      </c>
+      <c r="C9" t="s">
+        <v>361</v>
+      </c>
+      <c r="D9" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="1:4">
+      <c r="A10" t="s">
+        <v>363</v>
+      </c>
+      <c r="C10" t="s">
+        <v>364</v>
+      </c>
+      <c r="D10" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" spans="1:4">
+      <c r="A11" t="s">
+        <v>366</v>
+      </c>
+      <c r="C11" t="s">
+        <v>367</v>
+      </c>
+      <c r="D11" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" spans="1:4">
+      <c r="A12" t="s">
+        <v>369</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="C12" t="s">
+        <v>371</v>
+      </c>
+      <c r="D12" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="13" customHeight="1" spans="1:4">
+      <c r="A13" t="s">
+        <v>373</v>
+      </c>
+      <c r="C13" t="s">
+        <v>374</v>
+      </c>
+      <c r="D13" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="14" customHeight="1" spans="1:4">
+      <c r="A14" t="s">
+        <v>376</v>
+      </c>
+      <c r="C14" t="s">
+        <v>377</v>
+      </c>
+      <c r="D14" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="15" customHeight="1" spans="1:4">
+      <c r="A15" t="s">
+        <v>379</v>
+      </c>
+      <c r="C15" t="s">
+        <v>380</v>
+      </c>
+      <c r="D15" t="s">
+        <v>381</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
@@ -2187,7 +2557,7 @@
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
@@ -2512,7 +2882,7 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
@@ -2758,7 +3128,7 @@
   <sheetPr/>
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
@@ -3216,8 +3586,8 @@
   <sheetPr/>
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1" outlineLevelCol="3"/>

--- a/ChemicalSummon/Assets/StreamingAssets/TranslatableSentence.xlsx
+++ b/ChemicalSummon/Assets/StreamingAssets/TranslatableSentence.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" firstSheet="1" activeTab="9"/>
+    <workbookView windowWidth="22368" windowHeight="9420" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="12" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="390">
   <si>
     <t>ScriptableObjectName</t>
   </si>
@@ -355,6 +355,30 @@
     <t>カードを$amount枚選択</t>
   </si>
   <si>
+    <t>StackHandCard</t>
+  </si>
+  <si>
+    <t>Stack</t>
+  </si>
+  <si>
+    <t>叠加手牌</t>
+  </si>
+  <si>
+    <t>スタック</t>
+  </si>
+  <si>
+    <t>DestackHandCard</t>
+  </si>
+  <si>
+    <t>Destack</t>
+  </si>
+  <si>
+    <t>拆分手牌</t>
+  </si>
+  <si>
+    <t>デスタック</t>
+  </si>
+  <si>
     <t>Guide1-1</t>
   </si>
   <si>
@@ -367,7 +391,7 @@
     <t>Guide1-2</t>
   </si>
   <si>
-    <t>融合阶段能自由替换格挡区的卡牌，叠加相同卡牌将增加攻击力（攻击力=防御力）。</t>
+    <t>融合阶段能自由替换格挡区的卡牌，叠加相同卡牌将增加z攻击力（攻击力=防御力）。</t>
   </si>
   <si>
     <t>融合ターンではシールドエリアを自由に入れ替えでき、同じカードを重ねれば攻撃力が上がる（攻撃力＝防御力）。</t>
@@ -1179,10 +1203,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -1194,14 +1218,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1215,14 +1240,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1236,17 +1276,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1257,13 +1288,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1292,6 +1316,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -1299,23 +1331,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1329,9 +1347,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1346,7 +1370,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1358,7 +1418,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1370,97 +1520,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1472,43 +1538,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1520,13 +1550,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1555,17 +1579,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1596,6 +1614,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -1603,11 +1632,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1626,17 +1661,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1645,10 +1669,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1657,133 +1681,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2215,7 +2239,7 @@
   <sheetPr/>
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
@@ -2243,27 +2267,27 @@
     </row>
     <row r="2" customHeight="1" spans="1:4">
       <c r="A2" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="B2" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="C2" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="D2" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:4">
       <c r="A3" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="B3" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="C3" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="D3" t="s">
         <v>105</v>
@@ -2271,155 +2295,155 @@
     </row>
     <row r="4" customHeight="1" spans="1:4">
       <c r="A4" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="B4" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="C4" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="D4" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:4">
       <c r="A5" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="B5" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="C5" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="D5" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:4">
       <c r="A6" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="B6" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="C6" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="D6" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:4">
       <c r="A7" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="B7" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="C7" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="D7" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:4">
       <c r="A8" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="B8" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="C8" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="D8" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:4">
       <c r="A9" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="B9" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="C9" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="D9" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:4">
       <c r="A10" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="C10" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="D10" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:4">
       <c r="A11" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="C11" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="D11" t="s">
-        <v>368</v>
+        <v>376</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:4">
       <c r="A12" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="C12" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="D12" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:4">
       <c r="A13" t="s">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="C13" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="D13" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:4">
       <c r="A14" t="s">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="C14" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="D14" t="s">
-        <v>378</v>
+        <v>386</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:4">
       <c r="A15" t="s">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="C15" t="s">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="D15" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
     </row>
   </sheetData>
@@ -2554,10 +2578,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
@@ -2869,6 +2893,34 @@
         <v>109</v>
       </c>
     </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>110</v>
+      </c>
+      <c r="B27" t="s">
+        <v>111</v>
+      </c>
+      <c r="C27" t="s">
+        <v>112</v>
+      </c>
+      <c r="D27" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>114</v>
+      </c>
+      <c r="B28" t="s">
+        <v>115</v>
+      </c>
+      <c r="C28" t="s">
+        <v>116</v>
+      </c>
+      <c r="D28" t="s">
+        <v>117</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2881,8 +2933,8 @@
   <sheetPr/>
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
@@ -2909,211 +2961,211 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="C2" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="D2" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="C3" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="D3" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="C4" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="D4" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="C5" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="D5" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="C6" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="D6" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="C7" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="D7" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="C8" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="D8" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="C9" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="D9" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="C10" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="D10" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="C11" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="D11" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="C12" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="D12" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="C13" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="D13" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="C14" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="D14" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="C15" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="D15" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="C16" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="D16" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="C17" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="D17" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="C18" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="D18" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="C19" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="D19" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="C20" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="D20" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -3156,299 +3208,299 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="C2" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="D2" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="C3" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="D3" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="C4" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="D4" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="C5" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="D5" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="C6" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="D6" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="C7" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="D7" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="C8" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="D8" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="C9" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="D9" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="C10" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="D10" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="C11" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="D11" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="C12" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="D12" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="C13" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="D13" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="C14" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="D14" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="C15" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="D15" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="C16" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="D16" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="C17" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="D17" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="C18" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="D18" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="C19" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="D19" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="C20" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="D20" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="C21" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="D21" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="C22" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="D22" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="C23" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="D23" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="C24" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="D24" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="C25" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="D25" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="C26" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="D26" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="C27" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="D27" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="C28" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="D28" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
     </row>
   </sheetData>
@@ -3491,38 +3543,38 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="C2" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="D2" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="C3" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="D3" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="B4" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="C4" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="D4" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
     </row>
   </sheetData>
@@ -3565,13 +3617,13 @@
     </row>
     <row r="2" ht="109" customHeight="1" spans="1:4">
       <c r="A2" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
     </row>
   </sheetData>
@@ -3614,263 +3666,263 @@
     </row>
     <row r="2" customHeight="1" spans="1:4">
       <c r="A2" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="C2" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="D2" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:4">
       <c r="A3" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="B3" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="C3" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="D3" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:4">
       <c r="A4" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="C4" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="D4" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:4">
       <c r="A5" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="C5" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="D5" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:4">
       <c r="A6" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="B6" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="C6" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="D6" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:4">
       <c r="A7" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="B7" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="C7" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="D7" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:4">
       <c r="A8" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="B8" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="C8" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="D8" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:4">
       <c r="A9" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="B9" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="C9" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="D9" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:4">
       <c r="A10" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="C10" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="D10" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:4">
       <c r="A11" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="C11" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="D11" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:4">
       <c r="A12" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="C12" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="D12" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:4">
       <c r="A13" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="C13" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="D13" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:4">
       <c r="A14" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="C14" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="D14" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:4">
       <c r="A15" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="C15" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="D15" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:4">
       <c r="A16" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="C16" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="D16" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:4">
       <c r="A17" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="C17" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="D17" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:4">
       <c r="A18" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="B18" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="C18" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="D18" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:4">
       <c r="A19" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="B19" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="C19" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="D19" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:4">
       <c r="A20" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="B20" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="C20" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="D20" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:4">
       <c r="A21" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="B21" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="C21" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="D21" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:4">
       <c r="A22" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="B22" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="C22" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="D22" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
     </row>
   </sheetData>
@@ -3913,24 +3965,24 @@
     </row>
     <row r="2" customHeight="1" spans="1:4">
       <c r="A2" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="C2" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="D2" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:4">
       <c r="A3" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="C3" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="D3" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
     </row>
   </sheetData>

--- a/ChemicalSummon/Assets/StreamingAssets/TranslatableSentence.xlsx
+++ b/ChemicalSummon/Assets/StreamingAssets/TranslatableSentence.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="404">
   <si>
     <t>ScriptableObjectName</t>
   </si>
@@ -379,175 +379,217 @@
     <t>デスタック</t>
   </si>
   <si>
-    <t>Guide1-1</t>
-  </si>
-  <si>
-    <t>游戏会以【融合阶段】开始。你会初始拿到五张卡牌。</t>
-  </si>
-  <si>
-    <t>ゲームは「融合ターン」から始まる。最初は五枚のカードが配られる。</t>
-  </si>
-  <si>
-    <t>Guide1-2</t>
-  </si>
-  <si>
-    <t>融合阶段能自由替换格挡区的卡牌，叠加相同卡牌将增加z攻击力（攻击力=防御力）。</t>
-  </si>
-  <si>
-    <t>融合ターンではシールドエリアを自由に入れ替えでき、同じカードを重ねれば攻撃力が上がる（攻撃力＝防御力）。</t>
-  </si>
-  <si>
-    <t>Guide1-3</t>
-  </si>
-  <si>
-    <t>其它卡牌能通过【融合】，发挥独特的效果。将在下回合介绍。</t>
-  </si>
-  <si>
-    <t>その他の物質は「融合」によって、独特の効果を発揮出来る。次のターンで説明する。</t>
-  </si>
-  <si>
-    <t>Guide1-4</t>
-  </si>
-  <si>
-    <t>第一回合还无法发动攻击。先按这里结束回合，等待对面的行动吧。</t>
-  </si>
-  <si>
-    <t>１ターン目ではまだ攻撃出来ない。先にターンを終了して、相手の行動を待とう。</t>
-  </si>
-  <si>
-    <t>Guide2-1</t>
-  </si>
-  <si>
-    <t>每次轮到自己回合补充一张卡牌。相同卡牌将在手牌内自动叠加。</t>
-  </si>
-  <si>
-    <t>自分のターンが来るたびに一枚のカードが配られる。同じ種類は手札で自動的に重ねられる。</t>
-  </si>
-  <si>
-    <t>Guide2-2</t>
-  </si>
-  <si>
-    <t>融合阶段时我们还能用融合攻击敌人。尝试用这些融合出【水(H2O)】。</t>
-  </si>
-  <si>
-    <t>融合ターンでは融合で相手を攻撃出来る。これらの素材で「水（H2O）」を融合してみよう。</t>
-  </si>
-  <si>
-    <t>Guide2-3</t>
-  </si>
-  <si>
-    <t>做的漂亮！接着让它与【钠(Na)】融合，发动爆炸反应吧。</t>
-  </si>
-  <si>
-    <t>素晴らしい！次に「ナトリウム（Na）」と融合させて、爆発反応を起こしてみよう。</t>
-  </si>
-  <si>
-    <t>Guide2-4</t>
-  </si>
-  <si>
-    <t>这就是爆炸反应。因为是全体伤害，便于穿透防御薄弱的区域。</t>
-  </si>
-  <si>
-    <t>これが爆発だ。全体攻撃なので、防御が薄いエリアを突くのに向いている。</t>
-  </si>
-  <si>
-    <t>Guide2-5</t>
-  </si>
-  <si>
-    <t>在格挡区放置固体物质后，转移攻击姿态吧。</t>
-  </si>
-  <si>
-    <t>シールドエリアに固体カードを設置して、攻撃ターンに移行しよう</t>
-  </si>
-  <si>
-    <t>Guide3-1</t>
-  </si>
-  <si>
-    <t>除全体攻击，敌方可以选择用哪张卡牌格挡。</t>
-  </si>
-  <si>
-    <t>全体攻撃を除き、敵はどのカードで防御するか選択出来る。</t>
-  </si>
-  <si>
-    <t>Guide3-2</t>
-  </si>
-  <si>
-    <t>因此，固体攻击要确保自己的攻击力总是高于对方。</t>
-  </si>
-  <si>
-    <t>そのため、固体攻撃は攻撃力が必ず相手を上回るように指示しよう。</t>
-  </si>
-  <si>
-    <t>Guide3-3</t>
-  </si>
-  <si>
-    <t>想要结束攻击可以在按这里，结束自己的回合。</t>
-  </si>
-  <si>
-    <t>攻撃を終了する時はここ押し、自分のターンを終える。</t>
-  </si>
-  <si>
-    <t>Guide4-1</t>
-  </si>
-  <si>
-    <t>对面攻击要来了！不过这个伤害看起来很高...这时候有另一种解决办法！</t>
-  </si>
-  <si>
-    <t>相手の攻撃だ！だがこの攻撃はかなり重たい…この場合は別の作戦がある！</t>
-  </si>
-  <si>
-    <t>Guide4-2</t>
-  </si>
-  <si>
-    <t>给你一些素材，你应该能看到【融合】按钮是发亮的。</t>
-  </si>
-  <si>
-    <t>素材を渡そう、「融合」ボタンが光った状態になっているはずだ。</t>
-  </si>
-  <si>
-    <t>Guide4-3</t>
-  </si>
-  <si>
-    <t>用【氧气(O2)】氧化对面的物质，发动【反击融合】吧！</t>
-  </si>
-  <si>
-    <t>「酸素（O2）」で相手の物質を酸化し、「カウンター融合」を発動しよう！</t>
-  </si>
-  <si>
-    <t>Guide4-4</t>
-  </si>
-  <si>
-    <t>像这样，攻击过来的固体作为融合素材，可无效攻击。</t>
-  </si>
-  <si>
-    <t>このように、攻撃してきた固体を融合素材にすることで、攻撃を無効化する技がある。</t>
-  </si>
-  <si>
-    <t>Guide4-5</t>
-  </si>
-  <si>
-    <t>反过来，自己的攻击也要注意不能被对方反击融合。</t>
-  </si>
-  <si>
-    <t>逆に、自分の攻撃もカウンターされないことに注意しながら行わなければならない。</t>
-  </si>
-  <si>
-    <t>Guide4-6</t>
-  </si>
-  <si>
-    <t>敌人打算用剩下所有兵力冲撞。用卡牌或者反击融合应战吧。</t>
-  </si>
-  <si>
-    <t>敵は総攻撃をするつもりのようだ。カードかカウンターで応戦しよう。</t>
-  </si>
-  <si>
-    <t>Guide5-1</t>
-  </si>
-  <si>
-    <t>引导结束！尝试用剩下的卡牌击破敌人吧！</t>
-  </si>
-  <si>
-    <t>ガイドはここまで！残りのカードで敵を撃破してみよう！</t>
+    <t>Guide1-1-1</t>
+  </si>
+  <si>
+    <t>哈喽-我是这个学院的学生指导用电子精灵！</t>
+  </si>
+  <si>
+    <t>Guide1-1-2</t>
+  </si>
+  <si>
+    <t>我负责向大家教导战斗的基础知识。</t>
+  </si>
+  <si>
+    <t>Guide1-1-3</t>
+  </si>
+  <si>
+    <t>首先，请猜一下这个卡上的精灵是【单质】还是【化合物】吧。</t>
+  </si>
+  <si>
+    <t>Guide1-1-4</t>
+  </si>
+  <si>
+    <t>你猜对，拿到先攻了。这些卡牌是每个物质精灵的召唤符。</t>
+  </si>
+  <si>
+    <t>Guide1-1-5</t>
+  </si>
+  <si>
+    <t>通过鼠标拖动，把手牌中的常温下【固体】的卡牌全部放置在下方的三个空槽里吧。</t>
+  </si>
+  <si>
+    <t>Guide1-1-6</t>
+  </si>
+  <si>
+    <t>很好，这些固体物质精灵可以在【融合阶段】直接召唤在场上，帮你进攻或格挡伤害。</t>
+  </si>
+  <si>
+    <t>Guide1-1-7</t>
+  </si>
+  <si>
+    <t>先手不允许第一回合进攻，请点击右方的"回合结束"。</t>
+  </si>
+  <si>
+    <t>Guide1-1-8</t>
+  </si>
+  <si>
+    <t>对方开始进攻了。卡牌中央写着的数值是【强度】，这个即是攻击力，也是防御力。</t>
+  </si>
+  <si>
+    <t>Guide1-1-9</t>
+  </si>
+  <si>
+    <t>卡牌被其强度以上的伤害攻击，会被【战斗破坏】，即送入玩家的卡组底端。并且，被攻击的玩家受到超额强度的伤害。</t>
+  </si>
+  <si>
+    <t>Guide1-1-10</t>
+  </si>
+  <si>
+    <t>使用相同强度的格挡至少能防止玩家受伤，但卡牌会被破坏。要用更高强度的卡牌格挡才能防止一切损失。</t>
+  </si>
+  <si>
+    <t>Guide1-1-11</t>
+  </si>
+  <si>
+    <t>选择你刚刚放置的卡牌，挡下接下来的三轮攻击吧！</t>
+  </si>
+  <si>
+    <t>Guide1-1-12</t>
+  </si>
+  <si>
+    <t>现在我们到了第二个【融合阶段】，你刚刚又从卡组获得了一张卡牌。</t>
+  </si>
+  <si>
+    <t>Guide1-1-13</t>
+  </si>
+  <si>
+    <t>之后的回合将会循环【我方融合】-&gt;【我方攻击】-&gt;【对方融合】-&gt;【对方攻击】，每个玩家自己的融合阶段能从卡组抽牌</t>
+  </si>
+  <si>
+    <t>Guide1-1-14</t>
+  </si>
+  <si>
+    <t>现在我来教你一个魔法攻击。发现了右边"融合"按钮是亮的吗？</t>
+  </si>
+  <si>
+    <t>Guide1-1-15</t>
+  </si>
+  <si>
+    <t>点击它，并在列表里选择水的融合反应式吧。</t>
+  </si>
+  <si>
+    <t>Guide1-1-16</t>
+  </si>
+  <si>
+    <t>很好，但是水本身没有多大作用。还有一个关键卡牌没上手呢。</t>
+  </si>
+  <si>
+    <t>Guide1-1-17</t>
+  </si>
+  <si>
+    <t>点击一张卡牌可在左方查看它的详细信息（对方卡牌也可以），其中有列表显示它能进行的所有融合反应式。</t>
+  </si>
+  <si>
+    <t>Guide1-1-18</t>
+  </si>
+  <si>
+    <t>我们要发动一个爆破魔法，需要两个钠和两个水发动。现在先等待后面的抽牌吧。</t>
+  </si>
+  <si>
+    <t>Guide1-1-19</t>
+  </si>
+  <si>
+    <t>用最强的铁进攻！</t>
+  </si>
+  <si>
+    <t>Guide1-1-20</t>
+  </si>
+  <si>
+    <t>这里给个建议，此时此刻你应该按右边的"玩家格挡"让自己受到全额伤害。</t>
+  </si>
+  <si>
+    <t>Guide1-1-21</t>
+  </si>
+  <si>
+    <t>别那么惊讶，这是高级召唤师之间常用的把戏。高手之间的对局里，场面最高强度相同是常有的事。这是在那时如何取得胜利的诀窍。</t>
+  </si>
+  <si>
+    <t>Guide1-1-22</t>
+  </si>
+  <si>
+    <t>如果你用了这个卡牌格挡，你将失去最高强度的卡牌，而对方能在下回合继续攻击你！因为攻击方不会损失卡牌。</t>
+  </si>
+  <si>
+    <t>Guide1-1-23</t>
+  </si>
+  <si>
+    <t>因此，你可以选择不使用卡牌格挡，下回合打回去制造相反的局面！</t>
+  </si>
+  <si>
+    <t>Guide1-1-24</t>
+  </si>
+  <si>
+    <t>当然这时对方领先你一次攻击，所以你要在这个期间考虑翻盘。</t>
+  </si>
+  <si>
+    <t>Guide1-1-25</t>
+  </si>
+  <si>
+    <t>那么，虽然有点疼，先忍一下吧！我们需要等待集齐两张钠！</t>
+  </si>
+  <si>
+    <t>Guide1-1-32</t>
+  </si>
+  <si>
+    <t>除了卡牌格挡，还有一种防御手段是【反击融合】。</t>
+  </si>
+  <si>
+    <t>Guide1-1-33</t>
+  </si>
+  <si>
+    <t>当对方精灵进攻时，如果能使用该物质与你手中的物质进行融合，即可发动【反击融合】，无效当前攻击。</t>
+  </si>
+  <si>
+    <t>Guide1-1-34</t>
+  </si>
+  <si>
+    <t>对方进攻时，如果融合按钮发亮，即说明你可以用反击融合抵消攻击，并获得该融合反应式的生成物质。</t>
+  </si>
+  <si>
+    <t>Guide1-1-35</t>
+  </si>
+  <si>
+    <t>不过抵消通常意味着你也要贡献其余素材来完成融合，所以是个耗能高的反击手段。根据情况判断是否发动吧！</t>
+  </si>
+  <si>
+    <t>Guide1-1-26</t>
+  </si>
+  <si>
+    <t>好了，现在开始反击！从融合按钮选择钠的爆炸反应式！</t>
+  </si>
+  <si>
+    <t>Guide1-1-27</t>
+  </si>
+  <si>
+    <t>这个就是爆炸反应。所有格都受到爆炸物图标表示数值的伤害，比它小于等于的强度的卡牌都会被摧毁。</t>
+  </si>
+  <si>
+    <t>Guide1-1-28</t>
+  </si>
+  <si>
+    <t>这种攻击准备麻烦，但一旦发动非常强力。你要承担在此期间毫无防备的风险。</t>
+  </si>
+  <si>
+    <t>Guide1-1-29</t>
+  </si>
+  <si>
+    <t>你似乎得到了新的化合物，但你还没学会怎么使用它...你可能会在以后的修炼中领悟它的用处。</t>
+  </si>
+  <si>
+    <t>Guide1-1-30</t>
+  </si>
+  <si>
+    <t>好歹它是个固体，先把它丢在场上充数吧！这种思维在高级召唤师之间也很重要。</t>
+  </si>
+  <si>
+    <t>Guide1-1-31</t>
+  </si>
+  <si>
+    <t>好，新手训练到此为止。尝试用剩余卡牌打败对方吧！</t>
+  </si>
+  <si>
+    <t>Guide1-1-36</t>
   </si>
   <si>
     <t>Item</t>
@@ -1203,10 +1245,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -1217,16 +1259,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1246,10 +1295,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1262,22 +1320,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1291,17 +1350,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1316,14 +1374,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -1331,9 +1381,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1341,7 +1390,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1349,13 +1398,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1370,7 +1412,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1382,7 +1466,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1394,43 +1496,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1442,49 +1508,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1502,37 +1550,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1544,13 +1562,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1579,15 +1621,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1603,11 +1636,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1627,37 +1681,25 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1669,10 +1711,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1681,133 +1723,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2267,27 +2309,27 @@
     </row>
     <row r="2" customHeight="1" spans="1:4">
       <c r="A2" t="s">
-        <v>340</v>
+        <v>354</v>
       </c>
       <c r="B2" t="s">
-        <v>341</v>
+        <v>355</v>
       </c>
       <c r="C2" t="s">
-        <v>342</v>
+        <v>356</v>
       </c>
       <c r="D2" t="s">
-        <v>343</v>
+        <v>357</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:4">
       <c r="A3" t="s">
-        <v>344</v>
+        <v>358</v>
       </c>
       <c r="B3" t="s">
-        <v>345</v>
+        <v>359</v>
       </c>
       <c r="C3" t="s">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="D3" t="s">
         <v>105</v>
@@ -2295,155 +2337,155 @@
     </row>
     <row r="4" customHeight="1" spans="1:4">
       <c r="A4" t="s">
-        <v>347</v>
+        <v>361</v>
       </c>
       <c r="B4" t="s">
-        <v>348</v>
+        <v>362</v>
       </c>
       <c r="C4" t="s">
-        <v>349</v>
+        <v>363</v>
       </c>
       <c r="D4" t="s">
-        <v>350</v>
+        <v>364</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:4">
       <c r="A5" t="s">
-        <v>351</v>
+        <v>365</v>
       </c>
       <c r="B5" t="s">
-        <v>352</v>
+        <v>366</v>
       </c>
       <c r="C5" t="s">
-        <v>353</v>
+        <v>367</v>
       </c>
       <c r="D5" t="s">
-        <v>354</v>
+        <v>368</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:4">
       <c r="A6" t="s">
-        <v>355</v>
+        <v>369</v>
       </c>
       <c r="B6" t="s">
-        <v>356</v>
+        <v>370</v>
       </c>
       <c r="C6" t="s">
-        <v>357</v>
+        <v>371</v>
       </c>
       <c r="D6" t="s">
-        <v>358</v>
+        <v>372</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:4">
       <c r="A7" t="s">
-        <v>359</v>
+        <v>373</v>
       </c>
       <c r="B7" t="s">
-        <v>360</v>
+        <v>374</v>
       </c>
       <c r="C7" t="s">
-        <v>361</v>
+        <v>375</v>
       </c>
       <c r="D7" t="s">
-        <v>362</v>
+        <v>376</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:4">
       <c r="A8" t="s">
-        <v>363</v>
+        <v>377</v>
       </c>
       <c r="B8" t="s">
-        <v>364</v>
+        <v>378</v>
       </c>
       <c r="C8" t="s">
-        <v>365</v>
+        <v>379</v>
       </c>
       <c r="D8" t="s">
-        <v>366</v>
+        <v>380</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:4">
       <c r="A9" t="s">
-        <v>367</v>
+        <v>381</v>
       </c>
       <c r="B9" t="s">
-        <v>368</v>
+        <v>382</v>
       </c>
       <c r="C9" t="s">
-        <v>369</v>
+        <v>383</v>
       </c>
       <c r="D9" t="s">
-        <v>370</v>
+        <v>384</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:4">
       <c r="A10" t="s">
-        <v>371</v>
+        <v>385</v>
       </c>
       <c r="C10" t="s">
-        <v>372</v>
+        <v>386</v>
       </c>
       <c r="D10" t="s">
-        <v>373</v>
+        <v>387</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:4">
       <c r="A11" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="C11" t="s">
-        <v>375</v>
+        <v>389</v>
       </c>
       <c r="D11" t="s">
-        <v>376</v>
+        <v>390</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:4">
       <c r="A12" t="s">
-        <v>377</v>
+        <v>391</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>378</v>
+        <v>392</v>
       </c>
       <c r="C12" t="s">
-        <v>379</v>
+        <v>393</v>
       </c>
       <c r="D12" t="s">
-        <v>380</v>
+        <v>394</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:4">
       <c r="A13" t="s">
-        <v>381</v>
+        <v>395</v>
       </c>
       <c r="C13" t="s">
-        <v>382</v>
+        <v>396</v>
       </c>
       <c r="D13" t="s">
-        <v>383</v>
+        <v>397</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:4">
       <c r="A14" t="s">
-        <v>384</v>
+        <v>398</v>
       </c>
       <c r="C14" t="s">
-        <v>385</v>
+        <v>399</v>
       </c>
       <c r="D14" t="s">
-        <v>386</v>
+        <v>400</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:4">
       <c r="A15" t="s">
-        <v>387</v>
+        <v>401</v>
       </c>
       <c r="C15" t="s">
-        <v>388</v>
+        <v>402</v>
       </c>
       <c r="D15" t="s">
-        <v>389</v>
+        <v>403</v>
       </c>
     </row>
   </sheetData>
@@ -2931,17 +2973,17 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="29" customWidth="1"/>
     <col min="2" max="2" width="40.1111111111111" customWidth="1"/>
-    <col min="3" max="3" width="75.4444444444444" customWidth="1"/>
+    <col min="3" max="3" width="125.555555555556" customWidth="1"/>
     <col min="4" max="4" width="103.444444444444" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2959,213 +3001,289 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>118</v>
       </c>
       <c r="C2" t="s">
         <v>119</v>
       </c>
-      <c r="D2" t="s">
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
+      <c r="C3" t="s">
         <v>121</v>
       </c>
-      <c r="C3" t="s">
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
         <v>122</v>
       </c>
-      <c r="D3" t="s">
+      <c r="C4" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
         <v>124</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C5" t="s">
         <v>125</v>
       </c>
-      <c r="D4" t="s">
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
+      <c r="C6" t="s">
         <v>127</v>
       </c>
-      <c r="C5" t="s">
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
         <v>128</v>
       </c>
-      <c r="D5" t="s">
+      <c r="C7" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
         <v>130</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C8" t="s">
         <v>131</v>
       </c>
-      <c r="D6" t="s">
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
+      <c r="C9" t="s">
         <v>133</v>
       </c>
-      <c r="C7" t="s">
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
         <v>134</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C10" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
         <v>136</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C11" t="s">
         <v>137</v>
       </c>
-      <c r="D8" t="s">
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
+      <c r="C12" t="s">
         <v>139</v>
       </c>
-      <c r="C9" t="s">
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
         <v>140</v>
       </c>
-      <c r="D9" t="s">
+      <c r="C13" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
         <v>142</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C14" t="s">
         <v>143</v>
       </c>
-      <c r="D10" t="s">
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
+      <c r="C15" t="s">
         <v>145</v>
       </c>
-      <c r="C11" t="s">
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
         <v>146</v>
       </c>
-      <c r="D11" t="s">
+      <c r="C16" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
         <v>148</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C17" t="s">
         <v>149</v>
       </c>
-      <c r="D12" t="s">
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
+      <c r="C18" t="s">
         <v>151</v>
       </c>
-      <c r="C13" t="s">
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
         <v>152</v>
       </c>
-      <c r="D13" t="s">
+      <c r="C19" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
         <v>154</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C20" t="s">
         <v>155</v>
       </c>
-      <c r="D14" t="s">
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
+      <c r="C21" t="s">
         <v>157</v>
       </c>
-      <c r="C15" t="s">
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
         <v>158</v>
       </c>
-      <c r="D15" t="s">
+      <c r="C22" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
-      <c r="A16" t="s">
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
         <v>160</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C23" t="s">
         <v>161</v>
       </c>
-      <c r="D16" t="s">
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" t="s">
+      <c r="C24" t="s">
         <v>163</v>
       </c>
-      <c r="C17" t="s">
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
         <v>164</v>
       </c>
-      <c r="D17" t="s">
+      <c r="C25" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
-      <c r="A18" t="s">
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
         <v>166</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C26" t="s">
         <v>167</v>
       </c>
-      <c r="D18" t="s">
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" t="s">
+      <c r="C27" t="s">
         <v>169</v>
       </c>
-      <c r="C19" t="s">
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
         <v>170</v>
       </c>
-      <c r="D19" t="s">
+      <c r="C28" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
-      <c r="A20" t="s">
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
         <v>172</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C29" t="s">
         <v>173</v>
       </c>
-      <c r="D20" t="s">
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
         <v>174</v>
+      </c>
+      <c r="C30" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>176</v>
+      </c>
+      <c r="C31" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>178</v>
+      </c>
+      <c r="C32" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>180</v>
+      </c>
+      <c r="C33" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>182</v>
+      </c>
+      <c r="C34" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
+        <v>184</v>
+      </c>
+      <c r="C35" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" t="s">
+        <v>186</v>
+      </c>
+      <c r="C36" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" t="s">
+        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -3208,299 +3326,299 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="C2" t="s">
-        <v>176</v>
+        <v>190</v>
       </c>
       <c r="D2" t="s">
-        <v>177</v>
+        <v>191</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>178</v>
+        <v>192</v>
       </c>
       <c r="C3" t="s">
-        <v>179</v>
+        <v>193</v>
       </c>
       <c r="D3" t="s">
-        <v>180</v>
+        <v>194</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>181</v>
+        <v>195</v>
       </c>
       <c r="C4" t="s">
-        <v>182</v>
+        <v>196</v>
       </c>
       <c r="D4" t="s">
-        <v>183</v>
+        <v>197</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="C5" t="s">
-        <v>185</v>
+        <v>199</v>
       </c>
       <c r="D5" t="s">
-        <v>186</v>
+        <v>200</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>187</v>
+        <v>201</v>
       </c>
       <c r="C6" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="D6" t="s">
-        <v>189</v>
+        <v>203</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>190</v>
+        <v>204</v>
       </c>
       <c r="C7" t="s">
-        <v>191</v>
+        <v>205</v>
       </c>
       <c r="D7" t="s">
-        <v>192</v>
+        <v>206</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>193</v>
+        <v>207</v>
       </c>
       <c r="C8" t="s">
-        <v>194</v>
+        <v>208</v>
       </c>
       <c r="D8" t="s">
-        <v>195</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>196</v>
+        <v>210</v>
       </c>
       <c r="C9" t="s">
-        <v>197</v>
+        <v>211</v>
       </c>
       <c r="D9" t="s">
-        <v>197</v>
+        <v>211</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>198</v>
+        <v>212</v>
       </c>
       <c r="C10" t="s">
-        <v>199</v>
+        <v>213</v>
       </c>
       <c r="D10" t="s">
-        <v>199</v>
+        <v>213</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>200</v>
+        <v>214</v>
       </c>
       <c r="C11" t="s">
-        <v>201</v>
+        <v>215</v>
       </c>
       <c r="D11" t="s">
-        <v>201</v>
+        <v>215</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
       <c r="C12" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
       <c r="D12" t="s">
-        <v>204</v>
+        <v>218</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>205</v>
+        <v>219</v>
       </c>
       <c r="C13" t="s">
-        <v>206</v>
+        <v>220</v>
       </c>
       <c r="D13" t="s">
-        <v>207</v>
+        <v>221</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="C14" t="s">
-        <v>209</v>
+        <v>223</v>
       </c>
       <c r="D14" t="s">
-        <v>210</v>
+        <v>224</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>211</v>
+        <v>225</v>
       </c>
       <c r="C15" t="s">
-        <v>212</v>
+        <v>226</v>
       </c>
       <c r="D15" t="s">
-        <v>213</v>
+        <v>227</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>214</v>
+        <v>228</v>
       </c>
       <c r="C16" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="D16" t="s">
-        <v>216</v>
+        <v>230</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>217</v>
+        <v>231</v>
       </c>
       <c r="C17" t="s">
-        <v>218</v>
+        <v>232</v>
       </c>
       <c r="D17" t="s">
-        <v>219</v>
+        <v>233</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>220</v>
+        <v>234</v>
       </c>
       <c r="C18" t="s">
-        <v>221</v>
+        <v>235</v>
       </c>
       <c r="D18" t="s">
-        <v>222</v>
+        <v>236</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>223</v>
+        <v>237</v>
       </c>
       <c r="C19" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="D19" t="s">
-        <v>225</v>
+        <v>239</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>226</v>
+        <v>240</v>
       </c>
       <c r="C20" t="s">
-        <v>227</v>
+        <v>241</v>
       </c>
       <c r="D20" t="s">
-        <v>228</v>
+        <v>242</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>229</v>
+        <v>243</v>
       </c>
       <c r="C21" t="s">
-        <v>230</v>
+        <v>244</v>
       </c>
       <c r="D21" t="s">
-        <v>231</v>
+        <v>245</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="C22" t="s">
-        <v>233</v>
+        <v>247</v>
       </c>
       <c r="D22" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>235</v>
+        <v>249</v>
       </c>
       <c r="C23" t="s">
-        <v>236</v>
+        <v>250</v>
       </c>
       <c r="D23" t="s">
-        <v>237</v>
+        <v>251</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>238</v>
+        <v>252</v>
       </c>
       <c r="C24" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="D24" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>241</v>
+        <v>255</v>
       </c>
       <c r="C25" t="s">
-        <v>242</v>
+        <v>256</v>
       </c>
       <c r="D25" t="s">
-        <v>242</v>
+        <v>256</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>243</v>
+        <v>257</v>
       </c>
       <c r="C26" t="s">
-        <v>244</v>
+        <v>258</v>
       </c>
       <c r="D26" t="s">
-        <v>245</v>
+        <v>259</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>246</v>
+        <v>260</v>
       </c>
       <c r="C27" t="s">
-        <v>247</v>
+        <v>261</v>
       </c>
       <c r="D27" t="s">
-        <v>248</v>
+        <v>262</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>249</v>
+        <v>263</v>
       </c>
       <c r="C28" t="s">
-        <v>250</v>
+        <v>264</v>
       </c>
       <c r="D28" t="s">
-        <v>251</v>
+        <v>265</v>
       </c>
     </row>
   </sheetData>
@@ -3543,38 +3661,38 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>252</v>
+        <v>266</v>
       </c>
       <c r="C2" t="s">
-        <v>253</v>
+        <v>267</v>
       </c>
       <c r="D2" t="s">
-        <v>254</v>
+        <v>268</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>255</v>
+        <v>269</v>
       </c>
       <c r="C3" t="s">
-        <v>256</v>
+        <v>270</v>
       </c>
       <c r="D3" t="s">
-        <v>257</v>
+        <v>271</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>258</v>
+        <v>272</v>
       </c>
       <c r="B4" t="s">
-        <v>259</v>
+        <v>273</v>
       </c>
       <c r="C4" t="s">
-        <v>260</v>
+        <v>274</v>
       </c>
       <c r="D4" t="s">
-        <v>261</v>
+        <v>275</v>
       </c>
     </row>
   </sheetData>
@@ -3617,13 +3735,13 @@
     </row>
     <row r="2" ht="109" customHeight="1" spans="1:4">
       <c r="A2" t="s">
-        <v>262</v>
+        <v>276</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>263</v>
+        <v>277</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>264</v>
+        <v>278</v>
       </c>
     </row>
   </sheetData>
@@ -3666,263 +3784,263 @@
     </row>
     <row r="2" customHeight="1" spans="1:4">
       <c r="A2" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="C2" t="s">
-        <v>266</v>
+        <v>280</v>
       </c>
       <c r="D2" t="s">
-        <v>267</v>
+        <v>281</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:4">
       <c r="A3" t="s">
-        <v>268</v>
+        <v>282</v>
       </c>
       <c r="B3" t="s">
-        <v>269</v>
+        <v>283</v>
       </c>
       <c r="C3" t="s">
-        <v>270</v>
+        <v>284</v>
       </c>
       <c r="D3" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:4">
       <c r="A4" t="s">
-        <v>272</v>
+        <v>286</v>
       </c>
       <c r="C4" t="s">
-        <v>273</v>
+        <v>287</v>
       </c>
       <c r="D4" t="s">
-        <v>274</v>
+        <v>288</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:4">
       <c r="A5" t="s">
-        <v>275</v>
+        <v>289</v>
       </c>
       <c r="C5" t="s">
-        <v>276</v>
+        <v>290</v>
       </c>
       <c r="D5" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:4">
       <c r="A6" t="s">
-        <v>278</v>
+        <v>292</v>
       </c>
       <c r="B6" t="s">
-        <v>279</v>
+        <v>293</v>
       </c>
       <c r="C6" t="s">
-        <v>280</v>
+        <v>294</v>
       </c>
       <c r="D6" t="s">
-        <v>281</v>
+        <v>295</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:4">
       <c r="A7" t="s">
-        <v>282</v>
+        <v>296</v>
       </c>
       <c r="B7" t="s">
-        <v>283</v>
+        <v>297</v>
       </c>
       <c r="C7" t="s">
-        <v>284</v>
+        <v>298</v>
       </c>
       <c r="D7" t="s">
-        <v>285</v>
+        <v>299</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:4">
       <c r="A8" t="s">
-        <v>286</v>
+        <v>300</v>
       </c>
       <c r="B8" t="s">
-        <v>287</v>
+        <v>301</v>
       </c>
       <c r="C8" t="s">
-        <v>288</v>
+        <v>302</v>
       </c>
       <c r="D8" t="s">
-        <v>289</v>
+        <v>303</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:4">
       <c r="A9" t="s">
-        <v>290</v>
+        <v>304</v>
       </c>
       <c r="B9" t="s">
-        <v>291</v>
+        <v>305</v>
       </c>
       <c r="C9" t="s">
-        <v>291</v>
+        <v>305</v>
       </c>
       <c r="D9" t="s">
-        <v>291</v>
+        <v>305</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:4">
       <c r="A10" t="s">
-        <v>292</v>
+        <v>306</v>
       </c>
       <c r="C10" t="s">
-        <v>293</v>
+        <v>307</v>
       </c>
       <c r="D10" t="s">
-        <v>294</v>
+        <v>308</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:4">
       <c r="A11" t="s">
-        <v>295</v>
+        <v>309</v>
       </c>
       <c r="C11" t="s">
-        <v>296</v>
+        <v>310</v>
       </c>
       <c r="D11" t="s">
-        <v>297</v>
+        <v>311</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:4">
       <c r="A12" t="s">
-        <v>298</v>
+        <v>312</v>
       </c>
       <c r="C12" t="s">
-        <v>179</v>
+        <v>193</v>
       </c>
       <c r="D12" t="s">
-        <v>180</v>
+        <v>194</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:4">
       <c r="A13" t="s">
-        <v>299</v>
+        <v>313</v>
       </c>
       <c r="C13" t="s">
-        <v>300</v>
+        <v>314</v>
       </c>
       <c r="D13" t="s">
-        <v>301</v>
+        <v>315</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:4">
       <c r="A14" t="s">
-        <v>302</v>
+        <v>316</v>
       </c>
       <c r="C14" t="s">
-        <v>303</v>
+        <v>317</v>
       </c>
       <c r="D14" t="s">
-        <v>304</v>
+        <v>318</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:4">
       <c r="A15" t="s">
-        <v>305</v>
+        <v>319</v>
       </c>
       <c r="C15" t="s">
-        <v>306</v>
+        <v>320</v>
       </c>
       <c r="D15" t="s">
-        <v>307</v>
+        <v>321</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:4">
       <c r="A16" t="s">
-        <v>308</v>
+        <v>322</v>
       </c>
       <c r="C16" t="s">
-        <v>309</v>
+        <v>323</v>
       </c>
       <c r="D16" t="s">
-        <v>310</v>
+        <v>324</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:4">
       <c r="A17" t="s">
-        <v>311</v>
+        <v>325</v>
       </c>
       <c r="C17" t="s">
-        <v>312</v>
+        <v>326</v>
       </c>
       <c r="D17" t="s">
-        <v>313</v>
+        <v>327</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:4">
       <c r="A18" t="s">
-        <v>314</v>
+        <v>328</v>
       </c>
       <c r="B18" t="s">
-        <v>315</v>
+        <v>329</v>
       </c>
       <c r="C18" t="s">
-        <v>316</v>
+        <v>330</v>
       </c>
       <c r="D18" t="s">
-        <v>317</v>
+        <v>331</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:4">
       <c r="A19" t="s">
-        <v>318</v>
+        <v>332</v>
       </c>
       <c r="B19" t="s">
-        <v>319</v>
+        <v>333</v>
       </c>
       <c r="C19" t="s">
-        <v>320</v>
+        <v>334</v>
       </c>
       <c r="D19" t="s">
-        <v>321</v>
+        <v>335</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:4">
       <c r="A20" t="s">
-        <v>322</v>
+        <v>336</v>
       </c>
       <c r="B20" t="s">
-        <v>323</v>
+        <v>337</v>
       </c>
       <c r="C20" t="s">
-        <v>324</v>
+        <v>338</v>
       </c>
       <c r="D20" t="s">
-        <v>325</v>
+        <v>339</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:4">
       <c r="A21" t="s">
-        <v>326</v>
+        <v>340</v>
       </c>
       <c r="B21" t="s">
-        <v>327</v>
+        <v>341</v>
       </c>
       <c r="C21" t="s">
-        <v>328</v>
+        <v>342</v>
       </c>
       <c r="D21" t="s">
-        <v>329</v>
+        <v>343</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:4">
       <c r="A22" t="s">
-        <v>330</v>
+        <v>344</v>
       </c>
       <c r="B22" t="s">
-        <v>331</v>
+        <v>345</v>
       </c>
       <c r="C22" t="s">
-        <v>332</v>
+        <v>346</v>
       </c>
       <c r="D22" t="s">
-        <v>333</v>
+        <v>347</v>
       </c>
     </row>
   </sheetData>
@@ -3965,24 +4083,24 @@
     </row>
     <row r="2" customHeight="1" spans="1:4">
       <c r="A2" t="s">
-        <v>334</v>
+        <v>348</v>
       </c>
       <c r="C2" t="s">
-        <v>335</v>
+        <v>349</v>
       </c>
       <c r="D2" t="s">
-        <v>336</v>
+        <v>350</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:4">
       <c r="A3" t="s">
-        <v>337</v>
+        <v>351</v>
       </c>
       <c r="C3" t="s">
-        <v>338</v>
+        <v>352</v>
       </c>
       <c r="D3" t="s">
-        <v>339</v>
+        <v>353</v>
       </c>
     </row>
   </sheetData>

--- a/ChemicalSummon/Assets/StreamingAssets/TranslatableSentence.xlsx
+++ b/ChemicalSummon/Assets/StreamingAssets/TranslatableSentence.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="441">
   <si>
     <t>ScriptableObjectName</t>
   </si>
@@ -385,58 +385,88 @@
     <t>哈喽-我是这个学院的学生指导用电子精灵！</t>
   </si>
   <si>
+    <t>ハロー私はこの学園で学生指導を任せてる電子妖精！</t>
+  </si>
+  <si>
     <t>Guide1-1-2</t>
   </si>
   <si>
     <t>我负责向大家教导战斗的基础知识。</t>
   </si>
   <si>
+    <t>みんなに戦闘の基本知識を教えるね。</t>
+  </si>
+  <si>
     <t>Guide1-1-3</t>
   </si>
   <si>
     <t>首先，请猜一下这个卡上的精灵是【单质】还是【化合物】吧。</t>
   </si>
   <si>
+    <t>まず、このカードにある妖精が単体か化合物か当ててみて。</t>
+  </si>
+  <si>
     <t>Guide1-1-4</t>
   </si>
   <si>
     <t>你猜对，拿到先攻了。这些卡牌是每个物质精灵的召唤符。</t>
   </si>
   <si>
+    <t>当たりだね、先攻だよ。今あるこれらはフェアリーの召喚カード。</t>
+  </si>
+  <si>
     <t>Guide1-1-5</t>
   </si>
   <si>
     <t>通过鼠标拖动，把手牌中的常温下【固体】的卡牌全部放置在下方的三个空槽里吧。</t>
   </si>
   <si>
+    <t>マウスドラッグで常温固体の物質であるフェアリーを目の前の三つの枠に移動してね。</t>
+  </si>
+  <si>
     <t>Guide1-1-6</t>
   </si>
   <si>
     <t>很好，这些固体物质精灵可以在【融合阶段】直接召唤在场上，帮你进攻或格挡伤害。</t>
   </si>
   <si>
+    <t>これで、固体のカードがみんなを守ってくれるよ。</t>
+  </si>
+  <si>
     <t>Guide1-1-7</t>
   </si>
   <si>
     <t>先手不允许第一回合进攻，请点击右方的"回合结束"。</t>
   </si>
   <si>
+    <t>攻撃も出来るんだけど、先攻は一ターン目で攻撃出来ないから、右のターン終了を押してね。</t>
+  </si>
+  <si>
     <t>Guide1-1-8</t>
   </si>
   <si>
     <t>对方开始进攻了。卡牌中央写着的数值是【强度】，这个即是攻击力，也是防御力。</t>
   </si>
   <si>
+    <t>相手の攻撃が来るよ！カードの中央に書かれているのは「強さ」、攻撃力でも防御力でもあるよ。</t>
+  </si>
+  <si>
     <t>Guide1-1-9</t>
   </si>
   <si>
-    <t>卡牌被其强度以上的伤害攻击，会被【战斗破坏】，即送入玩家的卡组底端。并且，被攻击的玩家受到超额强度的伤害。</t>
+    <t>卡牌受到相同或更强的攻击会被【战斗破坏】，即送入玩家的卡组底端。并且，被攻击的玩家受到超出强度的伤害值。</t>
+  </si>
+  <si>
+    <t>カードが同じかより強い攻撃を受けると破壊されて、デッキの底に戻ってしまい、さらにプレイヤーは超えた分の強さでダメージを受けるよ。</t>
   </si>
   <si>
     <t>Guide1-1-10</t>
   </si>
   <si>
-    <t>使用相同强度的格挡至少能防止玩家受伤，但卡牌会被破坏。要用更高强度的卡牌格挡才能防止一切损失。</t>
+    <t>使用同等强度的卡牌格挡至少能防止玩家受伤，但卡牌会被破坏。要用更强的卡牌格挡才能防止一切损失。</t>
+  </si>
+  <si>
+    <t>同じ強さのカードで防御すれば少なくともダメージは受けないけど、カードを失うから、なるべくもっと強いカードで防御したいね。</t>
   </si>
   <si>
     <t>Guide1-1-11</t>
@@ -445,151 +475,232 @@
     <t>选择你刚刚放置的卡牌，挡下接下来的三轮攻击吧！</t>
   </si>
   <si>
+    <t>さきほど置いたカードで敵の三回攻撃を防ぎきろう！</t>
+  </si>
+  <si>
     <t>Guide1-1-12</t>
   </si>
   <si>
     <t>现在我们到了第二个【融合阶段】，你刚刚又从卡组获得了一张卡牌。</t>
   </si>
   <si>
+    <t>今が二回目の融合ターン、そしてまたカードを手に入れたね。</t>
+  </si>
+  <si>
     <t>Guide1-1-13</t>
   </si>
   <si>
     <t>之后的回合将会循环【我方融合】-&gt;【我方攻击】-&gt;【对方融合】-&gt;【对方攻击】，每个玩家自己的融合阶段能从卡组抽牌</t>
   </si>
   <si>
+    <t>ターンは「融合」→「攻撃」→「相手の融合」→「相手の攻撃」というふうにループして、各プレイヤーは自分の融合ターンでカードをドローするよ。</t>
+  </si>
+  <si>
     <t>Guide1-1-14</t>
   </si>
   <si>
     <t>现在我来教你一个魔法攻击。发现了右边"融合"按钮是亮的吗？</t>
   </si>
   <si>
+    <t>一つ魔法攻撃を教えるね。右の融合ボタンが光ってるのに気が付いた？</t>
+  </si>
+  <si>
     <t>Guide1-1-15</t>
   </si>
   <si>
     <t>点击它，并在列表里选择水的融合反应式吧。</t>
   </si>
   <si>
+    <t>クリックして、リストから水の融合反応式を選ぼう。</t>
+  </si>
+  <si>
     <t>Guide1-1-16</t>
   </si>
   <si>
     <t>很好，但是水本身没有多大作用。还有一个关键卡牌没上手呢。</t>
   </si>
   <si>
+    <t>よし、でもこれからやる魔法にはまだ肝心なカードが足りてないんだ。</t>
+  </si>
+  <si>
     <t>Guide1-1-17</t>
   </si>
   <si>
     <t>点击一张卡牌可在左方查看它的详细信息（对方卡牌也可以），其中有列表显示它能进行的所有融合反应式。</t>
   </si>
   <si>
+    <t>カードをクリックすることで関連する融合を確認出来るよ（敵味方両方可）。</t>
+  </si>
+  <si>
     <t>Guide1-1-18</t>
   </si>
   <si>
     <t>我们要发动一个爆破魔法，需要两个钠和两个水发动。现在先等待后面的抽牌吧。</t>
   </si>
   <si>
+    <t>水二つとナトリウム二つで起きる爆発魔法をやりたいんだけど、今は次のターンのドローを待つしかないね。</t>
+  </si>
+  <si>
     <t>Guide1-1-19</t>
   </si>
   <si>
     <t>用最强的铁进攻！</t>
   </si>
   <si>
+    <t>最強の鉄で攻撃！</t>
+  </si>
+  <si>
     <t>Guide1-1-20</t>
   </si>
   <si>
     <t>这里给个建议，此时此刻你应该按右边的"玩家格挡"让自己受到全额伤害。</t>
   </si>
   <si>
+    <t>ここでヒントだけど、この攻撃は右のプレイヤーブロックを押して全ダメージを貰った方がいいよ。</t>
+  </si>
+  <si>
     <t>Guide1-1-21</t>
   </si>
   <si>
     <t>别那么惊讶，这是高级召唤师之间常用的把戏。高手之间的对局里，场面最高强度相同是常有的事。这是在那时如何取得胜利的诀窍。</t>
   </si>
   <si>
+    <t>驚いた？これは上級召喚士同士でよくやるトリックで、互いの出せる最大攻撃力が同じの時に勝つためのコツだよ。</t>
+  </si>
+  <si>
     <t>Guide1-1-22</t>
   </si>
   <si>
     <t>如果你用了这个卡牌格挡，你将失去最高强度的卡牌，而对方能在下回合继续攻击你！因为攻击方不会损失卡牌。</t>
   </si>
   <si>
+    <t>もし今ダメージを受けるのを嫌がって鉄でガードしても、攻撃側は失うものがないので、次のターンにまた同じ攻撃をされるよ！</t>
+  </si>
+  <si>
     <t>Guide1-1-23</t>
   </si>
   <si>
     <t>因此，你可以选择不使用卡牌格挡，下回合打回去制造相反的局面！</t>
   </si>
   <si>
+    <t>でも、一時的なダメージと引き換えにこっちの番になってしまえば、逆の状況を作り出せるということ。</t>
+  </si>
+  <si>
     <t>Guide1-1-24</t>
   </si>
   <si>
     <t>当然这时对方领先你一次攻击，所以你要在这个期间考虑翻盘。</t>
   </si>
   <si>
+    <t>もちろんこの時は相手が体力でリードしてるから、この間に何か別の手でひっくり返さないとね。</t>
+  </si>
+  <si>
     <t>Guide1-1-25</t>
   </si>
   <si>
-    <t>那么，虽然有点疼，先忍一下吧！我们需要等待集齐两张钠！</t>
+    <t>那么，虽然有点疼，这次攻击就先忍一下吧！我们需要等待集齐两张钠！</t>
+  </si>
+  <si>
+    <t>じゃあ少し痛いけど、この攻撃はプレイヤーで受け止めて！</t>
+  </si>
+  <si>
+    <t>Guide1-1-26</t>
+  </si>
+  <si>
+    <t>除了卡牌格挡，还有一种防御手段是【反击融合】。</t>
+  </si>
+  <si>
+    <t>基本的なカード防御以外に、「カウンター融合」と呼ばれる高度な防御技があるよ</t>
+  </si>
+  <si>
+    <t>Guide1-1-27</t>
+  </si>
+  <si>
+    <t>当对方精灵进攻时，如果能使用该物质与你手中的物质进行融合，即可发动【反击融合】，无效当前攻击。</t>
+  </si>
+  <si>
+    <t>相手が攻撃したとき、その物質を使ってなにか融合が出来ると、その攻撃を無効化したうえで発動出来るんだ。</t>
+  </si>
+  <si>
+    <t>Guide1-1-28</t>
+  </si>
+  <si>
+    <t>对方进攻时，如果融合按钮发亮，即说明你可以用反击融合抵消攻击，并获得该融合反应式的生成物质。</t>
+  </si>
+  <si>
+    <t>相手の攻撃時に融合ボタンが光ったら何かカウンター出来るサインだよ。</t>
+  </si>
+  <si>
+    <t>Guide1-1-29</t>
+  </si>
+  <si>
+    <t>不过抵消通常意味着你也要贡献其余素材来完成融合，所以是个耗能高的反击手段。根据情况判断是否发动吧！</t>
+  </si>
+  <si>
+    <t>でも融合の残りの素材は自分が払わないといけないから、ちゃんと発動に価値があるか判断して実行してね！</t>
+  </si>
+  <si>
+    <t>Guide1-1-30</t>
+  </si>
+  <si>
+    <t>这个S你可以先留到对面攻击（不要现在发动Fe和S的融合丢掉你自己的Fe噢）</t>
+  </si>
+  <si>
+    <t>このSは相手の攻撃まで残してね（今FeとSの融合を発動して自分の鉄を捨てないね！）</t>
+  </si>
+  <si>
+    <t>Guide1-1-31</t>
+  </si>
+  <si>
+    <t>好了，现在开始反击！从融合按钮选择钠的爆炸反应式！</t>
+  </si>
+  <si>
+    <t>よし、今から反撃だ！融合リストからナトリウムの爆発反応式を選択して！</t>
   </si>
   <si>
     <t>Guide1-1-32</t>
   </si>
   <si>
-    <t>除了卡牌格挡，还有一种防御手段是【反击融合】。</t>
+    <t>这个就是爆炸反应。所有格都受到爆炸物图标表示数值的强度的伤害,其威力一般能轰走大部分物质。</t>
+  </si>
+  <si>
+    <t>これが爆発反応。全ての枠が爆発力の数値分の強さのダメージを受け、その威力は並大抵の物質を一掃するよ。</t>
   </si>
   <si>
     <t>Guide1-1-33</t>
   </si>
   <si>
-    <t>当对方精灵进攻时，如果能使用该物质与你手中的物质进行融合，即可发动【反击融合】，无效当前攻击。</t>
+    <t>这种攻击准备麻烦，但一旦发动非常强力。你要承担在此期间毫无防备的风险。</t>
+  </si>
+  <si>
+    <t>こういう攻撃は準備が面倒だけど、発動出来れば強いね。その間無防備になるリスクを負うことになるね。</t>
   </si>
   <si>
     <t>Guide1-1-34</t>
   </si>
   <si>
-    <t>对方进攻时，如果融合按钮发亮，即说明你可以用反击融合抵消攻击，并获得该融合反应式的生成物质。</t>
+    <t>话说，你似乎得到了新的化合物氢氧化钠，但你还没学会怎么使用它...这种东西需要你以后的修炼中领悟它的用处。</t>
+  </si>
+  <si>
+    <t>そういえば、残りもので水酸化ナトリウムが手に入ったみたいだけど......今は使い方が分からないね。</t>
   </si>
   <si>
     <t>Guide1-1-35</t>
   </si>
   <si>
-    <t>不过抵消通常意味着你也要贡献其余素材来完成融合，所以是个耗能高的反击手段。根据情况判断是否发动吧！</t>
-  </si>
-  <si>
-    <t>Guide1-1-26</t>
-  </si>
-  <si>
-    <t>好了，现在开始反击！从融合按钮选择钠的爆炸反应式！</t>
-  </si>
-  <si>
-    <t>Guide1-1-27</t>
-  </si>
-  <si>
-    <t>这个就是爆炸反应。所有格都受到爆炸物图标表示数值的伤害，比它小于等于的强度的卡牌都会被摧毁。</t>
-  </si>
-  <si>
-    <t>Guide1-1-28</t>
-  </si>
-  <si>
-    <t>这种攻击准备麻烦，但一旦发动非常强力。你要承担在此期间毫无防备的风险。</t>
-  </si>
-  <si>
-    <t>Guide1-1-29</t>
-  </si>
-  <si>
-    <t>你似乎得到了新的化合物，但你还没学会怎么使用它...你可能会在以后的修炼中领悟它的用处。</t>
-  </si>
-  <si>
-    <t>Guide1-1-30</t>
-  </si>
-  <si>
-    <t>好歹它是个固体，先把它丢在场上充数吧！这种思维在高级召唤师之间也很重要。</t>
-  </si>
-  <si>
-    <t>Guide1-1-31</t>
+    <t>好歹它是个固体，先把它丢在场上充数吧！</t>
+  </si>
+  <si>
+    <t>これからのステージをクリアしていけば、そのうち分かるかもしれない。でもとにかく固体っぽいからフィールドに出しておこう！</t>
+  </si>
+  <si>
+    <t>Guide1-1-36</t>
   </si>
   <si>
     <t>好，新手训练到此为止。尝试用剩余卡牌打败对方吧！</t>
   </si>
   <si>
-    <t>Guide1-1-36</t>
+    <t>チュートリアルはここまでだよ。残りのカードで相手を倒せ！</t>
   </si>
   <si>
     <t>Item</t>
@@ -1245,9 +1356,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -1259,14 +1370,28 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -1281,17 +1406,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1303,40 +1422,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1358,8 +1446,16 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1373,16 +1469,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1396,8 +1492,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1412,7 +1523,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1424,13 +1565,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1442,7 +1607,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1454,145 +1697,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1621,51 +1732,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1686,11 +1752,56 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1711,10 +1822,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1726,16 +1837,16 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1744,112 +1855,112 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2309,27 +2420,27 @@
     </row>
     <row r="2" customHeight="1" spans="1:4">
       <c r="A2" t="s">
-        <v>354</v>
+        <v>391</v>
       </c>
       <c r="B2" t="s">
-        <v>355</v>
+        <v>392</v>
       </c>
       <c r="C2" t="s">
-        <v>356</v>
+        <v>393</v>
       </c>
       <c r="D2" t="s">
-        <v>357</v>
+        <v>394</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:4">
       <c r="A3" t="s">
-        <v>358</v>
+        <v>395</v>
       </c>
       <c r="B3" t="s">
-        <v>359</v>
+        <v>396</v>
       </c>
       <c r="C3" t="s">
-        <v>360</v>
+        <v>397</v>
       </c>
       <c r="D3" t="s">
         <v>105</v>
@@ -2337,155 +2448,155 @@
     </row>
     <row r="4" customHeight="1" spans="1:4">
       <c r="A4" t="s">
-        <v>361</v>
+        <v>398</v>
       </c>
       <c r="B4" t="s">
-        <v>362</v>
+        <v>399</v>
       </c>
       <c r="C4" t="s">
-        <v>363</v>
+        <v>400</v>
       </c>
       <c r="D4" t="s">
-        <v>364</v>
+        <v>401</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:4">
       <c r="A5" t="s">
-        <v>365</v>
+        <v>402</v>
       </c>
       <c r="B5" t="s">
-        <v>366</v>
+        <v>403</v>
       </c>
       <c r="C5" t="s">
-        <v>367</v>
+        <v>404</v>
       </c>
       <c r="D5" t="s">
-        <v>368</v>
+        <v>405</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:4">
       <c r="A6" t="s">
-        <v>369</v>
+        <v>406</v>
       </c>
       <c r="B6" t="s">
-        <v>370</v>
+        <v>407</v>
       </c>
       <c r="C6" t="s">
-        <v>371</v>
+        <v>408</v>
       </c>
       <c r="D6" t="s">
-        <v>372</v>
+        <v>409</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:4">
       <c r="A7" t="s">
-        <v>373</v>
+        <v>410</v>
       </c>
       <c r="B7" t="s">
-        <v>374</v>
+        <v>411</v>
       </c>
       <c r="C7" t="s">
-        <v>375</v>
+        <v>412</v>
       </c>
       <c r="D7" t="s">
-        <v>376</v>
+        <v>413</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:4">
       <c r="A8" t="s">
-        <v>377</v>
+        <v>414</v>
       </c>
       <c r="B8" t="s">
-        <v>378</v>
+        <v>415</v>
       </c>
       <c r="C8" t="s">
-        <v>379</v>
+        <v>416</v>
       </c>
       <c r="D8" t="s">
-        <v>380</v>
+        <v>417</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:4">
       <c r="A9" t="s">
-        <v>381</v>
+        <v>418</v>
       </c>
       <c r="B9" t="s">
-        <v>382</v>
+        <v>419</v>
       </c>
       <c r="C9" t="s">
-        <v>383</v>
+        <v>420</v>
       </c>
       <c r="D9" t="s">
-        <v>384</v>
+        <v>421</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:4">
       <c r="A10" t="s">
-        <v>385</v>
+        <v>422</v>
       </c>
       <c r="C10" t="s">
-        <v>386</v>
+        <v>423</v>
       </c>
       <c r="D10" t="s">
-        <v>387</v>
+        <v>424</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:4">
       <c r="A11" t="s">
-        <v>388</v>
+        <v>425</v>
       </c>
       <c r="C11" t="s">
-        <v>389</v>
+        <v>426</v>
       </c>
       <c r="D11" t="s">
-        <v>390</v>
+        <v>427</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:4">
       <c r="A12" t="s">
-        <v>391</v>
+        <v>428</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>392</v>
+        <v>429</v>
       </c>
       <c r="C12" t="s">
-        <v>393</v>
+        <v>430</v>
       </c>
       <c r="D12" t="s">
-        <v>394</v>
+        <v>431</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:4">
       <c r="A13" t="s">
-        <v>395</v>
+        <v>432</v>
       </c>
       <c r="C13" t="s">
-        <v>396</v>
+        <v>433</v>
       </c>
       <c r="D13" t="s">
-        <v>397</v>
+        <v>434</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:4">
       <c r="A14" t="s">
-        <v>398</v>
+        <v>435</v>
       </c>
       <c r="C14" t="s">
-        <v>399</v>
+        <v>436</v>
       </c>
       <c r="D14" t="s">
-        <v>400</v>
+        <v>437</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:4">
       <c r="A15" t="s">
-        <v>401</v>
+        <v>438</v>
       </c>
       <c r="C15" t="s">
-        <v>402</v>
+        <v>439</v>
       </c>
       <c r="D15" t="s">
-        <v>403</v>
+        <v>440</v>
       </c>
     </row>
   </sheetData>
@@ -2976,7 +3087,7 @@
   <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
@@ -2984,7 +3095,7 @@
     <col min="1" max="1" width="29" customWidth="1"/>
     <col min="2" max="2" width="40.1111111111111" customWidth="1"/>
     <col min="3" max="3" width="125.555555555556" customWidth="1"/>
-    <col min="4" max="4" width="103.444444444444" customWidth="1"/>
+    <col min="4" max="4" width="19.7777777777778" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -3001,289 +3112,400 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>118</v>
       </c>
       <c r="C2" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C3" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>122</v>
+      </c>
+      <c r="D3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C4" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>125</v>
+      </c>
+      <c r="D4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C5" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>128</v>
+      </c>
+      <c r="D5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C6" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>131</v>
+      </c>
+      <c r="D6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="C7" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>134</v>
+      </c>
+      <c r="D7" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="C8" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>137</v>
+      </c>
+      <c r="D8" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="C9" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>140</v>
+      </c>
+      <c r="D9" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="C10" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>143</v>
+      </c>
+      <c r="D10" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="C11" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>146</v>
+      </c>
+      <c r="D11" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="C12" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>149</v>
+      </c>
+      <c r="D12" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="C13" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>152</v>
+      </c>
+      <c r="D13" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="C14" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>155</v>
+      </c>
+      <c r="D14" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="C15" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>158</v>
+      </c>
+      <c r="D15" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="C16" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>161</v>
+      </c>
+      <c r="D16" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="C17" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+        <v>164</v>
+      </c>
+      <c r="D17" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="C18" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>167</v>
+      </c>
+      <c r="D18" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>152</v>
+        <v>169</v>
       </c>
       <c r="C19" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
+        <v>170</v>
+      </c>
+      <c r="D19" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="C20" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>173</v>
+      </c>
+      <c r="D20" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>156</v>
+        <v>175</v>
       </c>
       <c r="C21" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>176</v>
+      </c>
+      <c r="D21" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>158</v>
+        <v>178</v>
       </c>
       <c r="C22" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>179</v>
+      </c>
+      <c r="D22" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>160</v>
+        <v>181</v>
       </c>
       <c r="C23" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>182</v>
+      </c>
+      <c r="D23" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>162</v>
+        <v>184</v>
       </c>
       <c r="C24" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>185</v>
+      </c>
+      <c r="D24" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>164</v>
+        <v>187</v>
       </c>
       <c r="C25" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>188</v>
+      </c>
+      <c r="D25" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>166</v>
+        <v>190</v>
       </c>
       <c r="C26" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>191</v>
+      </c>
+      <c r="D26" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>168</v>
+        <v>193</v>
       </c>
       <c r="C27" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
+        <v>194</v>
+      </c>
+      <c r="D27" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>170</v>
+        <v>196</v>
       </c>
       <c r="C28" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>197</v>
+      </c>
+      <c r="D28" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>172</v>
+        <v>199</v>
       </c>
       <c r="C29" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>200</v>
+      </c>
+      <c r="D29" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>174</v>
+        <v>202</v>
       </c>
       <c r="C30" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>203</v>
+      </c>
+      <c r="D30" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>176</v>
+        <v>205</v>
       </c>
       <c r="C31" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>206</v>
+      </c>
+      <c r="D31" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>178</v>
+        <v>208</v>
       </c>
       <c r="C32" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>209</v>
+      </c>
+      <c r="D32" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>180</v>
+        <v>211</v>
       </c>
       <c r="C33" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>212</v>
+      </c>
+      <c r="D33" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>182</v>
+        <v>214</v>
       </c>
       <c r="C34" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>215</v>
+      </c>
+      <c r="D34" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>184</v>
+        <v>217</v>
       </c>
       <c r="C35" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>218</v>
+      </c>
+      <c r="D35" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>186</v>
+        <v>220</v>
       </c>
       <c r="C36" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1">
+        <v>221</v>
+      </c>
+      <c r="D36" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>188</v>
+        <v>223</v>
+      </c>
+      <c r="C37" t="s">
+        <v>224</v>
+      </c>
+      <c r="D37" t="s">
+        <v>225</v>
       </c>
     </row>
   </sheetData>
@@ -3326,299 +3548,299 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>189</v>
+        <v>226</v>
       </c>
       <c r="C2" t="s">
-        <v>190</v>
+        <v>227</v>
       </c>
       <c r="D2" t="s">
-        <v>191</v>
+        <v>228</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>192</v>
+        <v>229</v>
       </c>
       <c r="C3" t="s">
-        <v>193</v>
+        <v>230</v>
       </c>
       <c r="D3" t="s">
-        <v>194</v>
+        <v>231</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>195</v>
+        <v>232</v>
       </c>
       <c r="C4" t="s">
-        <v>196</v>
+        <v>233</v>
       </c>
       <c r="D4" t="s">
-        <v>197</v>
+        <v>234</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>198</v>
+        <v>235</v>
       </c>
       <c r="C5" t="s">
-        <v>199</v>
+        <v>236</v>
       </c>
       <c r="D5" t="s">
-        <v>200</v>
+        <v>237</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>201</v>
+        <v>238</v>
       </c>
       <c r="C6" t="s">
-        <v>202</v>
+        <v>239</v>
       </c>
       <c r="D6" t="s">
-        <v>203</v>
+        <v>240</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>204</v>
+        <v>241</v>
       </c>
       <c r="C7" t="s">
-        <v>205</v>
+        <v>242</v>
       </c>
       <c r="D7" t="s">
-        <v>206</v>
+        <v>243</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>207</v>
+        <v>244</v>
       </c>
       <c r="C8" t="s">
-        <v>208</v>
+        <v>245</v>
       </c>
       <c r="D8" t="s">
-        <v>209</v>
+        <v>246</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>210</v>
+        <v>247</v>
       </c>
       <c r="C9" t="s">
-        <v>211</v>
+        <v>248</v>
       </c>
       <c r="D9" t="s">
-        <v>211</v>
+        <v>248</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>212</v>
+        <v>249</v>
       </c>
       <c r="C10" t="s">
-        <v>213</v>
+        <v>250</v>
       </c>
       <c r="D10" t="s">
-        <v>213</v>
+        <v>250</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>214</v>
+        <v>251</v>
       </c>
       <c r="C11" t="s">
-        <v>215</v>
+        <v>252</v>
       </c>
       <c r="D11" t="s">
-        <v>215</v>
+        <v>252</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>216</v>
+        <v>253</v>
       </c>
       <c r="C12" t="s">
-        <v>217</v>
+        <v>254</v>
       </c>
       <c r="D12" t="s">
-        <v>218</v>
+        <v>255</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>219</v>
+        <v>256</v>
       </c>
       <c r="C13" t="s">
-        <v>220</v>
+        <v>257</v>
       </c>
       <c r="D13" t="s">
-        <v>221</v>
+        <v>258</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>222</v>
+        <v>259</v>
       </c>
       <c r="C14" t="s">
-        <v>223</v>
+        <v>260</v>
       </c>
       <c r="D14" t="s">
-        <v>224</v>
+        <v>261</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>225</v>
+        <v>262</v>
       </c>
       <c r="C15" t="s">
-        <v>226</v>
+        <v>263</v>
       </c>
       <c r="D15" t="s">
-        <v>227</v>
+        <v>264</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>228</v>
+        <v>265</v>
       </c>
       <c r="C16" t="s">
-        <v>229</v>
+        <v>266</v>
       </c>
       <c r="D16" t="s">
-        <v>230</v>
+        <v>267</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>231</v>
+        <v>268</v>
       </c>
       <c r="C17" t="s">
-        <v>232</v>
+        <v>269</v>
       </c>
       <c r="D17" t="s">
-        <v>233</v>
+        <v>270</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>234</v>
+        <v>271</v>
       </c>
       <c r="C18" t="s">
-        <v>235</v>
+        <v>272</v>
       </c>
       <c r="D18" t="s">
-        <v>236</v>
+        <v>273</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>237</v>
+        <v>274</v>
       </c>
       <c r="C19" t="s">
-        <v>238</v>
+        <v>275</v>
       </c>
       <c r="D19" t="s">
-        <v>239</v>
+        <v>276</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>240</v>
+        <v>277</v>
       </c>
       <c r="C20" t="s">
-        <v>241</v>
+        <v>278</v>
       </c>
       <c r="D20" t="s">
-        <v>242</v>
+        <v>279</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>243</v>
+        <v>280</v>
       </c>
       <c r="C21" t="s">
-        <v>244</v>
+        <v>281</v>
       </c>
       <c r="D21" t="s">
-        <v>245</v>
+        <v>282</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>246</v>
+        <v>283</v>
       </c>
       <c r="C22" t="s">
-        <v>247</v>
+        <v>284</v>
       </c>
       <c r="D22" t="s">
-        <v>248</v>
+        <v>285</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>249</v>
+        <v>286</v>
       </c>
       <c r="C23" t="s">
-        <v>250</v>
+        <v>287</v>
       </c>
       <c r="D23" t="s">
-        <v>251</v>
+        <v>288</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>252</v>
+        <v>289</v>
       </c>
       <c r="C24" t="s">
-        <v>253</v>
+        <v>290</v>
       </c>
       <c r="D24" t="s">
-        <v>254</v>
+        <v>291</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>255</v>
+        <v>292</v>
       </c>
       <c r="C25" t="s">
-        <v>256</v>
+        <v>293</v>
       </c>
       <c r="D25" t="s">
-        <v>256</v>
+        <v>293</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>257</v>
+        <v>294</v>
       </c>
       <c r="C26" t="s">
-        <v>258</v>
+        <v>295</v>
       </c>
       <c r="D26" t="s">
-        <v>259</v>
+        <v>296</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>260</v>
+        <v>297</v>
       </c>
       <c r="C27" t="s">
-        <v>261</v>
+        <v>298</v>
       </c>
       <c r="D27" t="s">
-        <v>262</v>
+        <v>299</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>263</v>
+        <v>300</v>
       </c>
       <c r="C28" t="s">
-        <v>264</v>
+        <v>301</v>
       </c>
       <c r="D28" t="s">
-        <v>265</v>
+        <v>302</v>
       </c>
     </row>
   </sheetData>
@@ -3661,38 +3883,38 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>266</v>
+        <v>303</v>
       </c>
       <c r="C2" t="s">
-        <v>267</v>
+        <v>304</v>
       </c>
       <c r="D2" t="s">
-        <v>268</v>
+        <v>305</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>269</v>
+        <v>306</v>
       </c>
       <c r="C3" t="s">
-        <v>270</v>
+        <v>307</v>
       </c>
       <c r="D3" t="s">
-        <v>271</v>
+        <v>308</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>272</v>
+        <v>309</v>
       </c>
       <c r="B4" t="s">
-        <v>273</v>
+        <v>310</v>
       </c>
       <c r="C4" t="s">
-        <v>274</v>
+        <v>311</v>
       </c>
       <c r="D4" t="s">
-        <v>275</v>
+        <v>312</v>
       </c>
     </row>
   </sheetData>
@@ -3735,13 +3957,13 @@
     </row>
     <row r="2" ht="109" customHeight="1" spans="1:4">
       <c r="A2" t="s">
-        <v>276</v>
+        <v>313</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>277</v>
+        <v>314</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>278</v>
+        <v>315</v>
       </c>
     </row>
   </sheetData>
@@ -3784,263 +4006,263 @@
     </row>
     <row r="2" customHeight="1" spans="1:4">
       <c r="A2" t="s">
-        <v>279</v>
+        <v>316</v>
       </c>
       <c r="C2" t="s">
-        <v>280</v>
+        <v>317</v>
       </c>
       <c r="D2" t="s">
-        <v>281</v>
+        <v>318</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:4">
       <c r="A3" t="s">
-        <v>282</v>
+        <v>319</v>
       </c>
       <c r="B3" t="s">
-        <v>283</v>
+        <v>320</v>
       </c>
       <c r="C3" t="s">
-        <v>284</v>
+        <v>321</v>
       </c>
       <c r="D3" t="s">
-        <v>285</v>
+        <v>322</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:4">
       <c r="A4" t="s">
-        <v>286</v>
+        <v>323</v>
       </c>
       <c r="C4" t="s">
-        <v>287</v>
+        <v>324</v>
       </c>
       <c r="D4" t="s">
-        <v>288</v>
+        <v>325</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:4">
       <c r="A5" t="s">
-        <v>289</v>
+        <v>326</v>
       </c>
       <c r="C5" t="s">
-        <v>290</v>
+        <v>327</v>
       </c>
       <c r="D5" t="s">
-        <v>291</v>
+        <v>328</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:4">
       <c r="A6" t="s">
-        <v>292</v>
+        <v>329</v>
       </c>
       <c r="B6" t="s">
-        <v>293</v>
+        <v>330</v>
       </c>
       <c r="C6" t="s">
-        <v>294</v>
+        <v>331</v>
       </c>
       <c r="D6" t="s">
-        <v>295</v>
+        <v>332</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:4">
       <c r="A7" t="s">
-        <v>296</v>
+        <v>333</v>
       </c>
       <c r="B7" t="s">
-        <v>297</v>
+        <v>334</v>
       </c>
       <c r="C7" t="s">
-        <v>298</v>
+        <v>335</v>
       </c>
       <c r="D7" t="s">
-        <v>299</v>
+        <v>336</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:4">
       <c r="A8" t="s">
-        <v>300</v>
+        <v>337</v>
       </c>
       <c r="B8" t="s">
-        <v>301</v>
+        <v>338</v>
       </c>
       <c r="C8" t="s">
-        <v>302</v>
+        <v>339</v>
       </c>
       <c r="D8" t="s">
-        <v>303</v>
+        <v>340</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:4">
       <c r="A9" t="s">
-        <v>304</v>
+        <v>341</v>
       </c>
       <c r="B9" t="s">
-        <v>305</v>
+        <v>342</v>
       </c>
       <c r="C9" t="s">
-        <v>305</v>
+        <v>342</v>
       </c>
       <c r="D9" t="s">
-        <v>305</v>
+        <v>342</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:4">
       <c r="A10" t="s">
-        <v>306</v>
+        <v>343</v>
       </c>
       <c r="C10" t="s">
-        <v>307</v>
+        <v>344</v>
       </c>
       <c r="D10" t="s">
-        <v>308</v>
+        <v>345</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:4">
       <c r="A11" t="s">
-        <v>309</v>
+        <v>346</v>
       </c>
       <c r="C11" t="s">
-        <v>310</v>
+        <v>347</v>
       </c>
       <c r="D11" t="s">
-        <v>311</v>
+        <v>348</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:4">
       <c r="A12" t="s">
-        <v>312</v>
+        <v>349</v>
       </c>
       <c r="C12" t="s">
-        <v>193</v>
+        <v>230</v>
       </c>
       <c r="D12" t="s">
-        <v>194</v>
+        <v>231</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:4">
       <c r="A13" t="s">
-        <v>313</v>
+        <v>350</v>
       </c>
       <c r="C13" t="s">
-        <v>314</v>
+        <v>351</v>
       </c>
       <c r="D13" t="s">
-        <v>315</v>
+        <v>352</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:4">
       <c r="A14" t="s">
-        <v>316</v>
+        <v>353</v>
       </c>
       <c r="C14" t="s">
-        <v>317</v>
+        <v>354</v>
       </c>
       <c r="D14" t="s">
-        <v>318</v>
+        <v>355</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:4">
       <c r="A15" t="s">
-        <v>319</v>
+        <v>356</v>
       </c>
       <c r="C15" t="s">
-        <v>320</v>
+        <v>357</v>
       </c>
       <c r="D15" t="s">
-        <v>321</v>
+        <v>358</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:4">
       <c r="A16" t="s">
-        <v>322</v>
+        <v>359</v>
       </c>
       <c r="C16" t="s">
-        <v>323</v>
+        <v>360</v>
       </c>
       <c r="D16" t="s">
-        <v>324</v>
+        <v>361</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:4">
       <c r="A17" t="s">
-        <v>325</v>
+        <v>362</v>
       </c>
       <c r="C17" t="s">
-        <v>326</v>
+        <v>363</v>
       </c>
       <c r="D17" t="s">
-        <v>327</v>
+        <v>364</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:4">
       <c r="A18" t="s">
-        <v>328</v>
+        <v>365</v>
       </c>
       <c r="B18" t="s">
-        <v>329</v>
+        <v>366</v>
       </c>
       <c r="C18" t="s">
-        <v>330</v>
+        <v>367</v>
       </c>
       <c r="D18" t="s">
-        <v>331</v>
+        <v>368</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:4">
       <c r="A19" t="s">
-        <v>332</v>
+        <v>369</v>
       </c>
       <c r="B19" t="s">
-        <v>333</v>
+        <v>370</v>
       </c>
       <c r="C19" t="s">
-        <v>334</v>
+        <v>371</v>
       </c>
       <c r="D19" t="s">
-        <v>335</v>
+        <v>372</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:4">
       <c r="A20" t="s">
-        <v>336</v>
+        <v>373</v>
       </c>
       <c r="B20" t="s">
-        <v>337</v>
+        <v>374</v>
       </c>
       <c r="C20" t="s">
-        <v>338</v>
+        <v>375</v>
       </c>
       <c r="D20" t="s">
-        <v>339</v>
+        <v>376</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:4">
       <c r="A21" t="s">
-        <v>340</v>
+        <v>377</v>
       </c>
       <c r="B21" t="s">
-        <v>341</v>
+        <v>378</v>
       </c>
       <c r="C21" t="s">
-        <v>342</v>
+        <v>379</v>
       </c>
       <c r="D21" t="s">
-        <v>343</v>
+        <v>380</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:4">
       <c r="A22" t="s">
-        <v>344</v>
+        <v>381</v>
       </c>
       <c r="B22" t="s">
-        <v>345</v>
+        <v>382</v>
       </c>
       <c r="C22" t="s">
-        <v>346</v>
+        <v>383</v>
       </c>
       <c r="D22" t="s">
-        <v>347</v>
+        <v>384</v>
       </c>
     </row>
   </sheetData>
@@ -4083,24 +4305,24 @@
     </row>
     <row r="2" customHeight="1" spans="1:4">
       <c r="A2" t="s">
-        <v>348</v>
+        <v>385</v>
       </c>
       <c r="C2" t="s">
-        <v>349</v>
+        <v>386</v>
       </c>
       <c r="D2" t="s">
-        <v>350</v>
+        <v>387</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:4">
       <c r="A3" t="s">
-        <v>351</v>
+        <v>388</v>
       </c>
       <c r="C3" t="s">
-        <v>352</v>
+        <v>389</v>
       </c>
       <c r="D3" t="s">
-        <v>353</v>
+        <v>390</v>
       </c>
     </row>
   </sheetData>

--- a/ChemicalSummon/Assets/StreamingAssets/TranslatableSentence.xlsx
+++ b/ChemicalSummon/Assets/StreamingAssets/TranslatableSentence.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="441">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="417">
   <si>
     <t>ScriptableObjectName</t>
   </si>
@@ -499,202 +499,130 @@
     <t>Guide1-1-14</t>
   </si>
   <si>
-    <t>现在我来教你一个魔法攻击。发现了右边"融合"按钮是亮的吗？</t>
-  </si>
-  <si>
-    <t>一つ魔法攻撃を教えるね。右の融合ボタンが光ってるのに気が付いた？</t>
+    <t>当你拥有相同卡牌时，你可以把它放置在同一个卡槽内，强度提升至数量倍。</t>
   </si>
   <si>
     <t>Guide1-1-15</t>
   </si>
   <si>
-    <t>点击它，并在列表里选择水的融合反应式吧。</t>
-  </si>
-  <si>
-    <t>クリックして、リストから水の融合反応式を選ぼう。</t>
+    <t>即使你的卡的硬度抵不过别人，你也能堆叠卡牌来攻克坚硬的物质。</t>
   </si>
   <si>
     <t>Guide1-1-16</t>
   </si>
   <si>
-    <t>很好，但是水本身没有多大作用。还有一个关键卡牌没上手呢。</t>
-  </si>
-  <si>
-    <t>よし、でもこれからやる魔法にはまだ肝心なカードが足りてないんだ。</t>
+    <t>轮到你进攻了!</t>
   </si>
   <si>
     <t>Guide1-1-17</t>
   </si>
   <si>
-    <t>点击一张卡牌可在左方查看它的详细信息（对方卡牌也可以），其中有列表显示它能进行的所有融合反应式。</t>
-  </si>
-  <si>
-    <t>カードをクリックすることで関連する融合を確認出来るよ（敵味方両方可）。</t>
+    <t>足够熟练的召唤师，能思考用别的精灵，甚至用自己的体力来抵挡王牌精灵的损失。</t>
   </si>
   <si>
     <t>Guide1-1-18</t>
   </si>
   <si>
-    <t>我们要发动一个爆破魔法，需要两个钠和两个水发动。现在先等待后面的抽牌吧。</t>
-  </si>
-  <si>
-    <t>水二つとナトリウム二つで起きる爆発魔法をやりたいんだけど、今は次のターンのドローを待つしかないね。</t>
+    <t>攻击难以格挡的时候，可以考虑让你的最强卡牌保留下来，通过堆叠的强度提升在后面的回合发起反击。</t>
   </si>
   <si>
     <t>Guide1-1-19</t>
   </si>
   <si>
-    <t>用最强的铁进攻！</t>
-  </si>
-  <si>
-    <t>最強の鉄で攻撃！</t>
+    <t>你如果不想使用任何卡牌进行格挡，按右方的【玩家格挡】按钮用自己的体力抵挡伤害。</t>
   </si>
   <si>
     <t>Guide1-1-20</t>
   </si>
   <si>
-    <t>这里给个建议，此时此刻你应该按右边的"玩家格挡"让自己受到全额伤害。</t>
-  </si>
-  <si>
-    <t>ここでヒントだけど、この攻撃は右のプレイヤーブロックを押して全ダメージを貰った方がいいよ。</t>
+    <t>堆叠攻击虽然强力，但它可以用高级法术轻易化解。你手中的非固体物质卡牌将变得有用了。</t>
   </si>
   <si>
     <t>Guide1-1-21</t>
   </si>
   <si>
-    <t>别那么惊讶，这是高级召唤师之间常用的把戏。高手之间的对局里，场面最高强度相同是常有的事。这是在那时如何取得胜利的诀窍。</t>
-  </si>
-  <si>
-    <t>驚いた？これは上級召喚士同士でよくやるトリックで、互いの出せる最大攻撃力が同じの時に勝つためのコツだよ。</t>
+    <t>先结束回合吧，那个法术需要被攻击的一刻才能发动。</t>
   </si>
   <si>
     <t>Guide1-1-22</t>
   </si>
   <si>
-    <t>如果你用了这个卡牌格挡，你将失去最高强度的卡牌，而对方能在下回合继续攻击你！因为攻击方不会损失卡牌。</t>
-  </si>
-  <si>
-    <t>もし今ダメージを受けるのを嫌がって鉄でガードしても、攻撃側は失うものがないので、次のターンにまた同じ攻撃をされるよ！</t>
+    <t>你看到右边的【融合】按钮亮了吗？</t>
   </si>
   <si>
     <t>Guide1-1-23</t>
   </si>
   <si>
-    <t>因此，你可以选择不使用卡牌格挡，下回合打回去制造相反的局面！</t>
-  </si>
-  <si>
-    <t>でも、一時的なダメージと引き換えにこっちの番になってしまえば、逆の状況を作り出せるということ。</t>
+    <t>点击它，从列表选择第一行的铁的氧化反应式！</t>
   </si>
   <si>
     <t>Guide1-1-24</t>
   </si>
   <si>
-    <t>当然这时对方领先你一次攻击，所以你要在这个期间考虑翻盘。</t>
-  </si>
-  <si>
-    <t>もちろんこの時は相手が体力でリードしてるから、この間に何か別の手でひっくり返さないとね。</t>
+    <t>这就是【融合】招式的一个派系【反击融合】。精灵可以与别的精灵接触发生反应，诞生新的精灵。这个法术利用了这个原理，把对方的攻击化解了。</t>
   </si>
   <si>
     <t>Guide1-1-25</t>
   </si>
   <si>
-    <t>那么，虽然有点疼，这次攻击就先忍一下吧！我们需要等待集齐两张钠！</t>
-  </si>
-  <si>
-    <t>じゃあ少し痛いけど、この攻撃はプレイヤーで受け止めて！</t>
+    <t>发动时，对方攻击卡牌需扣除融合反应式对该物质所要求的数量，其它不足素材由我方补充。</t>
   </si>
   <si>
     <t>Guide1-1-26</t>
   </si>
   <si>
-    <t>除了卡牌格挡，还有一种防御手段是【反击融合】。</t>
-  </si>
-  <si>
-    <t>基本的なカード防御以外に、「カウンター融合」と呼ばれる高度な防御技があるよ</t>
+    <t>发动者还能获得这次融合诞生的新精灵，可以和通常物质一样如果是固体就能放置在场上。反击融合非常强大吧？</t>
   </si>
   <si>
     <t>Guide1-1-27</t>
   </si>
   <si>
-    <t>当对方精灵进攻时，如果能使用该物质与你手中的物质进行融合，即可发动【反击融合】，无效当前攻击。</t>
-  </si>
-  <si>
-    <t>相手が攻撃したとき、その物質を使ってなにか融合が出来ると、その攻撃を無効化したうえで発動出来るんだ。</t>
+    <t>【融合】还有一种派系【爆破术】，有些精灵的接触能产生巨大能量，能使用这个能量轰炸对方的精灵。</t>
   </si>
   <si>
     <t>Guide1-1-28</t>
   </si>
   <si>
-    <t>对方进攻时，如果融合按钮发亮，即说明你可以用反击融合抵消攻击，并获得该融合反应式的生成物质。</t>
-  </si>
-  <si>
-    <t>相手の攻撃時に融合ボタンが光ったら何かカウンター出来るサインだよ。</t>
+    <t>融合可以光靠自己的卡牌发动。点击右边的融合按钮，先发动生成水的反应式吧。</t>
   </si>
   <si>
     <t>Guide1-1-29</t>
   </si>
   <si>
-    <t>不过抵消通常意味着你也要贡献其余素材来完成融合，所以是个耗能高的反击手段。根据情况判断是否发动吧！</t>
-  </si>
-  <si>
-    <t>でも融合の残りの素材は自分が払わないといけないから、ちゃんと発動に価値があるか判断して実行してね！</t>
+    <t>光只有水不会有爆炸，还需要与两个钠融合才可以发动。</t>
   </si>
   <si>
     <t>Guide1-1-30</t>
   </si>
   <si>
-    <t>这个S你可以先留到对面攻击（不要现在发动Fe和S的融合丢掉你自己的Fe噢）</t>
-  </si>
-  <si>
-    <t>このSは相手の攻撃まで残してね（今FeとSの融合を発動して自分の鉄を捨てないね！）</t>
+    <t>看来你已经准备好了！从融合按钮发动它！</t>
   </si>
   <si>
     <t>Guide1-1-31</t>
   </si>
   <si>
-    <t>好了，现在开始反击！从融合按钮选择钠的爆炸反应式！</t>
-  </si>
-  <si>
-    <t>よし、今から反撃だ！融合リストからナトリウムの爆発反応式を選択して！</t>
+    <t>爆破术给予对面所有精灵一定数值的伤害，伤害量由反应式按钮的橙色爆炸物图标显示。</t>
   </si>
   <si>
     <t>Guide1-1-32</t>
   </si>
   <si>
-    <t>这个就是爆炸反应。所有格都受到爆炸物图标表示数值的强度的伤害,其威力一般能轰走大部分物质。</t>
-  </si>
-  <si>
-    <t>これが爆発反応。全ての枠が爆発力の数値分の強さのダメージを受け、その威力は並大抵の物質を一掃するよ。</t>
+    <t>这种攻击准备麻烦，但一旦发动非常强力。你需要提前思考发动它所需要的素材，在最佳时机发动它。</t>
   </si>
   <si>
     <t>Guide1-1-33</t>
   </si>
   <si>
-    <t>这种攻击准备麻烦，但一旦发动非常强力。你要承担在此期间毫无防备的风险。</t>
-  </si>
-  <si>
-    <t>こういう攻撃は準備が面倒だけど、発動出来れば強いね。その間無防備になるリスクを負うことになるね。</t>
+    <t>这个过程或许一时会让你陷入危机（就像上几个回合一样），所以精通爆破术的召唤师都同时会反击融合，在施展的过程中防身。</t>
   </si>
   <si>
     <t>Guide1-1-34</t>
   </si>
   <si>
-    <t>话说，你似乎得到了新的化合物氢氧化钠，但你还没学会怎么使用它...这种东西需要你以后的修炼中领悟它的用处。</t>
-  </si>
-  <si>
-    <t>そういえば、残りもので水酸化ナトリウムが手に入ったみたいだけど......今は使い方が分からないね。</t>
+    <t>这场爆炸让你又获得了新的物质，而且也是固体。放置在场上吧！</t>
   </si>
   <si>
     <t>Guide1-1-35</t>
-  </si>
-  <si>
-    <t>好歹它是个固体，先把它丢在场上充数吧！</t>
-  </si>
-  <si>
-    <t>これからのステージをクリアしていけば、そのうち分かるかもしれない。でもとにかく固体っぽいからフィールドに出しておこう！</t>
-  </si>
-  <si>
-    <t>Guide1-1-36</t>
   </si>
   <si>
     <t>好，新手训练到此为止。尝试用剩余卡牌打败对方吧！</t>
@@ -1356,9 +1284,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -1367,13 +1295,6 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1391,9 +1312,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1403,14 +1331,6 @@
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1446,6 +1366,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -1469,16 +1397,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1492,16 +1421,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1523,7 +1451,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1535,7 +1463,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1547,31 +1529,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1583,43 +1547,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1637,7 +1577,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1649,37 +1595,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1691,19 +1619,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1718,6 +1646,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -1728,6 +1671,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1752,41 +1710,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1822,10 +1750,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1834,133 +1762,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2420,27 +2348,27 @@
     </row>
     <row r="2" customHeight="1" spans="1:4">
       <c r="A2" t="s">
-        <v>391</v>
+        <v>367</v>
       </c>
       <c r="B2" t="s">
-        <v>392</v>
+        <v>368</v>
       </c>
       <c r="C2" t="s">
-        <v>393</v>
+        <v>369</v>
       </c>
       <c r="D2" t="s">
-        <v>394</v>
+        <v>370</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:4">
       <c r="A3" t="s">
-        <v>395</v>
+        <v>371</v>
       </c>
       <c r="B3" t="s">
-        <v>396</v>
+        <v>372</v>
       </c>
       <c r="C3" t="s">
-        <v>397</v>
+        <v>373</v>
       </c>
       <c r="D3" t="s">
         <v>105</v>
@@ -2448,155 +2376,155 @@
     </row>
     <row r="4" customHeight="1" spans="1:4">
       <c r="A4" t="s">
-        <v>398</v>
+        <v>374</v>
       </c>
       <c r="B4" t="s">
-        <v>399</v>
+        <v>375</v>
       </c>
       <c r="C4" t="s">
-        <v>400</v>
+        <v>376</v>
       </c>
       <c r="D4" t="s">
-        <v>401</v>
+        <v>377</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:4">
       <c r="A5" t="s">
-        <v>402</v>
+        <v>378</v>
       </c>
       <c r="B5" t="s">
-        <v>403</v>
+        <v>379</v>
       </c>
       <c r="C5" t="s">
-        <v>404</v>
+        <v>380</v>
       </c>
       <c r="D5" t="s">
-        <v>405</v>
+        <v>381</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:4">
       <c r="A6" t="s">
-        <v>406</v>
+        <v>382</v>
       </c>
       <c r="B6" t="s">
-        <v>407</v>
+        <v>383</v>
       </c>
       <c r="C6" t="s">
-        <v>408</v>
+        <v>384</v>
       </c>
       <c r="D6" t="s">
-        <v>409</v>
+        <v>385</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:4">
       <c r="A7" t="s">
-        <v>410</v>
+        <v>386</v>
       </c>
       <c r="B7" t="s">
-        <v>411</v>
+        <v>387</v>
       </c>
       <c r="C7" t="s">
-        <v>412</v>
+        <v>388</v>
       </c>
       <c r="D7" t="s">
-        <v>413</v>
+        <v>389</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:4">
       <c r="A8" t="s">
-        <v>414</v>
+        <v>390</v>
       </c>
       <c r="B8" t="s">
-        <v>415</v>
+        <v>391</v>
       </c>
       <c r="C8" t="s">
-        <v>416</v>
+        <v>392</v>
       </c>
       <c r="D8" t="s">
-        <v>417</v>
+        <v>393</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:4">
       <c r="A9" t="s">
-        <v>418</v>
+        <v>394</v>
       </c>
       <c r="B9" t="s">
-        <v>419</v>
+        <v>395</v>
       </c>
       <c r="C9" t="s">
-        <v>420</v>
+        <v>396</v>
       </c>
       <c r="D9" t="s">
-        <v>421</v>
+        <v>397</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:4">
       <c r="A10" t="s">
-        <v>422</v>
+        <v>398</v>
       </c>
       <c r="C10" t="s">
-        <v>423</v>
+        <v>399</v>
       </c>
       <c r="D10" t="s">
-        <v>424</v>
+        <v>400</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:4">
       <c r="A11" t="s">
-        <v>425</v>
+        <v>401</v>
       </c>
       <c r="C11" t="s">
-        <v>426</v>
+        <v>402</v>
       </c>
       <c r="D11" t="s">
-        <v>427</v>
+        <v>403</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:4">
       <c r="A12" t="s">
-        <v>428</v>
+        <v>404</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>429</v>
+        <v>405</v>
       </c>
       <c r="C12" t="s">
-        <v>430</v>
+        <v>406</v>
       </c>
       <c r="D12" t="s">
-        <v>431</v>
+        <v>407</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:4">
       <c r="A13" t="s">
-        <v>432</v>
+        <v>408</v>
       </c>
       <c r="C13" t="s">
-        <v>433</v>
+        <v>409</v>
       </c>
       <c r="D13" t="s">
-        <v>434</v>
+        <v>410</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:4">
       <c r="A14" t="s">
-        <v>435</v>
+        <v>411</v>
       </c>
       <c r="C14" t="s">
-        <v>436</v>
+        <v>412</v>
       </c>
       <c r="D14" t="s">
-        <v>437</v>
+        <v>413</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:4">
       <c r="A15" t="s">
-        <v>438</v>
+        <v>414</v>
       </c>
       <c r="C15" t="s">
-        <v>439</v>
+        <v>415</v>
       </c>
       <c r="D15" t="s">
-        <v>440</v>
+        <v>416</v>
       </c>
     </row>
   </sheetData>
@@ -3084,17 +3012,17 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="29" customWidth="1"/>
     <col min="2" max="2" width="40.1111111111111" customWidth="1"/>
-    <col min="3" max="3" width="125.555555555556" customWidth="1"/>
+    <col min="3" max="3" width="133.888888888889" customWidth="1"/>
     <col min="4" max="4" width="19.7777777777778" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3255,257 +3183,183 @@
         <v>156</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>157</v>
       </c>
       <c r="C15" t="s">
         <v>158</v>
       </c>
-      <c r="D15" t="s">
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" t="s">
+      <c r="C16" t="s">
         <v>160</v>
       </c>
-      <c r="C16" t="s">
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
         <v>161</v>
       </c>
-      <c r="D16" t="s">
+      <c r="C17" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
-      <c r="A17" t="s">
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
         <v>163</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C18" t="s">
         <v>164</v>
       </c>
-      <c r="D17" t="s">
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" t="s">
+      <c r="C19" t="s">
         <v>166</v>
       </c>
-      <c r="C18" t="s">
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
         <v>167</v>
       </c>
-      <c r="D18" t="s">
+      <c r="C20" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
-      <c r="A19" t="s">
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
         <v>169</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C21" t="s">
         <v>170</v>
       </c>
-      <c r="D19" t="s">
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" t="s">
+      <c r="C22" t="s">
         <v>172</v>
       </c>
-      <c r="C20" t="s">
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
         <v>173</v>
       </c>
-      <c r="D20" t="s">
+      <c r="C23" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
-      <c r="A21" t="s">
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
         <v>175</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C24" t="s">
         <v>176</v>
       </c>
-      <c r="D21" t="s">
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" t="s">
+      <c r="C25" t="s">
         <v>178</v>
       </c>
-      <c r="C22" t="s">
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
         <v>179</v>
       </c>
-      <c r="D22" t="s">
+      <c r="C26" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
-      <c r="A23" t="s">
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
         <v>181</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C27" t="s">
         <v>182</v>
       </c>
-      <c r="D23" t="s">
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" t="s">
+      <c r="C28" t="s">
         <v>184</v>
       </c>
-      <c r="C24" t="s">
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
         <v>185</v>
       </c>
-      <c r="D24" t="s">
+      <c r="C29" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
-      <c r="A25" t="s">
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
         <v>187</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C30" t="s">
         <v>188</v>
       </c>
-      <c r="D25" t="s">
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" t="s">
+      <c r="C31" t="s">
         <v>190</v>
       </c>
-      <c r="C26" t="s">
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
         <v>191</v>
       </c>
-      <c r="D26" t="s">
+      <c r="C32" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
-      <c r="A27" t="s">
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
         <v>193</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C33" t="s">
         <v>194</v>
       </c>
-      <c r="D27" t="s">
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" t="s">
+      <c r="C34" t="s">
         <v>196</v>
       </c>
-      <c r="C28" t="s">
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
         <v>197</v>
       </c>
-      <c r="D28" t="s">
+      <c r="C35" t="s">
         <v>198</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" t="s">
-        <v>199</v>
-      </c>
-      <c r="C29" t="s">
-        <v>200</v>
-      </c>
-      <c r="D29" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" t="s">
-        <v>202</v>
-      </c>
-      <c r="C30" t="s">
-        <v>203</v>
-      </c>
-      <c r="D30" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" t="s">
-        <v>205</v>
-      </c>
-      <c r="C31" t="s">
-        <v>206</v>
-      </c>
-      <c r="D31" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" t="s">
-        <v>208</v>
-      </c>
-      <c r="C32" t="s">
-        <v>209</v>
-      </c>
-      <c r="D32" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" t="s">
-        <v>211</v>
-      </c>
-      <c r="C33" t="s">
-        <v>212</v>
-      </c>
-      <c r="D33" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" t="s">
-        <v>214</v>
-      </c>
-      <c r="C34" t="s">
-        <v>215</v>
-      </c>
-      <c r="D34" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" t="s">
-        <v>217</v>
-      </c>
-      <c r="C35" t="s">
-        <v>218</v>
-      </c>
-      <c r="D35" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>220</v>
+        <v>199</v>
       </c>
       <c r="C36" t="s">
-        <v>221</v>
+        <v>200</v>
       </c>
       <c r="D36" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" t="s">
-        <v>223</v>
-      </c>
-      <c r="C37" t="s">
-        <v>224</v>
-      </c>
-      <c r="D37" t="s">
-        <v>225</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -3548,299 +3402,299 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>226</v>
+        <v>202</v>
       </c>
       <c r="C2" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
       <c r="D2" t="s">
-        <v>228</v>
+        <v>204</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>229</v>
+        <v>205</v>
       </c>
       <c r="C3" t="s">
-        <v>230</v>
+        <v>206</v>
       </c>
       <c r="D3" t="s">
-        <v>231</v>
+        <v>207</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>232</v>
+        <v>208</v>
       </c>
       <c r="C4" t="s">
-        <v>233</v>
+        <v>209</v>
       </c>
       <c r="D4" t="s">
-        <v>234</v>
+        <v>210</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>235</v>
+        <v>211</v>
       </c>
       <c r="C5" t="s">
-        <v>236</v>
+        <v>212</v>
       </c>
       <c r="D5" t="s">
-        <v>237</v>
+        <v>213</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>238</v>
+        <v>214</v>
       </c>
       <c r="C6" t="s">
-        <v>239</v>
+        <v>215</v>
       </c>
       <c r="D6" t="s">
-        <v>240</v>
+        <v>216</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>241</v>
+        <v>217</v>
       </c>
       <c r="C7" t="s">
-        <v>242</v>
+        <v>218</v>
       </c>
       <c r="D7" t="s">
-        <v>243</v>
+        <v>219</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>244</v>
+        <v>220</v>
       </c>
       <c r="C8" t="s">
-        <v>245</v>
+        <v>221</v>
       </c>
       <c r="D8" t="s">
-        <v>246</v>
+        <v>222</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>247</v>
+        <v>223</v>
       </c>
       <c r="C9" t="s">
-        <v>248</v>
+        <v>224</v>
       </c>
       <c r="D9" t="s">
-        <v>248</v>
+        <v>224</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>249</v>
+        <v>225</v>
       </c>
       <c r="C10" t="s">
-        <v>250</v>
+        <v>226</v>
       </c>
       <c r="D10" t="s">
-        <v>250</v>
+        <v>226</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>251</v>
+        <v>227</v>
       </c>
       <c r="C11" t="s">
-        <v>252</v>
+        <v>228</v>
       </c>
       <c r="D11" t="s">
-        <v>252</v>
+        <v>228</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>253</v>
+        <v>229</v>
       </c>
       <c r="C12" t="s">
-        <v>254</v>
+        <v>230</v>
       </c>
       <c r="D12" t="s">
-        <v>255</v>
+        <v>231</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>256</v>
+        <v>232</v>
       </c>
       <c r="C13" t="s">
-        <v>257</v>
+        <v>233</v>
       </c>
       <c r="D13" t="s">
-        <v>258</v>
+        <v>234</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>259</v>
+        <v>235</v>
       </c>
       <c r="C14" t="s">
-        <v>260</v>
+        <v>236</v>
       </c>
       <c r="D14" t="s">
-        <v>261</v>
+        <v>237</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>262</v>
+        <v>238</v>
       </c>
       <c r="C15" t="s">
-        <v>263</v>
+        <v>239</v>
       </c>
       <c r="D15" t="s">
-        <v>264</v>
+        <v>240</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>265</v>
+        <v>241</v>
       </c>
       <c r="C16" t="s">
-        <v>266</v>
+        <v>242</v>
       </c>
       <c r="D16" t="s">
-        <v>267</v>
+        <v>243</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>268</v>
+        <v>244</v>
       </c>
       <c r="C17" t="s">
-        <v>269</v>
+        <v>245</v>
       </c>
       <c r="D17" t="s">
-        <v>270</v>
+        <v>246</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>271</v>
+        <v>247</v>
       </c>
       <c r="C18" t="s">
-        <v>272</v>
+        <v>248</v>
       </c>
       <c r="D18" t="s">
-        <v>273</v>
+        <v>249</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>274</v>
+        <v>250</v>
       </c>
       <c r="C19" t="s">
-        <v>275</v>
+        <v>251</v>
       </c>
       <c r="D19" t="s">
-        <v>276</v>
+        <v>252</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>277</v>
+        <v>253</v>
       </c>
       <c r="C20" t="s">
-        <v>278</v>
+        <v>254</v>
       </c>
       <c r="D20" t="s">
-        <v>279</v>
+        <v>255</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>280</v>
+        <v>256</v>
       </c>
       <c r="C21" t="s">
-        <v>281</v>
+        <v>257</v>
       </c>
       <c r="D21" t="s">
-        <v>282</v>
+        <v>258</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>283</v>
+        <v>259</v>
       </c>
       <c r="C22" t="s">
-        <v>284</v>
+        <v>260</v>
       </c>
       <c r="D22" t="s">
-        <v>285</v>
+        <v>261</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>286</v>
+        <v>262</v>
       </c>
       <c r="C23" t="s">
-        <v>287</v>
+        <v>263</v>
       </c>
       <c r="D23" t="s">
-        <v>288</v>
+        <v>264</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>289</v>
+        <v>265</v>
       </c>
       <c r="C24" t="s">
-        <v>290</v>
+        <v>266</v>
       </c>
       <c r="D24" t="s">
-        <v>291</v>
+        <v>267</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>292</v>
+        <v>268</v>
       </c>
       <c r="C25" t="s">
-        <v>293</v>
+        <v>269</v>
       </c>
       <c r="D25" t="s">
-        <v>293</v>
+        <v>269</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>294</v>
+        <v>270</v>
       </c>
       <c r="C26" t="s">
-        <v>295</v>
+        <v>271</v>
       </c>
       <c r="D26" t="s">
-        <v>296</v>
+        <v>272</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>297</v>
+        <v>273</v>
       </c>
       <c r="C27" t="s">
-        <v>298</v>
+        <v>274</v>
       </c>
       <c r="D27" t="s">
-        <v>299</v>
+        <v>275</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>300</v>
+        <v>276</v>
       </c>
       <c r="C28" t="s">
-        <v>301</v>
+        <v>277</v>
       </c>
       <c r="D28" t="s">
-        <v>302</v>
+        <v>278</v>
       </c>
     </row>
   </sheetData>
@@ -3883,38 +3737,38 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>303</v>
+        <v>279</v>
       </c>
       <c r="C2" t="s">
-        <v>304</v>
+        <v>280</v>
       </c>
       <c r="D2" t="s">
-        <v>305</v>
+        <v>281</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>306</v>
+        <v>282</v>
       </c>
       <c r="C3" t="s">
-        <v>307</v>
+        <v>283</v>
       </c>
       <c r="D3" t="s">
-        <v>308</v>
+        <v>284</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>309</v>
+        <v>285</v>
       </c>
       <c r="B4" t="s">
-        <v>310</v>
+        <v>286</v>
       </c>
       <c r="C4" t="s">
-        <v>311</v>
+        <v>287</v>
       </c>
       <c r="D4" t="s">
-        <v>312</v>
+        <v>288</v>
       </c>
     </row>
   </sheetData>
@@ -3957,13 +3811,13 @@
     </row>
     <row r="2" ht="109" customHeight="1" spans="1:4">
       <c r="A2" t="s">
-        <v>313</v>
+        <v>289</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>314</v>
+        <v>290</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>315</v>
+        <v>291</v>
       </c>
     </row>
   </sheetData>
@@ -4006,263 +3860,263 @@
     </row>
     <row r="2" customHeight="1" spans="1:4">
       <c r="A2" t="s">
-        <v>316</v>
+        <v>292</v>
       </c>
       <c r="C2" t="s">
-        <v>317</v>
+        <v>293</v>
       </c>
       <c r="D2" t="s">
-        <v>318</v>
+        <v>294</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:4">
       <c r="A3" t="s">
-        <v>319</v>
+        <v>295</v>
       </c>
       <c r="B3" t="s">
-        <v>320</v>
+        <v>296</v>
       </c>
       <c r="C3" t="s">
-        <v>321</v>
+        <v>297</v>
       </c>
       <c r="D3" t="s">
-        <v>322</v>
+        <v>298</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:4">
       <c r="A4" t="s">
-        <v>323</v>
+        <v>299</v>
       </c>
       <c r="C4" t="s">
-        <v>324</v>
+        <v>300</v>
       </c>
       <c r="D4" t="s">
-        <v>325</v>
+        <v>301</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:4">
       <c r="A5" t="s">
-        <v>326</v>
+        <v>302</v>
       </c>
       <c r="C5" t="s">
-        <v>327</v>
+        <v>303</v>
       </c>
       <c r="D5" t="s">
-        <v>328</v>
+        <v>304</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:4">
       <c r="A6" t="s">
-        <v>329</v>
+        <v>305</v>
       </c>
       <c r="B6" t="s">
-        <v>330</v>
+        <v>306</v>
       </c>
       <c r="C6" t="s">
-        <v>331</v>
+        <v>307</v>
       </c>
       <c r="D6" t="s">
-        <v>332</v>
+        <v>308</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:4">
       <c r="A7" t="s">
-        <v>333</v>
+        <v>309</v>
       </c>
       <c r="B7" t="s">
-        <v>334</v>
+        <v>310</v>
       </c>
       <c r="C7" t="s">
-        <v>335</v>
+        <v>311</v>
       </c>
       <c r="D7" t="s">
-        <v>336</v>
+        <v>312</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:4">
       <c r="A8" t="s">
-        <v>337</v>
+        <v>313</v>
       </c>
       <c r="B8" t="s">
-        <v>338</v>
+        <v>314</v>
       </c>
       <c r="C8" t="s">
-        <v>339</v>
+        <v>315</v>
       </c>
       <c r="D8" t="s">
-        <v>340</v>
+        <v>316</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:4">
       <c r="A9" t="s">
-        <v>341</v>
+        <v>317</v>
       </c>
       <c r="B9" t="s">
-        <v>342</v>
+        <v>318</v>
       </c>
       <c r="C9" t="s">
-        <v>342</v>
+        <v>318</v>
       </c>
       <c r="D9" t="s">
-        <v>342</v>
+        <v>318</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:4">
       <c r="A10" t="s">
-        <v>343</v>
+        <v>319</v>
       </c>
       <c r="C10" t="s">
-        <v>344</v>
+        <v>320</v>
       </c>
       <c r="D10" t="s">
-        <v>345</v>
+        <v>321</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:4">
       <c r="A11" t="s">
-        <v>346</v>
+        <v>322</v>
       </c>
       <c r="C11" t="s">
-        <v>347</v>
+        <v>323</v>
       </c>
       <c r="D11" t="s">
-        <v>348</v>
+        <v>324</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:4">
       <c r="A12" t="s">
-        <v>349</v>
+        <v>325</v>
       </c>
       <c r="C12" t="s">
-        <v>230</v>
+        <v>206</v>
       </c>
       <c r="D12" t="s">
-        <v>231</v>
+        <v>207</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:4">
       <c r="A13" t="s">
-        <v>350</v>
+        <v>326</v>
       </c>
       <c r="C13" t="s">
-        <v>351</v>
+        <v>327</v>
       </c>
       <c r="D13" t="s">
-        <v>352</v>
+        <v>328</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:4">
       <c r="A14" t="s">
-        <v>353</v>
+        <v>329</v>
       </c>
       <c r="C14" t="s">
-        <v>354</v>
+        <v>330</v>
       </c>
       <c r="D14" t="s">
-        <v>355</v>
+        <v>331</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:4">
       <c r="A15" t="s">
-        <v>356</v>
+        <v>332</v>
       </c>
       <c r="C15" t="s">
-        <v>357</v>
+        <v>333</v>
       </c>
       <c r="D15" t="s">
-        <v>358</v>
+        <v>334</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:4">
       <c r="A16" t="s">
-        <v>359</v>
+        <v>335</v>
       </c>
       <c r="C16" t="s">
-        <v>360</v>
+        <v>336</v>
       </c>
       <c r="D16" t="s">
-        <v>361</v>
+        <v>337</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:4">
       <c r="A17" t="s">
-        <v>362</v>
+        <v>338</v>
       </c>
       <c r="C17" t="s">
-        <v>363</v>
+        <v>339</v>
       </c>
       <c r="D17" t="s">
-        <v>364</v>
+        <v>340</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:4">
       <c r="A18" t="s">
-        <v>365</v>
+        <v>341</v>
       </c>
       <c r="B18" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="C18" t="s">
-        <v>367</v>
+        <v>343</v>
       </c>
       <c r="D18" t="s">
-        <v>368</v>
+        <v>344</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:4">
       <c r="A19" t="s">
-        <v>369</v>
+        <v>345</v>
       </c>
       <c r="B19" t="s">
-        <v>370</v>
+        <v>346</v>
       </c>
       <c r="C19" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="D19" t="s">
-        <v>372</v>
+        <v>348</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:4">
       <c r="A20" t="s">
-        <v>373</v>
+        <v>349</v>
       </c>
       <c r="B20" t="s">
-        <v>374</v>
+        <v>350</v>
       </c>
       <c r="C20" t="s">
-        <v>375</v>
+        <v>351</v>
       </c>
       <c r="D20" t="s">
-        <v>376</v>
+        <v>352</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:4">
       <c r="A21" t="s">
-        <v>377</v>
+        <v>353</v>
       </c>
       <c r="B21" t="s">
-        <v>378</v>
+        <v>354</v>
       </c>
       <c r="C21" t="s">
-        <v>379</v>
+        <v>355</v>
       </c>
       <c r="D21" t="s">
-        <v>380</v>
+        <v>356</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:4">
       <c r="A22" t="s">
-        <v>381</v>
+        <v>357</v>
       </c>
       <c r="B22" t="s">
-        <v>382</v>
+        <v>358</v>
       </c>
       <c r="C22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D22" t="s">
-        <v>384</v>
+        <v>360</v>
       </c>
     </row>
   </sheetData>
@@ -4305,24 +4159,24 @@
     </row>
     <row r="2" customHeight="1" spans="1:4">
       <c r="A2" t="s">
-        <v>385</v>
+        <v>361</v>
       </c>
       <c r="C2" t="s">
-        <v>386</v>
+        <v>362</v>
       </c>
       <c r="D2" t="s">
-        <v>387</v>
+        <v>363</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:4">
       <c r="A3" t="s">
-        <v>388</v>
+        <v>364</v>
       </c>
       <c r="C3" t="s">
-        <v>389</v>
+        <v>365</v>
       </c>
       <c r="D3" t="s">
-        <v>390</v>
+        <v>366</v>
       </c>
     </row>
   </sheetData>

--- a/ChemicalSummon/Assets/StreamingAssets/TranslatableSentence.xlsx
+++ b/ChemicalSummon/Assets/StreamingAssets/TranslatableSentence.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="438">
   <si>
     <t>ScriptableObjectName</t>
   </si>
@@ -385,7 +385,7 @@
     <t>哈喽-我是这个学院的学生指导用电子精灵！</t>
   </si>
   <si>
-    <t>ハロー私はこの学園で学生指導を任せてる電子妖精！</t>
+    <t>ハロー！私はこの学園で学生指導を任せてる電子妖精！</t>
   </si>
   <si>
     <t>Guide1-1-2</t>
@@ -502,124 +502,187 @@
     <t>当你拥有相同卡牌时，你可以把它放置在同一个卡槽内，强度提升至数量倍。</t>
   </si>
   <si>
+    <t>同じカードは、一つのスロットに重ねることで、攻撃力を倍増することが出来るよ。</t>
+  </si>
+  <si>
     <t>Guide1-1-15</t>
   </si>
   <si>
     <t>即使你的卡的硬度抵不过别人，你也能堆叠卡牌来攻克坚硬的物质。</t>
   </si>
   <si>
+    <t>一枚の強さで勝てなくても、何枚か重ねることで頑丈な物質を倒せるよ！</t>
+  </si>
+  <si>
     <t>Guide1-1-16</t>
   </si>
   <si>
     <t>轮到你进攻了!</t>
   </si>
   <si>
+    <t>君の攻撃の番！</t>
+  </si>
+  <si>
     <t>Guide1-1-17</t>
   </si>
   <si>
     <t>足够熟练的召唤师，能思考用别的精灵，甚至用自己的体力来抵挡王牌精灵的损失。</t>
   </si>
   <si>
+    <t>熟練の召喚士は、別のフェアリーや自分の体力を使ってまで重要なフェアリーを最後まで残すことを考えるよ。</t>
+  </si>
+  <si>
     <t>Guide1-1-18</t>
   </si>
   <si>
     <t>攻击难以格挡的时候，可以考虑让你的最强卡牌保留下来，通过堆叠的强度提升在后面的回合发起反击。</t>
   </si>
   <si>
+    <t>攻撃を防ぎ切れない時、一番強いカードを残せば、次のターン以降で同じカードが手に入った時に巻き返せるんだ。</t>
+  </si>
+  <si>
     <t>Guide1-1-19</t>
   </si>
   <si>
     <t>你如果不想使用任何卡牌进行格挡，按右方的【玩家格挡】按钮用自己的体力抵挡伤害。</t>
   </si>
   <si>
+    <t>もしカードで防御したくない時は、右の「プレイヤーブロック」から自分の体力で全ダメージを肩代わり出来るよ。</t>
+  </si>
+  <si>
     <t>Guide1-1-20</t>
   </si>
   <si>
     <t>堆叠攻击虽然强力，但它可以用高级法术轻易化解。你手中的非固体物质卡牌将变得有用了。</t>
   </si>
   <si>
+    <t>重ねたカードの攻撃は強いけど、ある高等術式で案外簡単に解けるんだ。今持ってる非固体物質の使い道だね。</t>
+  </si>
+  <si>
     <t>Guide1-1-21</t>
   </si>
   <si>
     <t>先结束回合吧，那个法术需要被攻击的一刻才能发动。</t>
   </si>
   <si>
+    <t>まずターンを終了しよう、攻撃された瞬間に発動するんだ。</t>
+  </si>
+  <si>
     <t>Guide1-1-22</t>
   </si>
   <si>
     <t>你看到右边的【融合】按钮亮了吗？</t>
   </si>
   <si>
+    <t>右の融合ボタンが光ってるのが分かるかな？</t>
+  </si>
+  <si>
     <t>Guide1-1-23</t>
   </si>
   <si>
     <t>点击它，从列表选择第一行的铁的氧化反应式！</t>
   </si>
   <si>
+    <t>クリックして、リスト一番目の鉄の酸化反応を選択！</t>
+  </si>
+  <si>
     <t>Guide1-1-24</t>
   </si>
   <si>
     <t>这就是【融合】招式的一个派系【反击融合】。精灵可以与别的精灵接触发生反应，诞生新的精灵。这个法术利用了这个原理，把对方的攻击化解了。</t>
   </si>
   <si>
+    <t>これが融合術の一系統「カウンター融合」。特定のフェアリー同士が接触すると新しいフェアリーが誕生するんだけど、この術はそれを利用して相手の攻撃をかわしているんだ。</t>
+  </si>
+  <si>
     <t>Guide1-1-25</t>
   </si>
   <si>
     <t>发动时，对方攻击卡牌需扣除融合反应式对该物质所要求的数量，其它不足素材由我方补充。</t>
   </si>
   <si>
+    <t>発動時、相手の攻撃カードから反応式が必要とする量を取り除き、足りない部分は自分が補って完成するんだ。</t>
+  </si>
+  <si>
     <t>Guide1-1-26</t>
   </si>
   <si>
     <t>发动者还能获得这次融合诞生的新精灵，可以和通常物质一样如果是固体就能放置在场上。反击融合非常强大吧？</t>
   </si>
   <si>
+    <t>発動者は生成した新しいフェアリーを手に入れることができ、それが固体ならば場に出すことも可能。すごい技でしょ！</t>
+  </si>
+  <si>
     <t>Guide1-1-27</t>
   </si>
   <si>
     <t>【融合】还有一种派系【爆破术】，有些精灵的接触能产生巨大能量，能使用这个能量轰炸对方的精灵。</t>
   </si>
   <si>
+    <t>融合術のもう一つの系統に「融合爆発術」がある。フェアリーの接触は強烈なエネルギーを生むことがあって、それを使って攻撃する術なんだ。</t>
+  </si>
+  <si>
     <t>Guide1-1-28</t>
   </si>
   <si>
     <t>融合可以光靠自己的卡牌发动。点击右边的融合按钮，先发动生成水的反应式吧。</t>
   </si>
   <si>
+    <t>融合は自分のカードのみでも発動できる。右の融合リストから、まずは水を作り出す反応式を選ぼう。</t>
+  </si>
+  <si>
     <t>Guide1-1-29</t>
   </si>
   <si>
     <t>光只有水不会有爆炸，还需要与两个钠融合才可以发动。</t>
   </si>
   <si>
+    <t>水だけじゃ爆発は起きないから、あとナトリウム二つが必要だね。</t>
+  </si>
+  <si>
     <t>Guide1-1-30</t>
   </si>
   <si>
     <t>看来你已经准备好了！从融合按钮发动它！</t>
   </si>
   <si>
+    <t>もう揃ったみたいだね！融合ボタンから発動して！</t>
+  </si>
+  <si>
     <t>Guide1-1-31</t>
   </si>
   <si>
     <t>爆破术给予对面所有精灵一定数值的伤害，伤害量由反应式按钮的橙色爆炸物图标显示。</t>
   </si>
   <si>
+    <t>爆発術は相手全てのフェアリーに一定ダメージを与える。ダメージ量は反応式ボタンのオレンジ色の爆発物アイコンに記されてるよ。</t>
+  </si>
+  <si>
     <t>Guide1-1-32</t>
   </si>
   <si>
     <t>这种攻击准备麻烦，但一旦发动非常强力。你需要提前思考发动它所需要的素材，在最佳时机发动它。</t>
   </si>
   <si>
+    <t>準備に時間が掛かる代わりに、威力は強力！発動するのにどんな物質がいるのか事前に考えてね。</t>
+  </si>
+  <si>
     <t>Guide1-1-33</t>
   </si>
   <si>
     <t>这个过程或许一时会让你陷入危机（就像上几个回合一样），所以精通爆破术的召唤师都同时会反击融合，在施展的过程中防身。</t>
   </si>
   <si>
+    <t>準備段階で数ターン前のように危機に陥る時もあるから、爆発術を使う召喚士はみんなカウンター融合でその間の護身をするよ。</t>
+  </si>
+  <si>
     <t>Guide1-1-34</t>
   </si>
   <si>
     <t>这场爆炸让你又获得了新的物质，而且也是固体。放置在场上吧！</t>
+  </si>
+  <si>
+    <t>この爆発でまた新しい化合物が手に入ったようだね！固体なので、場に出そう！</t>
   </si>
   <si>
     <t>Guide1-1-35</t>
@@ -1285,9 +1348,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -1298,6 +1361,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -1305,8 +1383,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1319,24 +1398,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1352,6 +1429,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1360,14 +1445,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1407,29 +1484,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1441,6 +1496,14 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -1448,42 +1511,6 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1499,13 +1526,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1517,25 +1538,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1547,31 +1556,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1589,7 +1580,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1601,13 +1646,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1619,19 +1688,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1642,21 +1705,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1675,17 +1723,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1719,6 +1776,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1733,15 +1805,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1750,10 +1813,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1762,133 +1825,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2348,27 +2411,27 @@
     </row>
     <row r="2" customHeight="1" spans="1:4">
       <c r="A2" t="s">
-        <v>367</v>
+        <v>388</v>
       </c>
       <c r="B2" t="s">
-        <v>368</v>
+        <v>389</v>
       </c>
       <c r="C2" t="s">
-        <v>369</v>
+        <v>390</v>
       </c>
       <c r="D2" t="s">
-        <v>370</v>
+        <v>391</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:4">
       <c r="A3" t="s">
-        <v>371</v>
+        <v>392</v>
       </c>
       <c r="B3" t="s">
-        <v>372</v>
+        <v>393</v>
       </c>
       <c r="C3" t="s">
-        <v>373</v>
+        <v>394</v>
       </c>
       <c r="D3" t="s">
         <v>105</v>
@@ -2376,155 +2439,155 @@
     </row>
     <row r="4" customHeight="1" spans="1:4">
       <c r="A4" t="s">
-        <v>374</v>
+        <v>395</v>
       </c>
       <c r="B4" t="s">
-        <v>375</v>
+        <v>396</v>
       </c>
       <c r="C4" t="s">
-        <v>376</v>
+        <v>397</v>
       </c>
       <c r="D4" t="s">
-        <v>377</v>
+        <v>398</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:4">
       <c r="A5" t="s">
-        <v>378</v>
+        <v>399</v>
       </c>
       <c r="B5" t="s">
-        <v>379</v>
+        <v>400</v>
       </c>
       <c r="C5" t="s">
-        <v>380</v>
+        <v>401</v>
       </c>
       <c r="D5" t="s">
-        <v>381</v>
+        <v>402</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:4">
       <c r="A6" t="s">
-        <v>382</v>
+        <v>403</v>
       </c>
       <c r="B6" t="s">
-        <v>383</v>
+        <v>404</v>
       </c>
       <c r="C6" t="s">
-        <v>384</v>
+        <v>405</v>
       </c>
       <c r="D6" t="s">
-        <v>385</v>
+        <v>406</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:4">
       <c r="A7" t="s">
-        <v>386</v>
+        <v>407</v>
       </c>
       <c r="B7" t="s">
-        <v>387</v>
+        <v>408</v>
       </c>
       <c r="C7" t="s">
-        <v>388</v>
+        <v>409</v>
       </c>
       <c r="D7" t="s">
-        <v>389</v>
+        <v>410</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:4">
       <c r="A8" t="s">
-        <v>390</v>
+        <v>411</v>
       </c>
       <c r="B8" t="s">
-        <v>391</v>
+        <v>412</v>
       </c>
       <c r="C8" t="s">
-        <v>392</v>
+        <v>413</v>
       </c>
       <c r="D8" t="s">
-        <v>393</v>
+        <v>414</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:4">
       <c r="A9" t="s">
-        <v>394</v>
+        <v>415</v>
       </c>
       <c r="B9" t="s">
-        <v>395</v>
+        <v>416</v>
       </c>
       <c r="C9" t="s">
-        <v>396</v>
+        <v>417</v>
       </c>
       <c r="D9" t="s">
-        <v>397</v>
+        <v>418</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:4">
       <c r="A10" t="s">
-        <v>398</v>
+        <v>419</v>
       </c>
       <c r="C10" t="s">
-        <v>399</v>
+        <v>420</v>
       </c>
       <c r="D10" t="s">
-        <v>400</v>
+        <v>421</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:4">
       <c r="A11" t="s">
-        <v>401</v>
+        <v>422</v>
       </c>
       <c r="C11" t="s">
-        <v>402</v>
+        <v>423</v>
       </c>
       <c r="D11" t="s">
-        <v>403</v>
+        <v>424</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:4">
       <c r="A12" t="s">
-        <v>404</v>
+        <v>425</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>405</v>
+        <v>426</v>
       </c>
       <c r="C12" t="s">
-        <v>406</v>
+        <v>427</v>
       </c>
       <c r="D12" t="s">
-        <v>407</v>
+        <v>428</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:4">
       <c r="A13" t="s">
-        <v>408</v>
+        <v>429</v>
       </c>
       <c r="C13" t="s">
-        <v>409</v>
+        <v>430</v>
       </c>
       <c r="D13" t="s">
-        <v>410</v>
+        <v>431</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:4">
       <c r="A14" t="s">
-        <v>411</v>
+        <v>432</v>
       </c>
       <c r="C14" t="s">
-        <v>412</v>
+        <v>433</v>
       </c>
       <c r="D14" t="s">
-        <v>413</v>
+        <v>434</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:4">
       <c r="A15" t="s">
-        <v>414</v>
+        <v>435</v>
       </c>
       <c r="C15" t="s">
-        <v>415</v>
+        <v>436</v>
       </c>
       <c r="D15" t="s">
-        <v>416</v>
+        <v>437</v>
       </c>
     </row>
   </sheetData>
@@ -3014,8 +3077,8 @@
   <sheetPr/>
   <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
@@ -3183,183 +3246,246 @@
         <v>156</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>157</v>
       </c>
       <c r="C15" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
+      <c r="D15" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C16" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>161</v>
+      </c>
+      <c r="D16" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C17" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+        <v>164</v>
+      </c>
+      <c r="D17" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C18" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>167</v>
+      </c>
+      <c r="D18" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="C19" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
+        <v>170</v>
+      </c>
+      <c r="D19" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="C20" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>173</v>
+      </c>
+      <c r="D20" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="C21" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>176</v>
+      </c>
+      <c r="D21" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="C22" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>179</v>
+      </c>
+      <c r="D22" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="C23" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>182</v>
+      </c>
+      <c r="D23" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="C24" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>185</v>
+      </c>
+      <c r="D24" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="C25" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>188</v>
+      </c>
+      <c r="D25" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="C26" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>191</v>
+      </c>
+      <c r="D26" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="C27" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
+        <v>194</v>
+      </c>
+      <c r="D27" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="C28" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>197</v>
+      </c>
+      <c r="D28" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>185</v>
+        <v>199</v>
       </c>
       <c r="C29" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>200</v>
+      </c>
+      <c r="D29" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>187</v>
+        <v>202</v>
       </c>
       <c r="C30" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>203</v>
+      </c>
+      <c r="D30" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="C31" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>206</v>
+      </c>
+      <c r="D31" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="C32" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>209</v>
+      </c>
+      <c r="D32" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>193</v>
+        <v>211</v>
       </c>
       <c r="C33" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>212</v>
+      </c>
+      <c r="D33" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>195</v>
+        <v>214</v>
       </c>
       <c r="C34" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>215</v>
+      </c>
+      <c r="D34" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
       <c r="C35" t="s">
-        <v>198</v>
+        <v>218</v>
+      </c>
+      <c r="D35" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>199</v>
+        <v>220</v>
       </c>
       <c r="C36" t="s">
-        <v>200</v>
+        <v>221</v>
       </c>
       <c r="D36" t="s">
-        <v>201</v>
+        <v>222</v>
       </c>
     </row>
   </sheetData>
@@ -3402,299 +3528,299 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>202</v>
+        <v>223</v>
       </c>
       <c r="C2" t="s">
-        <v>203</v>
+        <v>224</v>
       </c>
       <c r="D2" t="s">
-        <v>204</v>
+        <v>225</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>205</v>
+        <v>226</v>
       </c>
       <c r="C3" t="s">
-        <v>206</v>
+        <v>227</v>
       </c>
       <c r="D3" t="s">
-        <v>207</v>
+        <v>228</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>208</v>
+        <v>229</v>
       </c>
       <c r="C4" t="s">
-        <v>209</v>
+        <v>230</v>
       </c>
       <c r="D4" t="s">
-        <v>210</v>
+        <v>231</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>211</v>
+        <v>232</v>
       </c>
       <c r="C5" t="s">
-        <v>212</v>
+        <v>233</v>
       </c>
       <c r="D5" t="s">
-        <v>213</v>
+        <v>234</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>214</v>
+        <v>235</v>
       </c>
       <c r="C6" t="s">
-        <v>215</v>
+        <v>236</v>
       </c>
       <c r="D6" t="s">
-        <v>216</v>
+        <v>237</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>217</v>
+        <v>238</v>
       </c>
       <c r="C7" t="s">
-        <v>218</v>
+        <v>239</v>
       </c>
       <c r="D7" t="s">
-        <v>219</v>
+        <v>240</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>220</v>
+        <v>241</v>
       </c>
       <c r="C8" t="s">
-        <v>221</v>
+        <v>242</v>
       </c>
       <c r="D8" t="s">
-        <v>222</v>
+        <v>243</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>223</v>
+        <v>244</v>
       </c>
       <c r="C9" t="s">
-        <v>224</v>
+        <v>245</v>
       </c>
       <c r="D9" t="s">
-        <v>224</v>
+        <v>245</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>225</v>
+        <v>246</v>
       </c>
       <c r="C10" t="s">
-        <v>226</v>
+        <v>247</v>
       </c>
       <c r="D10" t="s">
-        <v>226</v>
+        <v>247</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>227</v>
+        <v>248</v>
       </c>
       <c r="C11" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="D11" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>229</v>
+        <v>250</v>
       </c>
       <c r="C12" t="s">
-        <v>230</v>
+        <v>251</v>
       </c>
       <c r="D12" t="s">
-        <v>231</v>
+        <v>252</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>232</v>
+        <v>253</v>
       </c>
       <c r="C13" t="s">
-        <v>233</v>
+        <v>254</v>
       </c>
       <c r="D13" t="s">
-        <v>234</v>
+        <v>255</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>235</v>
+        <v>256</v>
       </c>
       <c r="C14" t="s">
-        <v>236</v>
+        <v>257</v>
       </c>
       <c r="D14" t="s">
-        <v>237</v>
+        <v>258</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>238</v>
+        <v>259</v>
       </c>
       <c r="C15" t="s">
-        <v>239</v>
+        <v>260</v>
       </c>
       <c r="D15" t="s">
-        <v>240</v>
+        <v>261</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>241</v>
+        <v>262</v>
       </c>
       <c r="C16" t="s">
-        <v>242</v>
+        <v>263</v>
       </c>
       <c r="D16" t="s">
-        <v>243</v>
+        <v>264</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>244</v>
+        <v>265</v>
       </c>
       <c r="C17" t="s">
-        <v>245</v>
+        <v>266</v>
       </c>
       <c r="D17" t="s">
-        <v>246</v>
+        <v>267</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>247</v>
+        <v>268</v>
       </c>
       <c r="C18" t="s">
-        <v>248</v>
+        <v>269</v>
       </c>
       <c r="D18" t="s">
-        <v>249</v>
+        <v>270</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>250</v>
+        <v>271</v>
       </c>
       <c r="C19" t="s">
-        <v>251</v>
+        <v>272</v>
       </c>
       <c r="D19" t="s">
-        <v>252</v>
+        <v>273</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>253</v>
+        <v>274</v>
       </c>
       <c r="C20" t="s">
-        <v>254</v>
+        <v>275</v>
       </c>
       <c r="D20" t="s">
-        <v>255</v>
+        <v>276</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>256</v>
+        <v>277</v>
       </c>
       <c r="C21" t="s">
-        <v>257</v>
+        <v>278</v>
       </c>
       <c r="D21" t="s">
-        <v>258</v>
+        <v>279</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>259</v>
+        <v>280</v>
       </c>
       <c r="C22" t="s">
-        <v>260</v>
+        <v>281</v>
       </c>
       <c r="D22" t="s">
-        <v>261</v>
+        <v>282</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>262</v>
+        <v>283</v>
       </c>
       <c r="C23" t="s">
-        <v>263</v>
+        <v>284</v>
       </c>
       <c r="D23" t="s">
-        <v>264</v>
+        <v>285</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>265</v>
+        <v>286</v>
       </c>
       <c r="C24" t="s">
-        <v>266</v>
+        <v>287</v>
       </c>
       <c r="D24" t="s">
-        <v>267</v>
+        <v>288</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>268</v>
+        <v>289</v>
       </c>
       <c r="C25" t="s">
-        <v>269</v>
+        <v>290</v>
       </c>
       <c r="D25" t="s">
-        <v>269</v>
+        <v>290</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>270</v>
+        <v>291</v>
       </c>
       <c r="C26" t="s">
-        <v>271</v>
+        <v>292</v>
       </c>
       <c r="D26" t="s">
-        <v>272</v>
+        <v>293</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>273</v>
+        <v>294</v>
       </c>
       <c r="C27" t="s">
-        <v>274</v>
+        <v>295</v>
       </c>
       <c r="D27" t="s">
-        <v>275</v>
+        <v>296</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>276</v>
+        <v>297</v>
       </c>
       <c r="C28" t="s">
-        <v>277</v>
+        <v>298</v>
       </c>
       <c r="D28" t="s">
-        <v>278</v>
+        <v>299</v>
       </c>
     </row>
   </sheetData>
@@ -3737,38 +3863,38 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>279</v>
+        <v>300</v>
       </c>
       <c r="C2" t="s">
-        <v>280</v>
+        <v>301</v>
       </c>
       <c r="D2" t="s">
-        <v>281</v>
+        <v>302</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>282</v>
+        <v>303</v>
       </c>
       <c r="C3" t="s">
-        <v>283</v>
+        <v>304</v>
       </c>
       <c r="D3" t="s">
-        <v>284</v>
+        <v>305</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>285</v>
+        <v>306</v>
       </c>
       <c r="B4" t="s">
-        <v>286</v>
+        <v>307</v>
       </c>
       <c r="C4" t="s">
-        <v>287</v>
+        <v>308</v>
       </c>
       <c r="D4" t="s">
-        <v>288</v>
+        <v>309</v>
       </c>
     </row>
   </sheetData>
@@ -3811,13 +3937,13 @@
     </row>
     <row r="2" ht="109" customHeight="1" spans="1:4">
       <c r="A2" t="s">
-        <v>289</v>
+        <v>310</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>290</v>
+        <v>311</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>291</v>
+        <v>312</v>
       </c>
     </row>
   </sheetData>
@@ -3860,263 +3986,263 @@
     </row>
     <row r="2" customHeight="1" spans="1:4">
       <c r="A2" t="s">
-        <v>292</v>
+        <v>313</v>
       </c>
       <c r="C2" t="s">
-        <v>293</v>
+        <v>314</v>
       </c>
       <c r="D2" t="s">
-        <v>294</v>
+        <v>315</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:4">
       <c r="A3" t="s">
-        <v>295</v>
+        <v>316</v>
       </c>
       <c r="B3" t="s">
-        <v>296</v>
+        <v>317</v>
       </c>
       <c r="C3" t="s">
-        <v>297</v>
+        <v>318</v>
       </c>
       <c r="D3" t="s">
-        <v>298</v>
+        <v>319</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:4">
       <c r="A4" t="s">
-        <v>299</v>
+        <v>320</v>
       </c>
       <c r="C4" t="s">
-        <v>300</v>
+        <v>321</v>
       </c>
       <c r="D4" t="s">
-        <v>301</v>
+        <v>322</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:4">
       <c r="A5" t="s">
-        <v>302</v>
+        <v>323</v>
       </c>
       <c r="C5" t="s">
-        <v>303</v>
+        <v>324</v>
       </c>
       <c r="D5" t="s">
-        <v>304</v>
+        <v>325</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:4">
       <c r="A6" t="s">
-        <v>305</v>
+        <v>326</v>
       </c>
       <c r="B6" t="s">
-        <v>306</v>
+        <v>327</v>
       </c>
       <c r="C6" t="s">
-        <v>307</v>
+        <v>328</v>
       </c>
       <c r="D6" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:4">
       <c r="A7" t="s">
-        <v>309</v>
+        <v>330</v>
       </c>
       <c r="B7" t="s">
-        <v>310</v>
+        <v>331</v>
       </c>
       <c r="C7" t="s">
-        <v>311</v>
+        <v>332</v>
       </c>
       <c r="D7" t="s">
-        <v>312</v>
+        <v>333</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:4">
       <c r="A8" t="s">
-        <v>313</v>
+        <v>334</v>
       </c>
       <c r="B8" t="s">
-        <v>314</v>
+        <v>335</v>
       </c>
       <c r="C8" t="s">
-        <v>315</v>
+        <v>336</v>
       </c>
       <c r="D8" t="s">
-        <v>316</v>
+        <v>337</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:4">
       <c r="A9" t="s">
-        <v>317</v>
+        <v>338</v>
       </c>
       <c r="B9" t="s">
-        <v>318</v>
+        <v>339</v>
       </c>
       <c r="C9" t="s">
-        <v>318</v>
+        <v>339</v>
       </c>
       <c r="D9" t="s">
-        <v>318</v>
+        <v>339</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:4">
       <c r="A10" t="s">
-        <v>319</v>
+        <v>340</v>
       </c>
       <c r="C10" t="s">
-        <v>320</v>
+        <v>341</v>
       </c>
       <c r="D10" t="s">
-        <v>321</v>
+        <v>342</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:4">
       <c r="A11" t="s">
-        <v>322</v>
+        <v>343</v>
       </c>
       <c r="C11" t="s">
-        <v>323</v>
+        <v>344</v>
       </c>
       <c r="D11" t="s">
-        <v>324</v>
+        <v>345</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:4">
       <c r="A12" t="s">
-        <v>325</v>
+        <v>346</v>
       </c>
       <c r="C12" t="s">
-        <v>206</v>
+        <v>227</v>
       </c>
       <c r="D12" t="s">
-        <v>207</v>
+        <v>228</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:4">
       <c r="A13" t="s">
-        <v>326</v>
+        <v>347</v>
       </c>
       <c r="C13" t="s">
-        <v>327</v>
+        <v>348</v>
       </c>
       <c r="D13" t="s">
-        <v>328</v>
+        <v>349</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:4">
       <c r="A14" t="s">
-        <v>329</v>
+        <v>350</v>
       </c>
       <c r="C14" t="s">
-        <v>330</v>
+        <v>351</v>
       </c>
       <c r="D14" t="s">
-        <v>331</v>
+        <v>352</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:4">
       <c r="A15" t="s">
-        <v>332</v>
+        <v>353</v>
       </c>
       <c r="C15" t="s">
-        <v>333</v>
+        <v>354</v>
       </c>
       <c r="D15" t="s">
-        <v>334</v>
+        <v>355</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:4">
       <c r="A16" t="s">
-        <v>335</v>
+        <v>356</v>
       </c>
       <c r="C16" t="s">
-        <v>336</v>
+        <v>357</v>
       </c>
       <c r="D16" t="s">
-        <v>337</v>
+        <v>358</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:4">
       <c r="A17" t="s">
-        <v>338</v>
+        <v>359</v>
       </c>
       <c r="C17" t="s">
-        <v>339</v>
+        <v>360</v>
       </c>
       <c r="D17" t="s">
-        <v>340</v>
+        <v>361</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:4">
       <c r="A18" t="s">
-        <v>341</v>
+        <v>362</v>
       </c>
       <c r="B18" t="s">
-        <v>342</v>
+        <v>363</v>
       </c>
       <c r="C18" t="s">
-        <v>343</v>
+        <v>364</v>
       </c>
       <c r="D18" t="s">
-        <v>344</v>
+        <v>365</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:4">
       <c r="A19" t="s">
-        <v>345</v>
+        <v>366</v>
       </c>
       <c r="B19" t="s">
-        <v>346</v>
+        <v>367</v>
       </c>
       <c r="C19" t="s">
-        <v>347</v>
+        <v>368</v>
       </c>
       <c r="D19" t="s">
-        <v>348</v>
+        <v>369</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:4">
       <c r="A20" t="s">
-        <v>349</v>
+        <v>370</v>
       </c>
       <c r="B20" t="s">
-        <v>350</v>
+        <v>371</v>
       </c>
       <c r="C20" t="s">
-        <v>351</v>
+        <v>372</v>
       </c>
       <c r="D20" t="s">
-        <v>352</v>
+        <v>373</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:4">
       <c r="A21" t="s">
-        <v>353</v>
+        <v>374</v>
       </c>
       <c r="B21" t="s">
-        <v>354</v>
+        <v>375</v>
       </c>
       <c r="C21" t="s">
-        <v>355</v>
+        <v>376</v>
       </c>
       <c r="D21" t="s">
-        <v>356</v>
+        <v>377</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:4">
       <c r="A22" t="s">
-        <v>357</v>
+        <v>378</v>
       </c>
       <c r="B22" t="s">
-        <v>358</v>
+        <v>379</v>
       </c>
       <c r="C22" t="s">
-        <v>359</v>
+        <v>380</v>
       </c>
       <c r="D22" t="s">
-        <v>360</v>
+        <v>381</v>
       </c>
     </row>
   </sheetData>
@@ -4159,24 +4285,24 @@
     </row>
     <row r="2" customHeight="1" spans="1:4">
       <c r="A2" t="s">
-        <v>361</v>
+        <v>382</v>
       </c>
       <c r="C2" t="s">
-        <v>362</v>
+        <v>383</v>
       </c>
       <c r="D2" t="s">
-        <v>363</v>
+        <v>384</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:4">
       <c r="A3" t="s">
-        <v>364</v>
+        <v>385</v>
       </c>
       <c r="C3" t="s">
-        <v>365</v>
+        <v>386</v>
       </c>
       <c r="D3" t="s">
-        <v>366</v>
+        <v>387</v>
       </c>
     </row>
   </sheetData>

--- a/ChemicalSummon/Assets/StreamingAssets/TranslatableSentence.xlsx
+++ b/ChemicalSummon/Assets/StreamingAssets/TranslatableSentence.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" firstSheet="1" activeTab="3"/>
+    <workbookView windowWidth="22368" windowHeight="9420" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="12" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="438">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="457">
   <si>
     <t>ScriptableObjectName</t>
   </si>
@@ -811,15 +811,6 @@
     <t>カード減少</t>
   </si>
   <si>
-    <t>CardCount</t>
-  </si>
-  <si>
-    <t>卡牌总数</t>
-  </si>
-  <si>
-    <t>カード数</t>
-  </si>
-  <si>
     <t>ClickAnyItem</t>
   </si>
   <si>
@@ -923,6 +914,72 @@
   </si>
   <si>
     <t>タイトルに戻る</t>
+  </si>
+  <si>
+    <t>Echelon1</t>
+  </si>
+  <si>
+    <t>第一梯队</t>
+  </si>
+  <si>
+    <t>第一戦隊</t>
+  </si>
+  <si>
+    <t>Echelon2</t>
+  </si>
+  <si>
+    <t>第二梯队</t>
+  </si>
+  <si>
+    <t>第二戦隊</t>
+  </si>
+  <si>
+    <t>Echelon3</t>
+  </si>
+  <si>
+    <t>第三梯队</t>
+  </si>
+  <si>
+    <t>第三戦隊</t>
+  </si>
+  <si>
+    <t>Edit</t>
+  </si>
+  <si>
+    <t>编队</t>
+  </si>
+  <si>
+    <t>編成</t>
+  </si>
+  <si>
+    <t>CardAmount</t>
+  </si>
+  <si>
+    <t>Cards:</t>
+  </si>
+  <si>
+    <t>卡牌数:</t>
+  </si>
+  <si>
+    <t>枚数:</t>
+  </si>
+  <si>
+    <t>YourStock</t>
+  </si>
+  <si>
+    <t>你的牌库</t>
+  </si>
+  <si>
+    <t>待機</t>
+  </si>
+  <si>
+    <t>EndEdit</t>
+  </si>
+  <si>
+    <t>完成编队</t>
+  </si>
+  <si>
+    <t>編成完了</t>
   </si>
   <si>
     <t>ATK</t>
@@ -1347,9 +1404,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -1361,9 +1418,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1376,6 +1432,51 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -1392,28 +1493,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1427,24 +1507,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1458,9 +1523,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1475,23 +1547,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1499,7 +1556,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1514,7 +1571,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1526,7 +1583,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1538,13 +1601,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1556,73 +1619,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1640,13 +1649,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1658,37 +1715,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1726,8 +1783,28 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1749,29 +1826,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1790,21 +1862,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1813,145 +1870,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2384,7 +2441,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1" outlineLevelCol="3"/>
@@ -2411,27 +2468,27 @@
     </row>
     <row r="2" customHeight="1" spans="1:4">
       <c r="A2" t="s">
-        <v>388</v>
+        <v>407</v>
       </c>
       <c r="B2" t="s">
-        <v>389</v>
+        <v>408</v>
       </c>
       <c r="C2" t="s">
-        <v>390</v>
+        <v>409</v>
       </c>
       <c r="D2" t="s">
-        <v>391</v>
+        <v>410</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:4">
       <c r="A3" t="s">
-        <v>392</v>
+        <v>411</v>
       </c>
       <c r="B3" t="s">
-        <v>393</v>
+        <v>412</v>
       </c>
       <c r="C3" t="s">
-        <v>394</v>
+        <v>413</v>
       </c>
       <c r="D3" t="s">
         <v>105</v>
@@ -2439,155 +2496,155 @@
     </row>
     <row r="4" customHeight="1" spans="1:4">
       <c r="A4" t="s">
-        <v>395</v>
+        <v>414</v>
       </c>
       <c r="B4" t="s">
-        <v>396</v>
+        <v>415</v>
       </c>
       <c r="C4" t="s">
-        <v>397</v>
+        <v>416</v>
       </c>
       <c r="D4" t="s">
-        <v>398</v>
+        <v>417</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:4">
       <c r="A5" t="s">
-        <v>399</v>
+        <v>418</v>
       </c>
       <c r="B5" t="s">
-        <v>400</v>
+        <v>419</v>
       </c>
       <c r="C5" t="s">
-        <v>401</v>
+        <v>420</v>
       </c>
       <c r="D5" t="s">
-        <v>402</v>
+        <v>421</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:4">
       <c r="A6" t="s">
-        <v>403</v>
+        <v>422</v>
       </c>
       <c r="B6" t="s">
-        <v>404</v>
+        <v>423</v>
       </c>
       <c r="C6" t="s">
-        <v>405</v>
+        <v>424</v>
       </c>
       <c r="D6" t="s">
-        <v>406</v>
+        <v>425</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:4">
       <c r="A7" t="s">
-        <v>407</v>
+        <v>426</v>
       </c>
       <c r="B7" t="s">
-        <v>408</v>
+        <v>427</v>
       </c>
       <c r="C7" t="s">
-        <v>409</v>
+        <v>428</v>
       </c>
       <c r="D7" t="s">
-        <v>410</v>
+        <v>429</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:4">
       <c r="A8" t="s">
-        <v>411</v>
+        <v>430</v>
       </c>
       <c r="B8" t="s">
-        <v>412</v>
+        <v>431</v>
       </c>
       <c r="C8" t="s">
-        <v>413</v>
+        <v>432</v>
       </c>
       <c r="D8" t="s">
-        <v>414</v>
+        <v>433</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:4">
       <c r="A9" t="s">
-        <v>415</v>
+        <v>434</v>
       </c>
       <c r="B9" t="s">
-        <v>416</v>
+        <v>435</v>
       </c>
       <c r="C9" t="s">
-        <v>417</v>
+        <v>436</v>
       </c>
       <c r="D9" t="s">
-        <v>418</v>
+        <v>437</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:4">
       <c r="A10" t="s">
-        <v>419</v>
+        <v>438</v>
       </c>
       <c r="C10" t="s">
-        <v>420</v>
+        <v>439</v>
       </c>
       <c r="D10" t="s">
-        <v>421</v>
+        <v>440</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:4">
       <c r="A11" t="s">
-        <v>422</v>
+        <v>441</v>
       </c>
       <c r="C11" t="s">
-        <v>423</v>
+        <v>442</v>
       </c>
       <c r="D11" t="s">
-        <v>424</v>
+        <v>443</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:4">
       <c r="A12" t="s">
-        <v>425</v>
+        <v>444</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>426</v>
+        <v>445</v>
       </c>
       <c r="C12" t="s">
-        <v>427</v>
+        <v>446</v>
       </c>
       <c r="D12" t="s">
-        <v>428</v>
+        <v>447</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:4">
       <c r="A13" t="s">
-        <v>429</v>
+        <v>448</v>
       </c>
       <c r="C13" t="s">
-        <v>430</v>
+        <v>449</v>
       </c>
       <c r="D13" t="s">
-        <v>431</v>
+        <v>450</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:4">
       <c r="A14" t="s">
-        <v>432</v>
+        <v>451</v>
       </c>
       <c r="C14" t="s">
-        <v>433</v>
+        <v>452</v>
       </c>
       <c r="D14" t="s">
-        <v>434</v>
+        <v>453</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:4">
       <c r="A15" t="s">
-        <v>435</v>
+        <v>454</v>
       </c>
       <c r="C15" t="s">
-        <v>436</v>
+        <v>455</v>
       </c>
       <c r="D15" t="s">
-        <v>437</v>
+        <v>456</v>
       </c>
     </row>
   </sheetData>
@@ -2725,7 +2782,7 @@
   <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
@@ -3077,7 +3134,7 @@
   <sheetPr/>
   <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
@@ -3498,10 +3555,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
@@ -3776,15 +3833,15 @@
         <v>287</v>
       </c>
       <c r="D24" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
+        <v>288</v>
+      </c>
+      <c r="C25" t="s">
         <v>289</v>
-      </c>
-      <c r="C25" t="s">
-        <v>290</v>
       </c>
       <c r="D25" t="s">
         <v>290</v>
@@ -3821,6 +3878,75 @@
       </c>
       <c r="D28" t="s">
         <v>299</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>300</v>
+      </c>
+      <c r="C29" t="s">
+        <v>301</v>
+      </c>
+      <c r="D29" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>303</v>
+      </c>
+      <c r="C30" t="s">
+        <v>304</v>
+      </c>
+      <c r="D30" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>306</v>
+      </c>
+      <c r="C31" t="s">
+        <v>307</v>
+      </c>
+      <c r="D31" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>309</v>
+      </c>
+      <c r="B32" t="s">
+        <v>310</v>
+      </c>
+      <c r="C32" t="s">
+        <v>311</v>
+      </c>
+      <c r="D32" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>313</v>
+      </c>
+      <c r="C33" t="s">
+        <v>314</v>
+      </c>
+      <c r="D33" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>316</v>
+      </c>
+      <c r="C34" t="s">
+        <v>317</v>
+      </c>
+      <c r="D34" t="s">
+        <v>318</v>
       </c>
     </row>
   </sheetData>
@@ -3863,38 +3989,38 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>300</v>
+        <v>319</v>
       </c>
       <c r="C2" t="s">
-        <v>301</v>
+        <v>320</v>
       </c>
       <c r="D2" t="s">
-        <v>302</v>
+        <v>321</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>303</v>
+        <v>322</v>
       </c>
       <c r="C3" t="s">
-        <v>304</v>
+        <v>323</v>
       </c>
       <c r="D3" t="s">
-        <v>305</v>
+        <v>324</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>306</v>
+        <v>325</v>
       </c>
       <c r="B4" t="s">
-        <v>307</v>
+        <v>326</v>
       </c>
       <c r="C4" t="s">
-        <v>308</v>
+        <v>327</v>
       </c>
       <c r="D4" t="s">
-        <v>309</v>
+        <v>328</v>
       </c>
     </row>
   </sheetData>
@@ -3937,13 +4063,13 @@
     </row>
     <row r="2" ht="109" customHeight="1" spans="1:4">
       <c r="A2" t="s">
-        <v>310</v>
+        <v>329</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>311</v>
+        <v>330</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>312</v>
+        <v>331</v>
       </c>
     </row>
   </sheetData>
@@ -3986,132 +4112,132 @@
     </row>
     <row r="2" customHeight="1" spans="1:4">
       <c r="A2" t="s">
-        <v>313</v>
+        <v>332</v>
       </c>
       <c r="C2" t="s">
-        <v>314</v>
+        <v>333</v>
       </c>
       <c r="D2" t="s">
-        <v>315</v>
+        <v>334</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:4">
       <c r="A3" t="s">
-        <v>316</v>
+        <v>335</v>
       </c>
       <c r="B3" t="s">
-        <v>317</v>
+        <v>336</v>
       </c>
       <c r="C3" t="s">
-        <v>318</v>
+        <v>337</v>
       </c>
       <c r="D3" t="s">
-        <v>319</v>
+        <v>338</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:4">
       <c r="A4" t="s">
-        <v>320</v>
+        <v>339</v>
       </c>
       <c r="C4" t="s">
-        <v>321</v>
+        <v>340</v>
       </c>
       <c r="D4" t="s">
-        <v>322</v>
+        <v>341</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:4">
       <c r="A5" t="s">
-        <v>323</v>
+        <v>342</v>
       </c>
       <c r="C5" t="s">
-        <v>324</v>
+        <v>343</v>
       </c>
       <c r="D5" t="s">
-        <v>325</v>
+        <v>344</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:4">
       <c r="A6" t="s">
-        <v>326</v>
+        <v>345</v>
       </c>
       <c r="B6" t="s">
-        <v>327</v>
+        <v>346</v>
       </c>
       <c r="C6" t="s">
-        <v>328</v>
+        <v>347</v>
       </c>
       <c r="D6" t="s">
-        <v>329</v>
+        <v>348</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:4">
       <c r="A7" t="s">
-        <v>330</v>
+        <v>349</v>
       </c>
       <c r="B7" t="s">
-        <v>331</v>
+        <v>350</v>
       </c>
       <c r="C7" t="s">
-        <v>332</v>
+        <v>351</v>
       </c>
       <c r="D7" t="s">
-        <v>333</v>
+        <v>352</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:4">
       <c r="A8" t="s">
-        <v>334</v>
+        <v>353</v>
       </c>
       <c r="B8" t="s">
-        <v>335</v>
+        <v>354</v>
       </c>
       <c r="C8" t="s">
-        <v>336</v>
+        <v>355</v>
       </c>
       <c r="D8" t="s">
-        <v>337</v>
+        <v>356</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:4">
       <c r="A9" t="s">
-        <v>338</v>
+        <v>357</v>
       </c>
       <c r="B9" t="s">
-        <v>339</v>
+        <v>358</v>
       </c>
       <c r="C9" t="s">
-        <v>339</v>
+        <v>358</v>
       </c>
       <c r="D9" t="s">
-        <v>339</v>
+        <v>358</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:4">
       <c r="A10" t="s">
-        <v>340</v>
+        <v>359</v>
       </c>
       <c r="C10" t="s">
-        <v>341</v>
+        <v>360</v>
       </c>
       <c r="D10" t="s">
-        <v>342</v>
+        <v>361</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:4">
       <c r="A11" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
       <c r="C11" t="s">
-        <v>344</v>
+        <v>363</v>
       </c>
       <c r="D11" t="s">
-        <v>345</v>
+        <v>364</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:4">
       <c r="A12" t="s">
-        <v>346</v>
+        <v>365</v>
       </c>
       <c r="C12" t="s">
         <v>227</v>
@@ -4122,127 +4248,127 @@
     </row>
     <row r="13" customHeight="1" spans="1:4">
       <c r="A13" t="s">
-        <v>347</v>
+        <v>366</v>
       </c>
       <c r="C13" t="s">
-        <v>348</v>
+        <v>367</v>
       </c>
       <c r="D13" t="s">
-        <v>349</v>
+        <v>368</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:4">
       <c r="A14" t="s">
-        <v>350</v>
+        <v>369</v>
       </c>
       <c r="C14" t="s">
-        <v>351</v>
+        <v>370</v>
       </c>
       <c r="D14" t="s">
-        <v>352</v>
+        <v>371</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:4">
       <c r="A15" t="s">
-        <v>353</v>
+        <v>372</v>
       </c>
       <c r="C15" t="s">
-        <v>354</v>
+        <v>373</v>
       </c>
       <c r="D15" t="s">
-        <v>355</v>
+        <v>374</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:4">
       <c r="A16" t="s">
-        <v>356</v>
+        <v>375</v>
       </c>
       <c r="C16" t="s">
-        <v>357</v>
+        <v>376</v>
       </c>
       <c r="D16" t="s">
-        <v>358</v>
+        <v>377</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:4">
       <c r="A17" t="s">
-        <v>359</v>
+        <v>378</v>
       </c>
       <c r="C17" t="s">
-        <v>360</v>
+        <v>379</v>
       </c>
       <c r="D17" t="s">
-        <v>361</v>
+        <v>380</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:4">
       <c r="A18" t="s">
-        <v>362</v>
+        <v>381</v>
       </c>
       <c r="B18" t="s">
-        <v>363</v>
+        <v>382</v>
       </c>
       <c r="C18" t="s">
-        <v>364</v>
+        <v>383</v>
       </c>
       <c r="D18" t="s">
-        <v>365</v>
+        <v>384</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:4">
       <c r="A19" t="s">
-        <v>366</v>
+        <v>385</v>
       </c>
       <c r="B19" t="s">
-        <v>367</v>
+        <v>386</v>
       </c>
       <c r="C19" t="s">
-        <v>368</v>
+        <v>387</v>
       </c>
       <c r="D19" t="s">
-        <v>369</v>
+        <v>388</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:4">
       <c r="A20" t="s">
-        <v>370</v>
+        <v>389</v>
       </c>
       <c r="B20" t="s">
-        <v>371</v>
+        <v>390</v>
       </c>
       <c r="C20" t="s">
-        <v>372</v>
+        <v>391</v>
       </c>
       <c r="D20" t="s">
-        <v>373</v>
+        <v>392</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:4">
       <c r="A21" t="s">
-        <v>374</v>
+        <v>393</v>
       </c>
       <c r="B21" t="s">
-        <v>375</v>
+        <v>394</v>
       </c>
       <c r="C21" t="s">
-        <v>376</v>
+        <v>395</v>
       </c>
       <c r="D21" t="s">
-        <v>377</v>
+        <v>396</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:4">
       <c r="A22" t="s">
-        <v>378</v>
+        <v>397</v>
       </c>
       <c r="B22" t="s">
-        <v>379</v>
+        <v>398</v>
       </c>
       <c r="C22" t="s">
-        <v>380</v>
+        <v>399</v>
       </c>
       <c r="D22" t="s">
-        <v>381</v>
+        <v>400</v>
       </c>
     </row>
   </sheetData>
@@ -4285,24 +4411,24 @@
     </row>
     <row r="2" customHeight="1" spans="1:4">
       <c r="A2" t="s">
-        <v>382</v>
+        <v>401</v>
       </c>
       <c r="C2" t="s">
-        <v>383</v>
+        <v>402</v>
       </c>
       <c r="D2" t="s">
-        <v>384</v>
+        <v>403</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:4">
       <c r="A3" t="s">
-        <v>385</v>
+        <v>404</v>
       </c>
       <c r="C3" t="s">
-        <v>386</v>
+        <v>405</v>
       </c>
       <c r="D3" t="s">
-        <v>387</v>
+        <v>406</v>
       </c>
     </row>
   </sheetData>

--- a/ChemicalSummon/Assets/StreamingAssets/TranslatableSentence.xlsx
+++ b/ChemicalSummon/Assets/StreamingAssets/TranslatableSentence.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="457">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="461">
   <si>
     <t>ScriptableObjectName</t>
   </si>
@@ -980,6 +980,18 @@
   </si>
   <si>
     <t>編成完了</t>
+  </si>
+  <si>
+    <t>EchelonPhase</t>
+  </si>
+  <si>
+    <t>Echelon</t>
+  </si>
+  <si>
+    <t>梯队阶段</t>
+  </si>
+  <si>
+    <t>戦隊段階</t>
   </si>
   <si>
     <t>ATK</t>
@@ -1405,9 +1417,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -1419,7 +1431,44 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1432,61 +1481,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1501,17 +1498,25 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1523,16 +1528,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1547,16 +1545,30 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1571,25 +1583,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1607,25 +1661,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1637,31 +1721,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1673,31 +1745,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1709,49 +1757,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1762,6 +1774,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1776,24 +1803,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1827,23 +1836,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1862,6 +1865,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1870,145 +1882,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2468,27 +2480,27 @@
     </row>
     <row r="2" customHeight="1" spans="1:4">
       <c r="A2" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="B2" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="C2" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="D2" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:4">
       <c r="A3" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="B3" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="C3" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="D3" t="s">
         <v>105</v>
@@ -2496,155 +2508,155 @@
     </row>
     <row r="4" customHeight="1" spans="1:4">
       <c r="A4" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="B4" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="C4" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="D4" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:4">
       <c r="A5" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="B5" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="C5" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="D5" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:4">
       <c r="A6" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="B6" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="C6" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="D6" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:4">
       <c r="A7" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="B7" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="C7" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="D7" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:4">
       <c r="A8" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="B8" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="C8" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="D8" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:4">
       <c r="A9" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="B9" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="C9" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="D9" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:4">
       <c r="A10" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="C10" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="D10" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:4">
       <c r="A11" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="C11" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="D11" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:4">
       <c r="A12" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="C12" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="D12" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:4">
       <c r="A13" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="C13" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="D13" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:4">
       <c r="A14" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="C14" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="D14" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:4">
       <c r="A15" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="C15" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="D15" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
     </row>
   </sheetData>
@@ -3555,10 +3567,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
@@ -3947,6 +3959,20 @@
       </c>
       <c r="D34" t="s">
         <v>318</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>319</v>
+      </c>
+      <c r="B35" t="s">
+        <v>320</v>
+      </c>
+      <c r="C35" t="s">
+        <v>321</v>
+      </c>
+      <c r="D35" t="s">
+        <v>322</v>
       </c>
     </row>
   </sheetData>
@@ -3989,38 +4015,38 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="C2" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="D2" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="C3" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="D3" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="B4" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="C4" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="D4" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
     </row>
   </sheetData>
@@ -4063,13 +4089,13 @@
     </row>
     <row r="2" ht="109" customHeight="1" spans="1:4">
       <c r="A2" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
     </row>
   </sheetData>
@@ -4112,132 +4138,132 @@
     </row>
     <row r="2" customHeight="1" spans="1:4">
       <c r="A2" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="C2" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="D2" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:4">
       <c r="A3" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="B3" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="C3" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="D3" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:4">
       <c r="A4" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="C4" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="D4" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:4">
       <c r="A5" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="C5" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="D5" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:4">
       <c r="A6" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="B6" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="C6" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="D6" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:4">
       <c r="A7" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="B7" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="C7" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="D7" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:4">
       <c r="A8" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="B8" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="C8" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="D8" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:4">
       <c r="A9" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="B9" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="C9" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="D9" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:4">
       <c r="A10" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="C10" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="D10" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:4">
       <c r="A11" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="C11" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="D11" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:4">
       <c r="A12" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="C12" t="s">
         <v>227</v>
@@ -4248,127 +4274,127 @@
     </row>
     <row r="13" customHeight="1" spans="1:4">
       <c r="A13" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="C13" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="D13" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:4">
       <c r="A14" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="C14" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="D14" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:4">
       <c r="A15" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="C15" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="D15" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:4">
       <c r="A16" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="C16" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="D16" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:4">
       <c r="A17" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="C17" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="D17" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:4">
       <c r="A18" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="B18" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="C18" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="D18" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:4">
       <c r="A19" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="B19" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="C19" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="D19" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:4">
       <c r="A20" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="B20" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="C20" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="D20" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:4">
       <c r="A21" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="B21" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="C21" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="D21" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:4">
       <c r="A22" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="B22" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="C22" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="D22" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
     </row>
   </sheetData>
@@ -4411,24 +4437,24 @@
     </row>
     <row r="2" customHeight="1" spans="1:4">
       <c r="A2" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="C2" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="D2" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:4">
       <c r="A3" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="C3" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="D3" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
     </row>
   </sheetData>

--- a/ChemicalSummon/Assets/StreamingAssets/TranslatableSentence.xlsx
+++ b/ChemicalSummon/Assets/StreamingAssets/TranslatableSentence.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" firstSheet="1" activeTab="4"/>
+    <workbookView windowWidth="22368" windowHeight="9420" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="12" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="461">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="465">
   <si>
     <t>ScriptableObjectName</t>
   </si>
@@ -728,6 +728,18 @@
   </si>
   <si>
     <t>カード</t>
+  </si>
+  <si>
+    <t>CardStorage</t>
+  </si>
+  <si>
+    <t>CardSt.</t>
+  </si>
+  <si>
+    <t>卡库</t>
+  </si>
+  <si>
+    <t>カード庫</t>
   </si>
   <si>
     <t>Debug</t>
@@ -1416,8 +1428,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -1430,8 +1442,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1445,9 +1465,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1461,13 +1480,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -1475,22 +1487,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1517,6 +1514,13 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1560,6 +1564,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -1568,7 +1580,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1583,7 +1595,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1595,97 +1661,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1703,7 +1691,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1715,55 +1745,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1774,6 +1786,26 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1803,17 +1835,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1865,15 +1886,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1882,10 +1894,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1894,133 +1906,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2480,27 +2492,27 @@
     </row>
     <row r="2" customHeight="1" spans="1:4">
       <c r="A2" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="B2" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="C2" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="D2" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:4">
       <c r="A3" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="B3" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="C3" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="D3" t="s">
         <v>105</v>
@@ -2508,155 +2520,155 @@
     </row>
     <row r="4" customHeight="1" spans="1:4">
       <c r="A4" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="B4" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="C4" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="D4" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:4">
       <c r="A5" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="B5" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="C5" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="D5" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:4">
       <c r="A6" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="B6" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="C6" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="D6" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:4">
       <c r="A7" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="B7" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="C7" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="D7" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:4">
       <c r="A8" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="B8" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="C8" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="D8" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:4">
       <c r="A9" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="B9" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="C9" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="D9" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:4">
       <c r="A10" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="C10" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="D10" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:4">
       <c r="A11" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="C11" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="D11" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:4">
       <c r="A12" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="C12" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="D12" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:4">
       <c r="A13" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="C13" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="D13" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:4">
       <c r="A14" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="C14" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="D14" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:4">
       <c r="A15" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="C15" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="D15" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
     </row>
   </sheetData>
@@ -3567,10 +3579,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
@@ -3643,293 +3655,293 @@
       <c r="A6" t="s">
         <v>235</v>
       </c>
+      <c r="B6" t="s">
+        <v>236</v>
+      </c>
       <c r="C6" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D6" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C8" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D8" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C9" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D9" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C10" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D10" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C11" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="D11" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="C12" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D12" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C13" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D13" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C14" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D14" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C15" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D15" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C16" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D16" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C17" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D17" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C18" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D18" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C19" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D19" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C20" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D20" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C21" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D21" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C22" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D22" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C23" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D23" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C24" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D24" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="C25" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="D25" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C26" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D26" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C27" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D27" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C28" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D28" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C29" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D29" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C30" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D30" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C31" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D31" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>309</v>
-      </c>
-      <c r="B32" t="s">
         <v>310</v>
       </c>
       <c r="C32" t="s">
@@ -3943,29 +3955,29 @@
       <c r="A33" t="s">
         <v>313</v>
       </c>
+      <c r="B33" t="s">
+        <v>314</v>
+      </c>
       <c r="C33" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D33" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C34" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D34" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>319</v>
-      </c>
-      <c r="B35" t="s">
         <v>320</v>
       </c>
       <c r="C35" t="s">
@@ -3973,6 +3985,20 @@
       </c>
       <c r="D35" t="s">
         <v>322</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>323</v>
+      </c>
+      <c r="B36" t="s">
+        <v>324</v>
+      </c>
+      <c r="C36" t="s">
+        <v>325</v>
+      </c>
+      <c r="D36" t="s">
+        <v>326</v>
       </c>
     </row>
   </sheetData>
@@ -4015,38 +4041,38 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="C2" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="D2" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="C3" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="D3" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="B4" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="C4" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="D4" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
     </row>
   </sheetData>
@@ -4089,13 +4115,13 @@
     </row>
     <row r="2" ht="109" customHeight="1" spans="1:4">
       <c r="A2" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
     </row>
   </sheetData>
@@ -4138,132 +4164,132 @@
     </row>
     <row r="2" customHeight="1" spans="1:4">
       <c r="A2" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="C2" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="D2" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:4">
       <c r="A3" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="B3" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="C3" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="D3" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:4">
       <c r="A4" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="C4" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="D4" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:4">
       <c r="A5" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="C5" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="D5" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:4">
       <c r="A6" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="B6" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="C6" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="D6" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:4">
       <c r="A7" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="B7" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="C7" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="D7" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:4">
       <c r="A8" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="B8" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="C8" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="D8" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:4">
       <c r="A9" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="B9" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="C9" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="D9" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:4">
       <c r="A10" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="C10" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="D10" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:4">
       <c r="A11" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="C11" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="D11" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:4">
       <c r="A12" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="C12" t="s">
         <v>227</v>
@@ -4274,127 +4300,127 @@
     </row>
     <row r="13" customHeight="1" spans="1:4">
       <c r="A13" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="C13" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="D13" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:4">
       <c r="A14" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="C14" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="D14" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:4">
       <c r="A15" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="C15" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="D15" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:4">
       <c r="A16" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="C16" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="D16" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:4">
       <c r="A17" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="C17" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="D17" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:4">
       <c r="A18" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="B18" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="C18" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="D18" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:4">
       <c r="A19" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="B19" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="C19" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="D19" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:4">
       <c r="A20" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="B20" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="C20" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="D20" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:4">
       <c r="A21" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="B21" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="C21" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="D21" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:4">
       <c r="A22" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="B22" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="C22" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="D22" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
     </row>
   </sheetData>
@@ -4437,24 +4463,24 @@
     </row>
     <row r="2" customHeight="1" spans="1:4">
       <c r="A2" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="C2" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="D2" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:4">
       <c r="A3" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="C3" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="D3" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
     </row>
   </sheetData>

--- a/ChemicalSummon/Assets/StreamingAssets/TranslatableSentence.xlsx
+++ b/ChemicalSummon/Assets/StreamingAssets/TranslatableSentence.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="480">
   <si>
     <t>ScriptableObjectName</t>
   </si>
@@ -1004,6 +1004,51 @@
   </si>
   <si>
     <t>戦隊段階</t>
+  </si>
+  <si>
+    <t>Rename</t>
+  </si>
+  <si>
+    <t>重命名</t>
+  </si>
+  <si>
+    <t>名前を変更</t>
+  </si>
+  <si>
+    <t>Delete</t>
+  </si>
+  <si>
+    <t>删除</t>
+  </si>
+  <si>
+    <t>削除</t>
+  </si>
+  <si>
+    <t>Clear</t>
+  </si>
+  <si>
+    <t>清空</t>
+  </si>
+  <si>
+    <t>空にする</t>
+  </si>
+  <si>
+    <t>Initiater</t>
+  </si>
+  <si>
+    <t>初始</t>
+  </si>
+  <si>
+    <t>初期</t>
+  </si>
+  <si>
+    <t>NewDeck</t>
+  </si>
+  <si>
+    <t>新卡组</t>
+  </si>
+  <si>
+    <t>新規</t>
   </si>
   <si>
     <t>ATK</t>
@@ -1428,8 +1473,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -1444,29 +1489,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1486,6 +1517,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -1495,15 +1541,15 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1541,14 +1587,6 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -1558,7 +1596,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1566,7 +1611,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1595,7 +1640,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1607,25 +1682,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1643,121 +1796,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1769,13 +1814,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1789,36 +1834,16 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1835,6 +1860,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1858,7 +1892,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1866,23 +1915,19 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1894,10 +1939,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1906,31 +1951,31 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1945,91 +1990,91 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2492,27 +2537,27 @@
     </row>
     <row r="2" customHeight="1" spans="1:4">
       <c r="A2" t="s">
-        <v>415</v>
+        <v>430</v>
       </c>
       <c r="B2" t="s">
-        <v>416</v>
+        <v>431</v>
       </c>
       <c r="C2" t="s">
-        <v>417</v>
+        <v>432</v>
       </c>
       <c r="D2" t="s">
-        <v>418</v>
+        <v>433</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:4">
       <c r="A3" t="s">
-        <v>419</v>
+        <v>434</v>
       </c>
       <c r="B3" t="s">
-        <v>420</v>
+        <v>435</v>
       </c>
       <c r="C3" t="s">
-        <v>421</v>
+        <v>436</v>
       </c>
       <c r="D3" t="s">
         <v>105</v>
@@ -2520,155 +2565,155 @@
     </row>
     <row r="4" customHeight="1" spans="1:4">
       <c r="A4" t="s">
-        <v>422</v>
+        <v>437</v>
       </c>
       <c r="B4" t="s">
-        <v>423</v>
+        <v>438</v>
       </c>
       <c r="C4" t="s">
-        <v>424</v>
+        <v>439</v>
       </c>
       <c r="D4" t="s">
-        <v>425</v>
+        <v>440</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:4">
       <c r="A5" t="s">
-        <v>426</v>
+        <v>441</v>
       </c>
       <c r="B5" t="s">
-        <v>427</v>
+        <v>442</v>
       </c>
       <c r="C5" t="s">
-        <v>428</v>
+        <v>443</v>
       </c>
       <c r="D5" t="s">
-        <v>429</v>
+        <v>444</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:4">
       <c r="A6" t="s">
-        <v>430</v>
+        <v>445</v>
       </c>
       <c r="B6" t="s">
-        <v>431</v>
+        <v>446</v>
       </c>
       <c r="C6" t="s">
-        <v>432</v>
+        <v>447</v>
       </c>
       <c r="D6" t="s">
-        <v>433</v>
+        <v>448</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:4">
       <c r="A7" t="s">
-        <v>434</v>
+        <v>449</v>
       </c>
       <c r="B7" t="s">
-        <v>435</v>
+        <v>450</v>
       </c>
       <c r="C7" t="s">
-        <v>436</v>
+        <v>451</v>
       </c>
       <c r="D7" t="s">
-        <v>437</v>
+        <v>452</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:4">
       <c r="A8" t="s">
-        <v>438</v>
+        <v>453</v>
       </c>
       <c r="B8" t="s">
-        <v>439</v>
+        <v>454</v>
       </c>
       <c r="C8" t="s">
-        <v>440</v>
+        <v>455</v>
       </c>
       <c r="D8" t="s">
-        <v>441</v>
+        <v>456</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:4">
       <c r="A9" t="s">
-        <v>442</v>
+        <v>457</v>
       </c>
       <c r="B9" t="s">
-        <v>443</v>
+        <v>458</v>
       </c>
       <c r="C9" t="s">
-        <v>444</v>
+        <v>459</v>
       </c>
       <c r="D9" t="s">
-        <v>445</v>
+        <v>460</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:4">
       <c r="A10" t="s">
-        <v>446</v>
+        <v>461</v>
       </c>
       <c r="C10" t="s">
-        <v>447</v>
+        <v>462</v>
       </c>
       <c r="D10" t="s">
-        <v>448</v>
+        <v>463</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:4">
       <c r="A11" t="s">
-        <v>449</v>
+        <v>464</v>
       </c>
       <c r="C11" t="s">
-        <v>450</v>
+        <v>465</v>
       </c>
       <c r="D11" t="s">
-        <v>451</v>
+        <v>466</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:4">
       <c r="A12" t="s">
-        <v>452</v>
+        <v>467</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>453</v>
+        <v>468</v>
       </c>
       <c r="C12" t="s">
-        <v>454</v>
+        <v>469</v>
       </c>
       <c r="D12" t="s">
-        <v>455</v>
+        <v>470</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:4">
       <c r="A13" t="s">
-        <v>456</v>
+        <v>471</v>
       </c>
       <c r="C13" t="s">
-        <v>457</v>
+        <v>472</v>
       </c>
       <c r="D13" t="s">
-        <v>458</v>
+        <v>473</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:4">
       <c r="A14" t="s">
-        <v>459</v>
+        <v>474</v>
       </c>
       <c r="C14" t="s">
-        <v>460</v>
+        <v>475</v>
       </c>
       <c r="D14" t="s">
-        <v>461</v>
+        <v>476</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:4">
       <c r="A15" t="s">
-        <v>462</v>
+        <v>477</v>
       </c>
       <c r="C15" t="s">
-        <v>463</v>
+        <v>478</v>
       </c>
       <c r="D15" t="s">
-        <v>464</v>
+        <v>479</v>
       </c>
     </row>
   </sheetData>
@@ -3579,10 +3624,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
@@ -3999,6 +4044,61 @@
       </c>
       <c r="D36" t="s">
         <v>326</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>327</v>
+      </c>
+      <c r="C37" t="s">
+        <v>328</v>
+      </c>
+      <c r="D37" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>330</v>
+      </c>
+      <c r="C38" t="s">
+        <v>331</v>
+      </c>
+      <c r="D38" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>333</v>
+      </c>
+      <c r="C39" t="s">
+        <v>334</v>
+      </c>
+      <c r="D39" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>336</v>
+      </c>
+      <c r="C40" t="s">
+        <v>337</v>
+      </c>
+      <c r="D40" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
+        <v>339</v>
+      </c>
+      <c r="C41" t="s">
+        <v>340</v>
+      </c>
+      <c r="D41" t="s">
+        <v>341</v>
       </c>
     </row>
   </sheetData>
@@ -4041,38 +4141,38 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>327</v>
+        <v>342</v>
       </c>
       <c r="C2" t="s">
-        <v>328</v>
+        <v>343</v>
       </c>
       <c r="D2" t="s">
-        <v>329</v>
+        <v>344</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>330</v>
+        <v>345</v>
       </c>
       <c r="C3" t="s">
-        <v>331</v>
+        <v>346</v>
       </c>
       <c r="D3" t="s">
-        <v>332</v>
+        <v>347</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>333</v>
+        <v>348</v>
       </c>
       <c r="B4" t="s">
-        <v>334</v>
+        <v>349</v>
       </c>
       <c r="C4" t="s">
-        <v>335</v>
+        <v>350</v>
       </c>
       <c r="D4" t="s">
-        <v>336</v>
+        <v>351</v>
       </c>
     </row>
   </sheetData>
@@ -4115,13 +4215,13 @@
     </row>
     <row r="2" ht="109" customHeight="1" spans="1:4">
       <c r="A2" t="s">
-        <v>337</v>
+        <v>352</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>338</v>
+        <v>353</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>339</v>
+        <v>354</v>
       </c>
     </row>
   </sheetData>
@@ -4164,132 +4264,132 @@
     </row>
     <row r="2" customHeight="1" spans="1:4">
       <c r="A2" t="s">
-        <v>340</v>
+        <v>355</v>
       </c>
       <c r="C2" t="s">
-        <v>341</v>
+        <v>356</v>
       </c>
       <c r="D2" t="s">
-        <v>342</v>
+        <v>357</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:4">
       <c r="A3" t="s">
-        <v>343</v>
+        <v>358</v>
       </c>
       <c r="B3" t="s">
-        <v>344</v>
+        <v>359</v>
       </c>
       <c r="C3" t="s">
-        <v>345</v>
+        <v>360</v>
       </c>
       <c r="D3" t="s">
-        <v>346</v>
+        <v>361</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:4">
       <c r="A4" t="s">
-        <v>347</v>
+        <v>362</v>
       </c>
       <c r="C4" t="s">
-        <v>348</v>
+        <v>363</v>
       </c>
       <c r="D4" t="s">
-        <v>349</v>
+        <v>364</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:4">
       <c r="A5" t="s">
-        <v>350</v>
+        <v>365</v>
       </c>
       <c r="C5" t="s">
-        <v>351</v>
+        <v>366</v>
       </c>
       <c r="D5" t="s">
-        <v>352</v>
+        <v>367</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:4">
       <c r="A6" t="s">
-        <v>353</v>
+        <v>368</v>
       </c>
       <c r="B6" t="s">
-        <v>354</v>
+        <v>369</v>
       </c>
       <c r="C6" t="s">
-        <v>355</v>
+        <v>370</v>
       </c>
       <c r="D6" t="s">
-        <v>356</v>
+        <v>371</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:4">
       <c r="A7" t="s">
-        <v>357</v>
+        <v>372</v>
       </c>
       <c r="B7" t="s">
-        <v>358</v>
+        <v>373</v>
       </c>
       <c r="C7" t="s">
-        <v>359</v>
+        <v>374</v>
       </c>
       <c r="D7" t="s">
-        <v>360</v>
+        <v>375</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:4">
       <c r="A8" t="s">
-        <v>361</v>
+        <v>376</v>
       </c>
       <c r="B8" t="s">
-        <v>362</v>
+        <v>377</v>
       </c>
       <c r="C8" t="s">
-        <v>363</v>
+        <v>378</v>
       </c>
       <c r="D8" t="s">
-        <v>364</v>
+        <v>379</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:4">
       <c r="A9" t="s">
-        <v>365</v>
+        <v>380</v>
       </c>
       <c r="B9" t="s">
-        <v>366</v>
+        <v>381</v>
       </c>
       <c r="C9" t="s">
-        <v>366</v>
+        <v>381</v>
       </c>
       <c r="D9" t="s">
-        <v>366</v>
+        <v>381</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:4">
       <c r="A10" t="s">
-        <v>367</v>
+        <v>382</v>
       </c>
       <c r="C10" t="s">
-        <v>368</v>
+        <v>383</v>
       </c>
       <c r="D10" t="s">
-        <v>369</v>
+        <v>384</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:4">
       <c r="A11" t="s">
-        <v>370</v>
+        <v>385</v>
       </c>
       <c r="C11" t="s">
-        <v>371</v>
+        <v>386</v>
       </c>
       <c r="D11" t="s">
-        <v>372</v>
+        <v>387</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:4">
       <c r="A12" t="s">
-        <v>373</v>
+        <v>388</v>
       </c>
       <c r="C12" t="s">
         <v>227</v>
@@ -4300,127 +4400,127 @@
     </row>
     <row r="13" customHeight="1" spans="1:4">
       <c r="A13" t="s">
-        <v>374</v>
+        <v>389</v>
       </c>
       <c r="C13" t="s">
-        <v>375</v>
+        <v>390</v>
       </c>
       <c r="D13" t="s">
-        <v>376</v>
+        <v>391</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:4">
       <c r="A14" t="s">
-        <v>377</v>
+        <v>392</v>
       </c>
       <c r="C14" t="s">
-        <v>378</v>
+        <v>393</v>
       </c>
       <c r="D14" t="s">
-        <v>379</v>
+        <v>394</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:4">
       <c r="A15" t="s">
-        <v>380</v>
+        <v>395</v>
       </c>
       <c r="C15" t="s">
-        <v>381</v>
+        <v>396</v>
       </c>
       <c r="D15" t="s">
-        <v>382</v>
+        <v>397</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:4">
       <c r="A16" t="s">
-        <v>383</v>
+        <v>398</v>
       </c>
       <c r="C16" t="s">
-        <v>384</v>
+        <v>399</v>
       </c>
       <c r="D16" t="s">
-        <v>385</v>
+        <v>400</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:4">
       <c r="A17" t="s">
-        <v>386</v>
+        <v>401</v>
       </c>
       <c r="C17" t="s">
-        <v>387</v>
+        <v>402</v>
       </c>
       <c r="D17" t="s">
-        <v>388</v>
+        <v>403</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:4">
       <c r="A18" t="s">
-        <v>389</v>
+        <v>404</v>
       </c>
       <c r="B18" t="s">
-        <v>390</v>
+        <v>405</v>
       </c>
       <c r="C18" t="s">
-        <v>391</v>
+        <v>406</v>
       </c>
       <c r="D18" t="s">
-        <v>392</v>
+        <v>407</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:4">
       <c r="A19" t="s">
-        <v>393</v>
+        <v>408</v>
       </c>
       <c r="B19" t="s">
-        <v>394</v>
+        <v>409</v>
       </c>
       <c r="C19" t="s">
-        <v>395</v>
+        <v>410</v>
       </c>
       <c r="D19" t="s">
-        <v>396</v>
+        <v>411</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:4">
       <c r="A20" t="s">
-        <v>397</v>
+        <v>412</v>
       </c>
       <c r="B20" t="s">
-        <v>398</v>
+        <v>413</v>
       </c>
       <c r="C20" t="s">
-        <v>399</v>
+        <v>414</v>
       </c>
       <c r="D20" t="s">
-        <v>400</v>
+        <v>415</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:4">
       <c r="A21" t="s">
-        <v>401</v>
+        <v>416</v>
       </c>
       <c r="B21" t="s">
-        <v>402</v>
+        <v>417</v>
       </c>
       <c r="C21" t="s">
-        <v>403</v>
+        <v>418</v>
       </c>
       <c r="D21" t="s">
-        <v>404</v>
+        <v>419</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:4">
       <c r="A22" t="s">
-        <v>405</v>
+        <v>420</v>
       </c>
       <c r="B22" t="s">
-        <v>406</v>
+        <v>421</v>
       </c>
       <c r="C22" t="s">
-        <v>407</v>
+        <v>422</v>
       </c>
       <c r="D22" t="s">
-        <v>408</v>
+        <v>423</v>
       </c>
     </row>
   </sheetData>
@@ -4463,24 +4563,24 @@
     </row>
     <row r="2" customHeight="1" spans="1:4">
       <c r="A2" t="s">
-        <v>409</v>
+        <v>424</v>
       </c>
       <c r="C2" t="s">
-        <v>410</v>
+        <v>425</v>
       </c>
       <c r="D2" t="s">
-        <v>411</v>
+        <v>426</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:4">
       <c r="A3" t="s">
-        <v>412</v>
+        <v>427</v>
       </c>
       <c r="C3" t="s">
-        <v>413</v>
+        <v>428</v>
       </c>
       <c r="D3" t="s">
-        <v>414</v>
+        <v>429</v>
       </c>
     </row>
   </sheetData>

--- a/ChemicalSummon/Assets/StreamingAssets/TranslatableSentence.xlsx
+++ b/ChemicalSummon/Assets/StreamingAssets/TranslatableSentence.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="480">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="489">
   <si>
     <t>ScriptableObjectName</t>
   </si>
@@ -46,7 +46,7 @@
     <t>決定</t>
   </si>
   <si>
-    <t>OK</t>
+    <t>Comfirm</t>
   </si>
   <si>
     <t>确认</t>
@@ -919,6 +919,15 @@
     <t>練習ステージ</t>
   </si>
   <si>
+    <t>FreeMatch</t>
+  </si>
+  <si>
+    <t>自由战斗</t>
+  </si>
+  <si>
+    <t>フリーバトル</t>
+  </si>
+  <si>
     <t>ReturnTitle</t>
   </si>
   <si>
@@ -1049,6 +1058,24 @@
   </si>
   <si>
     <t>新規</t>
+  </si>
+  <si>
+    <t>SelectDeck</t>
+  </si>
+  <si>
+    <t>选择卡组</t>
+  </si>
+  <si>
+    <t>デッキを選択</t>
+  </si>
+  <si>
+    <t>SelectReaction</t>
+  </si>
+  <si>
+    <t>选择反应式</t>
+  </si>
+  <si>
+    <t>反応式を選択</t>
   </si>
   <si>
     <t>ATK</t>
@@ -1487,19 +1514,40 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1517,23 +1565,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1547,34 +1588,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1583,6 +1600,14 @@
       <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1602,8 +1627,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1617,15 +1643,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1637,6 +1664,120 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1658,7 +1799,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1670,109 +1835,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1784,43 +1847,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1834,17 +1861,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1860,15 +1881,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1892,7 +1904,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1912,11 +1924,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1931,6 +1949,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1939,10 +1966,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1951,133 +1978,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2439,7 +2466,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1" outlineLevelRow="3" outlineLevelCol="3"/>
@@ -2537,27 +2564,27 @@
     </row>
     <row r="2" customHeight="1" spans="1:4">
       <c r="A2" t="s">
-        <v>430</v>
+        <v>439</v>
       </c>
       <c r="B2" t="s">
-        <v>431</v>
+        <v>440</v>
       </c>
       <c r="C2" t="s">
-        <v>432</v>
+        <v>441</v>
       </c>
       <c r="D2" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:4">
       <c r="A3" t="s">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B3" t="s">
-        <v>435</v>
+        <v>444</v>
       </c>
       <c r="C3" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
       <c r="D3" t="s">
         <v>105</v>
@@ -2565,155 +2592,155 @@
     </row>
     <row r="4" customHeight="1" spans="1:4">
       <c r="A4" t="s">
-        <v>437</v>
+        <v>446</v>
       </c>
       <c r="B4" t="s">
-        <v>438</v>
+        <v>447</v>
       </c>
       <c r="C4" t="s">
-        <v>439</v>
+        <v>448</v>
       </c>
       <c r="D4" t="s">
-        <v>440</v>
+        <v>449</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:4">
       <c r="A5" t="s">
-        <v>441</v>
+        <v>450</v>
       </c>
       <c r="B5" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="C5" t="s">
-        <v>443</v>
+        <v>452</v>
       </c>
       <c r="D5" t="s">
-        <v>444</v>
+        <v>453</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:4">
       <c r="A6" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
       <c r="B6" t="s">
-        <v>446</v>
+        <v>455</v>
       </c>
       <c r="C6" t="s">
-        <v>447</v>
+        <v>456</v>
       </c>
       <c r="D6" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:4">
       <c r="A7" t="s">
-        <v>449</v>
+        <v>458</v>
       </c>
       <c r="B7" t="s">
-        <v>450</v>
+        <v>459</v>
       </c>
       <c r="C7" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
       <c r="D7" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:4">
       <c r="A8" t="s">
-        <v>453</v>
+        <v>462</v>
       </c>
       <c r="B8" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
       <c r="C8" t="s">
-        <v>455</v>
+        <v>464</v>
       </c>
       <c r="D8" t="s">
-        <v>456</v>
+        <v>465</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:4">
       <c r="A9" t="s">
-        <v>457</v>
+        <v>466</v>
       </c>
       <c r="B9" t="s">
-        <v>458</v>
+        <v>467</v>
       </c>
       <c r="C9" t="s">
-        <v>459</v>
+        <v>468</v>
       </c>
       <c r="D9" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:4">
       <c r="A10" t="s">
-        <v>461</v>
+        <v>470</v>
       </c>
       <c r="C10" t="s">
-        <v>462</v>
+        <v>471</v>
       </c>
       <c r="D10" t="s">
-        <v>463</v>
+        <v>472</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:4">
       <c r="A11" t="s">
-        <v>464</v>
+        <v>473</v>
       </c>
       <c r="C11" t="s">
-        <v>465</v>
+        <v>474</v>
       </c>
       <c r="D11" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:4">
       <c r="A12" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
       <c r="C12" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="D12" t="s">
-        <v>470</v>
+        <v>479</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:4">
       <c r="A13" t="s">
-        <v>471</v>
+        <v>480</v>
       </c>
       <c r="C13" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
       <c r="D13" t="s">
-        <v>473</v>
+        <v>482</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:4">
       <c r="A14" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
       <c r="C14" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
       <c r="D14" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:4">
       <c r="A15" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
       <c r="C15" t="s">
-        <v>478</v>
+        <v>487</v>
       </c>
       <c r="D15" t="s">
-        <v>479</v>
+        <v>488</v>
       </c>
     </row>
   </sheetData>
@@ -2851,7 +2878,7 @@
   <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
@@ -3624,10 +3651,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D41"/>
+  <dimension ref="A1:D44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
@@ -4000,18 +4027,18 @@
       <c r="A33" t="s">
         <v>313</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C33" t="s">
         <v>314</v>
       </c>
-      <c r="C33" t="s">
+      <c r="D33" t="s">
         <v>315</v>
-      </c>
-      <c r="D33" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
+        <v>316</v>
+      </c>
+      <c r="B34" t="s">
         <v>317</v>
       </c>
       <c r="C34" t="s">
@@ -4036,18 +4063,18 @@
       <c r="A36" t="s">
         <v>323</v>
       </c>
-      <c r="B36" t="s">
+      <c r="C36" t="s">
         <v>324</v>
       </c>
-      <c r="C36" t="s">
+      <c r="D36" t="s">
         <v>325</v>
-      </c>
-      <c r="D36" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
+        <v>326</v>
+      </c>
+      <c r="B37" t="s">
         <v>327</v>
       </c>
       <c r="C37" t="s">
@@ -4099,6 +4126,39 @@
       </c>
       <c r="D41" t="s">
         <v>341</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
+        <v>342</v>
+      </c>
+      <c r="C42" t="s">
+        <v>343</v>
+      </c>
+      <c r="D42" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" t="s">
+        <v>345</v>
+      </c>
+      <c r="C43" t="s">
+        <v>346</v>
+      </c>
+      <c r="D43" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
+        <v>348</v>
+      </c>
+      <c r="C44" t="s">
+        <v>349</v>
+      </c>
+      <c r="D44" t="s">
+        <v>350</v>
       </c>
     </row>
   </sheetData>
@@ -4141,38 +4201,38 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="C2" t="s">
-        <v>343</v>
+        <v>352</v>
       </c>
       <c r="D2" t="s">
-        <v>344</v>
+        <v>353</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="C3" t="s">
-        <v>346</v>
+        <v>355</v>
       </c>
       <c r="D3" t="s">
-        <v>347</v>
+        <v>356</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>348</v>
+        <v>357</v>
       </c>
       <c r="B4" t="s">
-        <v>349</v>
+        <v>358</v>
       </c>
       <c r="C4" t="s">
-        <v>350</v>
+        <v>359</v>
       </c>
       <c r="D4" t="s">
-        <v>351</v>
+        <v>360</v>
       </c>
     </row>
   </sheetData>
@@ -4215,13 +4275,13 @@
     </row>
     <row r="2" ht="109" customHeight="1" spans="1:4">
       <c r="A2" t="s">
-        <v>352</v>
+        <v>361</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>353</v>
+        <v>362</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>354</v>
+        <v>363</v>
       </c>
     </row>
   </sheetData>
@@ -4264,132 +4324,132 @@
     </row>
     <row r="2" customHeight="1" spans="1:4">
       <c r="A2" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="C2" t="s">
-        <v>356</v>
+        <v>365</v>
       </c>
       <c r="D2" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:4">
       <c r="A3" t="s">
-        <v>358</v>
+        <v>367</v>
       </c>
       <c r="B3" t="s">
-        <v>359</v>
+        <v>368</v>
       </c>
       <c r="C3" t="s">
-        <v>360</v>
+        <v>369</v>
       </c>
       <c r="D3" t="s">
-        <v>361</v>
+        <v>370</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:4">
       <c r="A4" t="s">
-        <v>362</v>
+        <v>371</v>
       </c>
       <c r="C4" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
       <c r="D4" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:4">
       <c r="A5" t="s">
-        <v>365</v>
+        <v>374</v>
       </c>
       <c r="C5" t="s">
-        <v>366</v>
+        <v>375</v>
       </c>
       <c r="D5" t="s">
-        <v>367</v>
+        <v>376</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:4">
       <c r="A6" t="s">
-        <v>368</v>
+        <v>377</v>
       </c>
       <c r="B6" t="s">
-        <v>369</v>
+        <v>378</v>
       </c>
       <c r="C6" t="s">
-        <v>370</v>
+        <v>379</v>
       </c>
       <c r="D6" t="s">
-        <v>371</v>
+        <v>380</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:4">
       <c r="A7" t="s">
-        <v>372</v>
+        <v>381</v>
       </c>
       <c r="B7" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="C7" t="s">
-        <v>374</v>
+        <v>383</v>
       </c>
       <c r="D7" t="s">
-        <v>375</v>
+        <v>384</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:4">
       <c r="A8" t="s">
-        <v>376</v>
+        <v>385</v>
       </c>
       <c r="B8" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
       <c r="C8" t="s">
-        <v>378</v>
+        <v>387</v>
       </c>
       <c r="D8" t="s">
-        <v>379</v>
+        <v>388</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:4">
       <c r="A9" t="s">
-        <v>380</v>
+        <v>389</v>
       </c>
       <c r="B9" t="s">
-        <v>381</v>
+        <v>390</v>
       </c>
       <c r="C9" t="s">
-        <v>381</v>
+        <v>390</v>
       </c>
       <c r="D9" t="s">
-        <v>381</v>
+        <v>390</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:4">
       <c r="A10" t="s">
-        <v>382</v>
+        <v>391</v>
       </c>
       <c r="C10" t="s">
-        <v>383</v>
+        <v>392</v>
       </c>
       <c r="D10" t="s">
-        <v>384</v>
+        <v>393</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:4">
       <c r="A11" t="s">
-        <v>385</v>
+        <v>394</v>
       </c>
       <c r="C11" t="s">
-        <v>386</v>
+        <v>395</v>
       </c>
       <c r="D11" t="s">
-        <v>387</v>
+        <v>396</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:4">
       <c r="A12" t="s">
-        <v>388</v>
+        <v>397</v>
       </c>
       <c r="C12" t="s">
         <v>227</v>
@@ -4400,127 +4460,127 @@
     </row>
     <row r="13" customHeight="1" spans="1:4">
       <c r="A13" t="s">
-        <v>389</v>
+        <v>398</v>
       </c>
       <c r="C13" t="s">
-        <v>390</v>
+        <v>399</v>
       </c>
       <c r="D13" t="s">
-        <v>391</v>
+        <v>400</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:4">
       <c r="A14" t="s">
-        <v>392</v>
+        <v>401</v>
       </c>
       <c r="C14" t="s">
-        <v>393</v>
+        <v>402</v>
       </c>
       <c r="D14" t="s">
-        <v>394</v>
+        <v>403</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:4">
       <c r="A15" t="s">
-        <v>395</v>
+        <v>404</v>
       </c>
       <c r="C15" t="s">
-        <v>396</v>
+        <v>405</v>
       </c>
       <c r="D15" t="s">
-        <v>397</v>
+        <v>406</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:4">
       <c r="A16" t="s">
-        <v>398</v>
+        <v>407</v>
       </c>
       <c r="C16" t="s">
-        <v>399</v>
+        <v>408</v>
       </c>
       <c r="D16" t="s">
-        <v>400</v>
+        <v>409</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:4">
       <c r="A17" t="s">
-        <v>401</v>
+        <v>410</v>
       </c>
       <c r="C17" t="s">
-        <v>402</v>
+        <v>411</v>
       </c>
       <c r="D17" t="s">
-        <v>403</v>
+        <v>412</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:4">
       <c r="A18" t="s">
-        <v>404</v>
+        <v>413</v>
       </c>
       <c r="B18" t="s">
-        <v>405</v>
+        <v>414</v>
       </c>
       <c r="C18" t="s">
-        <v>406</v>
+        <v>415</v>
       </c>
       <c r="D18" t="s">
-        <v>407</v>
+        <v>416</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:4">
       <c r="A19" t="s">
-        <v>408</v>
+        <v>417</v>
       </c>
       <c r="B19" t="s">
-        <v>409</v>
+        <v>418</v>
       </c>
       <c r="C19" t="s">
-        <v>410</v>
+        <v>419</v>
       </c>
       <c r="D19" t="s">
-        <v>411</v>
+        <v>420</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:4">
       <c r="A20" t="s">
-        <v>412</v>
+        <v>421</v>
       </c>
       <c r="B20" t="s">
-        <v>413</v>
+        <v>422</v>
       </c>
       <c r="C20" t="s">
-        <v>414</v>
+        <v>423</v>
       </c>
       <c r="D20" t="s">
-        <v>415</v>
+        <v>424</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:4">
       <c r="A21" t="s">
-        <v>416</v>
+        <v>425</v>
       </c>
       <c r="B21" t="s">
-        <v>417</v>
+        <v>426</v>
       </c>
       <c r="C21" t="s">
-        <v>418</v>
+        <v>427</v>
       </c>
       <c r="D21" t="s">
-        <v>419</v>
+        <v>428</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:4">
       <c r="A22" t="s">
-        <v>420</v>
+        <v>429</v>
       </c>
       <c r="B22" t="s">
-        <v>421</v>
+        <v>430</v>
       </c>
       <c r="C22" t="s">
-        <v>422</v>
+        <v>431</v>
       </c>
       <c r="D22" t="s">
-        <v>423</v>
+        <v>432</v>
       </c>
     </row>
   </sheetData>
@@ -4563,24 +4623,24 @@
     </row>
     <row r="2" customHeight="1" spans="1:4">
       <c r="A2" t="s">
-        <v>424</v>
+        <v>433</v>
       </c>
       <c r="C2" t="s">
-        <v>425</v>
+        <v>434</v>
       </c>
       <c r="D2" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:4">
       <c r="A3" t="s">
-        <v>427</v>
+        <v>436</v>
       </c>
       <c r="C3" t="s">
-        <v>428</v>
+        <v>437</v>
       </c>
       <c r="D3" t="s">
-        <v>429</v>
+        <v>438</v>
       </c>
     </row>
   </sheetData>

--- a/ChemicalSummon/Assets/StreamingAssets/TranslatableSentence.xlsx
+++ b/ChemicalSummon/Assets/StreamingAssets/TranslatableSentence.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="489">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="512">
   <si>
     <t>ScriptableObjectName</t>
   </si>
@@ -64,6 +64,15 @@
     <t>取り消し</t>
   </si>
   <si>
+    <t>Return</t>
+  </si>
+  <si>
+    <t>返回</t>
+  </si>
+  <si>
+    <t>戻る</t>
+  </si>
+  <si>
     <t>GameName</t>
   </si>
   <si>
@@ -202,12 +211,6 @@
     <t>Back</t>
   </si>
   <si>
-    <t>返回</t>
-  </si>
-  <si>
-    <t>戻る</t>
-  </si>
-  <si>
     <t>Surrender</t>
   </si>
   <si>
@@ -1076,6 +1079,72 @@
   </si>
   <si>
     <t>反応式を選択</t>
+  </si>
+  <si>
+    <t>InputSubstanceFairy</t>
+  </si>
+  <si>
+    <t>请投入物质精灵</t>
+  </si>
+  <si>
+    <t>フェアリーを入れてください</t>
+  </si>
+  <si>
+    <t>Analyzing</t>
+  </si>
+  <si>
+    <t>Analyzing...</t>
+  </si>
+  <si>
+    <t>分析中...</t>
+  </si>
+  <si>
+    <t>解析中...</t>
+  </si>
+  <si>
+    <t>AlreadyHadReaction</t>
+  </si>
+  <si>
+    <t>已有该反应式</t>
+  </si>
+  <si>
+    <t>入手済み</t>
+  </si>
+  <si>
+    <t>NotValidReaction</t>
+  </si>
+  <si>
+    <t>No signal from sensor</t>
+  </si>
+  <si>
+    <t>探测器没有感应</t>
+  </si>
+  <si>
+    <t>センサー反応なし</t>
+  </si>
+  <si>
+    <t>NewReactionFound</t>
+  </si>
+  <si>
+    <t>NewReactionFound!</t>
+  </si>
+  <si>
+    <t>发现新反应式!</t>
+  </si>
+  <si>
+    <t>新反応式発見！</t>
+  </si>
+  <si>
+    <t>AlmostDiscoverReaction</t>
+  </si>
+  <si>
+    <t>This combination might...?</t>
+  </si>
+  <si>
+    <t>这个组合或许...?</t>
+  </si>
+  <si>
+    <t>この組み合わせは...?</t>
   </si>
   <si>
     <t>ATK</t>
@@ -1500,8 +1569,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -1515,7 +1584,44 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1530,43 +1636,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1589,15 +1659,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1611,11 +1680,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1629,30 +1721,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1667,7 +1736,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1679,19 +1796,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1703,49 +1838,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1757,43 +1856,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1805,7 +1868,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1823,7 +1886,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1835,19 +1910,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1858,15 +1927,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1885,21 +1945,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1909,17 +1954,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1941,6 +1980,45 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1949,15 +2027,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1966,10 +2035,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1978,133 +2047,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2463,13 +2532,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1" outlineLevelRow="3" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1" outlineLevelRow="4" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="29" customWidth="1"/>
     <col min="2" max="2" width="40.1111111111111" customWidth="1"/>
@@ -2522,6 +2591,17 @@
       </c>
       <c r="D4" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" spans="1:4">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -2564,183 +2644,183 @@
     </row>
     <row r="2" customHeight="1" spans="1:4">
       <c r="A2" t="s">
-        <v>439</v>
+        <v>462</v>
       </c>
       <c r="B2" t="s">
-        <v>440</v>
+        <v>463</v>
       </c>
       <c r="C2" t="s">
-        <v>441</v>
+        <v>464</v>
       </c>
       <c r="D2" t="s">
-        <v>442</v>
+        <v>465</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:4">
       <c r="A3" t="s">
-        <v>443</v>
+        <v>466</v>
       </c>
       <c r="B3" t="s">
-        <v>444</v>
+        <v>467</v>
       </c>
       <c r="C3" t="s">
-        <v>445</v>
+        <v>468</v>
       </c>
       <c r="D3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:4">
       <c r="A4" t="s">
-        <v>446</v>
+        <v>469</v>
       </c>
       <c r="B4" t="s">
-        <v>447</v>
+        <v>470</v>
       </c>
       <c r="C4" t="s">
-        <v>448</v>
+        <v>471</v>
       </c>
       <c r="D4" t="s">
-        <v>449</v>
+        <v>472</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:4">
       <c r="A5" t="s">
-        <v>450</v>
+        <v>473</v>
       </c>
       <c r="B5" t="s">
-        <v>451</v>
+        <v>474</v>
       </c>
       <c r="C5" t="s">
-        <v>452</v>
+        <v>475</v>
       </c>
       <c r="D5" t="s">
-        <v>453</v>
+        <v>476</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:4">
       <c r="A6" t="s">
-        <v>454</v>
+        <v>477</v>
       </c>
       <c r="B6" t="s">
-        <v>455</v>
+        <v>478</v>
       </c>
       <c r="C6" t="s">
-        <v>456</v>
+        <v>479</v>
       </c>
       <c r="D6" t="s">
-        <v>457</v>
+        <v>480</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:4">
       <c r="A7" t="s">
-        <v>458</v>
+        <v>481</v>
       </c>
       <c r="B7" t="s">
-        <v>459</v>
+        <v>482</v>
       </c>
       <c r="C7" t="s">
-        <v>460</v>
+        <v>483</v>
       </c>
       <c r="D7" t="s">
-        <v>461</v>
+        <v>484</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:4">
       <c r="A8" t="s">
-        <v>462</v>
+        <v>485</v>
       </c>
       <c r="B8" t="s">
-        <v>463</v>
+        <v>486</v>
       </c>
       <c r="C8" t="s">
-        <v>464</v>
+        <v>487</v>
       </c>
       <c r="D8" t="s">
-        <v>465</v>
+        <v>488</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:4">
       <c r="A9" t="s">
-        <v>466</v>
+        <v>489</v>
       </c>
       <c r="B9" t="s">
-        <v>467</v>
+        <v>490</v>
       </c>
       <c r="C9" t="s">
-        <v>468</v>
+        <v>491</v>
       </c>
       <c r="D9" t="s">
-        <v>469</v>
+        <v>492</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:4">
       <c r="A10" t="s">
-        <v>470</v>
+        <v>493</v>
       </c>
       <c r="C10" t="s">
-        <v>471</v>
+        <v>494</v>
       </c>
       <c r="D10" t="s">
-        <v>472</v>
+        <v>495</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:4">
       <c r="A11" t="s">
-        <v>473</v>
+        <v>496</v>
       </c>
       <c r="C11" t="s">
-        <v>474</v>
+        <v>497</v>
       </c>
       <c r="D11" t="s">
-        <v>475</v>
+        <v>498</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:4">
       <c r="A12" t="s">
-        <v>476</v>
+        <v>499</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>477</v>
+        <v>500</v>
       </c>
       <c r="C12" t="s">
-        <v>478</v>
+        <v>501</v>
       </c>
       <c r="D12" t="s">
-        <v>479</v>
+        <v>502</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:4">
       <c r="A13" t="s">
-        <v>480</v>
+        <v>503</v>
       </c>
       <c r="C13" t="s">
-        <v>481</v>
+        <v>504</v>
       </c>
       <c r="D13" t="s">
-        <v>482</v>
+        <v>505</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:4">
       <c r="A14" t="s">
-        <v>483</v>
+        <v>506</v>
       </c>
       <c r="C14" t="s">
-        <v>484</v>
+        <v>507</v>
       </c>
       <c r="D14" t="s">
-        <v>485</v>
+        <v>508</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:4">
       <c r="A15" t="s">
-        <v>486</v>
+        <v>509</v>
       </c>
       <c r="C15" t="s">
-        <v>487</v>
+        <v>510</v>
       </c>
       <c r="D15" t="s">
-        <v>488</v>
+        <v>511</v>
       </c>
     </row>
   </sheetData>
@@ -2783,86 +2863,86 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D5" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D6" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D7" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -2905,317 +2985,317 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C3" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C4" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D4" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C5" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B6" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C6" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D6" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D7" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C8" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D8" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C9" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>60</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C10" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D10" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C12" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D12" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C13" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D13" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C14" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D14" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C15" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D15" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C16" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D16" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C17" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D17" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B18" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C18" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D18" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C19" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D19" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C20" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D20" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C21" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D21" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C22" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D22" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C23" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D23" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C24" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D24" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C25" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D25" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B26" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C26" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D26" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B27" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C27" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D27" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B28" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C28" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D28" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -3258,387 +3338,387 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D4" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D5" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C6" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D6" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C8" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D8" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C9" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D9" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C10" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D10" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C11" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D11" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C12" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D12" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C13" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D13" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C14" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D14" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C15" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D15" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C16" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D16" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C17" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D17" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C18" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D18" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C19" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D19" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C20" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D20" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C21" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D21" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C22" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D22" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C23" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D23" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C24" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D24" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C25" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D25" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C26" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D26" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C27" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D27" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C28" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D28" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C29" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D29" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C30" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D30" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C31" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D31" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C32" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D32" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C33" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D33" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C34" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D34" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C35" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D35" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C36" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D36" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
   </sheetData>
@@ -3651,10 +3731,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D44"/>
+  <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
@@ -3681,484 +3761,562 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C3" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D3" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C4" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D4" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C5" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D5" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B6" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C6" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D6" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C8" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D8" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C9" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D9" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C10" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D10" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C11" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D11" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C12" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D12" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C13" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D13" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C14" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D14" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C15" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D15" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C16" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D16" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C17" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D17" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C18" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D18" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C19" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D19" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C20" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D20" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C21" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D21" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C22" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D22" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C23" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D23" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C24" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D24" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C25" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D25" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C26" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D26" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C27" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D27" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C28" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D28" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C29" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D29" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C30" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D30" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C31" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D31" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C32" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D32" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C33" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D33" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B34" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C34" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D34" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C35" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D35" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C36" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D36" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B37" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C37" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D37" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C38" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D38" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C39" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D39" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C40" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D40" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C41" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D41" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C42" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D42" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C43" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D43" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C44" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="D44" t="s">
-        <v>350</v>
+        <v>351</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" t="s">
+        <v>352</v>
+      </c>
+      <c r="C45" t="s">
+        <v>353</v>
+      </c>
+      <c r="D45" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" t="s">
+        <v>355</v>
+      </c>
+      <c r="B46" t="s">
+        <v>356</v>
+      </c>
+      <c r="C46" t="s">
+        <v>357</v>
+      </c>
+      <c r="D46" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" t="s">
+        <v>359</v>
+      </c>
+      <c r="C47" t="s">
+        <v>360</v>
+      </c>
+      <c r="D47" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" t="s">
+        <v>362</v>
+      </c>
+      <c r="B48" t="s">
+        <v>363</v>
+      </c>
+      <c r="C48" t="s">
+        <v>364</v>
+      </c>
+      <c r="D48" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" t="s">
+        <v>366</v>
+      </c>
+      <c r="B49" t="s">
+        <v>367</v>
+      </c>
+      <c r="C49" t="s">
+        <v>368</v>
+      </c>
+      <c r="D49" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" t="s">
+        <v>370</v>
+      </c>
+      <c r="B50" t="s">
+        <v>371</v>
+      </c>
+      <c r="C50" t="s">
+        <v>372</v>
+      </c>
+      <c r="D50" t="s">
+        <v>373</v>
       </c>
     </row>
   </sheetData>
@@ -4201,38 +4359,38 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>351</v>
+        <v>374</v>
       </c>
       <c r="C2" t="s">
-        <v>352</v>
+        <v>375</v>
       </c>
       <c r="D2" t="s">
-        <v>353</v>
+        <v>376</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>354</v>
+        <v>377</v>
       </c>
       <c r="C3" t="s">
-        <v>355</v>
+        <v>378</v>
       </c>
       <c r="D3" t="s">
-        <v>356</v>
+        <v>379</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>357</v>
+        <v>380</v>
       </c>
       <c r="B4" t="s">
-        <v>358</v>
+        <v>381</v>
       </c>
       <c r="C4" t="s">
-        <v>359</v>
+        <v>382</v>
       </c>
       <c r="D4" t="s">
-        <v>360</v>
+        <v>383</v>
       </c>
     </row>
   </sheetData>
@@ -4275,13 +4433,13 @@
     </row>
     <row r="2" ht="109" customHeight="1" spans="1:4">
       <c r="A2" t="s">
-        <v>361</v>
+        <v>384</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>362</v>
+        <v>385</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>363</v>
+        <v>386</v>
       </c>
     </row>
   </sheetData>
@@ -4324,263 +4482,263 @@
     </row>
     <row r="2" customHeight="1" spans="1:4">
       <c r="A2" t="s">
-        <v>364</v>
+        <v>387</v>
       </c>
       <c r="C2" t="s">
-        <v>365</v>
+        <v>388</v>
       </c>
       <c r="D2" t="s">
-        <v>366</v>
+        <v>389</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:4">
       <c r="A3" t="s">
-        <v>367</v>
+        <v>390</v>
       </c>
       <c r="B3" t="s">
-        <v>368</v>
+        <v>391</v>
       </c>
       <c r="C3" t="s">
-        <v>369</v>
+        <v>392</v>
       </c>
       <c r="D3" t="s">
-        <v>370</v>
+        <v>393</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:4">
       <c r="A4" t="s">
-        <v>371</v>
+        <v>394</v>
       </c>
       <c r="C4" t="s">
-        <v>372</v>
+        <v>395</v>
       </c>
       <c r="D4" t="s">
-        <v>373</v>
+        <v>396</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:4">
       <c r="A5" t="s">
-        <v>374</v>
+        <v>397</v>
       </c>
       <c r="C5" t="s">
-        <v>375</v>
+        <v>398</v>
       </c>
       <c r="D5" t="s">
-        <v>376</v>
+        <v>399</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:4">
       <c r="A6" t="s">
-        <v>377</v>
+        <v>400</v>
       </c>
       <c r="B6" t="s">
-        <v>378</v>
+        <v>401</v>
       </c>
       <c r="C6" t="s">
-        <v>379</v>
+        <v>402</v>
       </c>
       <c r="D6" t="s">
-        <v>380</v>
+        <v>403</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:4">
       <c r="A7" t="s">
-        <v>381</v>
+        <v>404</v>
       </c>
       <c r="B7" t="s">
-        <v>382</v>
+        <v>405</v>
       </c>
       <c r="C7" t="s">
-        <v>383</v>
+        <v>406</v>
       </c>
       <c r="D7" t="s">
-        <v>384</v>
+        <v>407</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:4">
       <c r="A8" t="s">
-        <v>385</v>
+        <v>408</v>
       </c>
       <c r="B8" t="s">
-        <v>386</v>
+        <v>409</v>
       </c>
       <c r="C8" t="s">
-        <v>387</v>
+        <v>410</v>
       </c>
       <c r="D8" t="s">
-        <v>388</v>
+        <v>411</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:4">
       <c r="A9" t="s">
-        <v>389</v>
+        <v>412</v>
       </c>
       <c r="B9" t="s">
-        <v>390</v>
+        <v>413</v>
       </c>
       <c r="C9" t="s">
-        <v>390</v>
+        <v>413</v>
       </c>
       <c r="D9" t="s">
-        <v>390</v>
+        <v>413</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:4">
       <c r="A10" t="s">
-        <v>391</v>
+        <v>414</v>
       </c>
       <c r="C10" t="s">
-        <v>392</v>
+        <v>415</v>
       </c>
       <c r="D10" t="s">
-        <v>393</v>
+        <v>416</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:4">
       <c r="A11" t="s">
-        <v>394</v>
+        <v>417</v>
       </c>
       <c r="C11" t="s">
-        <v>395</v>
+        <v>418</v>
       </c>
       <c r="D11" t="s">
-        <v>396</v>
+        <v>419</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:4">
       <c r="A12" t="s">
-        <v>397</v>
+        <v>420</v>
       </c>
       <c r="C12" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D12" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:4">
       <c r="A13" t="s">
-        <v>398</v>
+        <v>421</v>
       </c>
       <c r="C13" t="s">
-        <v>399</v>
+        <v>422</v>
       </c>
       <c r="D13" t="s">
-        <v>400</v>
+        <v>423</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:4">
       <c r="A14" t="s">
-        <v>401</v>
+        <v>424</v>
       </c>
       <c r="C14" t="s">
-        <v>402</v>
+        <v>425</v>
       </c>
       <c r="D14" t="s">
-        <v>403</v>
+        <v>426</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:4">
       <c r="A15" t="s">
-        <v>404</v>
+        <v>427</v>
       </c>
       <c r="C15" t="s">
-        <v>405</v>
+        <v>428</v>
       </c>
       <c r="D15" t="s">
-        <v>406</v>
+        <v>429</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:4">
       <c r="A16" t="s">
-        <v>407</v>
+        <v>430</v>
       </c>
       <c r="C16" t="s">
-        <v>408</v>
+        <v>431</v>
       </c>
       <c r="D16" t="s">
-        <v>409</v>
+        <v>432</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:4">
       <c r="A17" t="s">
-        <v>410</v>
+        <v>433</v>
       </c>
       <c r="C17" t="s">
-        <v>411</v>
+        <v>434</v>
       </c>
       <c r="D17" t="s">
-        <v>412</v>
+        <v>435</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:4">
       <c r="A18" t="s">
-        <v>413</v>
+        <v>436</v>
       </c>
       <c r="B18" t="s">
-        <v>414</v>
+        <v>437</v>
       </c>
       <c r="C18" t="s">
-        <v>415</v>
+        <v>438</v>
       </c>
       <c r="D18" t="s">
-        <v>416</v>
+        <v>439</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:4">
       <c r="A19" t="s">
-        <v>417</v>
+        <v>440</v>
       </c>
       <c r="B19" t="s">
-        <v>418</v>
+        <v>441</v>
       </c>
       <c r="C19" t="s">
-        <v>419</v>
+        <v>442</v>
       </c>
       <c r="D19" t="s">
-        <v>420</v>
+        <v>443</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:4">
       <c r="A20" t="s">
-        <v>421</v>
+        <v>444</v>
       </c>
       <c r="B20" t="s">
-        <v>422</v>
+        <v>445</v>
       </c>
       <c r="C20" t="s">
-        <v>423</v>
+        <v>446</v>
       </c>
       <c r="D20" t="s">
-        <v>424</v>
+        <v>447</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:4">
       <c r="A21" t="s">
-        <v>425</v>
+        <v>448</v>
       </c>
       <c r="B21" t="s">
-        <v>426</v>
+        <v>449</v>
       </c>
       <c r="C21" t="s">
-        <v>427</v>
+        <v>450</v>
       </c>
       <c r="D21" t="s">
-        <v>428</v>
+        <v>451</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:4">
       <c r="A22" t="s">
-        <v>429</v>
+        <v>452</v>
       </c>
       <c r="B22" t="s">
-        <v>430</v>
+        <v>453</v>
       </c>
       <c r="C22" t="s">
-        <v>431</v>
+        <v>454</v>
       </c>
       <c r="D22" t="s">
-        <v>432</v>
+        <v>455</v>
       </c>
     </row>
   </sheetData>
@@ -4623,24 +4781,24 @@
     </row>
     <row r="2" customHeight="1" spans="1:4">
       <c r="A2" t="s">
-        <v>433</v>
+        <v>456</v>
       </c>
       <c r="C2" t="s">
-        <v>434</v>
+        <v>457</v>
       </c>
       <c r="D2" t="s">
-        <v>435</v>
+        <v>458</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:4">
       <c r="A3" t="s">
-        <v>436</v>
+        <v>459</v>
       </c>
       <c r="C3" t="s">
-        <v>437</v>
+        <v>460</v>
       </c>
       <c r="D3" t="s">
-        <v>438</v>
+        <v>461</v>
       </c>
     </row>
   </sheetData>

--- a/ChemicalSummon/Assets/StreamingAssets/TranslatableSentence.xlsx
+++ b/ChemicalSummon/Assets/StreamingAssets/TranslatableSentence.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="512">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="523">
   <si>
     <t>ScriptableObjectName</t>
   </si>
@@ -1111,16 +1111,25 @@
     <t>入手済み</t>
   </si>
   <si>
+    <t>CombinationAlreadyResearched</t>
+  </si>
+  <si>
+    <t>已研究完毕该组合</t>
+  </si>
+  <si>
+    <t>この組み合わせは研究済み</t>
+  </si>
+  <si>
     <t>NotValidReaction</t>
   </si>
   <si>
-    <t>No signal from sensor</t>
-  </si>
-  <si>
-    <t>探测器没有感应</t>
-  </si>
-  <si>
-    <t>センサー反応なし</t>
+    <t>Cannot make any reaction</t>
+  </si>
+  <si>
+    <t>无效组合</t>
+  </si>
+  <si>
+    <t>無効の組み合わせ</t>
   </si>
   <si>
     <t>NewReactionFound</t>
@@ -1145,6 +1154,30 @@
   </si>
   <si>
     <t>この組み合わせは...?</t>
+  </si>
+  <si>
+    <t>AlmostDiscoverAnotherReaction</t>
+  </si>
+  <si>
+    <t>This combination still attracts me...</t>
+  </si>
+  <si>
+    <t>这个组合或许还有什么...?</t>
+  </si>
+  <si>
+    <t>この組み合わせはまだ何か...?</t>
+  </si>
+  <si>
+    <t>ResearchNewReaction</t>
+  </si>
+  <si>
+    <t>RESEARCH NEW REACTION</t>
+  </si>
+  <si>
+    <t>研究新反应式</t>
+  </si>
+  <si>
+    <t>新たな反応式を見つける</t>
   </si>
   <si>
     <t>ATK</t>
@@ -1569,44 +1602,15 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1621,7 +1625,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1634,25 +1645,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1665,8 +1659,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1687,11 +1682,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1700,6 +1695,30 @@
       <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1712,8 +1731,15 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1722,6 +1748,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1742,7 +1775,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1754,7 +1817,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1766,7 +1835,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1778,121 +1931,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1904,19 +1943,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1927,6 +1960,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1941,48 +1983,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2019,6 +2019,39 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -2035,10 +2068,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2047,133 +2080,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2644,27 +2677,27 @@
     </row>
     <row r="2" customHeight="1" spans="1:4">
       <c r="A2" t="s">
-        <v>462</v>
+        <v>473</v>
       </c>
       <c r="B2" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
       <c r="C2" t="s">
-        <v>464</v>
+        <v>475</v>
       </c>
       <c r="D2" t="s">
-        <v>465</v>
+        <v>476</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:4">
       <c r="A3" t="s">
-        <v>466</v>
+        <v>477</v>
       </c>
       <c r="B3" t="s">
-        <v>467</v>
+        <v>478</v>
       </c>
       <c r="C3" t="s">
-        <v>468</v>
+        <v>479</v>
       </c>
       <c r="D3" t="s">
         <v>106</v>
@@ -2672,155 +2705,155 @@
     </row>
     <row r="4" customHeight="1" spans="1:4">
       <c r="A4" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
       <c r="B4" t="s">
-        <v>470</v>
+        <v>481</v>
       </c>
       <c r="C4" t="s">
-        <v>471</v>
+        <v>482</v>
       </c>
       <c r="D4" t="s">
-        <v>472</v>
+        <v>483</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:4">
       <c r="A5" t="s">
-        <v>473</v>
+        <v>484</v>
       </c>
       <c r="B5" t="s">
-        <v>474</v>
+        <v>485</v>
       </c>
       <c r="C5" t="s">
-        <v>475</v>
+        <v>486</v>
       </c>
       <c r="D5" t="s">
-        <v>476</v>
+        <v>487</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:4">
       <c r="A6" t="s">
-        <v>477</v>
+        <v>488</v>
       </c>
       <c r="B6" t="s">
-        <v>478</v>
+        <v>489</v>
       </c>
       <c r="C6" t="s">
-        <v>479</v>
+        <v>490</v>
       </c>
       <c r="D6" t="s">
-        <v>480</v>
+        <v>491</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:4">
       <c r="A7" t="s">
-        <v>481</v>
+        <v>492</v>
       </c>
       <c r="B7" t="s">
-        <v>482</v>
+        <v>493</v>
       </c>
       <c r="C7" t="s">
-        <v>483</v>
+        <v>494</v>
       </c>
       <c r="D7" t="s">
-        <v>484</v>
+        <v>495</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:4">
       <c r="A8" t="s">
-        <v>485</v>
+        <v>496</v>
       </c>
       <c r="B8" t="s">
-        <v>486</v>
+        <v>497</v>
       </c>
       <c r="C8" t="s">
-        <v>487</v>
+        <v>498</v>
       </c>
       <c r="D8" t="s">
-        <v>488</v>
+        <v>499</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:4">
       <c r="A9" t="s">
-        <v>489</v>
+        <v>500</v>
       </c>
       <c r="B9" t="s">
-        <v>490</v>
+        <v>501</v>
       </c>
       <c r="C9" t="s">
-        <v>491</v>
+        <v>502</v>
       </c>
       <c r="D9" t="s">
-        <v>492</v>
+        <v>503</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:4">
       <c r="A10" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
       <c r="C10" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
       <c r="D10" t="s">
-        <v>495</v>
+        <v>506</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:4">
       <c r="A11" t="s">
-        <v>496</v>
+        <v>507</v>
       </c>
       <c r="C11" t="s">
-        <v>497</v>
+        <v>508</v>
       </c>
       <c r="D11" t="s">
-        <v>498</v>
+        <v>509</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:4">
       <c r="A12" t="s">
-        <v>499</v>
+        <v>510</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>500</v>
+        <v>511</v>
       </c>
       <c r="C12" t="s">
-        <v>501</v>
+        <v>512</v>
       </c>
       <c r="D12" t="s">
-        <v>502</v>
+        <v>513</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:4">
       <c r="A13" t="s">
-        <v>503</v>
+        <v>514</v>
       </c>
       <c r="C13" t="s">
-        <v>504</v>
+        <v>515</v>
       </c>
       <c r="D13" t="s">
-        <v>505</v>
+        <v>516</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:4">
       <c r="A14" t="s">
-        <v>506</v>
+        <v>517</v>
       </c>
       <c r="C14" t="s">
-        <v>507</v>
+        <v>518</v>
       </c>
       <c r="D14" t="s">
-        <v>508</v>
+        <v>519</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:4">
       <c r="A15" t="s">
-        <v>509</v>
+        <v>520</v>
       </c>
       <c r="C15" t="s">
-        <v>510</v>
+        <v>521</v>
       </c>
       <c r="D15" t="s">
-        <v>511</v>
+        <v>522</v>
       </c>
     </row>
   </sheetData>
@@ -3731,10 +3764,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D50"/>
+  <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
@@ -4281,42 +4314,81 @@
       <c r="A48" t="s">
         <v>362</v>
       </c>
-      <c r="B48" t="s">
+      <c r="C48" t="s">
         <v>363</v>
       </c>
-      <c r="C48" t="s">
+      <c r="D48" t="s">
         <v>364</v>
-      </c>
-      <c r="D48" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
+        <v>365</v>
+      </c>
+      <c r="B49" t="s">
         <v>366</v>
       </c>
-      <c r="B49" t="s">
+      <c r="C49" t="s">
         <v>367</v>
       </c>
-      <c r="C49" t="s">
+      <c r="D49" t="s">
         <v>368</v>
-      </c>
-      <c r="D49" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
+        <v>369</v>
+      </c>
+      <c r="B50" t="s">
         <v>370</v>
       </c>
-      <c r="B50" t="s">
+      <c r="C50" t="s">
         <v>371</v>
       </c>
-      <c r="C50" t="s">
+      <c r="D50" t="s">
         <v>372</v>
       </c>
-      <c r="D50" t="s">
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" t="s">
         <v>373</v>
+      </c>
+      <c r="B51" t="s">
+        <v>374</v>
+      </c>
+      <c r="C51" t="s">
+        <v>375</v>
+      </c>
+      <c r="D51" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" t="s">
+        <v>377</v>
+      </c>
+      <c r="B52" t="s">
+        <v>378</v>
+      </c>
+      <c r="C52" t="s">
+        <v>379</v>
+      </c>
+      <c r="D52" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" t="s">
+        <v>381</v>
+      </c>
+      <c r="B53" t="s">
+        <v>382</v>
+      </c>
+      <c r="C53" t="s">
+        <v>383</v>
+      </c>
+      <c r="D53" t="s">
+        <v>384</v>
       </c>
     </row>
   </sheetData>
@@ -4359,38 +4431,38 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>374</v>
+        <v>385</v>
       </c>
       <c r="C2" t="s">
-        <v>375</v>
+        <v>386</v>
       </c>
       <c r="D2" t="s">
-        <v>376</v>
+        <v>387</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="C3" t="s">
-        <v>378</v>
+        <v>389</v>
       </c>
       <c r="D3" t="s">
-        <v>379</v>
+        <v>390</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>380</v>
+        <v>391</v>
       </c>
       <c r="B4" t="s">
-        <v>381</v>
+        <v>392</v>
       </c>
       <c r="C4" t="s">
-        <v>382</v>
+        <v>393</v>
       </c>
       <c r="D4" t="s">
-        <v>383</v>
+        <v>394</v>
       </c>
     </row>
   </sheetData>
@@ -4433,13 +4505,13 @@
     </row>
     <row r="2" ht="109" customHeight="1" spans="1:4">
       <c r="A2" t="s">
-        <v>384</v>
+        <v>395</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>385</v>
+        <v>396</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>386</v>
+        <v>397</v>
       </c>
     </row>
   </sheetData>
@@ -4482,132 +4554,132 @@
     </row>
     <row r="2" customHeight="1" spans="1:4">
       <c r="A2" t="s">
-        <v>387</v>
+        <v>398</v>
       </c>
       <c r="C2" t="s">
-        <v>388</v>
+        <v>399</v>
       </c>
       <c r="D2" t="s">
-        <v>389</v>
+        <v>400</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:4">
       <c r="A3" t="s">
-        <v>390</v>
+        <v>401</v>
       </c>
       <c r="B3" t="s">
-        <v>391</v>
+        <v>402</v>
       </c>
       <c r="C3" t="s">
-        <v>392</v>
+        <v>403</v>
       </c>
       <c r="D3" t="s">
-        <v>393</v>
+        <v>404</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:4">
       <c r="A4" t="s">
-        <v>394</v>
+        <v>405</v>
       </c>
       <c r="C4" t="s">
-        <v>395</v>
+        <v>406</v>
       </c>
       <c r="D4" t="s">
-        <v>396</v>
+        <v>407</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:4">
       <c r="A5" t="s">
-        <v>397</v>
+        <v>408</v>
       </c>
       <c r="C5" t="s">
-        <v>398</v>
+        <v>409</v>
       </c>
       <c r="D5" t="s">
-        <v>399</v>
+        <v>410</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:4">
       <c r="A6" t="s">
-        <v>400</v>
+        <v>411</v>
       </c>
       <c r="B6" t="s">
-        <v>401</v>
+        <v>412</v>
       </c>
       <c r="C6" t="s">
-        <v>402</v>
+        <v>413</v>
       </c>
       <c r="D6" t="s">
-        <v>403</v>
+        <v>414</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:4">
       <c r="A7" t="s">
-        <v>404</v>
+        <v>415</v>
       </c>
       <c r="B7" t="s">
-        <v>405</v>
+        <v>416</v>
       </c>
       <c r="C7" t="s">
-        <v>406</v>
+        <v>417</v>
       </c>
       <c r="D7" t="s">
-        <v>407</v>
+        <v>418</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:4">
       <c r="A8" t="s">
-        <v>408</v>
+        <v>419</v>
       </c>
       <c r="B8" t="s">
-        <v>409</v>
+        <v>420</v>
       </c>
       <c r="C8" t="s">
-        <v>410</v>
+        <v>421</v>
       </c>
       <c r="D8" t="s">
-        <v>411</v>
+        <v>422</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:4">
       <c r="A9" t="s">
-        <v>412</v>
+        <v>423</v>
       </c>
       <c r="B9" t="s">
-        <v>413</v>
+        <v>424</v>
       </c>
       <c r="C9" t="s">
-        <v>413</v>
+        <v>424</v>
       </c>
       <c r="D9" t="s">
-        <v>413</v>
+        <v>424</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:4">
       <c r="A10" t="s">
-        <v>414</v>
+        <v>425</v>
       </c>
       <c r="C10" t="s">
-        <v>415</v>
+        <v>426</v>
       </c>
       <c r="D10" t="s">
-        <v>416</v>
+        <v>427</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:4">
       <c r="A11" t="s">
-        <v>417</v>
+        <v>428</v>
       </c>
       <c r="C11" t="s">
-        <v>418</v>
+        <v>429</v>
       </c>
       <c r="D11" t="s">
-        <v>419</v>
+        <v>430</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:4">
       <c r="A12" t="s">
-        <v>420</v>
+        <v>431</v>
       </c>
       <c r="C12" t="s">
         <v>228</v>
@@ -4618,127 +4690,127 @@
     </row>
     <row r="13" customHeight="1" spans="1:4">
       <c r="A13" t="s">
-        <v>421</v>
+        <v>432</v>
       </c>
       <c r="C13" t="s">
-        <v>422</v>
+        <v>433</v>
       </c>
       <c r="D13" t="s">
-        <v>423</v>
+        <v>434</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:4">
       <c r="A14" t="s">
-        <v>424</v>
+        <v>435</v>
       </c>
       <c r="C14" t="s">
-        <v>425</v>
+        <v>436</v>
       </c>
       <c r="D14" t="s">
-        <v>426</v>
+        <v>437</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:4">
       <c r="A15" t="s">
-        <v>427</v>
+        <v>438</v>
       </c>
       <c r="C15" t="s">
-        <v>428</v>
+        <v>439</v>
       </c>
       <c r="D15" t="s">
-        <v>429</v>
+        <v>440</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:4">
       <c r="A16" t="s">
-        <v>430</v>
+        <v>441</v>
       </c>
       <c r="C16" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="D16" t="s">
-        <v>432</v>
+        <v>443</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:4">
       <c r="A17" t="s">
-        <v>433</v>
+        <v>444</v>
       </c>
       <c r="C17" t="s">
-        <v>434</v>
+        <v>445</v>
       </c>
       <c r="D17" t="s">
-        <v>435</v>
+        <v>446</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:4">
       <c r="A18" t="s">
-        <v>436</v>
+        <v>447</v>
       </c>
       <c r="B18" t="s">
-        <v>437</v>
+        <v>448</v>
       </c>
       <c r="C18" t="s">
-        <v>438</v>
+        <v>449</v>
       </c>
       <c r="D18" t="s">
-        <v>439</v>
+        <v>450</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:4">
       <c r="A19" t="s">
-        <v>440</v>
+        <v>451</v>
       </c>
       <c r="B19" t="s">
-        <v>441</v>
+        <v>452</v>
       </c>
       <c r="C19" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
       <c r="D19" t="s">
-        <v>443</v>
+        <v>454</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:4">
       <c r="A20" t="s">
-        <v>444</v>
+        <v>455</v>
       </c>
       <c r="B20" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
       <c r="C20" t="s">
-        <v>446</v>
+        <v>457</v>
       </c>
       <c r="D20" t="s">
-        <v>447</v>
+        <v>458</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:4">
       <c r="A21" t="s">
-        <v>448</v>
+        <v>459</v>
       </c>
       <c r="B21" t="s">
-        <v>449</v>
+        <v>460</v>
       </c>
       <c r="C21" t="s">
-        <v>450</v>
+        <v>461</v>
       </c>
       <c r="D21" t="s">
-        <v>451</v>
+        <v>462</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:4">
       <c r="A22" t="s">
-        <v>452</v>
+        <v>463</v>
       </c>
       <c r="B22" t="s">
-        <v>453</v>
+        <v>464</v>
       </c>
       <c r="C22" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
       <c r="D22" t="s">
-        <v>455</v>
+        <v>466</v>
       </c>
     </row>
   </sheetData>
@@ -4781,24 +4853,24 @@
     </row>
     <row r="2" customHeight="1" spans="1:4">
       <c r="A2" t="s">
-        <v>456</v>
+        <v>467</v>
       </c>
       <c r="C2" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
       <c r="D2" t="s">
-        <v>458</v>
+        <v>469</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:4">
       <c r="A3" t="s">
-        <v>459</v>
+        <v>470</v>
       </c>
       <c r="C3" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
       <c r="D3" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
   </sheetData>

--- a/ChemicalSummon/Assets/StreamingAssets/TranslatableSentence.xlsx
+++ b/ChemicalSummon/Assets/StreamingAssets/TranslatableSentence.xlsx
@@ -4,26 +4,27 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" activeTab="4"/>
+    <workbookView windowWidth="22368" windowHeight="9420" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="12" r:id="rId1"/>
-    <sheet name="Title" sheetId="4" r:id="rId2"/>
-    <sheet name="Match" sheetId="1" r:id="rId3"/>
-    <sheet name="MatchGuide" sheetId="5" r:id="rId4"/>
-    <sheet name="World" sheetId="7" r:id="rId5"/>
-    <sheet name="Card" sheetId="9" r:id="rId6"/>
-    <sheet name="ChangeLog" sheetId="8" r:id="rId7"/>
-    <sheet name="Ability" sheetId="11" r:id="rId8"/>
-    <sheet name="Other" sheetId="6" r:id="rId9"/>
-    <sheet name="MatchLog" sheetId="14" r:id="rId10"/>
+    <sheet name="Fusion" sheetId="15" r:id="rId2"/>
+    <sheet name="Title" sheetId="4" r:id="rId3"/>
+    <sheet name="Match" sheetId="1" r:id="rId4"/>
+    <sheet name="MatchGuide" sheetId="5" r:id="rId5"/>
+    <sheet name="World" sheetId="7" r:id="rId6"/>
+    <sheet name="Card" sheetId="9" r:id="rId7"/>
+    <sheet name="ChangeLog" sheetId="8" r:id="rId8"/>
+    <sheet name="Ability" sheetId="11" r:id="rId9"/>
+    <sheet name="Other" sheetId="6" r:id="rId10"/>
+    <sheet name="MatchLog" sheetId="14" r:id="rId11"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="523">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="568">
   <si>
     <t>ScriptableObjectName</t>
   </si>
@@ -73,6 +74,123 @@
     <t>戻る</t>
   </si>
   <si>
+    <t>Progress</t>
+  </si>
+  <si>
+    <t>进度</t>
+  </si>
+  <si>
+    <t>進捗</t>
+  </si>
+  <si>
+    <t>Abort</t>
+  </si>
+  <si>
+    <t>中断</t>
+  </si>
+  <si>
+    <t>中断する</t>
+  </si>
+  <si>
+    <t>NextStep</t>
+  </si>
+  <si>
+    <t>下一步</t>
+  </si>
+  <si>
+    <t>次へ進む</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>名称</t>
+  </si>
+  <si>
+    <t>ThreeState</t>
+  </si>
+  <si>
+    <t>三态</t>
+  </si>
+  <si>
+    <t>三態</t>
+  </si>
+  <si>
+    <t>Finish</t>
+  </si>
+  <si>
+    <t>完成</t>
+  </si>
+  <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>反应式</t>
+  </si>
+  <si>
+    <t>反応式</t>
+  </si>
+  <si>
+    <t>HeatRequire</t>
+  </si>
+  <si>
+    <t>所需热量</t>
+  </si>
+  <si>
+    <t>必要熱力</t>
+  </si>
+  <si>
+    <t>ElectricRequire</t>
+  </si>
+  <si>
+    <t>所需电量</t>
+  </si>
+  <si>
+    <t>必要電力</t>
+  </si>
+  <si>
+    <t>Explosion</t>
+  </si>
+  <si>
+    <t>爆炸威力</t>
+  </si>
+  <si>
+    <t>爆発威力</t>
+  </si>
+  <si>
+    <t>HeatProduct</t>
+  </si>
+  <si>
+    <t>产生热量</t>
+  </si>
+  <si>
+    <t>発生熱力</t>
+  </si>
+  <si>
+    <t>ElectricProduct</t>
+  </si>
+  <si>
+    <t>产生电量</t>
+  </si>
+  <si>
+    <t>発生電力</t>
+  </si>
+  <si>
+    <t>PleaseSetCards</t>
+  </si>
+  <si>
+    <t>请放入卡牌</t>
+  </si>
+  <si>
+    <t>カードをセットしてください</t>
+  </si>
+  <si>
+    <t>Analyzing</t>
+  </si>
+  <si>
+    <t>分析中</t>
+  </si>
+  <si>
     <t>GameName</t>
   </si>
   <si>
@@ -718,12 +836,6 @@
     <t>Reaction</t>
   </si>
   <si>
-    <t>反应式</t>
-  </si>
-  <si>
-    <t>反応式</t>
-  </si>
-  <si>
     <t>Card</t>
   </si>
   <si>
@@ -844,9 +956,6 @@
     <t>反応式をクリック</t>
   </si>
   <si>
-    <t>Explosion</t>
-  </si>
-  <si>
     <t>爆炸</t>
   </si>
   <si>
@@ -883,10 +992,10 @@
     <t>Electric</t>
   </si>
   <si>
-    <t>电击</t>
-  </si>
-  <si>
-    <t>電撃</t>
+    <t>放电</t>
+  </si>
+  <si>
+    <t>放電</t>
   </si>
   <si>
     <t>ElectricDescription</t>
@@ -1090,9 +1199,6 @@
     <t>フェアリーを入れてください</t>
   </si>
   <si>
-    <t>Analyzing</t>
-  </si>
-  <si>
     <t>Analyzing...</t>
   </si>
   <si>
@@ -1180,6 +1286,15 @@
     <t>新たな反応式を見つける</t>
   </si>
   <si>
+    <t>Research</t>
+  </si>
+  <si>
+    <t>研究</t>
+  </si>
+  <si>
+    <t>研究する</t>
+  </si>
+  <si>
     <t>ATK</t>
   </si>
   <si>
@@ -1208,6 +1323,27 @@
   </si>
   <si>
     <t>$amount枚消費:</t>
+  </si>
+  <si>
+    <t>Gas</t>
+  </si>
+  <si>
+    <t>气体</t>
+  </si>
+  <si>
+    <t>気体</t>
+  </si>
+  <si>
+    <t>Liquid</t>
+  </si>
+  <si>
+    <t>液体</t>
+  </si>
+  <si>
+    <t>Solid</t>
+  </si>
+  <si>
+    <t>固体</t>
   </si>
   <si>
     <t>ChangeLog</t>
@@ -1602,9 +1738,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -1616,23 +1752,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1646,7 +1774,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1661,14 +1805,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1682,25 +1826,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1722,11 +1849,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1738,6 +1873,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -1747,7 +1883,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1769,7 +1905,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1781,13 +1995,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1799,19 +2007,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1823,25 +2055,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1853,37 +2073,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1895,61 +2085,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1960,15 +2096,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2002,17 +2129,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2020,8 +2143,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2044,19 +2167,32 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2068,10 +2204,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2080,133 +2216,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2565,13 +2701,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1" outlineLevelRow="4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="29" customWidth="1"/>
     <col min="2" max="2" width="40.1111111111111" customWidth="1"/>
@@ -2637,6 +2773,72 @@
         <v>15</v>
       </c>
     </row>
+    <row r="6" customHeight="1" spans="1:4">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="1:4">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="1:4">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="1:4">
+      <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="1:4">
+      <c r="A10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" spans="1:4">
+      <c r="A11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" t="s">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2645,6 +2847,66 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1" outlineLevelRow="2" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="29" customWidth="1"/>
+    <col min="2" max="2" width="40.1111111111111" customWidth="1"/>
+    <col min="3" max="3" width="32.4444444444444" customWidth="1"/>
+    <col min="4" max="4" width="34.5555555555556" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" customHeight="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" customHeight="1" spans="1:4">
+      <c r="A2" t="s">
+        <v>512</v>
+      </c>
+      <c r="C2" t="s">
+        <v>513</v>
+      </c>
+      <c r="D2" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="1:4">
+      <c r="A3" t="s">
+        <v>515</v>
+      </c>
+      <c r="C3" t="s">
+        <v>516</v>
+      </c>
+      <c r="D3" t="s">
+        <v>517</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:D15"/>
@@ -2677,183 +2939,183 @@
     </row>
     <row r="2" customHeight="1" spans="1:4">
       <c r="A2" t="s">
-        <v>473</v>
+        <v>518</v>
       </c>
       <c r="B2" t="s">
-        <v>474</v>
+        <v>519</v>
       </c>
       <c r="C2" t="s">
-        <v>475</v>
+        <v>520</v>
       </c>
       <c r="D2" t="s">
-        <v>476</v>
+        <v>521</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:4">
       <c r="A3" t="s">
-        <v>477</v>
+        <v>522</v>
       </c>
       <c r="B3" t="s">
-        <v>478</v>
+        <v>523</v>
       </c>
       <c r="C3" t="s">
-        <v>479</v>
+        <v>524</v>
       </c>
       <c r="D3" t="s">
-        <v>106</v>
+        <v>145</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:4">
       <c r="A4" t="s">
-        <v>480</v>
+        <v>525</v>
       </c>
       <c r="B4" t="s">
-        <v>481</v>
+        <v>526</v>
       </c>
       <c r="C4" t="s">
-        <v>482</v>
+        <v>527</v>
       </c>
       <c r="D4" t="s">
-        <v>483</v>
+        <v>528</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:4">
       <c r="A5" t="s">
-        <v>484</v>
+        <v>529</v>
       </c>
       <c r="B5" t="s">
-        <v>485</v>
+        <v>530</v>
       </c>
       <c r="C5" t="s">
-        <v>486</v>
+        <v>531</v>
       </c>
       <c r="D5" t="s">
-        <v>487</v>
+        <v>532</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:4">
       <c r="A6" t="s">
-        <v>488</v>
+        <v>533</v>
       </c>
       <c r="B6" t="s">
-        <v>489</v>
+        <v>534</v>
       </c>
       <c r="C6" t="s">
-        <v>490</v>
+        <v>535</v>
       </c>
       <c r="D6" t="s">
-        <v>491</v>
+        <v>536</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:4">
       <c r="A7" t="s">
-        <v>492</v>
+        <v>537</v>
       </c>
       <c r="B7" t="s">
-        <v>493</v>
+        <v>538</v>
       </c>
       <c r="C7" t="s">
-        <v>494</v>
+        <v>539</v>
       </c>
       <c r="D7" t="s">
-        <v>495</v>
+        <v>540</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:4">
       <c r="A8" t="s">
-        <v>496</v>
+        <v>541</v>
       </c>
       <c r="B8" t="s">
-        <v>497</v>
+        <v>542</v>
       </c>
       <c r="C8" t="s">
-        <v>498</v>
+        <v>543</v>
       </c>
       <c r="D8" t="s">
-        <v>499</v>
+        <v>544</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:4">
       <c r="A9" t="s">
-        <v>500</v>
+        <v>545</v>
       </c>
       <c r="B9" t="s">
-        <v>501</v>
+        <v>546</v>
       </c>
       <c r="C9" t="s">
-        <v>502</v>
+        <v>547</v>
       </c>
       <c r="D9" t="s">
-        <v>503</v>
+        <v>548</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:4">
       <c r="A10" t="s">
-        <v>504</v>
+        <v>549</v>
       </c>
       <c r="C10" t="s">
-        <v>505</v>
+        <v>550</v>
       </c>
       <c r="D10" t="s">
-        <v>506</v>
+        <v>551</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:4">
       <c r="A11" t="s">
-        <v>507</v>
+        <v>552</v>
       </c>
       <c r="C11" t="s">
-        <v>508</v>
+        <v>553</v>
       </c>
       <c r="D11" t="s">
-        <v>509</v>
+        <v>554</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:4">
       <c r="A12" t="s">
-        <v>510</v>
+        <v>555</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>511</v>
+        <v>556</v>
       </c>
       <c r="C12" t="s">
-        <v>512</v>
+        <v>557</v>
       </c>
       <c r="D12" t="s">
-        <v>513</v>
+        <v>558</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:4">
       <c r="A13" t="s">
-        <v>514</v>
+        <v>559</v>
       </c>
       <c r="C13" t="s">
-        <v>515</v>
+        <v>560</v>
       </c>
       <c r="D13" t="s">
-        <v>516</v>
+        <v>561</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:4">
       <c r="A14" t="s">
-        <v>517</v>
+        <v>562</v>
       </c>
       <c r="C14" t="s">
-        <v>518</v>
+        <v>563</v>
       </c>
       <c r="D14" t="s">
-        <v>519</v>
+        <v>564</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:4">
       <c r="A15" t="s">
-        <v>520</v>
+        <v>565</v>
       </c>
       <c r="C15" t="s">
-        <v>521</v>
+        <v>566</v>
       </c>
       <c r="D15" t="s">
-        <v>522</v>
+        <v>567</v>
       </c>
     </row>
   </sheetData>
@@ -2864,6 +3126,135 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="29" customWidth="1"/>
+    <col min="2" max="2" width="40.1111111111111" customWidth="1"/>
+    <col min="3" max="3" width="32.4444444444444" customWidth="1"/>
+    <col min="4" max="4" width="34.5555555555556" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" customHeight="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" customHeight="1" spans="1:4">
+      <c r="A2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="1:4">
+      <c r="A3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" spans="1:4">
+      <c r="A4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" spans="1:4">
+      <c r="A5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="1:4">
+      <c r="A6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="1:4">
+      <c r="A7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="1:4">
+      <c r="A8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="1:4">
+      <c r="A9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:D7"/>
@@ -2896,86 +3287,86 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>61</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>67</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="D5" t="s">
-        <v>31</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>71</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>71</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>72</v>
       </c>
       <c r="D6" t="s">
-        <v>34</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>74</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>74</v>
       </c>
       <c r="C7" t="s">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="D7" t="s">
-        <v>37</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -2985,7 +3376,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:D28"/>
@@ -3018,90 +3409,90 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="C2" t="s">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="D2" t="s">
-        <v>40</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="C3" t="s">
-        <v>42</v>
+        <v>81</v>
       </c>
       <c r="D3" t="s">
-        <v>43</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>44</v>
+        <v>83</v>
       </c>
       <c r="C4" t="s">
-        <v>45</v>
+        <v>84</v>
       </c>
       <c r="D4" t="s">
-        <v>46</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>47</v>
+        <v>86</v>
       </c>
       <c r="B5" t="s">
-        <v>48</v>
+        <v>87</v>
       </c>
       <c r="C5" t="s">
-        <v>49</v>
+        <v>88</v>
       </c>
       <c r="D5" t="s">
-        <v>50</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>51</v>
+        <v>90</v>
       </c>
       <c r="B6" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="C6" t="s">
-        <v>53</v>
+        <v>92</v>
       </c>
       <c r="D6" t="s">
-        <v>54</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>55</v>
+        <v>94</v>
       </c>
       <c r="C7" t="s">
-        <v>56</v>
+        <v>95</v>
       </c>
       <c r="D7" t="s">
-        <v>57</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>58</v>
+        <v>97</v>
       </c>
       <c r="C8" t="s">
-        <v>59</v>
+        <v>98</v>
       </c>
       <c r="D8" t="s">
-        <v>60</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>61</v>
+        <v>100</v>
       </c>
       <c r="C9" t="s">
         <v>14</v>
@@ -3112,223 +3503,223 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>62</v>
+        <v>101</v>
       </c>
       <c r="C10" t="s">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="D10" t="s">
-        <v>63</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="C11" t="s">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="D11" t="s">
-        <v>66</v>
+        <v>105</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="C12" t="s">
-        <v>68</v>
+        <v>107</v>
       </c>
       <c r="D12" t="s">
-        <v>69</v>
+        <v>108</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>70</v>
+        <v>109</v>
       </c>
       <c r="C13" t="s">
-        <v>71</v>
+        <v>110</v>
       </c>
       <c r="D13" t="s">
-        <v>72</v>
+        <v>111</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>73</v>
+        <v>112</v>
       </c>
       <c r="C14" t="s">
-        <v>74</v>
+        <v>113</v>
       </c>
       <c r="D14" t="s">
-        <v>75</v>
+        <v>114</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>76</v>
+        <v>115</v>
       </c>
       <c r="C15" t="s">
-        <v>77</v>
+        <v>116</v>
       </c>
       <c r="D15" t="s">
-        <v>78</v>
+        <v>117</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>79</v>
+        <v>118</v>
       </c>
       <c r="C16" t="s">
-        <v>80</v>
+        <v>119</v>
       </c>
       <c r="D16" t="s">
-        <v>80</v>
+        <v>119</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>81</v>
+        <v>120</v>
       </c>
       <c r="C17" t="s">
-        <v>82</v>
+        <v>121</v>
       </c>
       <c r="D17" t="s">
-        <v>83</v>
+        <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>84</v>
+        <v>123</v>
       </c>
       <c r="B18" t="s">
-        <v>85</v>
+        <v>124</v>
       </c>
       <c r="C18" t="s">
-        <v>86</v>
+        <v>125</v>
       </c>
       <c r="D18" t="s">
-        <v>87</v>
+        <v>126</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>88</v>
+        <v>127</v>
       </c>
       <c r="C19" t="s">
-        <v>89</v>
+        <v>128</v>
       </c>
       <c r="D19" t="s">
-        <v>90</v>
+        <v>129</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>91</v>
+        <v>130</v>
       </c>
       <c r="C20" t="s">
-        <v>92</v>
+        <v>131</v>
       </c>
       <c r="D20" t="s">
-        <v>92</v>
+        <v>131</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>93</v>
+        <v>132</v>
       </c>
       <c r="C21" t="s">
-        <v>94</v>
+        <v>133</v>
       </c>
       <c r="D21" t="s">
-        <v>95</v>
+        <v>134</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="C22" t="s">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="D22" t="s">
-        <v>98</v>
+        <v>137</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="C23" t="s">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="D23" t="s">
-        <v>101</v>
+        <v>140</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="C24" t="s">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="D24" t="s">
-        <v>104</v>
+        <v>143</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>105</v>
+        <v>144</v>
       </c>
       <c r="C25" t="s">
-        <v>106</v>
+        <v>145</v>
       </c>
       <c r="D25" t="s">
-        <v>106</v>
+        <v>145</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>107</v>
+        <v>146</v>
       </c>
       <c r="B26" t="s">
-        <v>108</v>
+        <v>147</v>
       </c>
       <c r="C26" t="s">
-        <v>109</v>
+        <v>148</v>
       </c>
       <c r="D26" t="s">
-        <v>110</v>
+        <v>149</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>111</v>
+        <v>150</v>
       </c>
       <c r="B27" t="s">
-        <v>112</v>
+        <v>151</v>
       </c>
       <c r="C27" t="s">
-        <v>113</v>
+        <v>152</v>
       </c>
       <c r="D27" t="s">
-        <v>114</v>
+        <v>153</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>115</v>
+        <v>154</v>
       </c>
       <c r="B28" t="s">
-        <v>116</v>
+        <v>155</v>
       </c>
       <c r="C28" t="s">
-        <v>117</v>
+        <v>156</v>
       </c>
       <c r="D28" t="s">
-        <v>118</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -3338,7 +3729,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:D36"/>
@@ -3371,387 +3762,387 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>119</v>
+        <v>158</v>
       </c>
       <c r="C2" t="s">
-        <v>120</v>
+        <v>159</v>
       </c>
       <c r="D2" t="s">
-        <v>121</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>122</v>
+        <v>161</v>
       </c>
       <c r="C3" t="s">
-        <v>123</v>
+        <v>162</v>
       </c>
       <c r="D3" t="s">
-        <v>124</v>
+        <v>163</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>125</v>
+        <v>164</v>
       </c>
       <c r="C4" t="s">
-        <v>126</v>
+        <v>165</v>
       </c>
       <c r="D4" t="s">
-        <v>127</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>128</v>
+        <v>167</v>
       </c>
       <c r="C5" t="s">
-        <v>129</v>
+        <v>168</v>
       </c>
       <c r="D5" t="s">
-        <v>130</v>
+        <v>169</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>131</v>
+        <v>170</v>
       </c>
       <c r="C6" t="s">
-        <v>132</v>
+        <v>171</v>
       </c>
       <c r="D6" t="s">
-        <v>133</v>
+        <v>172</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>134</v>
+        <v>173</v>
       </c>
       <c r="C7" t="s">
-        <v>135</v>
+        <v>174</v>
       </c>
       <c r="D7" t="s">
-        <v>136</v>
+        <v>175</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>137</v>
+        <v>176</v>
       </c>
       <c r="C8" t="s">
-        <v>138</v>
+        <v>177</v>
       </c>
       <c r="D8" t="s">
-        <v>139</v>
+        <v>178</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>140</v>
+        <v>179</v>
       </c>
       <c r="C9" t="s">
-        <v>141</v>
+        <v>180</v>
       </c>
       <c r="D9" t="s">
-        <v>142</v>
+        <v>181</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>143</v>
+        <v>182</v>
       </c>
       <c r="C10" t="s">
-        <v>144</v>
+        <v>183</v>
       </c>
       <c r="D10" t="s">
-        <v>145</v>
+        <v>184</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>146</v>
+        <v>185</v>
       </c>
       <c r="C11" t="s">
-        <v>147</v>
+        <v>186</v>
       </c>
       <c r="D11" t="s">
-        <v>148</v>
+        <v>187</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>149</v>
+        <v>188</v>
       </c>
       <c r="C12" t="s">
-        <v>150</v>
+        <v>189</v>
       </c>
       <c r="D12" t="s">
-        <v>151</v>
+        <v>190</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>152</v>
+        <v>191</v>
       </c>
       <c r="C13" t="s">
-        <v>153</v>
+        <v>192</v>
       </c>
       <c r="D13" t="s">
-        <v>154</v>
+        <v>193</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>155</v>
+        <v>194</v>
       </c>
       <c r="C14" t="s">
-        <v>156</v>
+        <v>195</v>
       </c>
       <c r="D14" t="s">
-        <v>157</v>
+        <v>196</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>158</v>
+        <v>197</v>
       </c>
       <c r="C15" t="s">
-        <v>159</v>
+        <v>198</v>
       </c>
       <c r="D15" t="s">
-        <v>160</v>
+        <v>199</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>161</v>
+        <v>200</v>
       </c>
       <c r="C16" t="s">
-        <v>162</v>
+        <v>201</v>
       </c>
       <c r="D16" t="s">
-        <v>163</v>
+        <v>202</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>164</v>
+        <v>203</v>
       </c>
       <c r="C17" t="s">
-        <v>165</v>
+        <v>204</v>
       </c>
       <c r="D17" t="s">
-        <v>166</v>
+        <v>205</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>167</v>
+        <v>206</v>
       </c>
       <c r="C18" t="s">
-        <v>168</v>
+        <v>207</v>
       </c>
       <c r="D18" t="s">
-        <v>169</v>
+        <v>208</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>170</v>
+        <v>209</v>
       </c>
       <c r="C19" t="s">
-        <v>171</v>
+        <v>210</v>
       </c>
       <c r="D19" t="s">
-        <v>172</v>
+        <v>211</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>173</v>
+        <v>212</v>
       </c>
       <c r="C20" t="s">
-        <v>174</v>
+        <v>213</v>
       </c>
       <c r="D20" t="s">
-        <v>175</v>
+        <v>214</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>176</v>
+        <v>215</v>
       </c>
       <c r="C21" t="s">
-        <v>177</v>
+        <v>216</v>
       </c>
       <c r="D21" t="s">
-        <v>178</v>
+        <v>217</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>179</v>
+        <v>218</v>
       </c>
       <c r="C22" t="s">
-        <v>180</v>
+        <v>219</v>
       </c>
       <c r="D22" t="s">
-        <v>181</v>
+        <v>220</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>182</v>
+        <v>221</v>
       </c>
       <c r="C23" t="s">
-        <v>183</v>
+        <v>222</v>
       </c>
       <c r="D23" t="s">
-        <v>184</v>
+        <v>223</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>185</v>
+        <v>224</v>
       </c>
       <c r="C24" t="s">
-        <v>186</v>
+        <v>225</v>
       </c>
       <c r="D24" t="s">
-        <v>187</v>
+        <v>226</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>188</v>
+        <v>227</v>
       </c>
       <c r="C25" t="s">
-        <v>189</v>
+        <v>228</v>
       </c>
       <c r="D25" t="s">
-        <v>190</v>
+        <v>229</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>191</v>
+        <v>230</v>
       </c>
       <c r="C26" t="s">
-        <v>192</v>
+        <v>231</v>
       </c>
       <c r="D26" t="s">
-        <v>193</v>
+        <v>232</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>194</v>
+        <v>233</v>
       </c>
       <c r="C27" t="s">
-        <v>195</v>
+        <v>234</v>
       </c>
       <c r="D27" t="s">
-        <v>196</v>
+        <v>235</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>197</v>
+        <v>236</v>
       </c>
       <c r="C28" t="s">
-        <v>198</v>
+        <v>237</v>
       </c>
       <c r="D28" t="s">
-        <v>199</v>
+        <v>238</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>200</v>
+        <v>239</v>
       </c>
       <c r="C29" t="s">
-        <v>201</v>
+        <v>240</v>
       </c>
       <c r="D29" t="s">
-        <v>202</v>
+        <v>241</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>203</v>
+        <v>242</v>
       </c>
       <c r="C30" t="s">
-        <v>204</v>
+        <v>243</v>
       </c>
       <c r="D30" t="s">
-        <v>205</v>
+        <v>244</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>206</v>
+        <v>245</v>
       </c>
       <c r="C31" t="s">
-        <v>207</v>
+        <v>246</v>
       </c>
       <c r="D31" t="s">
-        <v>208</v>
+        <v>247</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>209</v>
+        <v>248</v>
       </c>
       <c r="C32" t="s">
-        <v>210</v>
+        <v>249</v>
       </c>
       <c r="D32" t="s">
-        <v>211</v>
+        <v>250</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>212</v>
+        <v>251</v>
       </c>
       <c r="C33" t="s">
-        <v>213</v>
+        <v>252</v>
       </c>
       <c r="D33" t="s">
-        <v>214</v>
+        <v>253</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>215</v>
+        <v>254</v>
       </c>
       <c r="C34" t="s">
-        <v>216</v>
+        <v>255</v>
       </c>
       <c r="D34" t="s">
-        <v>217</v>
+        <v>256</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>218</v>
+        <v>257</v>
       </c>
       <c r="C35" t="s">
-        <v>219</v>
+        <v>258</v>
       </c>
       <c r="D35" t="s">
-        <v>220</v>
+        <v>259</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>221</v>
+        <v>260</v>
       </c>
       <c r="C36" t="s">
-        <v>222</v>
+        <v>261</v>
       </c>
       <c r="D36" t="s">
-        <v>223</v>
+        <v>262</v>
       </c>
     </row>
   </sheetData>
@@ -3761,13 +4152,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D53"/>
+  <dimension ref="A1:D54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="C52" sqref="C52"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
@@ -3794,601 +4185,612 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>224</v>
+        <v>263</v>
       </c>
       <c r="C2" t="s">
-        <v>225</v>
+        <v>264</v>
       </c>
       <c r="D2" t="s">
-        <v>226</v>
+        <v>265</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>227</v>
+        <v>266</v>
       </c>
       <c r="C3" t="s">
-        <v>228</v>
+        <v>267</v>
       </c>
       <c r="D3" t="s">
-        <v>229</v>
+        <v>268</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>230</v>
+        <v>269</v>
       </c>
       <c r="C4" t="s">
-        <v>231</v>
+        <v>33</v>
       </c>
       <c r="D4" t="s">
-        <v>232</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>233</v>
+        <v>270</v>
       </c>
       <c r="C5" t="s">
-        <v>234</v>
+        <v>271</v>
       </c>
       <c r="D5" t="s">
-        <v>235</v>
+        <v>272</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>236</v>
+        <v>273</v>
       </c>
       <c r="B6" t="s">
-        <v>237</v>
+        <v>274</v>
       </c>
       <c r="C6" t="s">
-        <v>238</v>
+        <v>275</v>
       </c>
       <c r="D6" t="s">
-        <v>239</v>
+        <v>276</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>240</v>
+        <v>277</v>
       </c>
       <c r="C7" t="s">
-        <v>241</v>
+        <v>278</v>
       </c>
       <c r="D7" t="s">
-        <v>242</v>
+        <v>279</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>243</v>
+        <v>280</v>
       </c>
       <c r="C8" t="s">
-        <v>244</v>
+        <v>281</v>
       </c>
       <c r="D8" t="s">
-        <v>245</v>
+        <v>282</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>246</v>
+        <v>283</v>
       </c>
       <c r="C9" t="s">
-        <v>247</v>
+        <v>284</v>
       </c>
       <c r="D9" t="s">
-        <v>248</v>
+        <v>285</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>249</v>
+        <v>286</v>
       </c>
       <c r="C10" t="s">
-        <v>250</v>
+        <v>287</v>
       </c>
       <c r="D10" t="s">
-        <v>250</v>
+        <v>287</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>251</v>
+        <v>288</v>
       </c>
       <c r="C11" t="s">
-        <v>252</v>
+        <v>289</v>
       </c>
       <c r="D11" t="s">
-        <v>252</v>
+        <v>289</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>253</v>
+        <v>290</v>
       </c>
       <c r="C12" t="s">
-        <v>254</v>
+        <v>291</v>
       </c>
       <c r="D12" t="s">
-        <v>254</v>
+        <v>291</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>255</v>
+        <v>292</v>
       </c>
       <c r="C13" t="s">
-        <v>256</v>
+        <v>293</v>
       </c>
       <c r="D13" t="s">
-        <v>257</v>
+        <v>294</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>258</v>
+        <v>295</v>
       </c>
       <c r="C14" t="s">
-        <v>259</v>
+        <v>296</v>
       </c>
       <c r="D14" t="s">
-        <v>260</v>
+        <v>297</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>261</v>
+        <v>298</v>
       </c>
       <c r="C15" t="s">
-        <v>262</v>
+        <v>299</v>
       </c>
       <c r="D15" t="s">
-        <v>263</v>
+        <v>300</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>264</v>
+        <v>301</v>
       </c>
       <c r="C16" t="s">
-        <v>265</v>
+        <v>302</v>
       </c>
       <c r="D16" t="s">
-        <v>266</v>
+        <v>303</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>267</v>
+        <v>304</v>
       </c>
       <c r="C17" t="s">
-        <v>268</v>
+        <v>305</v>
       </c>
       <c r="D17" t="s">
-        <v>269</v>
+        <v>306</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>270</v>
+        <v>307</v>
       </c>
       <c r="C18" t="s">
-        <v>271</v>
+        <v>308</v>
       </c>
       <c r="D18" t="s">
-        <v>272</v>
+        <v>309</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>273</v>
+        <v>41</v>
       </c>
       <c r="C19" t="s">
-        <v>274</v>
+        <v>310</v>
       </c>
       <c r="D19" t="s">
-        <v>275</v>
+        <v>311</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>276</v>
+        <v>312</v>
       </c>
       <c r="C20" t="s">
-        <v>277</v>
+        <v>313</v>
       </c>
       <c r="D20" t="s">
-        <v>278</v>
+        <v>314</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>279</v>
+        <v>315</v>
       </c>
       <c r="C21" t="s">
-        <v>280</v>
+        <v>316</v>
       </c>
       <c r="D21" t="s">
-        <v>281</v>
+        <v>317</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>282</v>
+        <v>318</v>
       </c>
       <c r="C22" t="s">
-        <v>283</v>
+        <v>319</v>
       </c>
       <c r="D22" t="s">
-        <v>284</v>
+        <v>320</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>285</v>
+        <v>321</v>
       </c>
       <c r="C23" t="s">
-        <v>286</v>
+        <v>322</v>
       </c>
       <c r="D23" t="s">
-        <v>287</v>
+        <v>323</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>288</v>
+        <v>324</v>
       </c>
       <c r="C24" t="s">
-        <v>289</v>
+        <v>325</v>
       </c>
       <c r="D24" t="s">
-        <v>290</v>
+        <v>326</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>291</v>
+        <v>327</v>
       </c>
       <c r="C25" t="s">
-        <v>292</v>
+        <v>328</v>
       </c>
       <c r="D25" t="s">
-        <v>292</v>
+        <v>328</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>293</v>
+        <v>329</v>
       </c>
       <c r="C26" t="s">
-        <v>294</v>
+        <v>330</v>
       </c>
       <c r="D26" t="s">
-        <v>295</v>
+        <v>331</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>296</v>
+        <v>332</v>
       </c>
       <c r="C27" t="s">
-        <v>297</v>
+        <v>333</v>
       </c>
       <c r="D27" t="s">
-        <v>298</v>
+        <v>334</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>299</v>
+        <v>335</v>
       </c>
       <c r="C28" t="s">
-        <v>300</v>
+        <v>336</v>
       </c>
       <c r="D28" t="s">
-        <v>301</v>
+        <v>337</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>302</v>
+        <v>338</v>
       </c>
       <c r="C29" t="s">
-        <v>303</v>
+        <v>339</v>
       </c>
       <c r="D29" t="s">
-        <v>304</v>
+        <v>340</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>305</v>
+        <v>341</v>
       </c>
       <c r="C30" t="s">
-        <v>306</v>
+        <v>342</v>
       </c>
       <c r="D30" t="s">
-        <v>307</v>
+        <v>343</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>308</v>
+        <v>344</v>
       </c>
       <c r="C31" t="s">
-        <v>309</v>
+        <v>345</v>
       </c>
       <c r="D31" t="s">
-        <v>310</v>
+        <v>346</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>311</v>
+        <v>347</v>
       </c>
       <c r="C32" t="s">
-        <v>312</v>
+        <v>348</v>
       </c>
       <c r="D32" t="s">
-        <v>313</v>
+        <v>349</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>314</v>
+        <v>350</v>
       </c>
       <c r="C33" t="s">
-        <v>315</v>
+        <v>351</v>
       </c>
       <c r="D33" t="s">
-        <v>316</v>
+        <v>352</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>317</v>
+        <v>353</v>
       </c>
       <c r="B34" t="s">
-        <v>318</v>
+        <v>354</v>
       </c>
       <c r="C34" t="s">
-        <v>319</v>
+        <v>355</v>
       </c>
       <c r="D34" t="s">
-        <v>320</v>
+        <v>356</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>321</v>
+        <v>357</v>
       </c>
       <c r="C35" t="s">
-        <v>322</v>
+        <v>358</v>
       </c>
       <c r="D35" t="s">
-        <v>323</v>
+        <v>359</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>324</v>
+        <v>360</v>
       </c>
       <c r="C36" t="s">
-        <v>325</v>
+        <v>361</v>
       </c>
       <c r="D36" t="s">
-        <v>326</v>
+        <v>362</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>327</v>
+        <v>363</v>
       </c>
       <c r="B37" t="s">
-        <v>328</v>
+        <v>364</v>
       </c>
       <c r="C37" t="s">
-        <v>329</v>
+        <v>365</v>
       </c>
       <c r="D37" t="s">
-        <v>330</v>
+        <v>366</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>331</v>
+        <v>367</v>
       </c>
       <c r="C38" t="s">
-        <v>332</v>
+        <v>368</v>
       </c>
       <c r="D38" t="s">
-        <v>333</v>
+        <v>369</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>334</v>
+        <v>370</v>
       </c>
       <c r="C39" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
       <c r="D39" t="s">
-        <v>336</v>
+        <v>372</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>337</v>
+        <v>373</v>
       </c>
       <c r="C40" t="s">
-        <v>338</v>
+        <v>374</v>
       </c>
       <c r="D40" t="s">
-        <v>339</v>
+        <v>375</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>340</v>
+        <v>376</v>
       </c>
       <c r="C41" t="s">
-        <v>341</v>
+        <v>377</v>
       </c>
       <c r="D41" t="s">
-        <v>342</v>
+        <v>378</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>343</v>
+        <v>379</v>
       </c>
       <c r="C42" t="s">
-        <v>344</v>
+        <v>380</v>
       </c>
       <c r="D42" t="s">
-        <v>345</v>
+        <v>381</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>346</v>
+        <v>382</v>
       </c>
       <c r="C43" t="s">
-        <v>347</v>
+        <v>383</v>
       </c>
       <c r="D43" t="s">
-        <v>348</v>
+        <v>384</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>349</v>
+        <v>385</v>
       </c>
       <c r="C44" t="s">
-        <v>350</v>
+        <v>386</v>
       </c>
       <c r="D44" t="s">
-        <v>351</v>
+        <v>387</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>352</v>
+        <v>388</v>
       </c>
       <c r="C45" t="s">
-        <v>353</v>
+        <v>389</v>
       </c>
       <c r="D45" t="s">
-        <v>354</v>
+        <v>390</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>355</v>
+        <v>53</v>
       </c>
       <c r="B46" t="s">
-        <v>356</v>
+        <v>391</v>
       </c>
       <c r="C46" t="s">
-        <v>357</v>
+        <v>392</v>
       </c>
       <c r="D46" t="s">
-        <v>358</v>
+        <v>393</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>359</v>
+        <v>394</v>
       </c>
       <c r="C47" t="s">
-        <v>360</v>
+        <v>395</v>
       </c>
       <c r="D47" t="s">
-        <v>361</v>
+        <v>396</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>362</v>
+        <v>397</v>
       </c>
       <c r="C48" t="s">
-        <v>363</v>
+        <v>398</v>
       </c>
       <c r="D48" t="s">
-        <v>364</v>
+        <v>399</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>365</v>
+        <v>400</v>
       </c>
       <c r="B49" t="s">
-        <v>366</v>
+        <v>401</v>
       </c>
       <c r="C49" t="s">
-        <v>367</v>
+        <v>402</v>
       </c>
       <c r="D49" t="s">
-        <v>368</v>
+        <v>403</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>369</v>
+        <v>404</v>
       </c>
       <c r="B50" t="s">
-        <v>370</v>
+        <v>405</v>
       </c>
       <c r="C50" t="s">
-        <v>371</v>
+        <v>406</v>
       </c>
       <c r="D50" t="s">
-        <v>372</v>
+        <v>407</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>373</v>
+        <v>408</v>
       </c>
       <c r="B51" t="s">
-        <v>374</v>
+        <v>409</v>
       </c>
       <c r="C51" t="s">
-        <v>375</v>
+        <v>410</v>
       </c>
       <c r="D51" t="s">
-        <v>376</v>
+        <v>411</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>377</v>
+        <v>412</v>
       </c>
       <c r="B52" t="s">
-        <v>378</v>
+        <v>413</v>
       </c>
       <c r="C52" t="s">
-        <v>379</v>
+        <v>414</v>
       </c>
       <c r="D52" t="s">
-        <v>380</v>
+        <v>415</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>381</v>
+        <v>416</v>
       </c>
       <c r="B53" t="s">
-        <v>382</v>
+        <v>417</v>
       </c>
       <c r="C53" t="s">
-        <v>383</v>
+        <v>418</v>
       </c>
       <c r="D53" t="s">
-        <v>384</v>
+        <v>419</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" t="s">
+        <v>420</v>
+      </c>
+      <c r="C54" t="s">
+        <v>421</v>
+      </c>
+      <c r="D54" t="s">
+        <v>422</v>
       </c>
     </row>
   </sheetData>
@@ -4398,16 +4800,16 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="6" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="29" customWidth="1"/>
     <col min="2" max="2" width="40.1111111111111" customWidth="1"/>
@@ -4431,38 +4833,71 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>385</v>
+        <v>423</v>
       </c>
       <c r="C2" t="s">
-        <v>386</v>
+        <v>424</v>
       </c>
       <c r="D2" t="s">
-        <v>387</v>
+        <v>425</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>388</v>
+        <v>426</v>
       </c>
       <c r="C3" t="s">
-        <v>389</v>
+        <v>427</v>
       </c>
       <c r="D3" t="s">
-        <v>390</v>
+        <v>428</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>391</v>
+        <v>429</v>
       </c>
       <c r="B4" t="s">
-        <v>392</v>
+        <v>430</v>
       </c>
       <c r="C4" t="s">
-        <v>393</v>
+        <v>431</v>
       </c>
       <c r="D4" t="s">
-        <v>394</v>
+        <v>432</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>433</v>
+      </c>
+      <c r="C5" t="s">
+        <v>434</v>
+      </c>
+      <c r="D5" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>436</v>
+      </c>
+      <c r="C6" t="s">
+        <v>437</v>
+      </c>
+      <c r="D6" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>438</v>
+      </c>
+      <c r="C7" t="s">
+        <v>439</v>
+      </c>
+      <c r="D7" t="s">
+        <v>439</v>
       </c>
     </row>
   </sheetData>
@@ -4472,7 +4907,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:D2"/>
@@ -4505,13 +4940,13 @@
     </row>
     <row r="2" ht="109" customHeight="1" spans="1:4">
       <c r="A2" t="s">
-        <v>395</v>
+        <v>440</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>396</v>
+        <v>441</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>397</v>
+        <v>442</v>
       </c>
     </row>
   </sheetData>
@@ -4521,7 +4956,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:D22"/>
@@ -4554,323 +4989,263 @@
     </row>
     <row r="2" customHeight="1" spans="1:4">
       <c r="A2" t="s">
-        <v>398</v>
+        <v>443</v>
       </c>
       <c r="C2" t="s">
-        <v>399</v>
+        <v>444</v>
       </c>
       <c r="D2" t="s">
-        <v>400</v>
+        <v>445</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:4">
       <c r="A3" t="s">
-        <v>401</v>
+        <v>446</v>
       </c>
       <c r="B3" t="s">
-        <v>402</v>
+        <v>447</v>
       </c>
       <c r="C3" t="s">
-        <v>403</v>
+        <v>448</v>
       </c>
       <c r="D3" t="s">
-        <v>404</v>
+        <v>449</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:4">
       <c r="A4" t="s">
-        <v>405</v>
+        <v>450</v>
       </c>
       <c r="C4" t="s">
-        <v>406</v>
+        <v>451</v>
       </c>
       <c r="D4" t="s">
-        <v>407</v>
+        <v>452</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:4">
       <c r="A5" t="s">
-        <v>408</v>
+        <v>453</v>
       </c>
       <c r="C5" t="s">
-        <v>409</v>
+        <v>454</v>
       </c>
       <c r="D5" t="s">
-        <v>410</v>
+        <v>455</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:4">
       <c r="A6" t="s">
-        <v>411</v>
+        <v>456</v>
       </c>
       <c r="B6" t="s">
-        <v>412</v>
+        <v>457</v>
       </c>
       <c r="C6" t="s">
-        <v>413</v>
+        <v>458</v>
       </c>
       <c r="D6" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:4">
       <c r="A7" t="s">
-        <v>415</v>
+        <v>460</v>
       </c>
       <c r="B7" t="s">
-        <v>416</v>
+        <v>461</v>
       </c>
       <c r="C7" t="s">
-        <v>417</v>
+        <v>462</v>
       </c>
       <c r="D7" t="s">
-        <v>418</v>
+        <v>463</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:4">
       <c r="A8" t="s">
-        <v>419</v>
+        <v>464</v>
       </c>
       <c r="B8" t="s">
-        <v>420</v>
+        <v>465</v>
       </c>
       <c r="C8" t="s">
-        <v>421</v>
+        <v>466</v>
       </c>
       <c r="D8" t="s">
-        <v>422</v>
+        <v>467</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:4">
       <c r="A9" t="s">
-        <v>423</v>
+        <v>468</v>
       </c>
       <c r="B9" t="s">
-        <v>424</v>
+        <v>469</v>
       </c>
       <c r="C9" t="s">
-        <v>424</v>
+        <v>469</v>
       </c>
       <c r="D9" t="s">
-        <v>424</v>
+        <v>469</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:4">
       <c r="A10" t="s">
-        <v>425</v>
+        <v>470</v>
       </c>
       <c r="C10" t="s">
-        <v>426</v>
+        <v>471</v>
       </c>
       <c r="D10" t="s">
-        <v>427</v>
+        <v>472</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:4">
       <c r="A11" t="s">
-        <v>428</v>
+        <v>473</v>
       </c>
       <c r="C11" t="s">
-        <v>429</v>
+        <v>474</v>
       </c>
       <c r="D11" t="s">
-        <v>430</v>
+        <v>475</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:4">
       <c r="A12" t="s">
-        <v>431</v>
+        <v>476</v>
       </c>
       <c r="C12" t="s">
-        <v>228</v>
+        <v>267</v>
       </c>
       <c r="D12" t="s">
-        <v>229</v>
+        <v>268</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:4">
       <c r="A13" t="s">
-        <v>432</v>
+        <v>477</v>
       </c>
       <c r="C13" t="s">
-        <v>433</v>
+        <v>478</v>
       </c>
       <c r="D13" t="s">
-        <v>434</v>
+        <v>479</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:4">
       <c r="A14" t="s">
-        <v>435</v>
+        <v>480</v>
       </c>
       <c r="C14" t="s">
-        <v>436</v>
+        <v>481</v>
       </c>
       <c r="D14" t="s">
-        <v>437</v>
+        <v>482</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:4">
       <c r="A15" t="s">
-        <v>438</v>
+        <v>483</v>
       </c>
       <c r="C15" t="s">
-        <v>439</v>
+        <v>484</v>
       </c>
       <c r="D15" t="s">
-        <v>440</v>
+        <v>485</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:4">
       <c r="A16" t="s">
-        <v>441</v>
+        <v>486</v>
       </c>
       <c r="C16" t="s">
-        <v>442</v>
+        <v>487</v>
       </c>
       <c r="D16" t="s">
-        <v>443</v>
+        <v>488</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:4">
       <c r="A17" t="s">
-        <v>444</v>
+        <v>489</v>
       </c>
       <c r="C17" t="s">
-        <v>445</v>
+        <v>490</v>
       </c>
       <c r="D17" t="s">
-        <v>446</v>
+        <v>491</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:4">
       <c r="A18" t="s">
-        <v>447</v>
+        <v>492</v>
       </c>
       <c r="B18" t="s">
-        <v>448</v>
+        <v>493</v>
       </c>
       <c r="C18" t="s">
-        <v>449</v>
+        <v>494</v>
       </c>
       <c r="D18" t="s">
-        <v>450</v>
+        <v>495</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:4">
       <c r="A19" t="s">
-        <v>451</v>
+        <v>496</v>
       </c>
       <c r="B19" t="s">
-        <v>452</v>
+        <v>497</v>
       </c>
       <c r="C19" t="s">
-        <v>453</v>
+        <v>498</v>
       </c>
       <c r="D19" t="s">
-        <v>454</v>
+        <v>499</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:4">
       <c r="A20" t="s">
-        <v>455</v>
+        <v>500</v>
       </c>
       <c r="B20" t="s">
-        <v>456</v>
+        <v>501</v>
       </c>
       <c r="C20" t="s">
-        <v>457</v>
+        <v>502</v>
       </c>
       <c r="D20" t="s">
-        <v>458</v>
+        <v>503</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:4">
       <c r="A21" t="s">
-        <v>459</v>
+        <v>504</v>
       </c>
       <c r="B21" t="s">
-        <v>460</v>
+        <v>505</v>
       </c>
       <c r="C21" t="s">
-        <v>461</v>
+        <v>506</v>
       </c>
       <c r="D21" t="s">
-        <v>462</v>
+        <v>507</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:4">
       <c r="A22" t="s">
-        <v>463</v>
+        <v>508</v>
       </c>
       <c r="B22" t="s">
-        <v>464</v>
+        <v>509</v>
       </c>
       <c r="C22" t="s">
-        <v>465</v>
+        <v>510</v>
       </c>
       <c r="D22" t="s">
-        <v>466</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:D3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1" outlineLevelRow="2" outlineLevelCol="3"/>
-  <cols>
-    <col min="1" max="1" width="29" customWidth="1"/>
-    <col min="2" max="2" width="40.1111111111111" customWidth="1"/>
-    <col min="3" max="3" width="32.4444444444444" customWidth="1"/>
-    <col min="4" max="4" width="34.5555555555556" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" customHeight="1" spans="1:4">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" customHeight="1" spans="1:4">
-      <c r="A2" t="s">
-        <v>467</v>
-      </c>
-      <c r="C2" t="s">
-        <v>468</v>
-      </c>
-      <c r="D2" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="3" customHeight="1" spans="1:4">
-      <c r="A3" t="s">
-        <v>470</v>
-      </c>
-      <c r="C3" t="s">
-        <v>471</v>
-      </c>
-      <c r="D3" t="s">
-        <v>472</v>
+        <v>511</v>
       </c>
     </row>
   </sheetData>

--- a/ChemicalSummon/Assets/StreamingAssets/TranslatableSentence.xlsx
+++ b/ChemicalSummon/Assets/StreamingAssets/TranslatableSentence.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="568">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="576">
   <si>
     <t>ScriptableObjectName</t>
   </si>
@@ -189,6 +189,30 @@
   </si>
   <si>
     <t>分析中</t>
+  </si>
+  <si>
+    <t>DiscoverNewReaction</t>
+  </si>
+  <si>
+    <t>You discovered a new reaction!</t>
+  </si>
+  <si>
+    <t>你发现了新反应式！</t>
+  </si>
+  <si>
+    <t>新たな反応式を発見した！</t>
+  </si>
+  <si>
+    <t>DiscoverNewSubstance</t>
+  </si>
+  <si>
+    <t>You discovered a new substance!</t>
+  </si>
+  <si>
+    <t>你发现了新物质！</t>
+  </si>
+  <si>
+    <t>新たな物質を発見した！</t>
   </si>
   <si>
     <t>GameName</t>
@@ -1738,10 +1762,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -1752,8 +1776,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1767,7 +1792,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1780,9 +1827,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1797,45 +1875,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1846,14 +1886,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1873,7 +1905,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -1883,14 +1914,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1905,7 +1929,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1917,31 +2043,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1959,48 +2103,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2011,84 +2113,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -2096,6 +2120,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2114,6 +2153,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -2125,41 +2179,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2182,17 +2201,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2204,10 +2228,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2216,133 +2240,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">